--- a/Day7.xlsx
+++ b/Day7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarsh/Downloads/Accio_excel/Excel-for-DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BBCFC6-C632-2241-914B-4B7F721489F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB4414A-03A1-E34B-A883-1AAC27D279EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="17400" activeTab="3" xr2:uid="{2FDD6F2D-573E-254A-91D3-FC5A9C08670A}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="17400" activeTab="2" xr2:uid="{2FDD6F2D-573E-254A-91D3-FC5A9C08670A}"/>
   </bookViews>
   <sheets>
     <sheet name="agenda" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="STATS" sheetId="3" r:id="rId3"/>
     <sheet name="Logical fun" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
   <si>
     <t>Percentiles</t>
   </si>
@@ -499,6 +499,15 @@
   <si>
     <t>Check if there is some value or not</t>
   </si>
+  <si>
+    <t xml:space="preserve"> H0 : SAMPLE AVG - HYPOTHESIS (GIVEN ) AVG = 0</t>
+  </si>
+  <si>
+    <t>H0 : Avg 1 - Avg 2 = 0</t>
+  </si>
+  <si>
+    <t>https://numiqo.com/tutorial/t-test</t>
+  </si>
 </sst>
 </file>
 
@@ -597,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -606,9 +615,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -649,8 +657,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>12437</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Ink 9">
@@ -669,7 +677,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Ink 9">
@@ -714,8 +722,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>36713</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -734,7 +742,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -779,8 +787,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>71687</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Ink 24">
@@ -799,7 +807,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Ink 24">
@@ -844,8 +852,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>116117</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Ink 47">
@@ -864,7 +872,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Ink 47">
@@ -909,8 +917,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>91215</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="68" name="Ink 67">
@@ -929,7 +937,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Ink 67">
@@ -974,8 +982,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>74703</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="70" name="Ink 69">
@@ -994,7 +1002,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="70" name="Ink 69">
@@ -1039,8 +1047,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>36909</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Ink 70">
@@ -1059,7 +1067,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Ink 70">
@@ -1104,8 +1112,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>171322</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Ink 71">
@@ -1124,7 +1132,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Ink 71">
@@ -1169,8 +1177,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>92709</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Ink 72">
@@ -1189,7 +1197,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Ink 72">
@@ -1234,8 +1242,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95670</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="Ink 76">
@@ -1254,7 +1262,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="Ink 76">
@@ -1299,8 +1307,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>14876</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="78" name="Ink 77">
@@ -1319,7 +1327,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="78" name="Ink 77">
@@ -1364,8 +1372,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>130816</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="83" name="Ink 82">
@@ -1384,7 +1392,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="83" name="Ink 82">
@@ -1429,8 +1437,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>136981</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Ink 83">
@@ -1449,7 +1457,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Ink 83">
@@ -1494,8 +1502,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>19228</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="88" name="Ink 87">
@@ -1514,7 +1522,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="88" name="Ink 87">
@@ -1559,8 +1567,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>142567</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Ink 99">
@@ -1579,7 +1587,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Ink 99">
@@ -1624,8 +1632,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>117040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="114" name="Ink 113">
@@ -1644,7 +1652,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="114" name="Ink 113">
@@ -1689,8 +1697,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>32700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="115" name="Ink 114">
@@ -1709,7 +1717,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="115" name="Ink 114">
@@ -1754,8 +1762,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>98320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="120" name="Ink 119">
@@ -1774,7 +1782,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="120" name="Ink 119">
@@ -1819,8 +1827,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>162291</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="123" name="Ink 122">
@@ -1839,7 +1847,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="123" name="Ink 122">
@@ -1884,8 +1892,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>75574</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Ink 123">
@@ -1904,7 +1912,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Ink 123">
@@ -1949,8 +1957,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>20117</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="Ink 124">
@@ -1969,7 +1977,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="Ink 124">
@@ -2014,8 +2022,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19757</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="135" name="Ink 134">
@@ -2034,7 +2042,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="135" name="Ink 134">
@@ -2079,8 +2087,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>97767</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="136" name="Ink 135">
@@ -2099,7 +2107,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="136" name="Ink 135">
@@ -2144,8 +2152,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>18927</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Ink 136">
@@ -2164,7 +2172,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Ink 136">
@@ -2209,8 +2217,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>11007</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="138" name="Ink 137">
@@ -2229,7 +2237,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="138" name="Ink 137">
@@ -2274,8 +2282,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>194591</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="139" name="Ink 138">
@@ -2294,7 +2302,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="139" name="Ink 138">
@@ -2339,8 +2347,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>140231</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="140" name="Ink 139">
@@ -2359,7 +2367,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="140" name="Ink 139">
@@ -2404,8 +2412,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>76511</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="141" name="Ink 140">
@@ -2424,7 +2432,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="141" name="Ink 140">
@@ -2469,8 +2477,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>63584</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="142" name="Ink 141">
@@ -2489,7 +2497,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="142" name="Ink 141">
@@ -2534,8 +2542,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>193427</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="143" name="Ink 142">
@@ -2554,7 +2562,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="143" name="Ink 142">
@@ -2599,8 +2607,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>4427</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="144" name="Ink 143">
@@ -2619,7 +2627,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="144" name="Ink 143">
@@ -2664,8 +2672,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>13804</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="145" name="Ink 144">
@@ -2684,7 +2692,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="145" name="Ink 144">
@@ -2729,8 +2737,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>187307</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="146" name="Ink 145">
@@ -2749,7 +2757,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="146" name="Ink 145">
@@ -2794,8 +2802,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>111347</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="147" name="Ink 146">
@@ -2814,7 +2822,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="147" name="Ink 146">
@@ -2859,8 +2867,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>105964</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="148" name="Ink 147">
@@ -2879,7 +2887,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="148" name="Ink 147">
@@ -2924,8 +2932,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>75347</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="149" name="Ink 148">
@@ -2944,7 +2952,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="149" name="Ink 148">
@@ -2989,8 +2997,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>132947</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="150" name="Ink 149">
@@ -3009,7 +3017,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="150" name="Ink 149">
@@ -3054,8 +3062,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>38661</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Ink 150">
@@ -3074,7 +3082,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Ink 150">
@@ -3119,8 +3127,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>17421</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="152" name="Ink 151">
@@ -3139,7 +3147,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="152" name="Ink 151">
@@ -3184,8 +3192,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>121050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="153" name="Ink 152">
@@ -3204,7 +3212,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="153" name="Ink 152">
@@ -3249,8 +3257,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>14507</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="154" name="Ink 153">
@@ -3269,7 +3277,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="154" name="Ink 153">
@@ -3314,8 +3322,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>16307</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Ink 154">
@@ -3334,7 +3342,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Ink 154">
@@ -3379,8 +3387,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>173250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="156" name="Ink 155">
@@ -3399,7 +3407,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="156" name="Ink 155">
@@ -3444,8 +3452,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>65610</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="157" name="Ink 156">
@@ -3464,7 +3472,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="157" name="Ink 156">
@@ -3509,8 +3517,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>122197</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="158" name="Ink 157">
@@ -3529,7 +3537,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="158" name="Ink 157">
@@ -3574,8 +3582,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>517</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="159" name="Ink 158">
@@ -3594,7 +3602,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="159" name="Ink 158">
@@ -3639,8 +3647,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>150704</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="160" name="Ink 159">
@@ -3659,7 +3667,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="160" name="Ink 159">
@@ -3704,8 +3712,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>116864</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="161" name="Ink 160">
@@ -3724,7 +3732,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="161" name="Ink 160">
@@ -3769,8 +3777,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>89521</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="162" name="Ink 161">
@@ -3789,7 +3797,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="162" name="Ink 161">
@@ -3834,8 +3842,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>70801</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="163" name="Ink 162">
@@ -3854,7 +3862,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="163" name="Ink 162">
@@ -3899,8 +3907,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>76234</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="164" name="Ink 163">
@@ -3919,7 +3927,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="164" name="Ink 163">
@@ -3964,8 +3972,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>79147</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="165" name="Ink 164">
@@ -3984,7 +3992,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="165" name="Ink 164">
@@ -4029,8 +4037,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>195754</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="166" name="Ink 165">
@@ -4049,7 +4057,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="166" name="Ink 165">
@@ -4094,8 +4102,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>73371</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="167" name="Ink 166">
@@ -4114,7 +4122,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="167" name="Ink 166">
@@ -4159,8 +4167,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>91404</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="168" name="Ink 167">
@@ -4179,7 +4187,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="168" name="Ink 167">
@@ -4224,8 +4232,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>131004</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="169" name="Ink 168">
@@ -4244,7 +4252,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="169" name="Ink 168">
@@ -4289,8 +4297,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>105787</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="170" name="Ink 169">
@@ -4309,7 +4317,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="170" name="Ink 169">
@@ -4354,8 +4362,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>79507</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId115">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="171" name="Ink 170">
@@ -4374,7 +4382,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="171" name="Ink 170">
@@ -4419,8 +4427,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>199027</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId117">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="172" name="Ink 171">
@@ -4439,7 +4447,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="172" name="Ink 171">
@@ -4533,8 +4541,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>165</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Ink 9">
@@ -4553,7 +4561,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Ink 9">
@@ -4598,8 +4606,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>103799</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Ink 19">
@@ -4618,7 +4626,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Ink 19">
@@ -4663,8 +4671,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19679</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Ink 20">
@@ -4683,7 +4691,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Ink 20">
@@ -4728,8 +4736,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>166799</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Ink 21">
@@ -4748,7 +4756,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Ink 21">
@@ -4793,8 +4801,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>192719</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
@@ -4813,7 +4821,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Ink 22">
@@ -4858,8 +4866,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1126</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Ink 23">
@@ -4878,7 +4886,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Ink 23">
@@ -4923,8 +4931,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>40079</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Ink 24">
@@ -4943,7 +4951,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Ink 24">
@@ -4988,8 +4996,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>79679</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Ink 25">
@@ -5008,7 +5016,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Ink 25">
@@ -5053,8 +5061,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>85439</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Ink 26">
@@ -5073,7 +5081,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Ink 26">
@@ -5118,8 +5126,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>67919</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Ink 27">
@@ -5138,7 +5146,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Ink 27">
@@ -5183,8 +5191,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>48239</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Ink 28">
@@ -5203,7 +5211,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Ink 28">
@@ -5248,8 +5256,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>62759</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Ink 29">
@@ -5268,7 +5276,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Ink 29">
@@ -5313,8 +5321,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>159275</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Ink 33">
@@ -5333,7 +5341,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Ink 33">
@@ -5378,8 +5386,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1295</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Ink 42">
@@ -5398,7 +5406,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Ink 42">
@@ -5443,8 +5451,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>65726</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="55" name="Ink 54">
@@ -5463,7 +5471,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="55" name="Ink 54">
@@ -5508,8 +5516,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>159553</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="79" name="Ink 78">
@@ -5528,7 +5536,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="79" name="Ink 78">
@@ -5573,8 +5581,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>58876</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="93" name="Ink 92">
@@ -5593,7 +5601,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="93" name="Ink 92">
@@ -5638,8 +5646,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>173365</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="94" name="Ink 93">
@@ -5658,7 +5666,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="94" name="Ink 93">
@@ -5703,8 +5711,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>192442</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="119" name="Ink 118">
@@ -5723,7 +5731,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="119" name="Ink 118">
@@ -5768,8 +5776,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>28633</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="120" name="Ink 119">
@@ -5788,7 +5796,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="120" name="Ink 119">
@@ -5833,8 +5841,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>192076</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="121" name="Ink 120">
@@ -5853,7 +5861,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="121" name="Ink 120">
@@ -5898,8 +5906,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>65850</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="122" name="Ink 121">
@@ -5918,7 +5926,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="122" name="Ink 121">
@@ -5963,8 +5971,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>66213</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="123" name="Ink 122">
@@ -5983,7 +5991,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="123" name="Ink 122">
@@ -6028,8 +6036,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>10053</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Ink 123">
@@ -6048,7 +6056,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Ink 123">
@@ -6093,8 +6101,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>21213</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="Ink 124">
@@ -6113,7 +6121,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="Ink 124">
@@ -6158,8 +6166,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>143256</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="126" name="Ink 125">
@@ -6178,7 +6186,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="126" name="Ink 125">
@@ -6223,8 +6231,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>10773</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="127" name="Ink 126">
@@ -6243,7 +6251,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="127" name="Ink 126">
@@ -6288,8 +6296,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>4653</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="128" name="Ink 127">
@@ -6308,7 +6316,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="128" name="Ink 127">
@@ -6353,8 +6361,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>60093</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="129" name="Ink 128">
@@ -6373,7 +6381,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="129" name="Ink 128">
@@ -6418,8 +6426,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>83722</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="130" name="Ink 129">
@@ -6438,7 +6446,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="130" name="Ink 129">
@@ -6483,8 +6491,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>34762</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Ink 130">
@@ -6503,7 +6511,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Ink 130">
@@ -6548,8 +6556,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>49519</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="132" name="Ink 131">
@@ -6568,7 +6576,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="132" name="Ink 131">
@@ -6613,8 +6621,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>131602</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="133" name="Ink 132">
@@ -6633,7 +6641,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="133" name="Ink 132">
@@ -6678,8 +6686,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>44116</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="134" name="Ink 133">
@@ -6698,7 +6706,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="134" name="Ink 133">
@@ -6743,8 +6751,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>36556</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="135" name="Ink 134">
@@ -6763,7 +6771,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="135" name="Ink 134">
@@ -6808,8 +6816,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>140263</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="136" name="Ink 135">
@@ -6828,7 +6836,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="136" name="Ink 135">
@@ -6873,8 +6881,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>83023</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Ink 136">
@@ -6893,7 +6901,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Ink 136">
@@ -6938,8 +6946,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>103180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="138" name="Ink 137">
@@ -6958,7 +6966,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="138" name="Ink 137">
@@ -7003,8 +7011,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>90931</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="139" name="Ink 138">
@@ -7023,7 +7031,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="139" name="Ink 138">
@@ -7068,8 +7076,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>132331</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="140" name="Ink 139">
@@ -7088,7 +7096,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="140" name="Ink 139">
@@ -7133,8 +7141,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>135937</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="141" name="Ink 140">
@@ -7153,7 +7161,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="141" name="Ink 140">
@@ -7198,8 +7206,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>163657</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="142" name="Ink 141">
@@ -7218,7 +7226,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="142" name="Ink 141">
@@ -7263,8 +7271,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>85885</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="143" name="Ink 142">
@@ -7283,7 +7291,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="143" name="Ink 142">
@@ -7328,8 +7336,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>145303</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="144" name="Ink 143">
@@ -7348,7 +7356,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="144" name="Ink 143">
@@ -7393,8 +7401,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>60703</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="145" name="Ink 144">
@@ -7413,7 +7421,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="145" name="Ink 144">
@@ -7458,8 +7466,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>861</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="146" name="Ink 145">
@@ -7478,7 +7486,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="146" name="Ink 145">
@@ -7523,8 +7531,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>131614</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="147" name="Ink 146">
@@ -7543,7 +7551,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="147" name="Ink 146">
@@ -7588,8 +7596,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>66457</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="148" name="Ink 147">
@@ -7608,7 +7616,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="148" name="Ink 147">
@@ -7653,8 +7661,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>156820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="149" name="Ink 148">
@@ -7673,7 +7681,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="149" name="Ink 148">
@@ -7718,8 +7726,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>8848</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="150" name="Ink 149">
@@ -7738,7 +7746,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="150" name="Ink 149">
@@ -7783,8 +7791,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>70048</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Ink 150">
@@ -7803,7 +7811,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Ink 150">
@@ -7848,8 +7856,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>96328</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="152" name="Ink 151">
@@ -7868,7 +7876,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="152" name="Ink 151">
@@ -7913,8 +7921,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>33352</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="153" name="Ink 152">
@@ -7933,7 +7941,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="153" name="Ink 152">
@@ -7978,8 +7986,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>152512</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="154" name="Ink 153">
@@ -7998,7 +8006,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="154" name="Ink 153">
@@ -8043,8 +8051,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>9949</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Ink 154">
@@ -8063,7 +8071,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Ink 154">
@@ -8108,8 +8116,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>111811</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="156" name="Ink 155">
@@ -8128,7 +8136,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="156" name="Ink 155">
@@ -8173,8 +8181,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>179473</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="158" name="Ink 157">
@@ -8193,7 +8201,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="158" name="Ink 157">
@@ -8238,8 +8246,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>126559</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId115">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="160" name="Ink 159">
@@ -8258,7 +8266,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="160" name="Ink 159">
@@ -8303,8 +8311,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>27943</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId117">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="161" name="Ink 160">
@@ -8323,7 +8331,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="161" name="Ink 160">
@@ -8368,8 +8376,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>18562</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId119">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="169" name="Ink 168">
@@ -8388,7 +8396,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="169" name="Ink 168">
@@ -8433,8 +8441,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>67174</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId121">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="174" name="Ink 173">
@@ -8453,7 +8461,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="174" name="Ink 173">
@@ -8498,8 +8506,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84923</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId123">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="175" name="Ink 174">
@@ -8518,7 +8526,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="175" name="Ink 174">
@@ -8563,8 +8571,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>146487</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId125">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="179" name="Ink 178">
@@ -8583,7 +8591,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="179" name="Ink 178">
@@ -8628,8 +8636,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>99677</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId127">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="184" name="Ink 183">
@@ -8648,7 +8656,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="184" name="Ink 183">
@@ -8693,8 +8701,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>127037</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId129">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="185" name="Ink 184">
@@ -8713,7 +8721,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="185" name="Ink 184">
@@ -8758,8 +8766,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>61157</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId131">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="186" name="Ink 185">
@@ -8778,7 +8786,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="186" name="Ink 185">
@@ -8823,8 +8831,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>180687</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId133">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="187" name="Ink 186">
@@ -8843,7 +8851,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="187" name="Ink 186">
@@ -8888,8 +8896,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>14723</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId135">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="188" name="Ink 187">
@@ -8908,7 +8916,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="188" name="Ink 187">
@@ -8953,8 +8961,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>144229</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId137">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="199" name="Ink 198">
@@ -8973,7 +8981,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="199" name="Ink 198">
@@ -9018,8 +9026,8 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>185940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId139">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="204" name="Ink 203">
@@ -9038,7 +9046,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="204" name="Ink 203">
@@ -9083,8 +9091,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>70829</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId141">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="206" name="Ink 205">
@@ -9103,7 +9111,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="206" name="Ink 205">
@@ -9148,8 +9156,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>128423</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId143">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="209" name="Ink 208">
@@ -9168,7 +9176,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="209" name="Ink 208">
@@ -9213,8 +9221,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>61765</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId145">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="213" name="Ink 212">
@@ -9233,7 +9241,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="213" name="Ink 212">
@@ -9278,8 +9286,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>7027</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId147">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="229" name="Ink 228">
@@ -9298,7 +9306,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="229" name="Ink 228">
@@ -9343,8 +9351,8 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>157122</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId149">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="235" name="Ink 234">
@@ -9363,7 +9371,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="235" name="Ink 234">
@@ -9408,8 +9416,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>127343</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId151">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="240" name="Ink 239">
@@ -9428,7 +9436,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="240" name="Ink 239">
@@ -9473,8 +9481,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>48033</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId153">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="241" name="Ink 240">
@@ -9493,7 +9501,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="241" name="Ink 240">
@@ -9538,8 +9546,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>149013</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId155">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="252" name="Ink 251">
@@ -9558,7 +9566,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="252" name="Ink 251">
@@ -9603,8 +9611,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>45879</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId157">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="253" name="Ink 252">
@@ -9623,7 +9631,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="253" name="Ink 252">
@@ -9668,8 +9676,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>64611</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId159">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="260" name="Ink 259">
@@ -9688,7 +9696,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="260" name="Ink 259">
@@ -9733,8 +9741,8 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>173667</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId161">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="264" name="Ink 263">
@@ -9753,7 +9761,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="264" name="Ink 263">
@@ -9798,8 +9806,8 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>132612</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId163">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="268" name="Ink 267">
@@ -9818,7 +9826,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="268" name="Ink 267">
@@ -9863,8 +9871,8 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>144852</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId165">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="277" name="Ink 276">
@@ -9883,7 +9891,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="277" name="Ink 276">
@@ -9928,8 +9936,8 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>28581</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId167">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="279" name="Ink 278">
@@ -9948,7 +9956,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="279" name="Ink 278">
@@ -9993,8 +10001,8 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>167889</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId169">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="280" name="Ink 279">
@@ -10013,7 +10021,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="280" name="Ink 279">
@@ -10058,8 +10066,8 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>12366</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId171">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="281" name="Ink 280">
@@ -10078,7 +10086,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="281" name="Ink 280">
@@ -10123,8 +10131,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>66408</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId173">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="282" name="Ink 281">
@@ -10143,7 +10151,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="282" name="Ink 281">
@@ -10188,8 +10196,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>2207</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId175">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="298" name="Ink 297">
@@ -10208,7 +10216,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="298" name="Ink 297">
@@ -10253,8 +10261,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>12680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId177">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="299" name="Ink 298">
@@ -10273,7 +10281,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="299" name="Ink 298">
@@ -10318,8 +10326,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>82560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId179">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="315" name="Ink 314">
@@ -10338,7 +10346,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="315" name="Ink 314">
@@ -10383,8 +10391,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>94880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId181">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="322" name="Ink 321">
@@ -10403,7 +10411,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="322" name="Ink 321">
@@ -10448,8 +10456,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>86280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId183">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="324" name="Ink 323">
@@ -10468,7 +10476,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="324" name="Ink 323">
@@ -10513,8 +10521,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId185">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="325" name="Ink 324">
@@ -10533,7 +10541,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="325" name="Ink 324">
@@ -10578,8 +10586,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>12920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId187">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="331" name="Ink 330">
@@ -10598,7 +10606,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="331" name="Ink 330">
@@ -10643,8 +10651,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>53600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId189">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="332" name="Ink 331">
@@ -10663,7 +10671,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="332" name="Ink 331">
@@ -10708,8 +10716,8 @@
       <xdr:row>90</xdr:row>
       <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId191">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="339" name="Ink 338">
@@ -10728,7 +10736,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="339" name="Ink 338">
@@ -10773,8 +10781,8 @@
       <xdr:row>90</xdr:row>
       <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId193">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="340" name="Ink 339">
@@ -10793,7 +10801,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="340" name="Ink 339">
@@ -10838,8 +10846,8 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>91200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId195">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="358" name="Ink 357">
@@ -10858,7 +10866,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="358" name="Ink 357">
@@ -10903,8 +10911,8 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>12680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId197">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="359" name="Ink 358">
@@ -10923,7 +10931,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="359" name="Ink 358">
@@ -10968,8 +10976,8 @@
       <xdr:row>92</xdr:row>
       <xdr:rowOff>167080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId199">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="360" name="Ink 359">
@@ -10988,7 +10996,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="360" name="Ink 359">
@@ -11033,8 +11041,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>107040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId201">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="361" name="Ink 360">
@@ -11053,7 +11061,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="361" name="Ink 360">
@@ -11098,8 +11106,8 @@
       <xdr:row>110</xdr:row>
       <xdr:rowOff>91840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId203">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="369" name="Ink 368">
@@ -11118,7 +11126,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="369" name="Ink 368">
@@ -11163,8 +11171,8 @@
       <xdr:row>99</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId205">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="370" name="Ink 369">
@@ -11183,7 +11191,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="370" name="Ink 369">
@@ -11228,8 +11236,8 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>63160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId207">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="371" name="Ink 370">
@@ -11248,7 +11256,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="371" name="Ink 370">
@@ -11293,8 +11301,8 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>197000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId209">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="390" name="Ink 389">
@@ -11313,7 +11321,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="390" name="Ink 389">
@@ -11358,8 +11366,8 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>47960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId211">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="416" name="Ink 415">
@@ -11378,7 +11386,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="416" name="Ink 415">
@@ -11423,8 +11431,8 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>40720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId213">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="442" name="Ink 441">
@@ -11443,7 +11451,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="442" name="Ink 441">
@@ -11488,8 +11496,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>118560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId215">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="454" name="Ink 453">
@@ -11508,7 +11516,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="454" name="Ink 453">
@@ -11553,8 +11561,8 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>169760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId217">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="455" name="Ink 454">
@@ -11573,7 +11581,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="455" name="Ink 454">
@@ -11618,8 +11626,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>131160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId219">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="468" name="Ink 467">
@@ -11638,7 +11646,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="468" name="Ink 467">
@@ -11683,8 +11691,8 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>57720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId221">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="490" name="Ink 489">
@@ -11703,7 +11711,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="490" name="Ink 489">
@@ -11748,8 +11756,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>84680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId223">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="491" name="Ink 490">
@@ -11768,7 +11776,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="491" name="Ink 490">
@@ -11813,8 +11821,8 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>10240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId225">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="504" name="Ink 503">
@@ -11833,7 +11841,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="504" name="Ink 503">
@@ -11878,8 +11886,8 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>23200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId227">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="509" name="Ink 508">
@@ -11898,7 +11906,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="509" name="Ink 508">
@@ -11943,8 +11951,8 @@
       <xdr:row>138</xdr:row>
       <xdr:rowOff>190918</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId229">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="530" name="Ink 529">
@@ -11963,7 +11971,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="530" name="Ink 529">
@@ -12008,8 +12016,8 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>129224</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId231">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="531" name="Ink 530">
@@ -12028,7 +12036,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="531" name="Ink 530">
@@ -12073,8 +12081,8 @@
       <xdr:row>148</xdr:row>
       <xdr:rowOff>78429</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId233">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="536" name="Ink 535">
@@ -12093,7 +12101,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="536" name="Ink 535">
@@ -12138,8 +12146,8 @@
       <xdr:row>152</xdr:row>
       <xdr:rowOff>22345</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId235">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="545" name="Ink 544">
@@ -12158,7 +12166,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="545" name="Ink 544">
@@ -12203,8 +12211,8 @@
       <xdr:row>146</xdr:row>
       <xdr:rowOff>168031</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId237">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="546" name="Ink 545">
@@ -12223,7 +12231,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="546" name="Ink 545">
@@ -12268,8 +12276,8 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>10252</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId239">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="557" name="Ink 556">
@@ -12288,7 +12296,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="557" name="Ink 556">
@@ -12333,8 +12341,8 @@
       <xdr:row>121</xdr:row>
       <xdr:rowOff>42993</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId241">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="561" name="Ink 560">
@@ -12353,7 +12361,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="561" name="Ink 560">
@@ -12398,8 +12406,8 @@
       <xdr:row>130</xdr:row>
       <xdr:rowOff>70525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId243">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="565" name="Ink 564">
@@ -12418,7 +12426,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="565" name="Ink 564">
@@ -12463,8 +12471,8 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>36507</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId245">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="568" name="Ink 567">
@@ -12478,12 +12486,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="3702240" y="15824520"/>
-            <a:ext cx="1874160" cy="1002960"/>
+            <a:off x="3739403" y="15894651"/>
+            <a:ext cx="1892742" cy="1007456"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="568" name="Ink 567">
@@ -12528,8 +12536,8 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>188647</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId247">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="569" name="Ink 568">
@@ -12548,7 +12556,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="569" name="Ink 568">
@@ -12593,8 +12601,8 @@
       <xdr:row>129</xdr:row>
       <xdr:rowOff>146106</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId249">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="570" name="Ink 569">
@@ -12613,7 +12621,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="570" name="Ink 569">
@@ -12658,8 +12666,8 @@
       <xdr:row>127</xdr:row>
       <xdr:rowOff>39148</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId251">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="571" name="Ink 570">
@@ -12678,7 +12686,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="571" name="Ink 570">
@@ -12723,8 +12731,8 @@
       <xdr:row>201</xdr:row>
       <xdr:rowOff>152288</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId253">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="584" name="Ink 583">
@@ -12743,7 +12751,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="584" name="Ink 583">
@@ -12788,8 +12796,8 @@
       <xdr:row>195</xdr:row>
       <xdr:rowOff>196288</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId255">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="585" name="Ink 584">
@@ -12808,7 +12816,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="585" name="Ink 584">
@@ -12853,8 +12861,8 @@
       <xdr:row>196</xdr:row>
       <xdr:rowOff>29535</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId257">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="586" name="Ink 585">
@@ -12873,7 +12881,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="586" name="Ink 585">
@@ -12918,8 +12926,8 @@
       <xdr:row>196</xdr:row>
       <xdr:rowOff>8295</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId259">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="589" name="Ink 588">
@@ -12938,7 +12946,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="589" name="Ink 588">
@@ -12983,8 +12991,8 @@
       <xdr:row>200</xdr:row>
       <xdr:rowOff>190161</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId261">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="590" name="Ink 589">
@@ -13003,7 +13011,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="590" name="Ink 589">
@@ -13048,8 +13056,8 @@
       <xdr:row>200</xdr:row>
       <xdr:rowOff>123201</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId263">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="591" name="Ink 590">
@@ -13068,7 +13076,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="591" name="Ink 590">
@@ -13113,8 +13121,8 @@
       <xdr:row>200</xdr:row>
       <xdr:rowOff>143001</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId265">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="592" name="Ink 591">
@@ -13133,7 +13141,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="592" name="Ink 591">
@@ -13178,8 +13186,8 @@
       <xdr:row>200</xdr:row>
       <xdr:rowOff>65241</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId267">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="593" name="Ink 592">
@@ -13198,7 +13206,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="593" name="Ink 592">
@@ -13243,8 +13251,8 @@
       <xdr:row>199</xdr:row>
       <xdr:rowOff>39394</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId269">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="594" name="Ink 593">
@@ -13263,7 +13271,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="594" name="Ink 593">
@@ -13308,8 +13316,8 @@
       <xdr:row>220</xdr:row>
       <xdr:rowOff>18340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId271">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="595" name="Ink 594">
@@ -13328,7 +13336,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="595" name="Ink 594">
@@ -13504,7 +13512,7 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">230 1 8432,'-6'10'7646,"2"-2"-6387,-9 78-360,5-27 1,0 9 0,0 4-511,-2 12 1,1 4 0,0 9-522,1-14 0,1 6 1,-1 4-1,1 3 0,2-1 431,1-8 1,1 2 0,1 0 0,0 1 0,0 0 0,0-1-367,0-4 0,0-1 0,1 0 1,-1 0-1,1 1 0,-1 2 131,1-3 0,1 1 1,-1 2-1,1 0 0,0-1 1,-1-1-1,0-2-34,-1 4 0,-1-1 0,1-2 0,-1-1 0,0-1 0,0-2-102,1 2 0,-1-2 0,0-1 0,0-1 0,-1 0-738,-2 22 1,0 2-1,0-5 1,0-11-3644,-2 16 1,1-13 4452,1-20 0,0-8 0,-2 7 0,7-62 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">230 1 8432,'-6'10'7646,"2"-2"-6387,-9 80-360,5-27 1,0 8 0,0 5-511,-2 12 1,1 4 0,0 9-522,1-14 0,1 6 1,-1 4-1,1 3 0,2-1 431,1-8 1,1 2 0,1 0 0,0 1 0,0 0 0,0-1-367,0-4 0,0-1 0,1 0 1,-1 0-1,1 1 0,-1 2 131,1-3 0,1 0 1,-1 3-1,1 0 0,0-1 1,-1-1-1,0-2-34,-1 4 0,-1-1 0,1-2 0,-1-1 0,0-1 0,0-3-102,1 3 0,-1-2 0,0-1 0,0-1 0,-1-1-738,-2 24 1,0 1-1,0-5 1,0-11-3644,-2 16 1,1-13 4452,1-20 0,0-9 0,-2 8 0,7-64 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13924,26 +13932,26 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 1269 9242,'-2'10'6926,"0"6"-5757,3 60-630,3-18 1,1 7-135,3 25 0,3 10-195,0-9 0,2 6 0,0 2-404,-2-19 1,1 1 0,0 1-1,1 1 239,2 9 0,0 3 0,1 0 0,-1-2-23,-1-6 1,1 0 0,-1-2-1,0 0-22,0-3 0,-1-1 0,0-1 0,-1-2-106,2 20 1,0-3 0,-2 0 105,0-1 0,-1-1 0,-1 0 0,0-2 0,-1 0 0,0 0 0,0-2 0,0 0 0,-1-2 0,0-4 0,-1-1 0,0-2 14,0-7 1,-1-1 0,1-1-60,2 27 0,0-3 90,-1-10 0,-1-2-45,1-6 0,-1 0 0,0-5 0,-1-1 402,1-2 0,1-2-402,-2-8 0,1-1 319,2 10 0,0-2-139,6 32-64,-7-45 1,-1-2-27,4 14 0,-4-12 0,-3-23 0,0-3 270,-2-10 269,0-2 1,-1 0-450,-2-1-180,-1 0 90,3 7-90,2 2 0,4 12 0,1 2 90,-1 3-90,-1-3 180,-1-9 0,12-13-91,13-19-89,25-10-89,36-14 44,-32 14 0,6 2-45,11 0 0,5 2 0,7 3 0,4 3-65,-26 3 1,1 0-1,3 1 724,10 1 1,3 0 0,4 0-858,-3-2 0,4-1 1,2 0-1,4 0 180,-8 1 0,2-1 0,2-1 0,3 1 1,2 0-256,-1 0 0,2-1 1,2 1-1,1 0 0,2 0 1,-1 0 310,-9 2 1,1 0-1,1 0 1,1 1 0,-1 0-1,0 0 1,0 0-158,-1 0 0,-1 0 0,1 0 0,-1 1 0,0 0 0,-1 0 0,-1 0 254,9 0 0,-3 2 0,0-1 0,0 0 0,1 0 0,2 0-7,-3-2 1,1 1-1,2-1 1,0-1-1,0 1 1,-1-1 0,-2 1-1,-8-1 1,-2-1-1,-1 1 1,0-1-1,0 1 1,3-1-1,1 1-27,2-1 0,3 1 1,2-1-1,1 0 0,0 1 1,-1-1-1,-1 1 0,-2-1-11,3 1 0,-1 0 0,-1 0 0,-1 0 0,-1 0 0,2 1 0,0-1 0,3 2 0,0-1 0,1 1 0,0-1 0,0 1 0,-2 0 0,-1 0-128,7 1 1,-2-1 0,0 1 0,-2-1 0,2 1 0,0-1 139,-9 0 1,0 0 0,0 0 0,1 0 0,0 0 0,0-1 0,-1 1-26,0-1 0,0 0 0,1 0 0,-1-1 1,0 1-1,-1-1 0,0 1 13,10-1 0,-2 0 0,0-1 0,1 1 0,1-1 0,2 0 0,-4-1 0,2 1 0,2-1 0,0-1 0,0 1 0,-2-1 0,-2 0 0,3 0 0,-2-1 0,-2 0 0,0 0 0,0 0 0,0-1 45,-1 0 0,1 0 0,0 0 0,-1-1 0,0 0 0,-1-1 45,-3 0 0,-1-1 0,0 0 0,0-1 0,0 0 0,-1 0-1,-1 0 1,1 0 0,-1-1 0,-1 0 0,0 0 0,-1 1-72,8-2 0,-2 0 0,-1 0 0,1 0 0,1 0-48,-9 1 0,1 1 0,1-1 0,-1 0 0,-2 1 0,-4 0-817,15-1 1,-4 1 0,-4 0 0,-1 0-953,16-1 0,-4 1 0,-5-1 1799,-17 2 0,-4 1 0,-12 0 0,14-1 0,-40 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2833">5819 242 11760,'4'46'-4587,"3"18"4587,2-10 0,-2-6 0,-5-36 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2966">5911 832 8702,'2'17'720,"-1"-1"-2969,0 3 2249,-1-1 0,1-6 0,-1-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3099">5967 1225 8072,'-3'24'1889,"-1"0"-1889,2 8 0,-1-16 0,3 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3232">6003 1704 7982,'-3'24'1530,"1"3"-3329,2 12 1799,2-5 0,1-9 0,-1-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4316">6898 1 12750,'6'34'-1799,"-1"32"1799,-2-17 0,-1 3 0,2 41 0,2-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4466">7003 1184 7623,'-12'65'3058,"3"3"-6566,4 21 3508,4-29 0,6-16 0,-4-33 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4599">7031 2113 7263,'-2'71'2698,"3"10"-4092,1-26 0,0 0 1394,2 20 0,0-17 0,-3-45 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3549">6204 3509 7803,'-2'53'494,"-1"0"1,-1 41-495,3-36 0,1-4 0,0-4 0,1 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3632">6258 4351 6903,'11'88'2519,"-1"-4"-2519,0 5 0,-5-43 0,-1-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4732">7109 3292 6633,'10'88'629,"-3"-36"1,1 1-630,1 8 0,1 0 0,6 35 0,-2-21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4882">7339 4795 6363,'-3'43'30,"2"-26"0,-3 14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6105">6035 452 6094,'0'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6416">6646 325 6094,'0'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6616">6131 466 8162,'-28'2'0,"5"0"0,12-2 0,4 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6782">6265 460 10501,'10'-12'-608,"11"-2"1,-9 7 0,6 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6932">6663 425 9781,'-42'1'-1349,"9"-2"1349,7 0 0,16 1 0,4-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7049">6090 586 5756,'-25'5'-4,"12"-2"0,3 0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7176">5801 710 8432,'-15'5'0,"3"-1"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9549">10572 1680 8702,'-2'-52'8725,"1"15"-7556,4 26 1080,11 57-1125,2 25 1,1 17-646,-2-4 1,1 9 0,1 6-734,-2-7 0,2 5 0,-1 2 1,1 2 324,-3-15 1,1 2 0,-1 1 0,1 0 0,0-1-36,1 0 0,0 1 0,0-1 0,0-1 0,0 0-54,-1-3 0,1 0 0,-1-1 0,1-1 0,-2-2-323,3 12 0,0-2 0,-1-2 0,-1-1-289,-1-6 0,-1-1 1,-1-2-1,-1-3-550,2 11 0,-2-3 0,0-5-1294,2 18 1,-2-9 2473,-3-25 0,-1-9 0,0 1 0,-5-39 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 1287 9242,'-2'10'6926,"0"7"-5757,3 60-630,3-19 1,1 8-135,3 26 0,3 9-195,0-9 0,2 7 0,0 1-404,-2-19 1,1 2 0,0 0-1,1 1 239,2 9 0,0 4 0,1-1 0,-1-2-23,-1-6 1,1 1 0,-1-3-1,0 0-22,0-3 0,-1-1 0,0 0 0,-1-3-106,2 20 1,0-2 0,-2-1 105,0-1 0,-1 0 0,-1-1 0,0-2 0,-1 0 0,0 1 0,0-3 0,0 0 0,-1-1 0,0-5 0,-1-1 0,0-2 14,0-7 1,-1-1 0,1-1-60,2 28 0,0-4 90,-1-10 0,-1-2-45,1-6 0,-1 1 0,0-6 0,-1-1 402,1-2 0,1-2-402,-2-9 0,1 0 319,2 10 0,-1-2-139,7 33-64,-7-47 1,-1-1-27,4 14 0,-4-12 0,-3-24 0,0-2 270,-2-11 269,0-2 1,-1 0-450,-2-1-180,-1 1 90,3 6-90,2 2 0,4 13 0,1 1 90,-1 4-90,-1-4 180,-1-8 0,12-14-91,13-19-89,25-10-89,36-15 44,-32 15 0,6 2-45,11 0 0,5 2 0,7 3 0,4 2-65,-26 4 1,1 0-1,3 1 724,10 1 1,3 0 0,3 0-858,-2-2 0,4-1 1,2 0-1,4 0 180,-8 1 0,2-1 0,2-1 0,3 1 1,2 0-256,-1 0 0,2-1 1,1 1-1,2 0 0,2 0 1,-1 0 310,-9 2 1,1 0-1,1 0 1,1 1 0,-1 0-1,0 0 1,0 0-158,-1 0 0,-2 0 0,2 0 0,-1 1 0,0 0 0,-1 0 0,-1 0 254,9 0 0,-3 2 0,0-1 0,0 0 0,1 0 0,2 1-7,-4-3 1,2 1-1,2-1 1,0-1-1,0 1 1,-1-1 0,-2 1-1,-8-1 1,-2-1-1,-1 1 1,0-1-1,0 1 1,2-1-1,2 1-27,2-1 0,3 1 1,2-1-1,1 0 0,0 1 1,-1-1-1,-1 1 0,-2-1-11,3 1 0,-1 0 0,-2 0 0,0 0 0,-1 0 0,2 1 0,0-1 0,3 2 0,0-1 0,1 1 0,0-1 0,0 1 0,-2 0 0,-1 0-128,6 1 1,-1-1 0,0 1 0,-2-1 0,2 1 0,0-1 139,-9 0 1,0 0 0,0 0 0,1 0 0,0 0 0,-1-1 0,0 1-26,0-1 0,0 0 0,1 0 0,-1-1 1,0 1-1,-1-1 0,0 1 13,10-1 0,-2 0 0,0-1 0,1 1 0,0-1 0,3 0 0,-4-1 0,2 1 0,2-1 0,0-1 0,0 1 0,-2-1 0,-2 0 0,3 0 0,-2-1 0,-3 0 0,1 0 0,0 0 0,0-1 45,-1-1 0,1 1 0,0 0 0,-1-1 0,0 0 0,-1-1 45,-3 0 0,-1-1 0,-1 0 0,1-1 0,0-1 0,-1 1-1,-1 0 1,1 0 0,-1-1 0,-1 0 0,0 0 0,-1 1-72,8-3 0,-2 1 0,-2 0 0,2 0 0,1 0-48,-9 1 0,1 0 0,1 0 0,-1 0 0,-2 1 0,-4 0-817,15-1 1,-4 1 0,-4 0 0,-1-1-953,15 0 0,-3 1 0,-5-1 1799,-17 2 0,-4 1 0,-12 0 0,14-1 0,-40 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2833">5814 245 11760,'4'47'-4587,"3"18"4587,2-10 0,-2-7 0,-5-35 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2966">5906 844 8702,'2'17'720,"-1"-1"-2969,0 4 2249,-1-2 0,1-6 0,-1-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3099">5962 1243 8072,'-3'24'1889,"-1"0"-1889,2 9 0,-1-17 0,3 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3232">5998 1728 7982,'-3'25'1530,"1"2"-3329,2 13 1799,2-6 0,1-8 0,-1-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4316">6892 1 12750,'6'34'-1799,"-1"33"1799,-2-17 0,-1 3 0,2 41 0,2-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4466">6997 1201 7623,'-12'66'3058,"3"3"-6566,4 21 3508,4-29 0,6-16 0,-4-34 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4599">7025 2143 7263,'-2'72'2698,"3"10"-4092,1-26 0,0 0 1394,2 20 0,0-17 0,-3-46 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3549">6198 3559 7803,'-2'54'494,"-1"0"1,-1 41-495,3-36 0,1-4 0,0-5 0,1 4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3632">6252 4413 6903,'11'90'2519,"-1"-5"-2519,0 5 0,-5-43 0,-1-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4732">7103 3339 6633,'10'89'629,"-3"-36"1,1 1-630,1 8 0,1 0 0,6 35 0,-2-21 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4882">7332 4864 6363,'-3'43'30,"2"-26"0,-3 15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6105">6030 458 6094,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6416">6640 330 6094,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6616">6126 473 8162,'-28'2'0,"5"0"0,12-2 0,4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6782">6259 467 10501,'10'-13'-608,"11"-1"1,-9 7 0,6 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6932">6657 431 9781,'-42'1'-1349,"9"-2"1349,7 0 0,16 1 0,4-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7049">6085 594 5756,'-25'5'-4,"12"-2"0,3 1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7176">5796 720 8432,'-15'5'0,"3"-1"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9549">10563 1704 8702,'-2'-53'8725,"1"16"-7556,4 26 1080,11 57-1125,2 26 1,1 18-646,-3-5 1,2 9 0,1 6-734,-2-6 0,2 4 0,-1 3 1,1 1 324,-3-15 1,1 3 0,-1 0 0,1 0 0,0-1-36,1 1 0,0 0 0,0-1 0,0-1 0,0 1-54,-1-4 0,1 0 0,-1-1 0,1-1 0,-2-1-323,3 11 0,0-2 0,-1-2 0,-1 0-289,-1-7 0,-1-1 1,-1-2-1,-1-3-550,2 11 0,-2-2 0,0-6-1294,2 18 1,-2-9 2473,-3-25 0,-1-9 0,0 1 0,-5-40 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13971,8 +13979,8 @@
       <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">722 4887 9152,'-21'-11'4947,"-5"-2"-4227,-12-2-631,-10 2 271,-8 4 90,-12 8 0,-11 12 89,-9 15-314,41-5 0,2 5-45,0 6 0,4 4 45,4 4 0,5 3 44,7 1 1,7 2 180,10 50-180,41-2-225,1-48 0,10-5-45,12-4 0,8-6 0,11-9 0,3-9 0,3-8 0,0-8 45,-4-7 0,-3-7 225,-10-5 0,-6-5 179,-12 1 1,-6-5 539,-4-11 1,-7-5 449,-1-35-899,-13-11-180,-45 2-720,-30 34-450,19 29 1,-7 9-1395,-29 19 0,-3 14-45,17 4 1,2 5-1305,-7 5 0,7 2 3553,2 13 0,43-22 0,14-16 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1850">969 1 13020,'-1'25'3328,"6"18"-2519,8 54-449,-4-35 0,1 2-1,1 9 1,-1 1-135,1 5 0,-1-1-135,-1-2 0,0-1 0,-1-4 0,1-3-90,0-3 0,-1-2 45,0-4 0,0-1 0,-2-4 0,1-2 45,1 45 0,-2-6 90,-4 0-180,-2 2 0,-2 3 90,2 4-45,0-50 0,1 1-45,1 3 0,1 0 0,2-1 0,-1 0 0,2 2 0,-1 0 0,2-2 0,0 0 44,-1-2 1,1 0-45,0-1 0,-1 1 0,0-1 0,-1 1 0,0 0 0,-1 1 0,-1 1 0,0-1 0,-1 1 0,-1-1 0,0-1 0,0-1 0,-1 1 0,-1-1 0,-1 50 0,1-1 0,1 0 0,2-48 0,1 1 0,2 0 0,0 2 90,2-2 0,0 0 0,0 0 0,0-1 0,5 43 90,-3-3 180,-4-1-180,-2 5-90,-3-45 0,-1 1-45,-1 2 0,1 0 0,-1 0 0,0 1 0,1-2 0,1-1-315,0 42-2429,2-11-3957,-2-15 6656,0-23 0,-2-18 0,2-19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">721 4952 9152,'-21'-11'4947,"-5"-2"-4227,-11-2-631,-11 2 271,-8 4 90,-12 7 0,-11 14 89,-9 14-314,41-5 0,2 6-45,0 5 0,4 5 45,4 3 0,5 4 44,7 0 1,7 3 180,10 50-180,41-2-225,1-48 0,10-5-45,12-5 0,8-6 0,11-8 0,3-10 0,3-8 0,0-8 45,-4-7 0,-4-7 225,-9-6 0,-6-4 179,-12 1 1,-6-6 539,-4-10 1,-7-6 449,-1-35-899,-13-11-180,-45 1-720,-30 36-450,19 28 1,-7 10-1395,-29 19 0,-3 14-45,18 4 1,1 6-1305,-7 4 0,7 3 3553,2 12 0,43-22 0,14-16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1850">968 1 13020,'-1'25'3328,"6"19"-2519,8 54-449,-4-35 0,1 2-1,1 9 1,-1 1-135,1 5 0,-1-1-135,-1-2 0,0-1 0,-1-4 0,1-3-90,0-3 0,-1-2 45,0-5 0,0 0 0,-2-4 0,1-2 45,1 45 0,-2-6 90,-4 0-180,-2 2 0,-2 4 90,2 3-45,0-50 0,1 0-45,1 4 0,1 0 0,2-1 0,-1-1 0,2 3 0,-1 0 0,2-2 0,0-1 44,-1-1 1,1 0-45,0-2 0,-1 2 0,0-1 0,-1 0 0,0 1 0,-1 1 0,-1 0 0,0 0 0,-1 1 0,-1-2 0,0 0 0,0-1 0,-1 0 0,-1 0 0,-1 51 0,1-2 0,1 0 0,2-48 0,1 1 0,2-1 0,0 3 90,2-2 0,0-1 0,0 1 0,0-1 0,5 43 90,-3-3 180,-4-1-180,-2 6-90,-3-47 0,-1 2-45,-1 2 0,1-1 0,-1 1 0,0 1 0,1-2 0,1-2-315,0 43-2429,2-10-3957,-2-17 6656,0-22 0,-2-19 0,2-18 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14115,7 +14123,7 @@
       <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">926 1020 10321,'-30'2'4318,"20"-1"-3059,50-3-810,24-2 1,12-1-315,3-1 0,7-1-285,5 0 1,10-2 0,-1 0 179,-3-1 0,1 0 0,-2 1-30,-5-1 0,0 1 0,-1 0 0,4-1 0,0 0 0,-6 2 45,13-1 0,-8 2 121,-14 1 1,-4 1 13,-2 2 0,-6 0 360,15 2-271,-1 1-89,-3-1-90,7-1 475,8 0-565,-41 2 0,1 0 0,4 1 0,0 1 0,3 0 0,0 0 0,0-1 0,1 1 0,-2-1 0,-1 0 0,0-1 0,-1 0 0,1 1 0,0-1 0,1-1 0,1 0 0,3 0 0,1 0 0,1 0 0,0 0 0,0 0 0,0 2 0,-1 0 0,-1 1 0,0 1 0,0 1 0,-1 1 0,0 0 45,1 0 0,0 1-45,0-1 0,1 1 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 0 0,0-2 0,0 0 0,1-1 0,0 0 0,1-1 0,0 0 0,1 0 0,1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,-1 1 0,0 0 0,-2 0 0,0 1 0,-1-1 0,0 0 0,-1-1 0,0-1 0,-2-1 0,0-1 0,-2-1 0,-1-2 0,-4 0 0,-1-2 0,-4-1 0,-2-2 90,39-15-90,-8-12 0,-9-13 0,-5-13 0,-7-10 0,-9 3 0,-8 3 90,-13 10 0,-14 4 90,-15 3-90,-12 3-90,-11 2 0,-11 1 0,-25-2 0,11 19 0,-7 3 0,-16-2 0,-7 2 0,-12 1 0,-4 3 0,-3 5 0,0 4-141,-1 4 0,0 5 111,31 3 0,0 3 0,-1-1 60,-5 2 0,-2 0 0,-1 1-60,-12 0 0,-2 1 0,0-1 30,0 0 0,0 0 0,-1 0 0,-4 0 0,-1-1 0,2-1-30,9 0 0,3-1 0,0 0 30,2-2 0,1 1 0,1-2 0,2-1 0,1 0 0,-1-1 0,-2 0 0,-1 0 0,-1 0-30,-1-1 0,0 1 0,1-1 30,3 2 0,1 0 0,1 1 0,5 0 0,1 1 0,1 1 0,-24 4 0,2 2 0,-1 4 0,0 2 0,27-3 0,0 1 0,-1 0 0,-5 1 0,-1 0 0,-1-1 0,-1 0 0,-1 0 0,1-2 0,3-1 0,1-1 0,1-1 30,2-1 0,0-2 0,0-1-75,-29-1 0,0-2 45,27-1 0,0 0 0,-1-1 0,-2 0 0,0 0 0,0 0 30,0 1 0,1 0 0,1 0-30,-29 2 0,3 0 0,13 1 0,4 1 0,6-1 0,2 0 0,5-2 0,1 0 0,0-1 0,-1-1 0,0-1 0,0 0 0,5 0 0,0-1 0,-10-1 0,0-2 0,15 1 0,2-1 141,-6-2 0,1 0-141,-26-7 0,25 3-90,7 9 90,5 19 270,3 25-90,4 23-135,22-5 0,7 6 134,6-2 1,7 2-45,1 7 0,11 0-90,26 0 0,16-10-405,6-19 1,8-8-946,13-1 1,7-8 1304,-10-18 0,3-7 0,-7-1 0,-10-1 0,-3-2 0,19-3 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">925 1034 10321,'-30'2'4318,"20"-1"-3059,50-3-810,24-2 1,12-1-315,3-1 0,6-1-285,6 0 1,10-3 0,-1 1 179,-3-1 0,1 0 0,-2 1-30,-5-1 0,-1 1 0,0 0 0,4-2 0,0 1 0,-6 2 45,13-1 0,-8 2 121,-14 1 1,-4 1 13,-3 2 0,-5 0 360,15 2-271,-1 1-89,-3-1-90,7-1 475,8 0-565,-41 2 0,1 0 0,4 1 0,0 1 0,2 0 0,1 0 0,0-1 0,1 1 0,-2-1 0,-1 0 0,0-1 0,-1 0 0,1 1 0,0-1 0,1-1 0,1 0 0,3 0 0,1 0 0,0 0 0,1 0 0,0 0 0,0 2 0,-1 0 0,-1 1 0,0 1 0,0 1 0,-1 1 0,0 0 45,1 0 0,0 1-45,-1-1 0,2 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,0-2 0,0 0 0,1-1 0,0 0 0,1-1 0,-1 0 0,2 0 0,1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,-1 1 0,0 0 0,-2 0 0,0 1 0,-2-1 0,1 0 0,-1-1 0,0-1 0,-2-1 0,0-1 0,-2-1 0,-1-2 0,-4 0 0,-1-2 0,-4-1 0,-2-3 90,39-14-90,-9-12 0,-8-14 0,-5-13 0,-7-10 0,-9 3 0,-8 3 90,-13 10 0,-14 5 90,-15 2-90,-12 3-90,-11 3 0,-11 0 0,-25-2 0,11 20 0,-7 3 0,-16-3 0,-7 3 0,-11 1 0,-5 2 0,-3 6 0,0 4-141,-1 4 0,0 5 111,31 3 0,0 3 0,-1-1 60,-4 2 0,-3 0 0,-1 1-60,-12 0 0,-2 2 0,0-2 30,0 0 0,0 0 0,-1 0 0,-3 0 0,-2-1 0,2-1-30,9 0 0,3-1 0,0 0 30,2-2 0,1 1 0,1-2 0,3-1 0,0 0 0,-1-1 0,-2 0 0,-1 0 0,-1 0-30,-1-1 0,0 1 0,1-1 30,3 2 0,2 0 0,0 1 0,5 0 0,1 1 0,1 1 0,-24 4 0,2 2 0,-1 4 0,0 3 0,27-4 0,1 1 0,-2 0 0,-5 1 0,-1 0 0,-1 0 0,-1-1 0,-1 0 0,1-2 0,3-1 0,1-1 0,1-1 30,3-1 0,-1-2 0,0 0-75,-29-2 0,0-2 45,27-1 0,0 0 0,-1-2 0,-2 1 0,0 0 0,1 0 30,-1 1 0,1 0 0,1 0-30,-29 2 0,3 0 0,13 1 0,4 1 0,6-1 0,2 1 0,5-3 0,2 0 0,-1-2 0,-1 0 0,0-1 0,0 0 0,5 0 0,0-1 0,-10-1 0,0-2 0,15 1 0,2-1 141,-6-2 0,2 0-141,-27-8 0,25 4-90,7 9 90,5 19 270,3 26-90,4 23-135,22-5 0,7 6 134,6-3 1,7 3-45,1 7 0,11 0-90,26 0 0,16-10-405,6-19 1,8-9-946,13-1 1,6-7 1304,-9-19 0,3-7 0,-7-1 0,-10-1 0,-3-2 0,19-3 0,-1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14315,8 +14323,8 @@
       <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2486 985 10501,'-10'5'5037,"16"6"-3868,31 6-629,46-2-405,-16-11 0,7-5-90,13-4 0,4-5 0,5-2 0,-1-4-45,-5-1 0,-3-2 90,-15 1 0,-5 1 45,-10 2 0,-4 2 134,35-2-179,-6 12 0,14 6-90,-39-2 0,2-2 45,9-3 0,1-3-45,4-4 0,-1-2 0,-2-3 0,-3-3 45,-5-1 0,-2-2-45,-8 2 0,-3 0 0,36-15 0,-11 10 0,-18 12 0,-2 7 90,-5-1-90,0-9 0,-2-22 90,-13-18 45,-21 5 0,-6-3 405,-14-48-450,-8 40 0,-11 3-45,-16 11 0,-10 7 0,-17 5 0,-9 9-45,-3 5 0,-6 7 0,5 7 0,-6 4 0,0 3-154,5 2 1,0 3 0,-3 1 153,-11 1 0,-4 1 0,3 0 0,7 2 0,1 0 0,4-1 0,11-2 0,2-1 0,4-1 0,-16-1 0,3-3 0,3-5 0,2-2 0,16 0 0,1 1 0,-4-1 0,-1 2-45,-5 1 0,3 3 45,14 1 0,1 2 230,-2 0 0,2 5-230,-33 36 90,37 10-90,20-5 0,6 7-45,12 7 0,6 2 90,2-1 0,5 1-90,8 11 0,10 0 45,13-4 0,8-5 0,-4-8 0,6-4 0,18 7 0,8-7-90,4-15 0,5-8-270,-1-3 0,2-4-360,-15-9 1,1-2-1,0-3-2473,23-1 0,-3-4 3193,-16-3 0,-4-1 0,-6-2 0,-7-2 0,8-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2167">14 573 9152,'-10'-8'8455,"7"-3"-8005,12 0 1079,50-5-1259,-6 9 0,8 2-136,27-1 1,8 1-105,-24 2 0,4 0 0,-1 1-129,1-1 1,0 1-1,-3 0 99,23-2 0,-5-1-45,-3-1 0,-6-2 0,-27 1 0,-5 0 45,34-6 0,-36 0 0,-31 3 0,-8-8 296,-28-4-206,-5 1 270,-19-3 809,-3 6-539,8 6 270,-12 2-271,20 7-629,10 6 90,23 6-90,50 21-90,2 0 0,23 14 90,-28-5 0,-26-2-1889,-36 11-4407,-41 5 6296,0-4 0,9-12 0,28-22 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2465 979 10501,'-10'5'5037,"16"6"-3868,30 6-629,47-2-405,-17-11 0,8-5-90,12-4 0,4-5 0,5-2 0,-1-4-45,-4-1 0,-4-2 90,-15 1 0,-4 2 45,-11 1 0,-3 2 134,34-2-179,-6 12 0,14 6-90,-38-2 0,1-2 45,10-3 0,0-3-45,5-4 0,-2-2 0,-2-3 0,-2-3 45,-6-1 0,-1-2-45,-9 3 0,-2-1 0,35-15 0,-10 10 0,-19 12 0,-1 7 90,-6-1-90,1-9 0,-3-21 90,-12-19 45,-21 5 0,-6-3 405,-14-47-450,-8 39 0,-11 4-45,-15 10 0,-11 7 0,-16 6 0,-10 8-45,-2 5 0,-6 7 0,5 7 0,-7 4 0,1 3-154,5 2 1,0 3 0,-4 1 153,-10 1 0,-4 1 0,3 0 0,7 2 0,0 0 0,5-1 0,11-2 0,1-1 0,5-1 0,-16-1 0,2-3 0,4-5 0,2-2 0,15 0 0,2 1 0,-5-1 0,0 2-45,-6 1 0,4 3 45,13 1 0,2 2 230,-3 0 0,3 5-230,-33 35 90,36 11-90,20-5 0,6 7-45,12 6 0,7 3 90,1-2 0,4 2-90,9 11 0,10-1 45,13-3 0,8-6 0,-5-7 0,7-4 0,17 6 0,9-6-90,3-15 0,5-8-270,0-4 0,1-3-360,-14-9 1,0-2-1,0-3-2473,24-1 0,-4-4 3193,-16-3 0,-3-1 0,-7-2 0,-6-2 0,7-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2167">14 570 9152,'-10'-8'8455,"7"-3"-8005,12 0 1079,49-5-1259,-5 9 0,7 2-136,28-1 1,7 1-105,-24 2 0,5 0 0,-2 1-129,1-1 1,1 1-1,-4 0 99,23-2 0,-5-1-45,-2-1 0,-7-2 0,-26 1 0,-6 0 45,34-6 0,-35 0 0,-31 4 0,-8-9 296,-28-4-206,-5 1 270,-19-3 809,-2 6-539,7 6 270,-11 2-271,19 7-629,10 6 90,23 6-90,50 21-90,1 0 0,23 14 90,-27-6 0,-26-1-1889,-36 11-4407,-41 5 6296,1-5 0,8-11 0,28-22 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14491,34 +14499,34 @@
       <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3099 1870 9512,'-10'-93'7735,"2"51"-7465,19 131 90,2-7 0,4 19-925,-2-23 1,3 11-1,2 7 1,1 2-1,-1-3 565,0 0 0,0 1 0,1 0 0,0 1 0,1 2-15,-2-10 0,0 2 0,1 0 0,-1 1 0,2 1 0,-1-1-135,1 2 0,1 3 0,0-1 0,0 0 1,0-4-1,0-4-102,0-4 0,-1-4 0,0-2 0,1-1 0,-1 0 19,7 21 0,0 0 1,0-3-1,0-5-1087,4 5 1,-1-5 0,-4-13 1319,-5-14 0,-3-9 0,9 26 0,-25-67 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="284">3296 2686 1777,'-5'-91'1169,"0"-1"0,0 1 1,1 9-1,1 2 1,0 3 613,0-26 1,1 12-795,6 1-719,5 161 0,4 54-248,-4-57 1,-1 3-1,2 6 1,0 5-85,0 0 0,0 7 0,1 4 0,1 4 1,-1 0-1,1-1-157,-1-9 1,1 2-1,0 2 1,0-1 0,0 0-1,0-1 1,-1-3-142,1 3 0,0-1 0,-1-3 1,1 1-1,0-1 0,0 1-675,1 4 1,1 3 0,0 0-1,-1-3 1,0-6 0,-1-10 1034,0 7 0,-1-10 0,0-3 0,7 38 0,-1-17 0,-5-31 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-72962">1586 4835 8522,'-4'-28'9715,"1"10"-9356,-1 28-2697,10 40-586,2 1 1,0 3 2923,10 38 0,2-7 0,-8-37 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-72579">1393 5584 7982,'-29'-25'8995,"1"3"-7016,-8 5-1529,16 30 0,23 26-270,22 18-1,22-8-89,14-27 720,5-36-1,-8-22 271,-11-9-990,-18 20-1439,-5 44-2519,-4 29-1259,14 36 5127,4-13 0,-11-23 0,-5-26 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-72196">2010 5801 7623,'22'-74'9830,"-6"17"-6618,-17 41-3392,7 31-899,11 16 179,20 11 631,6-11 89,2-16 180,-31-25 359,-37-28 91,-8 2 0,-6-3 134,-3-10 1,0-3 269,3-3 1,7 0 1304,0-38-720,40 42-1079,27 59-3688,18 74-1170,-20-15 1,-1 5 4497,-2-3 0,-2-2 0,-3-7 0,-1-7 0,12 8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-68346">1748 3831 8432,'-21'-46'2009,"0"1"0,-9 1 0,-8 5-1515,-13 5 1,-10 10-135,-30 16 0,-6 16-465,28 5 1,0 7 0,-2 9 261,-5 11 1,-3 11-1,0 6 1,6 3-474,7 2 1,4 4 0,4 3-1,0 4 460,7-9 0,1 2 0,1 3 0,3 2 0,7 4 71,2 10 1,6 5 0,5 3 0,4-1 0,4-1-223,7-10 0,5-2 0,3 0 0,3 1 0,3 2 61,2 11 0,4 3 0,3 1 0,5-3 0,5-3-200,4-12 0,3-1 1,5-4-1,3-1 1,3-3 167,14 13 1,4-3-1,5-4 1,3-5-1,3-6 1,3-5-1,4-5 1,1-4-23,1-6 0,2-4 0,2-4 0,0-6-27,-4-5 0,1-5 1,1-5-1,1-5 27,1-6 0,1-6 0,0-5 0,-2-6 0,-5-6 0,-2-5 0,-1-5 0,0-4 22,3-7 1,0-4-1,-1-4 1,-4-4-23,-1-5 0,-3-3 0,-2-4 0,-3-2 22,-3-2 1,-2-4-1,-4-1 1,-3-1 22,-7 4 0,-3-2 0,-5-1 0,-6-1-45,-6-3 0,-6-2 0,-7-2 0,-7 1 0,-9-1 0,-7 0 0,-8-1 0,-6-2-54,-6 2 0,-8-2 0,-6-1 0,-2 1 0,-3 2 50,-2 1 1,-3 1-1,-3 1 1,-3 2 0,-2 1-27,6 9 0,-3 0 0,-1 1 0,-2 2 0,-2 4 0,-1 3-42,-11-1 0,-1 3 0,-3 4 0,-1 6 0,-1 6-72,2 7 0,-1 4 0,-1 6 0,-1 4 0,-1 7-144,-1 5 0,-1 5 1,0 5-1,1 6 0,3 5-198,2 6 0,1 5 1,2 5-1,3 5 1,4 3-221,-10 14 1,4 7 0,6 4 0,8 3 705,13-3 0,6 4 0,6 1 0,5-4 0,3 1 0,6-3 0,8-2 0,12 11 0,0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-71529">12921 3114 7533,'3'-44'9264,"-1"13"-5846,-1-5-2878,-10 72-270,-6 60-1619,6-12 0,5 10-151,4-18 1,3 4 0,4 0 1411,6 0 0,3 0 0,1-4 0,4 9 0,3-7 0,4-15 1,0 1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-71012">13314 4394 11760,'-18'-13'7556,"-9"5"-6926,-6 8-361,14 19-179,34 28-90,33 29 0,-17-33 0,1 0 0,20 35-90,-27-16-899,-48-41-540,-22-32-90,-17-47 1124,38 12 0,7-7 270,11-8 1,9-1 134,8 2 0,8 3 314,7 6 1,7 7 765,36-4 449,6 41 180,-3 36-270,-1 25-269,-8 17-181,-14 15-539,-15 7-990,-10 3-2698,16-21-1529,36-43 4857,-26-33 0,2-8 0,38-19 0,-12-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-69612">13504 2640 10141,'-57'-34'6117,"-26"-7"-5488,28 18 1,-4 2-46,-7 1 1,-4 6-315,-9 8 0,-3 8-90,-3 10 0,-1 8 45,-8 9 0,1 8 14,31-8 1,1 4 0,3 3-60,2 6 0,3 3 0,5 4-30,5 6 0,5 4 0,6 4-61,5 4 1,6 4 0,8 4-250,7 11 1,10 4-1,6-1 160,8 3 0,7 0 0,7 0 22,-4-19 1,5-1 0,3 0-1,2-2-22,2-3 0,3-2 0,1-2 0,2-3 0,12 11 0,3-5 0,1-4-110,0-7 1,1-3 0,2-6 109,-2-10 0,1-5 0,3-4 0,3-5 0,3-4 0,2-5 0,10-4 0,3-4 0,2-4 30,7-4 0,1-4 0,1-1-30,-23 0 0,0-1 0,1-1 0,-2-1 0,20-4 0,-2-2 0,-2-2 29,-9 0 1,-3-2 0,-2-4 30,-9-2 0,-3-3 0,-3-4 180,-5-4 0,-3-3 0,-4-4 0,-6-5 0,-4-4 0,-6-4-91,-6-3 1,-7-4 0,-7-3-120,-8-15 0,-10-5 0,-7 0-53,-5 16 1,-4-1 0,-6 0-1,-4-2-319,-1 5 1,-4-2 0,-4-1 0,-3 2 0,-4 2 125,-5-2 0,-5 1 0,-3 2 1,-4 3-1,-2 2-311,-4 1 1,-4 3 0,-3 2 0,-2 4 0,-4 6 238,-5 2 0,-3 5 0,-3 5 0,-3 4 1,0 8-73,11 7 0,-2 6 0,-1 3 0,0 4 1,0 4-1,3 2-396,-11 3 0,2 5 1,1 4-1,3 3 1,1 4 755,7 2 0,0 5 0,3 3 0,4 0 0,8-1 0,-6 7 0,8 0 0,10 2 0,10 11 0,0 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-25415">3157 1888 8612,'-8'-46'9175,"1"11"-8635,3 27 1618,7 60-1528,3 16 0,4 13-331,0-1 1,3 9 0,0 3-539,0-8 0,1 4 0,1 2 1,0 1 291,-1-13 1,0 2 0,1 1 0,0 0 0,0-1-36,-1 2 0,1-1 0,0 1 0,0-1 0,-1-1 4,1 12 1,1 0 0,-1-2-1,-2-1-44,-1-5 1,-1-1-1,-2-1 1,0-2 51,1 16 0,-2-3 0,-1-2-60,-2-7 0,0-2 0,0-2-60,0-7 0,-1-2 0,1-2-630,1 20 1,1-6-721,-2-15 1,1-5-6206,5 34 7932,-6-38 1,-1-27 0,-4-22 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-24631">10321 272 8252,'-13'-38'7106,"3"9"-4677,-5 39-630,8 84-1260,3-9 1,3 18-846,4-25 0,2 11 1,2 6-1,1 2 1,2-1 454,0-11 1,1 2 0,1 0 0,1 1 0,1 2 0,-1 0-99,0-5 0,0 0 1,1 2-1,0 0 1,0 1-1,1 1 1,1 0-14,2 7 1,2 2-1,1 1 1,0 0 0,-1 0-1,0-4 1,-1-2-39,-1-2 0,-1-4 0,-1-1 0,0-1 0,0 0 0,0 2-15,1 4 0,-1 1 0,1 0 0,0 1 0,-1-1 0,-1 0-60,-1-1 0,0 1 0,-1 1 0,0-3 0,0-1 0,0-3-336,0-1 0,-1-4 0,1-1 0,-1-2 0,0 2-39,3 18 0,0 0 1,0-2-1,-2-4-1040,1 9 0,-2-5 0,-2-9-2558,-4-5 1,-2-9 4047,-2-8 0,-1-9 0,-4-6 0,1-42 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-23115">3636 3592 8792,'-15'-4'7646,"1"1"-7107,26-5 721,53-2-766,15-4 1,16-4-315,-7 1 0,8-2 0,5-2-487,-28 6 1,3-1 0,3-1 0,1 0 0,0-1 360,8-1 0,1-2 0,2 1 0,0-1 0,1 1-36,1 0 0,1 1 0,0 0 0,1 0 0,0 1-18,-1 1 0,1 0 0,-1 1 0,1 0 0,-1 0 18,-2 2 0,0 0 0,0 0 0,-1 0 0,-1 0-18,-3 0 0,-1 1 0,0-1 0,-1 0 0,-1-1-96,-3 0 1,-1 0-1,-1 0 1,-1-1-1,-1-1 96,11-2 0,-1-1 0,-2-1 0,-1 1-124,-4 0 1,-2 0 0,0 0 0,-2 1 123,21-5 0,-3 1 0,1 1 0,-1 1 0,-1 1 0,0 1 30,-2 1 0,0 2 0,0 1-30,-1 0 0,1 1 0,-1 2 0,-4 1 0,0 0 0,-1 2-116,0 0 1,-1 0-1,0 1 176,-2 1 0,0 1 0,-2 0-30,-10 1 0,-1 0 0,1 0 351,3 0 0,1-1 0,-5 1-336,7-1 0,-4-1 90,-3 0 0,-4 0 1993,19-4-1588,-33-1 456,-9-3-906,-20-7 399,-19-8-489,-17-5 71,-44-25 648,-18-3-224,26 24 0,-5 1 944,-14-4 0,-1 3-1169,15 11 0,2 3-270,0 0 0,3 8 0,-5 25 0,76 35 0,31 30 0,11-11 0,5 0 0,-19-15 0,-6 1 0,3 19 0,-23 0-450,-43-20 0,-18-4-2249,-19 3 1,-14-5-361,-2-11 1,-9-4 0,2-3 2634,13-4 0,2-3 0,0 0 0,-31 5 0,7-1 0,33-8 0,1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-22498">4203 3085 8882,'7'-12'9175,"-10"10"-8995,-7 9 179,-38 41-224,4-5 0,-3 4 0,-2 1 0,-3 2 180,-20 16 0,-2 0 224,12-11 1,3-4-45,9-8 0,5 0 1304,-13 37-630,104-36-1349,30-8-1709,2-14 0,8 0-810,-4 2 1,0 2 2304,3 5 0,-5 1 0,-18-6 0,-8 0 1,21 18-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19649">3248 1987 7353,'-21'-8'7555,"3"6"-7375,-14 6 0,5 11 0,0 5 810,8-2-721,8-16 901,9-25 629,4-35-540,5-12-809,0 2-180,6 20-360,19 40-2339,17 25-4497,31 33 6926,-11-3 0,-4-4 0,-21-20 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-18732">10746 1205 20126,'-2'11'1079,"-11"21"-809,-5 2-180,-13 28 90,8-18-90,8-21 269,12-26 1260,16-44-449,1 5-181,3-10-359,-5 23-630,15 28-3958,10 34-270,13 17-2788,14 25 7016,-20-26 0,-10-12 0,-19-22 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16016">5348 3959 16887,'-3'31'1709,"6"11"-1529,13 29-90,-1-12 90,1-10-180,-6-35 450,-6-29 359,-7-28 91,-3-9-181,-3 3-269,4 23-540,2 20-1439,3 30-2788,3 29 4317,2 20 0,-1-29 0,0-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17133">4835 4801 9691,'-14'-21'4228,"0"2"-2069,7 9 629,-1 0-1439,-1 2-1259,-3 4 0,-4 8-90,-3 12 0,1 9 90,11 9-90,13 0 0,36 6 0,13-9 0,13-2 810,2-7 1259,-25-9-990,-7 0-809,-27-4-180,-15-4-90,-21-1-810,-10-4-1888,-9-3-450,0-6-180,6-6 719,5-7 1440,6-6 1169,-1-11 1079,8 6 630,-1-5-809,19 3-271,12 3-179,26-4-270,22 5-90,-2 9-90,4 6 1619,-20 11-720,-15 8 541,-5 15-541,-13 35-629,1 1-720,13 32-90,3-40 451,16-8 1078,-5-47 180,-10-25-629,-13-18-720,-30-13-1709,-1 28-2428,-20 7 4317,12 39 0,6-4 0,8 10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17266">5256 4750 9242,'5'-13'202,"1"1"0,-3 6 1,0 1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17633">5378 4567 10321,'-15'-12'6476,"-7"0"-6116,3 7-90,-7 10-630,11 14-539,6 12-271,15 5 1,12-3 539,11-6 361,4-8 538,1-4 991,-7 3-91,-14 7-179,-19 12-1080,-23 10-2789,-15 3 2879,-7-6 0,20-18 0,10-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19182">9210 3780 9332,'18'-32'8095,"1"7"-6026,-2 11-450,3 17-270,-4 24-1259,2 27-2788,-5 31 269,-6-32 0,-2 1 2429,0 0 0,-1-2 0,1 14 0,-2-25 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20073">9373 4497 7892,'-21'68'0,"0"0"0,0 0 0,-5 14 0,1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20099">9331 4582 20036,'61'36'0,"-1"0"0,1 0 0,11 8 0,1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20499">9293 4590 8702,'-28'-14'8365,"-11"1"-5576,-16 5-2340,-5 19 1,14 26-360,30 25-90,40 17 0,33-2 90,-20-40 0,1-3 630,15 11 449,-12-7-719,-55-17-1260,-9-5-2068,-42-5-1440,12-12-3867,0-8 7337,30-3 0,11 2 0,13 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20916">9500 4595 13379,'-28'-17'7916,"2"2"-6927,11 29 91,9 21-1170,5 32-2699,14 23-2428,9 2 5217,6-18 0,-10-31 0,-4-24 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21316">9754 4906 13110,'-16'0'3867,"0"6"-3867,10 11-180,10 4 180,7-2 1170,6-5-1170,-13-16-630,-6 0-2788,-19-9 3418,-2-3 0,3 6 0,9-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21616">9830 4626 10681,'5'-14'7376,"9"-1"-5307,21 8-1800,5 16 91,6 29-180,-23 37 0,-19-25 0,-3 2-90,-3 3 0,0-1 0,4 41-900,19-32-1529,19-35-1708,17-27 4047,6-20 0,-26 5 0,-8 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24216">10365 0 14369,'-4'13'3598,"-1"19"-2789,-10 46-359,9-26 0,0 5 89,-1 7 1,2 1-90,0 5 0,2 0 44,2-1 1,0-2-180,1-1 0,1 0-135,0 0 0,1 0-1,-1 1 1,0 0 90,0 1 0,-1 0-45,1 1 0,0 1-45,0 2 0,0 2-46,1 2 1,1 2 90,1 1 0,1 1 90,1 4 0,2-1-1,2 0 1,1 0-90,1 1 0,2 0-90,-1 0 0,2 1-45,-1-2 0,1-1-90,-1 0 0,0 0 45,-1-2 0,1-1 0,-1 0 0,1-1-45,-1 1 0,1-1 0,-1 0 0,2 0 0,0-1 0,0 0-45,2 1 0,1 0 90,1 4 0,2-1-45,2 3 0,1 1 45,1 3 0,0 2 45,3 4 0,-1 1-90,-9-26 0,-1 0 0,1 1-89,1 4 0,0 2 1,-1 0 88,0 4 0,0 0 0,-1 1-960,0 0 1,-1 0 0,-2 0-1050,-1-2 0,-2-1 0,-1-1-1268,-2-4 0,-1-2 0,-1-4 2063,-1 3 1,-1-7 0,-1 21 0,-3-68 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25432">3006 1197 8792,'-7'-35'8455,"3"11"-7735,2 12 539,12 52-359,10 44-601,-2-12 1,5 14 0,-1-1-180,-3-11 0,1-1 0,0 6-201,3 7 1,2 6 0,0 3-1,-2-5 103,-3-11 1,0-3 0,-2 0-1,1-1 8,4 22 0,-1-1 0,-1 1-8,-5-19 1,0 1 0,-2 0-1,-1-3-22,0 10 0,-2-3 0,0 2 0,0 8 0,0 2 0,-1-1 0,-1-6 0,-1-2 0,0 2 0,2 8 0,1 0 0,-1-3-30,-1-15 0,1-4 0,0 2 30,3 11 0,1 1 0,0-5-37,5 16 1,1-3 36,-6-29 0,1 0 0,1-1 0,5 25 0,1-3 0,-2-7 0,0-4-90,-1-7 0,-1-2 0,-1-5 0,-1-1-135,-2-7 0,-2-1-720,-1-1 1,-2 0-1527,1 36-857,-8-9 3328,-7-13 0,2-34 0,0-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3096 1897 9512,'-10'-94'7735,"2"51"-7465,19 134 90,2-8 0,4 19-925,-2-22 1,3 10-1,2 7 1,1 3-1,-1-4 565,0 1 0,0 0 0,1 0 0,0 2 0,1 1-15,-2-9 0,0 1 0,1 0 0,-1 2 0,2 0 0,-1-1-135,1 3 0,1 2 0,0-1 0,0 1 1,0-5-1,0-4-102,0-3 0,-1-5 0,0-2 0,1-1 0,-1 0 19,7 22 0,0-1 1,0-2-1,-1-6-1087,5 5 1,-1-4 0,-4-14 1319,-5-14 0,-3-10 0,9 28 0,-25-69 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="284">3293 2725 1777,'-5'-92'1169,"0"-1"0,0 0 1,1 10-1,1 2 1,0 3 613,0-27 1,1 13-795,6 1-719,5 163 0,4 55-248,-4-58 1,-1 3-1,2 6 1,0 5-85,0 0 0,0 7 0,1 5 0,1 3 1,-1 1-1,1-2-157,-1-9 1,1 3-1,0 1 1,0-1 0,0 1-1,0-2 1,-1-3-142,1 3 0,0 0 0,-1-4 1,1 1-1,0 0 0,0 0-675,1 4 1,1 3 0,0 1-1,-1-4 1,0-6 0,-1-10 1034,0 8 0,-1-11 0,0-3 0,7 38 0,-1-16 0,-5-33 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-72962">1585 4906 8522,'-4'-29'9715,"1"11"-9356,-1 28-2697,10 41-586,2 1 1,0 3 2923,10 38 0,1-7 0,-7-37 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-72579">1392 5666 7982,'-29'-25'8995,"1"2"-7016,-8 6-1529,16 30 0,23 27-270,22 18-1,22-9-89,14-26 720,5-38-1,-8-21 271,-11-10-990,-18 21-1439,-6 44-2519,-3 30-1259,14 36 5127,4-13 0,-11-23 0,-5-27 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-72196">2008 5886 7623,'22'-75'9830,"-6"17"-6618,-17 42-3392,7 31-899,11 17 179,20 10 631,6-10 89,2-17 180,-31-25 359,-37-29 91,-8 3 0,-6-4 134,-3-10 1,0-2 269,3-4 1,7 0 1304,0-38-720,40 42-1079,27 60-3688,18 75-1170,-20-15 1,-1 5 4497,-2-3 0,-2-2 0,-3-7 0,-1-7 0,12 8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-68346">1746 3887 8432,'-21'-46'2009,"0"0"0,-9 1 0,-8 6-1515,-12 4 1,-11 11-135,-30 16 0,-6 16-465,28 5 1,0 7 0,-2 10 261,-5 10 1,-3 12-1,0 6 1,6 3-474,7 2 1,4 4 0,4 3-1,0 4 460,8-9 0,0 2 0,1 3 0,3 2 0,7 4 71,2 10 1,6 5 0,5 4 0,4-2 0,4-1-223,7-9 0,5-3 0,3 0 0,3 1 0,3 2 61,2 12 0,4 2 0,3 1 0,5-2 0,5-4-200,4-12 0,3-1 1,5-3-1,3-2 1,3-3 167,14 13 1,4-3-1,4-4 1,4-5-1,3-6 1,3-5-1,4-5 1,1-4-23,1-7 0,2-3 0,2-5 0,0-5-27,-4-6 0,1-4 1,1-6-1,1-5 27,0-6 0,2-6 0,0-5 0,-2-6 0,-5-7 0,-2-4 0,-1-5 0,0-5 22,3-6 1,0-5-1,-1-4 1,-4-3-23,-1-6 0,-3-3 0,-3-4 0,-2-2 22,-3-2 1,-2-4-1,-4-1 1,-3-1 22,-7 4 0,-3-2 0,-5-1 0,-6-1-45,-6-3 0,-6-3 0,-7-1 0,-7 1 0,-9-1 0,-7 0 0,-8-1 0,-6-3-54,-6 3 0,-8-2 0,-6-1 0,-2 1 0,-3 1 50,-2 2 1,-3 1-1,-3 1 1,-2 2 0,-3 1-27,6 9 0,-3 0 0,-1 1 0,-2 2 0,-2 4 0,-1 3-42,-11-1 0,-1 3 0,-3 5 0,-1 5 0,-1 7-72,2 6 0,-1 5 0,0 5 0,-2 5 0,-1 7-144,-1 5 0,-1 5 1,0 5-1,1 6 0,3 5-198,2 7 0,1 4 1,2 6-1,3 4 1,4 4-221,-9 14 1,3 6 0,6 5 0,8 3 705,13-3 0,6 4 0,6 1 0,5-4 0,3 1 0,6-3 0,8-2 0,12 11 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-71529">12909 3160 7533,'3'-45'9264,"-1"14"-5846,-1-6-2878,-10 74-270,-6 60-1619,6-12 0,5 11-151,4-19 1,3 4 0,4 0 1411,6 0 0,3 0 0,1-3 0,4 8 0,3-7 0,4-15 1,0 1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-71012">13302 4458 11760,'-18'-13'7556,"-9"5"-6926,-6 8-361,14 19-179,34 29-90,33 29 0,-17-33 0,1-1 0,20 37-90,-27-17-899,-48-42-540,-22-32-90,-17-48 1124,38 12 0,7-7 270,11-8 1,9 0 134,8 1 0,8 3 314,7 6 1,7 7 765,36-3 449,6 41 180,-3 36-270,-2 26-269,-7 17-181,-14 15-539,-15 8-990,-10 2-2698,16-21-1529,36-43 4857,-26-35 0,2-7 0,38-19 0,-12-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-69612">13492 2679 10141,'-57'-35'6117,"-26"-6"-5488,28 17 1,-4 3-46,-7 1 1,-4 5-315,-9 9 0,-3 8-90,-3 11 0,-1 7 45,-8 9 0,1 9 14,31-9 1,1 5 0,4 2-60,1 7 0,3 3 0,5 3-30,5 7 0,5 4 0,6 4-61,5 4 1,6 4 0,8 4-250,7 11 1,10 5-1,6-2 160,8 3 0,7 1 0,7-1 22,-4-19 1,5-1 0,3 0-1,2-2-22,2-3 0,3-2 0,1-2 0,1-3 0,13 11 0,3-5 0,1-4-110,0-7 1,1-4 0,2-5 109,-2-10 0,1-6 0,3-4 0,3-4 0,3-5 0,2-5 0,10-4 0,3-4 0,2-4 30,6-4 0,2-4 0,1-1-30,-23 0 0,0-1 0,1-1 0,-2-1 0,20-5 0,-2-1 0,-2-2 29,-9 0 1,-3-3 0,-2-3 30,-10-3 0,-2-2 0,-3-4 180,-5-5 0,-3-3 0,-4-3 0,-6-6 0,-4-4 0,-6-4-91,-6-3 1,-7-3 0,-7-4-120,-8-16 0,-10-4 0,-7 0-53,-5 16 1,-4-1 0,-6 0-1,-4-3-319,-1 6 1,-4-2 0,-4-1 0,-3 2 0,-4 2 125,-5-2 0,-5 1 0,-3 2 1,-4 3-1,-1 2-311,-5 1 1,-4 4 0,-3 1 0,-2 4 0,-4 6 238,-5 3 0,-3 4 0,-3 5 0,-3 5 1,0 8-73,11 6 0,-2 7 0,0 3 0,-1 4 1,0 4-1,3 2-396,-11 3 0,2 5 1,1 5-1,3 2 1,1 4 755,7 3 0,0 4 0,3 3 0,5 1 0,7-2 0,-6 8 0,8 0 0,10 1 0,10 12 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-25415">3154 1916 8612,'-8'-47'9175,"1"11"-8635,3 28 1618,7 61-1528,3 16 0,4 13-331,0 0 1,3 8 0,0 3-539,0-8 0,1 5 0,1 1 1,0 1 291,-1-13 1,0 3 0,1 0 0,0 0 0,0-1-36,-1 2 0,1 0 0,0 0 0,0-1 0,-1-1 4,1 12 1,1 1 0,-1-3-1,-2-1-44,-1-4 1,-1-2-1,-2-1 1,0-2 51,1 17 0,-2-4 0,-1-2-60,-2-6 0,0-3 0,0-2-60,0-7 0,-1-2 0,1-2-630,1 20 1,1-5-721,-2-16 1,1-5-6206,5 34 7932,-6-38 1,-1-28 0,-4-22 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-24631">10311 276 8252,'-13'-39'7106,"4"10"-4677,-6 39-630,8 86-1260,3-10 1,3 18-846,4-25 0,2 12 1,2 5-1,1 3 1,1-2 454,1-11 1,1 2 0,1 1 0,1 0 0,1 2 0,-1 1-99,0-6 0,0 0 1,1 2-1,0 1 1,0 0-1,1 1 1,1 1-14,2 6 1,2 2-1,1 2 1,0-1 0,-1 1-1,0-5 1,-1-1-39,-1-3 0,-1-4 0,-1-1 0,0 0 0,0-1 0,0 2-15,1 5 0,-1 0 0,1 0 0,0 2 0,-1-2 0,-1 0-60,-1 0 0,0 0 0,-1 1 0,0-2 0,0-2 0,0-3-336,0 0 0,-1-5 0,1-1 0,-1-2 0,0 2-39,3 19 0,0-1 1,0-2-1,-2-3-1040,1 8 0,-2-4 0,-2-10-2558,-4-5 1,-2-9 4047,-2-8 0,-1-9 0,-4-6 0,1-43 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-23115">3633 3645 8792,'-15'-4'7646,"1"1"-7107,26-6 721,53-1-766,15-4 1,15-4-315,-6 1 0,8-3 0,5-1-487,-28 6 1,3-1 0,3-2 0,1 1 0,0-1 360,8-1 0,1-3 0,2 2 0,-1-1 0,2 0-36,1 1 0,1 1 0,0-1 0,1 1 0,0 1-18,-1 1 0,1-1 0,-1 2 0,1 0 0,-1 0 18,-3 2 0,1-1 0,0 1 0,-1 0 0,-1 0-18,-3-1 0,-1 2 0,0-1 0,-1 0 0,-1-1-96,-3-1 1,-1 1-1,-2 0 1,0-1-1,-1-1 96,11-3 0,-1 0 0,-2-1 0,-1 0-124,-4 1 1,-2 0 0,0-1 0,-2 2 123,21-5 0,-3 0 0,0 2 0,0 1 0,-1 1 0,0 0 30,-2 2 0,0 2 0,0 1-30,-1-1 0,1 2 0,-1 2 0,-4 1 0,0 0 0,-2 2-116,1-1 1,-1 1-1,0 1 176,-2 1 0,0 1 0,-2 0-30,-10 1 0,-1 0 0,1 0 351,3 0 0,1-2 0,-5 2-336,6-1 0,-3-1 90,-3 0 0,-4 0 1993,19-4-1588,-33-1 456,-9-4-906,-20-6 399,-19-8-489,-17-6 71,-44-25 648,-18-3-224,26 25 0,-5 0 944,-14-3 0,-1 2-1169,16 12 0,1 2-270,0 1 0,3 8 0,-5 25 0,76 35 0,31 31 0,11-11 0,5 0 0,-20-15 0,-5 1 0,3 19 0,-23 0-450,-43-21 0,-18-3-2249,-19 3 1,-13-6-361,-3-10 1,-9-5 0,2-3 2634,13-3 0,2-4 0,0 0 0,-31 5 0,7 0 0,33-9 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-22498">4199 3130 8882,'7'-12'9175,"-10"10"-8995,-7 9 179,-38 42-224,4-6 0,-3 5 0,-2 1 0,-3 2 180,-20 16 0,-2 0 224,13-12 1,2-3-45,9-8 0,5-1 1304,-13 39-630,104-38-1349,30-7-1709,2-15 0,7 0-810,-3 3 1,0 1 2304,3 6 0,-5 0 0,-18-6 0,-8 1 1,21 17-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19649">3245 2016 7353,'-21'-8'7555,"3"6"-7375,-14 6 0,5 11 0,0 6 810,8-3-721,8-16 901,9-25 629,4-36-540,5-12-809,0 2-180,6 20-360,19 41-2339,17 25-4497,31 34 6926,-11-4 0,-4-3 0,-21-21 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-18732">10736 1223 20126,'-2'11'1079,"-11"21"-809,-5 3-180,-13 28 90,8-19-90,8-20 269,12-27 1260,16-45-449,1 5-181,3-9-359,-5 22-630,15 29-3958,10 35-270,13 16-2788,14 26 7016,-20-26 0,-10-12 0,-19-23 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16016">5343 4017 16887,'-3'32'1709,"6"10"-1529,13 30-90,-1-12 90,1-10-180,-6-36 450,-6-29 359,-7-29 91,-3-9-181,-3 4-269,4 22-540,2 21-1439,3 31-2788,3 28 4317,2 21 0,-1-29 0,0-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17133">4831 4871 9691,'-14'-21'4228,"0"2"-2069,7 9 629,-1 0-1439,-1 1-1259,-3 5 0,-4 8-90,-3 13 0,1 8 90,11 10-90,13-1 0,36 7 0,13-10 0,12-2 810,3-6 1259,-25-10-990,-7 0-809,-27-4-180,-15-4-90,-21-1-810,-10-4-1888,-9-3-450,0-6-180,7-6 719,4-7 1440,6-7 1169,-1-10 1079,8 5 630,-1-4-809,19 2-271,12 4-179,26-5-270,22 6-90,-3 8-90,5 7 1619,-20 11-720,-15 8 541,-5 15-541,-13 36-629,1 1-720,13 32-90,3-40 451,16-9 1078,-5-47 180,-10-25-629,-13-19-720,-30-13-1709,-1 29-2428,-20 6 4317,12 40 0,6-4 0,8 11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17266">5251 4820 9242,'5'-14'202,"1"2"0,-3 6 1,0 1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17633">5373 4634 10321,'-15'-12'6476,"-7"0"-6116,3 7-90,-7 10-630,11 14-539,6 12-271,15 6 1,12-4 539,11-5 361,4-9 538,1-4 991,-7 4-91,-14 6-179,-19 12-1080,-23 11-2789,-15 3 2879,-7-7 0,20-17 0,10-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19182">9202 3835 9332,'17'-32'8095,"2"7"-6026,-2 10-450,3 18-270,-4 25-1259,2 27-2788,-5 31 269,-6-32 0,-2 0 2429,0 1 0,-1-2 0,1 14 0,-2-25 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20073">9364 4563 7892,'-21'69'0,"0"0"0,0 0 0,-5 14 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20099">9322 4649 20036,'61'37'0,"-1"-1"0,1 1 0,11 7 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20499">9284 4657 8702,'-28'-14'8365,"-11"1"-5576,-15 5-2340,-6 19 1,14 26-360,30 26-90,40 18 0,33-3 90,-20-41 0,1-2 630,14 10 449,-11-6-719,-55-18-1260,-9-5-2068,-41-4-1440,11-13-3867,0-8 7337,30-4 0,11 3 0,13 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20916">9491 4662 13379,'-28'-17'7916,"2"2"-6927,11 29 91,9 22-1170,5 32-2699,14 23-2428,9 2 5217,6-18 0,-10-31 0,-4-25 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21316">9745 4978 13110,'-16'0'3867,"0"6"-3867,10 11-180,10 5 180,7-3 1170,6-5-1170,-13-16-630,-6 0-2788,-19-9 3418,-2-3 0,3 6 0,9-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21616">9821 4694 10681,'5'-14'7376,"9"-2"-5307,21 9-1800,5 16 91,6 30-180,-23 37 0,-19-25 0,-3 2-90,-3 2 0,0 0 0,4 42-900,19-33-1529,19-36-1708,17-27 4047,6-20 0,-26 4 0,-8 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24216">10355 0 14369,'-4'13'3598,"-1"20"-2789,-10 46-359,9-26 0,0 4 89,-1 8 1,2 1-90,0 5 0,2 0 44,2-1 1,0-2-180,1-1 0,1 0-135,0 0 0,1 0-1,-1 1 1,0 0 90,0 1 0,-1 0-45,1 1 0,0 1-45,0 2 0,0 2-46,1 2 1,1 3 90,1 0 0,1 1 90,1 4 0,2-1-1,2 1 1,1-1-90,1 1 0,2 0-90,-1 1 0,2 0-45,-1-2 0,1-1-90,-1 0 0,0 1 45,-1-3 0,1-1 0,-1 0 0,1-1-45,-1 1 0,1 0 0,-1-1 0,2 0 0,0-1 0,0 0-45,2 1 0,1 0 90,1 5 0,2-2-45,2 3 0,1 1 45,1 4 0,0 1 45,3 4 0,-1 2-90,-9-27 0,-1 0 0,1 1-89,1 4 0,0 2 1,-1 0 88,0 4 0,0 0 0,-1 2-960,0-1 1,-1 0 0,-2 0-1050,-1-2 0,-2-1 0,-1 0-1268,-2-5 0,-1-2 0,-1-4 2063,-1 3 1,-1-7 0,-1 21 0,-3-69 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25432">3003 1215 8792,'-7'-36'8455,"3"12"-7735,2 12 539,12 52-359,10 45-601,-2-12 1,5 15 0,-1-2-180,-3-11 0,1-1 0,0 6-201,3 7 1,2 7 0,0 2-1,-2-4 103,-3-12 1,0-3 0,-2 0-1,1-1 8,4 22 0,-1 0 0,-1 0-8,-5-19 1,0 2 0,-2-1-1,-1-3-22,0 10 0,-2-3 0,0 3 0,0 7 0,0 2 0,-1 0 0,-1-7 0,-1-2 0,0 3 0,2 7 0,1 0 0,-1-2-30,-1-16 0,1-4 0,0 2 30,3 11 0,1 2 0,0-6-37,5 16 1,1-2 36,-6-30 0,1 0 0,1-1 0,5 25 0,1-3 0,-2-7 0,-1-3-90,0-8 0,-1-2 0,-1-5 0,-1-2-135,-2-6 0,-2-1-720,-1-1 1,-2 0-1527,1 36-857,-8-9 3328,-7-13 0,2-34 0,0-8 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14604,11 +14612,11 @@
       <inkml:brushProperty name="color" value="#00A0D7"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">612 1361 9512,'-15'-48'8455,"5"15"-6566,6 47-1440,25 76-314,-1-16 0,3 8-105,-2-15 0,2 2 0,1 0 60,-2-4 0,1-1 0,-1-2 674,7 15 1,-2-6 405,1 17-901,-35-74-179,-14-46 0,-7-29-90,1 1 0,-1-9 0,1-2 0,-2-6 0,0-3 0,2-1 30,2-1 0,1 0 0,5 5-30,1-8 0,9 9-45,9 21 0,11 9 45,39 0 0,44 59 45,-36 19 0,-1 11-45,2 13 0,-6 7 225,-8 5 0,-11 2 45,-13-6 0,-12-1-180,-13-9 0,-11-4-810,-43 26-3688,-18-31-1348,7-28 5756,21-27 0,28 1 0,13-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="315">1305 1563 8792,'-31'1'9830,"2"-2"-6168,7-4-3302,19-3-3058,56-16-3149,35-7 5847,-33 13 0,0 1 0,38-12 0,-23 11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="682">1977 1258 11221,'-12'-18'9830,"10"17"-6438,20 23-3032,31 38-270,-12-18 0,2 2-90,2 1 0,0-1 180,-5-6 0,-2-4 899,14 9-90,-15-48-179,-18-40-540,-7-42-2609,-11-8-3058,-3 22 5397,-3 22 0,6 35 0,0 7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1815">2820 1330 8702,'7'-38'9830,"-11"3"-5718,-21-13-3752,-12 30 0,-10 20-270,3 64-360,24 10 90,13 15 90,27-25 180,16-42 450,-2-23 1259,9-38-900,-20 3-719,0 0 0,-1 42-180,-3 12-990,16 27-179,9-8 1079,0-18 0,13-33 90,-13-75 90,-27 29 0,-4-8 180,-5 1 0,-4-7 0,-2 1 584,-4-23 1,-3 3-586,1 13 1,-3 9 630,-14-9-630,13 134-270,7 40 0,12-6 0,9 6 0,6-8 0,6-2 0,3-3 0,5-7 0,-3-19 0,3-13 0,30-13 0,-15-72 0,-13-48 0,-27 39 0,-3 0 0,3-27 0,-5 62 0,0 52 0,9 41 0,9 16 0,14-11 0,9-33 0,4-49 0,-6-48 0,-14-18 0,-15 8 0,-10 39 0,-1 47 0,18 28 0,20 6 0,24-23 0,12-44 0,-11-57 0,-43 11 0,-9-6 0,-6-4 0,-8 0 0,-14-38 0,-12 66 0,3 66-540,13 54-3778,12-32 1,6 0-599,11-4 1,3-5 4292,17 14 0,-5-29 0,-29-29 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3315">620 2544 19406,'67'-1'2653,"-15"-4"1,9 0-2235,4-2 1,8 0 0,4-1-645,-7 0 0,5-1 0,1 0 0,3-1 314,9-1 1,4 1 0,1-2 0,0 1-45,5-1 0,1 0 0,0 0 0,-1-1-23,-2 0 1,0 0-1,0 0 1,-1-2-181,-2 0 0,-1-2 0,0 0 0,-2-1 158,-2 0 0,-2-1 0,0-1 0,-2-1 22,-4 2 1,-2-1-1,-1-1 1,0 1 64,17-4 0,-1-1 0,-1 2 3,-7 2 0,-2 1 0,-3 1 0,-11 3 0,-2 2 0,0 0 41,5 0 0,1 0 1,-4 2-87,8-1 0,-4 2 292,4-1 1,-4 3-338,24-2 966,-31 6-966,-16 0 515,-21 3-515,-1-4 71,-6-4-71,9-14 0,-3-13 0,1-30 0,-19 11 0,-5-7 0,-2-16 0,-4-10-148,-3 1 1,-4-8 0,-3 0 57,-2 1 0,-3 0 1,-2 1-1,1 1 0,-3 2 0,-4 2 60,-4 9 0,-4 3 0,-7 8-166,-24-9 0,-7 12 106,8 9 0,-5 9 0,-16 5 0,-7 15 0,20 24 0,-4 9 1,-1 4-61,0 0 0,-1 4 0,-7 4-297,6 2 1,-6 5-1,-5 2 1,1 1-1,3-2 334,-10 4 1,2-1 0,1 0-1,-3 0 95,13-3 0,-1 0 0,-1 0 0,0-2 0,2-3-72,-13 1 0,1-4 0,1-2 1,1-3-191,9-6 1,0-2-1,2-3 1,-1 0 211,5 0 1,1-2-1,-1 0 1,-2-2-68,-13-1 0,-3-2 0,2 0 0,5 0 105,4 2 0,6 0 0,-2 1-30,-14 0 0,-3 0 1,7 2 53,-9 5 1,8 3 5,15 0 0,3 4 82,0 3 1,3 5-83,15 3 0,4 1 1236,-33 21-1236,39-15 0,3 4 1107,-17 46-1107,31-36 0,4 4 258,-2 20 0,6 8-78,7 15 0,6 4-135,2-1 0,4 3 15,5-17 0,3 3 0,3-1 0,2-3 0,3-2 0,0-1-60,-1-7 0,0-3 0,2 2 30,1 3 0,1 0 0,1-4-840,6 3 1,2-5-1980,7-1 1,6-6 2788,12-6 0,2-7 0,25 10 0,11-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">613 1393 9512,'-15'-49'8455,"5"15"-6566,6 48-1440,25 78-314,-1-16 0,3 8-105,-2-16 0,2 3 0,1 0 60,-2-5 0,1 0 0,0-3 674,6 16 1,-2-6 405,1 17-901,-35-76-179,-14-47 0,-7-29-90,1 0 0,-2-8 0,2-3 0,-2-6 0,0-2 0,2-2 30,2-1 0,1 0 0,5 5-30,1-8 0,9 9-45,9 22 0,11 9 45,39 0 0,44 60 45,-36 20 0,0 11-45,1 13 0,-6 8 225,-8 4 0,-11 3 45,-13-7 0,-12 0-180,-13-10 0,-11-4-810,-43 27-3688,-18-32-1348,7-29 5756,20-27 0,29 1 0,13-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="315">1308 1599 8792,'-32'1'9830,"3"-2"-6168,7-4-3302,19-3-3058,56-16-3149,36-8 5847,-34 13 0,0 2 0,38-13 0,-23 12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="682">1981 1287 11221,'-12'-18'9830,"10"17"-6438,20 23-3032,31 40-270,-12-19 0,2 2-90,2 1 0,0-1 180,-5-6 0,-2-4 899,14 9-90,-14-50-179,-19-40-540,-7-43-2609,-11-8-3058,-3 22 5397,-3 23 0,6 36 0,0 7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1815">2826 1361 8702,'7'-39'9830,"-11"3"-5718,-22-13-3752,-11 31 0,-10 20-270,3 65-360,24 11 90,13 15 90,27-25 180,16-44 450,-2-23 1259,9-38-900,-20 2-719,1 0 0,-2 43-180,-3 13-990,16 27-179,9-8 1079,0-19 0,13-33 90,-13-77 90,-27 29 0,-4-7 180,-5 0 0,-4-6 0,-2 0 584,-4-23 1,-3 3-586,1 13 1,-3 9 630,-14-9-630,13 138-270,7 40 0,12-6 0,9 6 0,6-8 0,6-2 0,3-3 0,5-7 0,-3-20 0,3-13 0,31-13 0,-16-74 0,-13-49 0,-27 40 0,-3 0 0,3-28 0,-5 64 0,0 53 0,9 41 0,9 18 0,14-12 0,9-34 0,4-50 0,-6-49 0,-14-19 0,-14 9 0,-11 39 0,-1 49 0,18 28 0,20 7 0,24-24 0,12-45 0,-11-59 0,-43 12 0,-9-6 0,-6-5 0,-8 1 0,-14-39 0,-12 67 0,3 68-540,13 55-3778,12-33 1,6 0-599,11-3 1,3-6 4292,17 14 0,-5-29 0,-28-30 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3315">621 2603 19406,'67'-1'2653,"-15"-4"1,10 0-2235,3-2 1,8 0 0,4-1-645,-7-1 0,5 0 0,1 0 0,4-1 314,8-2 1,4 2 0,1-2 0,0 1-45,5-2 0,2 1 0,-1 0 0,-1-1-23,-2-1 1,0 1-1,1 0 1,-2-3-181,-2 1 0,-1-2 0,0-1 0,-1 0 158,-3-1 0,-2 0 0,0-2 0,-2 0 22,-4 1 1,-2 0-1,0-1 1,-1 0 64,17-3 0,-1-2 0,-1 2 3,-6 3 0,-3 0 0,-3 2 0,-11 3 0,-2 1 0,0 1 41,5 0 0,2-1 1,-5 3-87,8-1 0,-4 1 292,4 0 1,-4 3-338,24-2 966,-30 6-966,-17-1 515,-21 4-515,-1-4 71,-6-4-71,9-14 0,-3-14 0,1-31 0,-19 12 0,-5-8 0,-2-16 0,-4-10-148,-3 1 1,-4-8 0,-3 0 57,-2 1 0,-3-1 1,-2 2-1,1 1 0,-3 2 0,-4 2 60,-4 9 0,-4 3 0,-7 9-166,-25-10 0,-6 12 106,8 10 0,-5 9 0,-16 5 0,-7 15 0,20 25 0,-5 9 1,0 4-61,0 1 0,-1 3 0,-7 4-297,6 3 1,-6 4-1,-6 3 1,2 0-1,3-1 334,-10 4 1,2-2 0,0 1-1,-2 0 95,13-4 0,-1 1 0,-1-1 0,0-1 0,1-4-72,-12 2 0,1-5 0,1-1 1,1-4-191,9-6 1,-1-2-1,3-3 1,-1 0 211,5 0 1,1-2-1,-1 0 1,-2-2-68,-14-1 0,-2-2 0,2 0 0,5 0 105,4 2 0,5-1 0,-1 2-30,-14 0 0,-3 0 1,7 2 53,-9 5 1,7 3 5,16 1 0,3 3 82,0 3 1,3 6-83,15 2 0,4 2 1236,-33 21-1236,38-16 0,4 5 1107,-17 47-1107,31-37 0,4 4 258,-2 21 0,6 7-78,7 17 0,6 3-135,2-1 0,4 3 15,5-17 0,3 3 0,3-1 0,2-3 0,3-3 0,0 0-60,-1-7 0,0-4 0,2 3 30,1 2 0,1 1 0,1-4-840,6 2 1,2-4-1980,8-2 1,5-5 2788,12-7 0,2-7 0,25 10 0,11-13 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14848,10 +14856,10 @@
       <inkml:brushProperty name="color" value="#00A0D7"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4664 980 7623,'-43'-25'4677,"-1"1"0,-21-16-719,24 7-1439,48 35 449,39 44-2204,-2-3 1,6 8-495,13 18 0,3 5-660,-20-22 0,0 0 0,0 1-1379,1 0 0,0 0 0,-1-3-1469,16 16 0,-2-6 3238,-10-14 0,-5-7 0,9 4 0,-26-27 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="600">5530 1286 10411,'-16'-74'9830,"-6"20"-7877,-5 77-1503,-6 45-450,17-20 0,2 3-450,0 11 1,2-1-91,0 16 540,10-69 270,13-75 44,-1 10 1,1-7 135,3-11 0,1 4 719,9-15-539,10 25-1,11 80-539,30 46-90,-6 6-90,-8-20 1,3-7-91,19-11 135,-15-18 0,2-15 224,-12-28 1,-6-13 135,-7-1 0,-8-10 104,-15-8 1,-9-10 0,-8-1 30,-13-4 0,-10-2 0,-2 1-450,1 5 0,-1 0 0,-5 2 0,-5-1 0,-4 2 0,-1 11-2069,-4 13 0,1 12-2968,-17 0-4794,28 62 9208,26 5 0,11 3 0,-4-24 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2116">6494 751 9242,'3'-24'9830,"-17"-6"-7517,-6 2-1594,-19 30 91,0 64-630,23-8 0,7 6-180,6 16 0,7 1-90,7-2 0,6-5 0,5-11 0,4-8 90,22 11 180,-10-46-90,-18-39 0,-20-33 0,-22-22 0,-15-11 0,9 30 0,1 2-90,-9-19 44,14 22 1,4 0 405,10-13 180,9-12-180,22 17 179,23 27-269,30 41-315,-25 16 0,2 9-45,6 15 0,-1 7 45,-1 8 0,-4 3-45,-9-1 0,-7 0 0,-11-9 0,-8-3 0,-9 29-270,-26-38-539,-21-53 89,-3-74 540,24 16 0,8-6 135,4-12 0,7 0 0,8 9 0,7 5 45,3 16 0,6 10 90,30 4 90,4 60-90,-3 59-45,-31-22 0,-3 5-45,-2 4 0,-1 0 0,0-8 0,2-5 0,29 12 0,10-48 90,-2-53 0,-15-48-135,-35 25 0,-10-3 0,-11 1 0,-9 5 0,-7 8 0,-7 11-764,-42 13-990,22 55 359,37 32 721,46 2 809,33-21 1169,20-32 270,-3-25-180,-13-7-449,-3 13-630,-20 23-90,4 21-90,-11 9-1,-7-4 1,0-26 270,3-38 90,10-34 0,8-16 89,-1 13-269,6 31-180,-11 34-270,10 23-180,-2 7-89,6-7 179,4-22 90,-1-30 90,-6-28 0,-10-13 0,-12 5 90,-11 20-270,15 36 90,14 32-315,-10 2 1,2 7-1125,-1 9 0,-5 6-90,-5 5 0,-11 5-1574,-19 8 0,-14-1 3283,-6-13 0,-8-5 0,-11 2 0,-5-5 0,-32 14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11932">1344 2923 8432,'-8'-45'6117,"16"-6"-4768,27-11-540,30 8-539,-18 33 0,7 4-90,18 4 0,8 4-150,-9 1 0,5 2 0,4-2-239,-9 1 1,3-2 0,2 0-1,1-1 231,8-1 1,2-1 0,-1-1-1,0 0-22,-5 1 0,0-1 0,-1 0 0,-1 0 13,20-3 0,-1 0 1,-3 2 255,-12 2 1,-3 2 0,0-1-120,-1 1 0,1-1 0,1 0-120,10-3 0,2-1 0,2-1-8,-20 3 1,1-1-1,1 0 1,0 1-208,3-1 1,0 0 0,1 1 0,1 2 184,7 2 0,1 0 0,1 3 0,-1 3-238,-2 4 0,0 3 0,0 3 0,2 1 260,7 4 1,1 3-1,1 2 1,0 0-23,-16-1 0,0 2 0,1 0 0,-1 0 0,1 0-108,0-2 0,1 1 0,-1-1 0,-1 0 0,-1-2-117,11 3 0,-2-1 0,-2-2 1,-1-1 213,-11-3 0,0-1 0,-3-3 0,-4-1-49,5-3 0,-4-3 0,-2-5 168,25-10 0,-1-11-108,-26-2 0,0-6 0,0-4 30,3-8 0,-1-5 0,0-4-48,-12 7 1,0-4 0,0-1-1,-1-2-5,0-1 1,0-3 0,0 1-1,-1 0 23,-2 2 0,0 0 0,0 1 0,-2 2 30,8-8 0,-2 3 0,2 2 233,4 2 1,1 2 0,-2 4-219,11-7 0,-2 3 65,-17 13 1,0-1-1,-3 0 25,8-11 0,-7-2 161,-13 6 0,-12-3-26,-17-45-135,-36 46 0,-17 4-75,-10 10 0,-12 3 0,-6 2-91,5 4 0,-4 3 1,-3 0-1,-3 1 53,-12-4 1,-4 2-1,-2 0 1,0 0-23,-2 1 0,0 0 0,0 1 0,0 0 0,2 0 0,0 1 0,0 0 0,0 2 0,-3 1 0,0 2 0,-1 0 0,-1 3-190,17 4 0,-1 0 0,-1 2 0,0 1 0,-2 1 190,-3 1 0,-1 2 0,0 0 0,-1 2 0,1 0-307,-1 0 1,-1 2 0,1 0 0,1 1 0,4 0 283,-6 0 1,4 1-1,1 0 1,-3 2-32,7 0 0,-2 2 0,-1 0 0,2 1 0,3 0-59,-1 2 1,3 0-1,1 2 1,-3-1-1,-13 3 1,-3 0 0,-2 1-1,-2 1-163,12-1 1,-3 1 0,0 1-1,1 0 1,1-1 239,8-1 0,3 0 0,-1 0 0,1 0 0,-2 1 0,-6 0 0,0 1 0,-1 0 0,-1 0 0,1 0-36,-3 0 0,-1 1 0,0 0 0,1 0 1,3-1-19,-6 1 0,3-2 0,0 1 0,0 0 101,-7 1 0,0-1 0,0 1 0,1-1-56,3-2 0,1 0 0,1-1 1,5 0 44,-7 2 0,4 0 0,2 0 0,1-1 0,0 0 0,3 2 231,5 3 0,2 1 0,4 2-231,-16 7 0,4 2 45,-3 2 0,2 4 759,4 5 0,6 6-669,15 1 0,5 5-90,-6 12 0,2 7 75,18-9 0,3 6 0,4-2 59,-6 17 1,6 3 0,9-12 0,3 4 0,13 2-60,20 6 0,14 1 0,7-3 152,2-8 0,7-2 0,11-3-344,-2-17 0,7 0 0,6-2 0,5-4 0,3-8-756,11-7 1,6-9 0,4-5 0,1-4 0,-1 0-792,-6-3 0,1-2 0,0-3 0,-1-2 0,-1-2 1387,14-1 0,0-4 0,-3-3 0,-8-4 0,-5-6 0,-6-4 1,-10 0-1,-9 0 0,-1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4659 996 7623,'-43'-26'4677,"-1"2"0,-21-17-719,24 8-1439,48 35 449,39 45-2204,-2-4 1,6 9-495,13 18 0,3 5-660,-20-22 0,0 0 0,0 1-1379,1 0 0,0 0 0,-1-4-1469,16 17 0,-2-6 3238,-10-14 0,-6-7 0,10 3 0,-26-26 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="600">5524 1307 10411,'-16'-76'9830,"-6"22"-7877,-5 77-1503,-6 46-450,17-20 0,2 3-450,0 11 1,2-1-91,0 16 540,10-70 270,13-76 44,-1 10 1,1-7 135,3-11 0,1 4 719,9-16-539,10 26-1,11 82-539,30 46-90,-6 6-90,-8-20 1,3-8-91,19-10 135,-15-19 0,2-15 224,-12-28 1,-6-14 135,-7-1 0,-9-10 104,-14-8 1,-9-10 0,-8-1 30,-13-4 0,-10-2 0,-2 1-450,1 4 0,0 1 0,-6 2 0,-5-1 0,-4 2 0,-1 11-2069,-4 13 0,1 13-2968,-17-1-4794,28 64 9208,26 4 0,11 4 0,-4-25 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2116">6487 763 9242,'3'-24'9830,"-17"-7"-7517,-6 3-1594,-19 30 91,0 65-630,23-8 0,7 6-180,6 16 0,7 1-90,7-1 0,6-6 0,5-11 0,4-8 90,22 11 180,-10-47-90,-18-39 0,-20-34 0,-22-22 0,-15-12 0,9 32 0,1 1-90,-9-19 44,14 22 1,4 0 405,10-13 180,9-12-180,22 17 179,23 27-269,30 42-315,-25 17 0,2 8-45,6 16 0,-1 7 45,-1 8 0,-4 3-45,-9-1 0,-7 0 0,-11-9 0,-8-3 0,-9 30-270,-26-40-539,-21-53 89,-3-75 540,24 16 0,8-6 135,4-13 0,7 1 0,8 9 0,7 5 45,3 16 0,6 10 90,30 5 90,4 60-90,-3 60-45,-31-22 0,-4 5-45,-1 4 0,-1 0 0,0-8 0,2-5 0,29 12 0,10-49 90,-2-53 0,-15-49-135,-35 25 0,-10-3 0,-11 1 0,-9 5 0,-7 8 0,-7 12-764,-42 12-990,22 57 359,37 32 721,46 2 809,33-22 1169,20-31 270,-3-27-180,-13-6-449,-3 13-630,-20 23-90,4 22-90,-11 9-1,-7-5 1,0-25 270,3-40 90,10-34 0,8-16 89,-1 13-269,6 32-180,-11 34-270,10 24-180,-3 6-89,7-6 179,4-23 90,-1-31 90,-6-27 0,-10-14 0,-12 5 90,-11 20-270,15 37 90,14 32-315,-10 3 1,2 7-1125,-1 8 0,-5 7-90,-5 5 0,-11 5-1574,-19 8 0,-14 0 3283,-6-15 0,-8-4 0,-11 2 0,-5-5 0,-32 14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11932">1343 2970 8432,'-8'-46'6117,"16"-6"-4768,27-11-540,29 9-539,-17 32 0,7 5-90,18 4 0,8 4-150,-9 0 0,5 3 0,4-2-239,-9 1 1,3-2 0,2 0-1,1-1 231,8-1 1,1-2 0,0 0-1,0 0-22,-5 1 0,0-1 0,-1-1 0,-1 1 13,20-3 0,-1 0 1,-3 1 255,-12 3 1,-4 2 0,1-1-120,-1 1 0,1-2 0,1 1-120,10-3 0,2-1 0,2-1-8,-20 2 1,1 0-1,1 0 1,0 1-208,2-2 1,1 1 0,1 1 0,1 2 184,7 2 0,1 0 0,1 2 0,-1 4-238,-2 4 0,0 4 0,0 2 0,1 1 260,8 4 1,1 3-1,1 2 1,0 1-23,-16-2 0,0 2 0,1 1 0,-1-1 0,1 0-108,-1-2 0,2 2 0,-1-2 0,-1 0 0,-1-2-117,11 4 0,-2-2 0,-2-2 1,-1-1 213,-11-2 0,0-2 0,-3-3 0,-5-1-49,6-3 0,-4-3 0,-2-5 168,25-10 0,-1-12-108,-26-1 0,0-7 0,0-4 30,3-7 0,-1-6 0,0-4-48,-12 7 1,-1-4 0,1-1-1,-1-1-5,0-2 1,0-3 0,0 1-1,-1 0 23,-2 2 0,0 0 0,0 1 0,-2 2 30,8-8 0,-2 3 0,2 2 233,4 2 1,1 3 0,-2 3-219,10-7 0,-1 3 65,-17 13 1,0 0-1,-3-1 25,8-11 0,-7-2 161,-13 7 0,-12-4-26,-17-46-135,-36 47 0,-17 5-75,-10 9 0,-12 4 0,-6 1-91,5 5 0,-4 2 1,-3 1-1,-2 1 53,-13-5 1,-4 3-1,-2-1 1,0 1-23,-2 0 0,0 1 0,0 1 0,0-1 0,2 1 0,1 1 0,-1-1 0,0 3 0,-3 1 0,0 1 0,-1 1 0,-1 3-190,17 4 0,-1 0 0,-1 1 0,1 2 0,-3 1 190,-3 1 0,-1 2 0,0 0 0,-1 2 0,1 0-307,-1 0 1,-1 2 0,1 0 0,1 1 0,5 0 283,-7 0 1,4 1-1,1 0 1,-3 2-32,7 0 0,-2 2 0,-1 1 0,2 0 0,3 0-59,-1 2 1,4 0-1,0 2 1,-3 0-1,-13 2 1,-3 0 0,-2 1-1,-2 2-163,12-2 1,-3 1 0,0 1-1,2 1 1,0-2 239,8-1 0,3 0 0,-1 1 0,1-1 0,-2 1 0,-6 0 0,0 2 0,-1-1 0,-1 0 0,1 0-36,-2 1 0,-2 0 0,0 0 0,1 1 1,3-2-19,-6 1 0,3-2 0,0 2 0,0-1 101,-7 1 0,1-1 0,-1 2 0,1-2-56,3-2 0,1 0 0,1 0 1,5-1 44,-7 2 0,4 0 0,2 1 0,2-2 0,-1 0 0,3 2 231,5 4 0,2 0 0,4 3-231,-16 6 0,4 2 45,-3 3 0,2 4 759,4 4 0,6 7-669,16 1 0,4 5-90,-6 12 0,2 7 75,18-9 0,3 6 0,4-2 59,-6 18 1,6 2 0,9-12 0,3 5 0,13 1-60,20 7 0,14 0 0,7-3 152,2-7 0,7-3 0,11-3-344,-2-17 0,7 0 0,6-2 0,5-4 0,2-9-756,12-6 1,6-10 0,4-4 0,1-5 0,-1 0-792,-6-3 0,1-1 0,0-4 0,-1-2 0,-1-2 1387,13-1 0,1-4 0,-3-3 0,-8-4 0,-5-6 0,-6-4 1,-10-1-1,-9 1 0,-1 1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14941,7 +14949,7 @@
       <inkml:brushProperty name="color" value="#00A0D7"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1053 1708 7713,'17'16'7915,"32"-7"-7645,20-10 0,18-7-91,-17-3 1,8-2 0,5-4 0,4-2-692,-12 1 1,4-1 0,2-2 0,2-2 0,1 0-1,0-1 557,5-2 0,1 0 0,2-2 0,-1-1 0,0 0 0,-1-2-30,-1-1 0,0-1 0,0 0 0,-1-2 0,-4 0 0,-5-1 81,-1 0 0,-3-1 1,-3 0-1,-5-1 0,-5-2-66,16-14 0,-9-3 0,-15-3 215,-8-26 1,-31-3-246,-32 26 0,-18 1 0,-9 2-30,-19-5 0,-13 4 1,-9 4-223,19 20 1,-4 1 0,-4 3-1,-4 3 1,-3 3 251,2 5 0,-3 3 0,-2 3 0,-3 2 0,-2 3 0,0 3-54,3 3 0,-2 3 0,-1 2 0,-1 2 0,-1 3 1,1 3-1,-1 2 54,-3 3 0,-2 3 0,0 3 0,0 2 0,1 2 0,1 3 0,2 2 25,4 1 1,0 1 0,1 3-1,2 2 1,1 2 0,4 3 0,3 1-45,-3 7 1,1 3 0,4 2 0,4 2 0,5 2 0,6 0 85,-9 17 1,8 3-1,10 1 1,14 3 20,17-4 0,10 3 0,11-2 0,11-4 31,24 13 1,19-7 0,13-7-98,-1-17 1,10-5 0,8-6-1,2-7-174,-7-10 0,3-6 1,4-5-1,2-3 1,1-4-374,-6-4 0,3-3 1,1-4-1,1-3 0,0-1 1,-3-2-1261,13-3 1,0-4 0,-2-2-1,-2-1 1,-4 0 1784,3-1 0,-4-1 0,-4-1 0,-4-1 0,4-5 0,-5-1 0,-13 2 0,20-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1054 1752 7713,'17'17'7915,"32"-8"-7645,20-10 0,18-7-91,-17-4 1,9-1 0,4-4 0,4-3-692,-12 2 1,4-2 0,2-1 0,2-3 0,1 0-1,0 0 557,5-3 0,1 1 0,3-3 0,-2-1 0,0 0 0,-1-2-30,-1 0 0,0-2 0,0 0 0,-1-2 0,-4 0 0,-5-1 81,-1 0 0,-2-1 1,-4 0-1,-5-1 0,-5-2-66,16-14 0,-9-4 0,-15-2 215,-8-27 1,-31-4-246,-32 28 0,-18 0 0,-9 3-30,-19-6 0,-13 4 1,-9 5-223,19 20 1,-4 1 0,-5 3-1,-3 3 1,-3 4 251,2 4 0,-3 3 0,-2 4 0,-3 2 0,-2 2 0,0 4-54,3 3 0,-2 3 0,-2 2 0,0 2 0,-1 3 1,1 3-1,-1 3 54,-3 2 0,-2 3 0,0 4 0,0 1 0,1 3 0,0 3 0,3 1 25,4 2 1,0 1 0,1 3-1,2 2 1,1 2 0,4 3 0,3 1-45,-3 7 1,1 3 0,3 3 0,5 1 0,5 3 0,6-1 85,-9 18 1,8 3-1,10 1 1,14 3 20,17-4 0,10 3 0,11-2 0,11-4 31,24 13 1,19-6 0,13-9-98,-1-16 1,10-6 0,8-6-1,3-7-174,-8-10 0,3-6 1,4-6-1,2-3 1,1-3-374,-6-5 0,3-3 1,1-4-1,1-3 0,0-1 1,-2-2-1261,12-4 1,0-3 0,-2-3-1,-2 0 1,-4 0 1784,3-2 0,-4 0 0,-4-2 0,-4 0 0,5-6 0,-6-1 0,-13 3 0,20-14 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15001,16 +15009,16 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">817 1612 9781,'-9'-25'9830,"0"16"-5718,6 27-3392,5 15-331,29 19 1,21 15 0,0-10-345,0-17 0,4-4-15,10 13 0,7 3 0,-3-23 195,4-37 0,-6-22 90,-10-10 0,-7-14 584,2-27 1,-9-6-900,-15 19 0,-5 2 0,-3-3 0,-3 7 0,-2 2 0,-4 60 0,-5 35 0,-2 27 0,-1 13 0,-3 5 0,0 4-1350,-1-12 1,0 4 0,1-1-2204,2 25 0,3-3 3553,4-13 0,1-9 0,2 11 0,5-40 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="550">2426 1662 8612,'2'-53'4915,"0"0"0,-8-3-3771,-21-35-245,-27 74-89,-39 39-630,37 11 0,3 8-135,4-1 0,7 7 0,12 15 0,16 1 44,36 3 91,26-21 720,26-64-226,-33-11 1,-2-6-225,29-30-315,-32 26 0,0 6-135,22 15 90,-7 24 179,7 56 271,-40-15 0,-5 5 359,-2 11 1,-8 4-720,-13 9 0,-9-1-180,-1-16 0,-8-4 0,-12 1 0,-7-8-4228,-32-4-2788,0-30 7016,29-42 0,23 7 0,21-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="833">2715 1869 10501,'18'-6'8725,"1"0"-8185,0 4 89,0 1 451,2 2 1708,-1-2-269,-2-2-3239,-10-8-1349,-13 6-3957,-15 4 6026,-4 14 0,7-3 0,8 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1950">3264 1156 7173,'-5'-16'7466,"4"1"-5308,4-1 901,3 3 898,0-1-3057,-3 18-181,1 34-179,2 27-360,2-14 0,3 2-90,3-3 0,3-1 45,3-2 0,1-3 584,17 20-89,0-19-90,-9-21-540,-5-8 0,-6-6-90,-6-2 90,-1 1 0,-1-1 0,3 2 0,11-3 90,15-11-90,5-21 0,2-36 0,-27 15 0,-4-4 0,-4-5 0,-1 0 0,-3 4 0,-2 2 0,0-31 0,-2 83 0,4 44 0,-3 14 0,2 7-135,0 2 0,2 3-4781,4 16 1,2-2 4884,5-23 0,0-4 1,5 34-1,2-51 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2316">4451 1557 8522,'22'-69'4632,"-6"17"1,-4 0-1215,-9-23-540,-17-15-1169,-34 53-989,-15 52-630,24 35 0,7 15-450,10-8 0,8 4-150,8 4 1,6 5-1,7-6 510,10-4 0,7-5 944,4 2 1,6-10 854,34-18-1259,-20-46-540,-15-6 0,-34-19-3418,-49 39-1620,-8 4-2877,-14 27 7915,35-4 0,16-9 0,16-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2766">4882 1385 10591,'32'-82'3028,"1"0"0,-11 23 1,-6 2-2400,-8 1 1,-12 11-360,-26 22-90,-12 42-540,2 45-180,24-18 1,3 4 179,3 3 0,3-1 90,3 44 270,7-35 270,20-29 0,17-37 90,12-6 89,7 0 181,-11 28 270,-12 37 449,-20 40-900,-20-31 1,-8 1-1125,-10 6 1,-9-2-2025,-9-2 1,-7-5 2698,-4-11 0,1-8 0,-13 7 0,19-28 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3950">1002 3290 9332,'4'1'5936,"20"-7"-4992,45-11 1,28-8-765,-26 7 0,9-3 0,7 0 0,3-2 0,-2 1-800,-8 2 0,-1 1 0,2-1 0,3 0 0,2-2 0,5 0 650,-9 3 0,5-2 0,2-1 0,3 0 0,2 0 0,0-1 0,1 1 0,-2 0 0,-1 1-205,-3 0 0,1 1 0,0-1 1,0 1-1,-1 0 0,1 0 1,-2 0-1,0 1 0,-1-1 208,4 0 1,-2 1 0,0-1 0,-1 1 0,0 0-1,0-1 1,0 1 0,1 0-1,1 0 1,2-1 0,2 1 0,-2-1 0,-1 1-1,-2 0 1,-5 1 0,-6 1 279,9-3 1,-6 1 0,-4 1 0,-3 0 0,-1-1-134,8-1 0,-2 0 0,-5-2 0,-5-3 89,1-5 1,-6-4 0,-11-6-45,-4-23 0,-13-5-225,-5 5 0,-8-5-90,-6-23 0,-13-6-60,-14 27 0,-9 0 0,-2 1 461,1 5 0,-3 1 0,-6-2-334,-5 3 1,-5-2 0,-5 0-1,-4 4 0,-7 3 1,-5 3 0,-3 1-1,0 2 537,2 0 0,1 2 0,-3 0 0,-6 0-550,-5 2 0,-6-2 0,-4 2 0,0 2 0,2 5-128,-9 0 0,2 4 0,-1 4 0,-4 0 146,11 4 0,-3 1 0,-2 2 0,-1 2 0,-2 5-12,10 4 0,-2 4 0,-1 2 0,-1 2 0,0 2 0,1 1 0,-1 3 0,1 2 0,0 2 0,-2 1 0,0 2 0,-3 1-164,2 1 1,-1 1 0,-3 1 0,0 1 0,-1 2 0,1 1-1,0 2 181,-1 1 0,-2 3 0,1 1 1,0 1-1,1 0 0,2 1 0,2 0 13,-3 1 0,3 0 0,1 1 0,1 0 0,1 3 0,0 1 0,1 3 0,-1 2 0,0 1 0,3 2 0,4 1 0,4 1-53,-11 11 1,7 1-1,4 3 1,1 4 70,13-7 0,0 3 0,3 3 0,2 1 0,4 1 49,-6 14 0,4 2 1,5 2-1,6 2 45,8-4 1,4 3-1,6 0 1,7 0 22,9 1 0,6 0 0,7 0 0,7-3-90,8-4 0,6-3 0,7-2 0,3-2-111,6-1 0,6-3 1,4-2-1,2-4-631,2-3 0,3-4 0,1-4 0,2-3-1072,20 4 0,2-7 0,-2-6 1689,-11-9 0,-2-5 1,-4-4-1,14-1 0,-6-7 1,-19-11-1,-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5166">2942 4190 11940,'-37'-37'8096,"-22"13"-7197,-31 24-359,15 21 89,27 35-494,74-7 0,23 3-135,1 0 0,9 0 30,4-5 0,7 1 0,-3-1 375,17 10 0,-5-3 269,-13-8 1,-9 2 314,-19-2 1,-19-1 89,-48 10-629,-37-6-585,8-32 0,-5-11-1799,7-9 0,1-8-270,-1-3 1,3-8-406,9-12 1,9-8 2608,-4-48 0,15 30 0,18 10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5550">2851 4293 8072,'3'-36'6836,"-1"12"-2968,-2-15-2518,5 10 448,33-5-898,35-6-1305,-11 18 0,5 2-495,7-1 1,1 1 269,3 0 1,-2 1 494,-12 1 0,-3 1 1214,-11 2 1,-4 0 2518,17-9-630,-24 8-1708,-16 13-1260,-4 38 0,6 35 0,-6-10 0,3 8-3553,4 12 0,2 3-855,1 5 1,-1-3 4124,-4-14 0,-2-7 0,4 17 1,-17-53-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6350">4467 3508 8432,'-30'-29'5217,"-31"-6"-4363,1 7 1,-10 2-705,7 9 0,-6 3 0,-6 2-535,-2 4 1,-5 1 0,-4 3 0,-1 3 491,9 2 1,-2 2 0,-2 2 0,-1 1 0,-1 3 36,-10 2 0,-1 2 0,-2 2 0,1 3 0,1 3-185,0 2 0,1 2 0,0 3 0,2 2 1,1 4 201,4 1 1,0 2 0,2 3 0,2 3 0,4 3-36,4 2 0,3 2 0,2 4 0,4 1 0,3 1 24,-4 10 1,4 3 0,5 1 0,8 2-84,10-4 1,5 2-1,8 1 1,10 0-8,12 20 0,16 1 0,15-5-30,19-5 0,16-5 0,11-6-30,-4-17 0,8-4 0,6-5 0,2-6-214,-10-11 0,3-3 1,3-5-1,1-3 1,1-4 195,6-4 0,3-4 0,1-5 0,0-2 0,-1-4 0,-2-3 0,-1-4 0,1-2 0,-2-3 0,0-2 18,-1-3 0,0-2 0,0-2 0,-3-2 0,-2-1-23,8-6 1,-1-2-1,-4-2 1,-3-1 143,-8 2 1,-3-1-1,-2-2 1,-6 0-122,5-8 0,-5-2 0,-7-1 489,-10 1 0,-5-1 1,-6-2-310,0-28 0,-15-4 134,-16-9 1,-17-2-27,-6 33 0,-7 0 1,-6 2-229,-10 0 0,-7 2 0,-6 6-117,-11 3 1,-7 7 0,-5 6-964,-9 5 1,-5 8 0,-3 8-241,16 8 1,-2 6 0,-1 3 0,3 2 1259,-16 4 0,3 5 0,4 2 0,14 0 0,3 3 0,7 0 0,2 7 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">820 1634 9781,'-10'-25'9830,"1"16"-5718,6 27-3392,5 15-331,30 20 1,20 15 0,0-10-345,0-18 0,4-3-15,10 12 0,8 4 0,-4-23 195,4-39 0,-6-21 90,-10-10 0,-6-15 584,1-27 1,-9-7-900,-15 21 0,-5 1 0,-3-3 0,-3 7 0,-2 2 0,-4 61 0,-5 35 0,-2 28 0,-1 13 0,-3 5 0,0 5-1350,-1-13 1,0 4 0,1-1-2204,2 25 0,3-3 3553,4-12 0,1-10 0,2 11 0,6-41 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="550">2433 1685 8612,'2'-54'4915,"0"0"0,-8-2-3771,-21-37-245,-27 76-89,-39 39-630,37 12 0,3 7-135,3 0 0,8 7 0,12 14 0,16 2 44,36 3 91,26-21 720,27-65-226,-34-12 1,-2-5-225,29-31-315,-32 26 0,0 7-135,22 14 90,-6 26 179,6 55 271,-40-14 0,-5 5 359,-2 11 1,-8 3-720,-13 11 0,-9-2-180,-1-17 0,-8-3 0,-12 1 0,-8-9-4228,-31-3-2788,0-31 7016,29-42 0,23 7 0,21-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="833">2723 1895 10501,'18'-6'8725,"1"-1"-8185,0 5 89,1 1 451,1 2 1708,-1-2-269,-2-2-3239,-10-8-1349,-13 6-3957,-15 4 6026,-4 14 0,7-3 0,8 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1950">3274 1172 7173,'-5'-16'7466,"4"0"-5308,4 0 901,3 3 898,0-1-3057,-3 18-181,1 34-179,2 28-360,2-14 0,3 2-90,3-4 0,3 0 45,3-2 0,1-4 584,17 21-89,1-19-90,-10-22-540,-5-8 0,-6-5-90,-6-3 90,-1 1 0,-1-1 0,3 2 0,11-3 90,15-11-90,5-21 0,2-37 0,-27 15 0,-3-3 0,-5-6 0,-1 0 0,-3 4 0,-2 3 0,0-32 0,-2 84 0,4 44 0,-3 15 0,2 7-135,0 2 0,2 3-4781,4 16 1,2-2 4884,5-23 0,0-4 1,5 34-1,2-51 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2316">4465 1578 8522,'22'-70'4632,"-6"18"1,-4-1-1215,-9-23-540,-17-15-1169,-34 53-989,-16 53-630,25 36 0,7 15-450,10-8 0,8 4-150,8 3 1,6 6-1,7-6 510,10-4 0,7-5 944,4 2 1,6-11 854,35-17-1259,-21-48-540,-15-5 0,-34-19-3418,-49 39-1620,-8 4-2877,-15 27 7915,36-4 0,16-9 0,16-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2766">4897 1404 10591,'32'-83'3028,"1"0"0,-11 23 1,-6 2-2400,-8 1 1,-12 12-360,-26 21-90,-12 44-540,2 45-180,24-19 1,3 5 179,3 3 0,3-2 90,3 46 270,7-37 270,20-28 0,17-38 90,12-6 89,7 0 181,-11 28 270,-11 38 449,-21 40-900,-20-31 1,-8 1-1125,-10 6 1,-10-3-2025,-8-1 1,-7-5 2698,-4-11 0,1-9 0,-13 8 0,19-29 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3950">1005 3335 9332,'4'1'5936,"20"-7"-4992,45-11 1,29-9-765,-27 8 0,9-3 0,7 0 0,4-3 0,-3 2-800,-8 2 0,-1 0 0,3 0 0,2 0 0,2-2 0,5-1 650,-8 4 0,4-2 0,2-2 0,4 1 0,1 0 0,0-1 0,1 0 0,-1 1 0,-2 1-205,-3-1 0,2 2 0,-1-1 1,0 1-1,-1-1 0,2 1 1,-3 0-1,0 0 0,-1 0 208,5 0 1,-3 1 0,0-2 0,0 2 0,-1 0-1,0-1 1,0 0 0,2 1-1,0 0 1,2-1 0,2 0 0,-1 0 0,-2 1-1,-2-1 1,-4 2 0,-7 1 279,9-3 1,-6 0 0,-3 2 0,-4 0 0,-1-1-134,8-2 0,-2 1 0,-4-2 0,-6-3 89,1-6 1,-6-3 0,-10-7-45,-5-23 0,-13-5-225,-5 5 0,-8-5-90,-6-23 0,-13-6-60,-14 27 0,-9 0 0,-2 1 461,1 5 0,-3 1 0,-6-2-334,-5 4 1,-6-3 0,-4 0-1,-4 4 0,-7 3 1,-5 3 0,-3 2-1,-1 1 537,3 0 0,1 3 0,-3-1 0,-6 0-550,-6 3 0,-5-3 0,-4 2 0,0 3 0,1 4-128,-8 1 0,2 3 0,-1 5 0,-5-1 146,12 5 0,-3 1 0,-3 1 0,0 3 0,-2 5-12,10 3 0,-3 5 0,0 2 0,-1 2 0,0 2 0,0 1 0,0 3 0,1 2 0,0 2 0,-3 1 0,1 2 0,-3 1-164,2 1 1,-2 2 0,-2 0 0,0 1 0,-2 2 0,2 1-1,0 3 181,-1 0 0,-3 3 0,2 1 1,0 2-1,0-1 0,3 1 0,2 1 13,-3 0 0,2 0 0,2 2 0,1-1 0,1 3 0,-1 2 0,2 2 0,-1 3 0,0 0 0,2 3 0,5 0 0,4 2-53,-11 11 1,6 0-1,5 4 1,1 4 70,13-7 0,-1 2 0,4 4 0,2 1 0,4 1 49,-6 14 0,4 2 1,4 2-1,7 2 45,8-4 1,4 3-1,6 0 1,7 0 22,9 1 0,6 1 0,7-1 0,7-3-90,8-4 0,6-3 0,7-2 0,3-3-111,7 0 0,5-3 1,4-2-1,2-4-631,2-3 0,3-5 0,2-3 0,1-4-1072,20 5 0,2-7 0,-2-7 1689,-10-9 0,-3-4 1,-4-5-1,14-1 0,-5-7 1,-20-11-1,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5166">2951 4247 11940,'-37'-37'8096,"-22"13"-7197,-32 24-359,16 21 89,27 36-494,74-8 0,23 4-135,1 0 0,10-1 30,3-4 0,7 1 0,-3-2 375,18 11 0,-6-3 269,-13-8 1,-9 1 314,-19-1 1,-19-2 89,-48 11-629,-37-6-585,8-33 0,-5-11-1799,6-9 0,2-8-270,-1-3 1,3-8-406,9-13 1,9-7 2608,-4-50 0,15 31 0,18 11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5550">2860 4352 8072,'3'-37'6836,"-1"13"-2968,-2-15-2518,5 9 448,33-4-898,35-7-1305,-11 19 0,6 2-495,6-2 1,1 2 269,3 0 1,-2 0 494,-11 2 0,-4 1 1214,-11 2 1,-4 0 2518,17-10-630,-24 9-1708,-15 13-1260,-5 38 0,6 36 0,-6-10 0,3 8-3553,4 12 0,2 3-855,1 6 1,-1-4 4124,-4-14 0,-2-7 0,4 17 1,-17-54-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6350">4481 3556 8432,'-30'-29'5217,"-32"-7"-4363,2 8 1,-10 1-705,7 10 0,-6 3 0,-7 2-535,-1 4 1,-5 1 0,-4 3 0,-2 3 491,10 2 1,-2 2 0,-2 2 0,-2 1 0,0 3 36,-10 2 0,-1 2 0,-3 2 0,2 4 0,1 2-185,-1 2 0,2 3 0,0 2 0,2 2 1,0 5 201,5 0 1,0 3 0,1 2 0,3 4 0,4 3-36,4 1 0,2 3 0,3 4 0,4 1 0,3 0 24,-4 11 1,3 3 0,6 1 0,8 2-84,10-4 1,5 2-1,8 1 1,10 0-8,12 20 0,16 1 0,15-4-30,19-6 0,16-5 0,11-6-30,-3-17 0,7-5 0,6-4 0,2-7-214,-9-10 0,2-4 1,3-5-1,1-2 1,2-5 195,5-4 0,3-4 0,1-5 0,1-2 0,-2-4 0,-2-3 0,0-4 0,0-3 0,-2-2 0,0-2 18,0-3 0,-1-3 0,0-1 0,-3-3 0,-1 0-23,7-6 1,-1-3-1,-4-2 1,-2 0 143,-9 1 1,-3 0-1,-2-3 1,-5 1-122,4-9 0,-5-2 0,-7 0 489,-10 0 0,-5-1 1,-6-2-310,1-28 0,-16-4 134,-16-9 1,-17-3-27,-6 34 0,-8 1 1,-5 1-229,-10 0 0,-7 2 0,-6 6-117,-11 4 1,-8 6 0,-4 6-964,-9 6 1,-5 8 0,-4 7-241,17 9 1,-2 6 0,-1 3 0,2 2 1259,-15 4 0,3 5 0,3 2 0,15 1 0,3 2 0,7 0 0,2 7 0,-1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15132,23 +15140,23 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5325 209 10411,'-3'-64'9830,"-5"11"-4998,-4 28-3753,6 46-989,18 57-2429,2-20 1,4 5-586,5 6 1,2-1 2923,-2-7 0,0-5 0,5 11 0,-14-36 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="200">5311 534 11041,'-66'-35'9830,"20"4"-6888,49-12-4651,73 5-900,-8 16 1,8 4 2608,6 4 0,-2 3 0,-24 4 0,-6 2 0,13 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="383">5637 668 10231,'-55'23'9830,"17"-8"-6078,16-2-6630,69-17-91,2-3 1,7-2 2968,12-4 0,0 0 0,-7 1 0,-3 0 0,32-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1250">6972 335 11400,'-13'-2'2609,"46"-10"0,31-5-2430,16-4 1,18-1 0,6-1-733,-21 6 0,4-1 0,4 1 0,3 0 0,-1 0 388,-7 3 0,3 0 0,1 0 0,0 1 0,-1 1 0,-4 0-87,2 0 0,0 1 0,-3 1 1,-3 1-1,-5 2 385,23-2 1,-8 3-1,-23 1 227,-23 1-90,-105 5 0,-51 3-135,29 0 0,-9 1 0,-7 2 0,-5 0-258,12 1 0,-5 1 0,-4 1 0,-2 1 0,0 0 0,3 1 168,2 1 0,-1 0 0,1 1 0,1 0 0,2 1 0,4 1-9,-5 0 0,-2 0 0,4 1 0,12 2 0,18 4 49,0 14 1,37-2 71,71-16 1,56-11-1,25-3 1,-7 0-69,-33 0 1,3-1 0,3-1 0,2 0 0,2 0 0,2-1-91,-12 0 1,4 0-1,2 0 1,1-1 0,0 0-1,-2 0 1,-4 0-1,-4-1 19,19 2 0,-2-1 0,-5 0 0,-6-1 0,-7-2-18,22 1 0,-9-2 0,-52-6-241,-74-12 1,-35-1 222,5 9 0,-16 4 0,-10 1 0,-4 1 0,-1 1 69,9 2 0,-3 0 1,-4 0-1,-1 2 1,-2 0-1,1 1 1,0 1 56,-1 0 1,-2 2-1,-1 0 1,0 1-1,3 1 1,2 0-1,6 0-90,-19 1 0,-7 0 0,9 2 0,26 1 0,43 5 72,51 10-75,31-13 0,34-7 0,23-4 0,12-2 0,3 0 0,-9 2-15,-20 1 0,2 1 0,2-1 0,2 1 0,0-1 0,2 1 0,-1-1 0,1 1-100,-6 0 0,2 0 0,2 0 0,0 0 0,0 0 0,-2 0 1,-1 0-1,-5 1 0,-3-1-95,15 0 0,-2 1 0,-4 1 0,-4-2 0,-8 0 1,-7-2-316,12 0 0,-10-1 0,-22-9-216,-17-24-803,-81 8 0,-27 2-990,10 6 1,-1 2 2518,-2 0 0,5 2 0,3 5 0,44 9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2734">4 660 12120,'-2'-29'7736,"1"20"-7107,1 37 181,8 21-181,24 36-314,-1-45 0,7-4 225,39 18 179,-19-42 1,3-16 314,-5-24 1,-4-11-451,-6 4 1,-2-4-135,-2-10 0,-6 0-450,-4-5 0,1 24 0,-9 48 0,2 49-2654,-16-12 1,-2 8-900,0 14 0,-1 2 3553,-1-3 0,-1-5 0,2 25 0,-1-44 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2267">1319 734 9512,'4'-56'3178,"0"0"0,-6-3 0,-7 5-1469,-30-22-1529,-29 39 90,-6 69-270,19 44-180,41-27 0,10 1-90,26 38 180,27-24 180,11-23-90,2-15 90,-1-1 0,-5 10 540,-9 12 629,-22 12-359,-31 0-631,-37-4-2967,-31-16-2249,-12-19 4947,11-22 0,33-2 0,22-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1983">1702 1029 3155,'21'-1'7646,"-2"3"-4971,-1 2-1955,-1 2 4507,1-4-3787,-3-19 432,-18-7-2592,-19-9-2249,-19 19-6862,4 26 9320,15 9 1,14 0-1,10-10 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1267">2473 473 9871,'1'-18'5577,"-1"1"-630,-3-1-179,0 1-2520,-3 2-1348,5 17-540,2 18-360,22 50 0,15 9 0,-7-31 0,3-3 0,34 11 0,29-55 0,-54-26 0,-3-9 0,3-4 0,-3-6 0,-5-11 0,-6 1 0,2-12 0,-3 16 0,-6 76 0,-3 42-3059,-6-15 1,1 5-1858,7 20 1,0-2 3527,5 7 1,6 0-1,-24-72 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-767">3641 481 7623,'9'-70'7825,"-6"3"-5936,-4 10 0,-2-1-1259,-10-15 89,-11 5-269,-18 56-270,10 16 180,-11 26 1079,22 3 180,4 15-180,1 29-1034,6-14 0,1 3-315,1-3 0,3 1-90,0 17 0,7-2-360,13-22 0,7-6 90,27 23 180,37-44 360,-41-48 0,-3-13 270,27-37-361,-38 15 1,-14-2-450,-41-27-2428,-23 32-3688,-40 42 6386,26 36 0,18-3 0,28-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-350">4196 410 8882,'23'-61'9830,"-19"-7"-7607,-16-19-1953,-33 29-90,-13 45-540,14 44-809,29 32 449,33 8 450,23-7 450,10-18 180,1-10 90,-1 1 269,-9 14 271,-18 22 719,-28 19-1215,-12-42 1,-7 0-360,-10 1 0,-7-3-1844,-5-5 0,-3-5-2339,0-9 1,1-7 4047,-20-2 0,29-17 0,26-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3099">1420 1560 9602,'15'-24'9264,"-11"10"-6835,-44 55-2249,-7 10 0,-10 12-1,4-2 1,-4 8 0,-1 1-372,12-13 0,-1 1 1,0 1-1,1 1 192,-1 1 0,0 2 0,1-1 0,4-2-300,-4 5 0,3-2 1,3-2-341,-9 14 1,6-7 9,-7 14 540,34-62 0,22-50 720,5-31 899,-2-16-26,-12 9-1143,-18 28 363,-22 45-543,-14 47-90,26-13 0,6 6-45,6 3 0,9 0-135,25 34-2429,56-33 90,-13-39 1,8-11 2428,10-8 0,1-6 0,-16 1 0,-4-1 0,-6 0 0,0-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6916">4030 1238 12030,'-24'-15'7016,"14"3"-5936,52 14-631,16 7 1,14 6-300,11 3 0,10 5 0,5 1-501,-12-3 0,3 2 0,2 1 0,0 1 369,-13-5 0,0 1 0,1 0 0,-1 1 0,-3-2-153,10 4 0,-1-1 0,-3 0 0,-4-2-122,1 1 1,-4-2 0,-7-1-374,5 1 1,-9-4-1350,18 3 1079,-43-13 900,-17-11 90,-32-13 1540,-14-8-101,-50-23 454,0 1-1444,31 20 1,0 1 1259,-35-24-1439,38 22-180,6 0 0,82 38-180,27 27 0,-20-11 0,2 5 0,0 11 0,-7 4 0,-1 21-180,-28 0-3688,-55-7-4228,-6-12 8096,-1-6 0,22-18 0,16-15 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7516">6915 1818 9152,'-31'-22'8095,"-3"4"-7465,-2 5 89,14 25-359,42 25-270,42 32-45,-14-26 0,5 1 360,3 0 0,0-2 629,-10-6 0,-6-1 406,-2 25-811,-63-25-1528,-48-4-1395,24-20 0,-2-5-7537,-42-4 9433,36-7 0,29-3 0,24 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7832">6996 2031 9422,'-9'-41'8725,"-1"-9"-7556,22 1-1079,26-9 0,26 2-45,-15 29 0,3 2 854,32-10 271,-3 2 449,-20 15-270,-9 35-809,-2 35-1350,-25-7 1,-3 7-2160,0 13 1,-3 3 2968,4 8 0,-1-3 0,-6-19 0,2-4 0,19 40 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7982">8120 2377 12840,'-26'-72'4677,"0"5"-7645,3 5 2968,28 10 0,-1 27 0,16 6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8349">8468 1507 9512,'9'-48'3276,"0"0"1,11-4 0,8 13 1824,31 34-4291,18 23-451,-20 54-269,-42-17 0,-8 6-45,-7 5 0,-4 1 0,0-3 0,7-3-90,10-11 0,12-8 45,19-13 0,11-10-180,16-9 0,5-10-764,2-6 0,0-3-1125,-9-2 0,-5-1-899,12-6 2968,-30 7 0,-33 7 0,-4 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11932">4533 2154 11041,'-60'-17'8095,"0"9"-7645,-15 20-90,29 15-270,17 11 89,81 17-134,-11-24 0,5-2 135,7 2 0,1 2 719,0 4 1,-6 2 629,-1 19-989,-29-1-180,-76-12-900,-21-24-854,15-15 0,0-10-225,12-16 0,7-8-180,-18-30 854,54 7 1,18-4 314,29 1 0,12 3 585,1 0 0,5 2 899,19-7 1,2 4 1034,-15 11 0,-4 3-900,-9 6 1,-4 2 2428,20-18-1799,-24 53-1259,-13 23-4408,13 59-868,-18-20 1,-2 2 4904,-2-10 1,-1-2-1,2 4 1,-1-5-1,3 1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5323 213 10411,'-3'-65'9830,"-5"11"-4998,-4 28-3753,6 48-989,18 57-2429,2-19 1,4 4-586,5 6 1,2 0 2923,-2-8 0,0-5 0,5 12 0,-14-38 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="200">5309 545 11041,'-66'-36'9830,"20"5"-6888,49-13-4651,73 5-900,-8 17 1,8 3 2608,6 5 0,-2 3 0,-24 4 0,-6 1 0,13 4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="383">5635 682 10231,'-55'23'9830,"17"-7"-6078,16-3-6630,69-17-91,2-3 1,7-3 2968,12-3 0,0 0 0,-7 1 0,-3-1 0,32-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1250">6969 342 11400,'-13'-2'2609,"46"-10"0,31-6-2430,16-3 1,18-2 0,6 0-733,-21 6 0,4-2 0,4 2 0,3 0 0,-1-1 388,-7 4 0,3 0 0,1-1 0,0 2 0,-1 1 0,-4 0-87,2-1 0,0 2 0,-3 1 1,-3 1-1,-5 1 385,22-1 1,-7 3-1,-23 1 227,-23 1-90,-105 5 0,-51 3-135,29 0 0,-8 1 0,-8 2 0,-5 1-258,12 0 0,-5 1 0,-4 1 0,-2 1 0,0 1 0,3 0 168,2 1 0,-1 0 0,1 2 0,1-1 0,2 1 0,4 2-9,-5-1 0,-2 0 0,4 2 0,12 1 0,18 4 49,0 15 1,37-2 71,71-17 1,56-10-1,25-4 1,-7 0-69,-33 0 1,3-1 0,3-1 0,2 0 0,2 0 0,2-1-91,-12 0 1,4 0-1,2 0 1,1-1 0,0 0-1,-2 0 1,-4 0-1,-4-1 19,19 2 0,-2-1 0,-5 0 0,-7-1 0,-6-2-18,22 1 0,-9-2 0,-52-6-241,-74-12 1,-35-2 222,5 10 0,-16 4 0,-10 1 0,-3 0 0,-2 2 69,9 2 0,-3 0 1,-4 0-1,-1 2 1,-2 0-1,1 1 1,0 1 56,-1 0 1,-2 2-1,-1 0 1,0 1-1,3 1 1,2 0-1,6 0-90,-19 2 0,-7-1 0,9 2 0,26 1 0,43 5 72,51 11-75,31-14 0,34-7 0,23-4 0,12-2 0,3 0 0,-9 2-15,-20 1 0,2 1 0,2-1 0,2 1 0,0-1 0,2 1 0,-1-1 0,1 1-100,-6 0 0,2 0 0,2 0 0,0 0 0,-1 0 0,-1 0 1,-1 0-1,-5 1 0,-3-1-95,15 0 0,-2 1 0,-4 1 0,-4-2 0,-8 0 1,-7-2-316,12 0 0,-10-1 0,-22-9-216,-17-25-803,-81 9 0,-27 1-990,10 7 1,-1 1 2518,-2 1 0,5 2 0,3 4 0,44 10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2734">4 674 12120,'-2'-30'7736,"1"21"-7107,1 37 181,8 22-181,24 37-314,-1-46 0,7-4 225,39 18 179,-19-43 1,3-16 314,-5-24 1,-4-12-451,-6 4 1,-2-4-135,-2-10 0,-6 0-450,-4-5 0,1 24 0,-9 50 0,2 49-2654,-16-12 1,-2 9-900,0 13 0,-1 3 3553,-1-4 0,-1-4 0,2 25 0,-1-45 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2267">1318 749 9512,'4'-57'3178,"0"0"0,-6-3 0,-7 5-1469,-30-23-1529,-28 40 90,-7 71-270,19 44-180,41-27 0,10 2-90,26 37 180,27-23 180,11-24-90,1-16 90,0 0 0,-5 9 540,-9 13 629,-22 12-359,-31 1-631,-37-5-2967,-31-16-2249,-11-20 4947,10-22 0,33-2 0,22-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1983">1701 1050 3155,'21'-1'7646,"-2"3"-4971,-1 2-1955,-1 3 4507,1-5-3787,-3-20 432,-18-6-2592,-19-10-2249,-19 20-6862,4 26 9320,15 9 1,14 1-1,10-11 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1267">2472 483 9871,'1'-19'5577,"-1"2"-630,-3-1-179,0 0-2520,-3 3-1348,5 17-540,2 19-360,22 50 0,15 10 0,-7-32 0,3-3 0,34 11 0,29-56 0,-54-27 0,-3-9 0,3-3 0,-3-7 0,-5-11 0,-6 1 0,2-13 0,-3 17 0,-6 78 0,-3 42-3059,-6-15 1,1 5-1858,7 21 1,0-2 3527,5 6 1,6 1-1,-24-74 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-767">3640 491 7623,'9'-71'7825,"-6"2"-5936,-4 11 0,-2-1-1259,-10-16 89,-11 6-269,-18 57-270,10 16 180,-11 26 1079,22 4 180,4 15-180,1 30-1034,6-15 0,1 3-315,1-2 0,3 0-90,0 18 0,7-3-360,13-22 0,7-6 90,27 24 180,37-45 360,-41-50 0,-3-12 270,27-39-361,-39 16 1,-13-2-450,-40-28-2428,-24 33-3688,-40 43 6386,26 37 0,18-4 0,28-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-350">4194 419 8882,'23'-63'9830,"-19"-6"-7607,-16-20-1953,-33 30-90,-13 46-540,14 44-809,29 33 449,33 9 450,23-8 450,10-18 180,1-10 90,-1 1 269,-9 14 271,-18 22 719,-28 20-1215,-12-43 1,-7 0-360,-10 1 0,-7-3-1844,-5-5 0,-3-5-2339,0-9 1,1-8 4047,-20-1 0,29-18 0,26-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3099">1419 1592 9602,'15'-24'9264,"-11"10"-6835,-44 55-2249,-7 11 0,-10 13-1,5-3 1,-5 8 0,-1 2-372,12-14 0,-1 1 1,0 2-1,1 0 192,-1 1 0,0 2 0,1 0 0,4-3-300,-4 5 0,3-1 1,3-3-341,-9 14 1,6-6 9,-7 13 540,34-62 0,22-52 720,5-31 899,-2-17-26,-12 10-1143,-18 28 363,-22 46-543,-14 48-90,26-13 0,6 6-45,6 3 0,9 0-135,25 35-2429,56-34 90,-13-40 1,8-11 2428,10-8 0,1-7 0,-16 2 0,-4-1 0,-6 0 0,0-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6916">4028 1264 12030,'-24'-16'7016,"14"4"-5936,52 14-631,16 7 1,14 7-300,11 2 0,10 5 0,5 2-501,-12-4 0,3 3 0,2 0 0,0 2 369,-13-6 0,0 2 0,1-1 0,-1 2 0,-3-3-153,10 5 0,-1-2 0,-3 1 0,-4-3-122,1 1 1,-4-1 0,-7-2-374,5 2 1,-9-5-1350,18 3 1079,-43-13 900,-17-11 90,-32-13 1540,-14-9-101,-50-23 454,0 1-1444,31 21 1,0 0 1259,-35-24-1439,38 23-180,6-1 0,82 39-180,27 28 0,-20-11 0,2 4 0,0 12 0,-7 4 0,-1 21-180,-28 1-3688,-55-8-4228,-6-12 8096,-1-6 0,22-19 0,16-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7516">6912 1856 9152,'-31'-23'8095,"-3"5"-7465,-2 5 89,14 25-359,42 26-270,42 32-45,-14-26 0,5 1 360,3 0 0,0-2 629,-10-7 0,-6 0 406,-2 25-811,-63-25-1528,-48-4-1395,24-21 0,-2-5-7537,-42-4 9433,36-7 0,29-3 0,24 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7832">6993 2073 9422,'-9'-42'8725,"-1"-9"-7556,22 1-1079,26-9 0,26 2-45,-15 29 0,3 3 854,32-11 271,-3 2 449,-20 16-270,-9 35-809,-2 36-1350,-25-7 1,-3 7-2160,0 14 1,-3 2 2968,4 9 0,-1-4 0,-6-19 0,2-4 0,19 41 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7982">8117 2426 12840,'-26'-73'4677,"0"4"-7645,3 6 2968,28 10 0,-1 28 0,16 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8349">8465 1538 9512,'9'-49'3276,"0"0"1,11-4 0,8 13 1824,31 35-4291,18 24-451,-20 54-269,-42-17 0,-8 7-45,-7 4 0,-4 1 0,0-2 0,7-4-90,10-11 0,11-8 45,20-14 0,11-9-180,16-10 0,5-10-764,2-6 0,0-3-1125,-9-3 0,-5 0-899,12-6 2968,-30 7 0,-33 7 0,-4 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11932">4531 2199 11041,'-60'-18'8095,"0"10"-7645,-15 20-90,29 16-270,17 11 89,81 17-134,-11-24 0,5-3 135,7 3 0,1 1 719,0 5 1,-6 2 629,-1 19-989,-29-1-180,-76-12-900,-21-24-854,15-16 0,0-10-225,12-17 0,7-7-180,-18-31 854,54 7 1,18-5 314,29 2 0,12 3 585,1 0 0,5 2 899,19-7 1,2 4 1034,-15 11 0,-4 3-900,-9 7 1,-4 1 2428,20-18-1799,-24 54-1259,-13 24-4408,13 60-868,-18-21 1,-2 2 4904,-2-9 1,-1-3-1,2 4 1,-1-5-1,3 1 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15445,11 +15453,11 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">920 1113 12660,'4'-54'6206,"-25"-13"-5396,-24 17-271,-35 11-269,-14 53-225,46 14 0,6 10-45,8 2 0,10 7 0,16 19 0,16 1 0,34 21 45,-5-44 0,7-12 135,43-30 90,-41-21 0,-2-8-45,-4-5 0,-2-3 404,34-27-449,-6 42 0,0 42-180,3 37 90,-15 12 90,-25 22 0,-43-20-270,-29-4-1709,-3-45 0,-7-10-3868,-31-11 5667,5-23 0,41 2 0,32-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="584">1569 933 9062,'59'-50'9830,"-14"37"-6438,-6 30-3167,-13 21 0,-1 9-135,3 0 0,2 1-90,3 5 0,1 2 0,0-1 0,-3-3-180,3 8-1169,-14 3-900,-60-51 0,-13-16 765,6-17 0,-1-11 314,4-10 1,5-5 854,4 3 1,3-2 314,3-7 0,9 1 629,14-27-269,22 14 0,46-3-135,-11 38 0,5 3 89,-4 1 1,3-1 494,17-5 1,3-1 269,-1-2 1,-2 1-406,-9 7 1,0 1 269,10-2 1,-3 10 854,18 30-539,-14 49-1395,-47-5 0,-9 10-2114,-8 14 0,-9 5-2667,-7 7 1,-4-3 4578,2-23 1,-2-6 0,-9 24-1,15-66 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="734">2478 995 8612,'-26'-47'3553,"0"0"0,0-3-5082,-4 5 0,10 4 1529,34 23 0,-12 8 0,21 9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="867">3028 822 15088,'24'-18'-3418,"3"3"3418,0 0 0,-9 8 0,-10 5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1450">3262 441 7982,'-11'-56'2758,"1"-1"1,-15-2 0,-12 0-2490,-3 11 1,-10 1 0,-10 8-1010,-8 10 1,-11 8 0,-7 6 0,-7 6 764,13 8 1,-6 4 0,-5 4 0,-3 5 0,-2 2-1,0 2 1,2 2-181,7 1 0,-1 2 1,-1 3-1,0 2 1,0 1-1,0 3 1,1 1-1,-1 1 284,6 0 1,-2 2 0,-1 1 0,0 1 0,1 2 0,2 1 0,2 2 0,4 0 0,5 2 50,-18 14 0,3 2 0,4 2 0,7 3 0,8 1 0,10 3-30,9 3 1,7 3 0,9 2-1,10 0 1,12-1-106,16 16 0,17 1 0,13-1 0,9-6-207,2-16 0,9-3 0,7-4 0,5-2 0,1-5-318,7 1 0,4-4 0,4-4 0,4-6 1,1-7 389,4-8 0,4-5 0,2-8 0,2-7 0,-1-9 204,-11-7 1,1-8-1,1-6 1,0-6-1,-1-4 1,0-4 77,-5-3 1,0-5 0,1-4 0,-2-4-1,0-3 1,-1-1 0,-3 0-26,1-1 0,-2-3 0,-1-1 0,-1-2 0,-2-1 0,-1-2 0,-3 0 165,-1-1 1,-1-2 0,-1-1-1,-2-1 1,-3 0 0,-5 1 0,-6 3-190,2-6 1,-2 1 0,-7 1 0,-10 1 0,-16 0-221,-15-9 1,-14-3 0,-15 7 0,-17 12-176,-20 18 0,-20 12 0,-14 9 0,-6 6 0,1 2-147,13 4 1,-4 3 0,-4 3 0,-2 4-1,-2 3 1,1 3 0,1 3-223,6 2 1,0 4-1,-2 2 1,0 3-1,1 2 1,1 3-1,3 2 1,2 2 620,-2 5 0,0 5 0,1 3 0,3 1 0,4 2 0,5-1 0,6-1 0,-14 10 0,9 0 0,7 1 0,8 3 0,14 13 0,-1-1 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">922 1136 12660,'4'-55'6206,"-25"-13"-5396,-24 17-271,-35 11-269,-14 54-225,45 15 0,7 10-45,8 1 0,10 8 0,16 20 0,16 0 0,34 22 45,-5-45 0,7-12 135,44-31 90,-42-22 0,-2-7-45,-4-6 0,-2-3 404,34-27-449,-6 43 0,0 42-180,4 38 90,-16 13 90,-25 22 0,-43-21-270,-29-3-1709,-3-47 0,-8-10-3868,-30-10 5667,5-25 0,41 3 0,32-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="584">1572 953 9062,'60'-52'9830,"-15"39"-6438,-6 31-3167,-13 20 0,-1 10-135,3 0 0,2 1-90,3 5 0,1 3 0,0-2 0,-3-3-180,3 8-1169,-14 3-900,-60-51 0,-13-18 765,6-16 0,-1-12 314,4-10 1,5-5 854,4 3 1,3-2 314,3-7 0,9 1 629,14-27-269,22 13 0,46-2-135,-11 38 0,5 3 89,-4 2 1,3-2 494,17-4 1,4-2 269,-2-2 1,-2 1-406,-9 8 1,0 0 269,10-1 1,-2 9 854,17 32-539,-14 49-1395,-47-5 0,-9 10-2114,-8 15 0,-9 5-2667,-7 7 1,-4-4 4578,2-22 1,-2-7 0,-9 25-1,15-68 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="734">2484 1016 8612,'-27'-48'3553,"1"0"0,0-3-5082,-4 5 0,10 4 1529,34 24 0,-12 7 0,21 10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="867">3035 839 15088,'24'-18'-3418,"3"3"3418,0-1 0,-9 9 0,-10 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1450">3269 450 7982,'-11'-57'2758,"1"-1"1,-15-2 0,-12-1-2490,-3 12 1,-10 1 0,-10 9-1010,-8 9 1,-12 9 0,-6 5 0,-7 7 764,13 8 1,-6 4 0,-6 4 0,-2 5 0,-2 3-1,0 1 1,2 2-181,6 2 0,0 1 1,-1 4-1,0 1 1,0 2-1,-1 3 1,2 0-1,-1 2 284,6 0 1,-2 1 0,-2 2 0,1 1 0,1 2 0,2 0 0,2 3 0,4 0 0,4 2 50,-17 14 0,3 2 0,4 3 0,7 2 0,7 1 0,11 4-30,9 2 1,7 4 0,9 1-1,10 1 1,12-1-106,16 15 0,17 2 0,13-1 0,9-6-207,2-16 0,9-4 0,8-4 0,4-2 0,1-4-318,7 0 0,4-4 0,4-4 0,5-6 1,0-7 389,4-9 0,4-4 0,2-9 0,3-7 0,-2-9 204,-11-7 1,1-9-1,1-5 1,1-7-1,-2-3 1,0-5 77,-5-3 1,0-5 0,2-4 0,-3-4-1,0-3 1,-1-1 0,-3-1-26,2 0 0,-3-3 0,-1-1 0,-1-3 0,-2 0 0,-1-3 0,-2 1 165,-2-1 1,-1-3 0,-1 0-1,-2-2 1,-3 1 0,-5 0 0,-5 4-190,1-7 1,-2 2 0,-7 0 0,-10 2 0,-16-1-221,-15-8 1,-14-4 0,-15 7 0,-17 13-176,-20 18 0,-21 12 0,-13 10 0,-6 5 0,1 3-147,13 4 1,-5 2 0,-3 4 0,-2 4-1,-2 3 1,1 3 0,0 3-223,7 3 1,0 3-1,-2 2 1,-1 3-1,2 3 1,1 2-1,3 3 1,2 1 620,-3 6 0,1 5 0,1 3 0,3 0 0,4 3 0,5-1 0,5-1 0,-13 10 0,9 0 0,7 1 0,8 3 0,14 14 0,-2-2 0,2 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15477,20 +15485,20 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4058 971 11131,'-16'-7'9534,"12"8"-9174,53-18 539,20-23-179,-9-1 0,-1-10-136,-7-11 1,-8-8-46,-3-5 1,-8-3 135,-10 4 0,-6 2 89,-8 8 1,-5 3-585,-5-34-180,-4 35 0,-3 41 0,0 60 0,6 6 0,2 9 0,5 22 0,5 5 0,9 8 0,8-1 0,6-5 0,9-7 0,5-16 0,8-13 0,2-18 0,3-15 0,5-23 0,-2-16 0,2-17 0,-6-12 0,-3-16 0,-7-9 0,-9-6 0,-9-3 0,-9 5 0,-8 2 0,-7 8 0,-5 5 0,-6-28 0,-4 32 0,-8 58 0,8 50 0,4 5 0,3 7 0,5 16 0,5 2 0,5 8 0,6-1 0,5-4 0,6-3-3104,6-11 1,4-7-315,3-11 0,2-7 3418,27 7 0,-26-26 0,-28-16 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="834">5889 778 18057,'-11'15'2608,"4"9"-1978,10 29-90,0 35-451,-2-33 1,0 3-45,0 6 0,0 1-315,0-6 1,1-5-1,0 22 270,-1-53 270,-9-57 719,-10-47-180,7 28 1,0-3-46,0-1 1,2 0 89,5 4 1,4 2-45,12-29-360,31 9-450,5 41 0,7 19 0,-15 57 0,-23 18-630,-10 7-809,-12 4 809,2-36 450,4 2 90,19-29 90,11-12-90,21-7 180,8 13 450,-11 21-180,-14 8 719,-24 31-629,-35-12-540,-14 1-3148,-37-18-2609,-4-33-1529,-2-28 7376,26-10 0,26 3 0,22 11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1217">6891 607 9422,'-21'-5'9830,"17"-3"-3290,51-4-9148,28-5 134,-19 7 1,3-2-1035,-6 1 0,-3-2 3508,20-6 0,-28 5 0,-27 7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1417">7194 553 10951,'-55'22'9830,"16"-7"-10306,51 0-4111,48-15 314,4-7 1,4-3 4272,-17 2 0,-2-1 0,8-6 0,-5-1 0,-1-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1800">7978 295 14009,'15'1'9830,"-3"9"-4998,-7 56-4832,13 9-1440,-1-28 1,7-3-1259,47 24 2068,-24-50 1,4-12 1033,8-14 1,1-13 989,-2-11 0,-4-10 180,-6-6 1,-11-6-1530,-13-1 0,-16 0-45,-19 2 0,-15 6 0,-20 9 0,-12 10-1620,-15 12 1,-6 14-2294,-6 19 1,3 14 3912,9 13 0,9 4 0,21-15 0,8 0 0,-2 24 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2367">7174 684 8432,'-20'-9'6117,"-9"3"-3959,1 1 3419,-5 1-4317,28-1-811,11-1 721,49-7-1170,23-3-1664,-24 4 0,3-1-630,2-1 0,1-1-899,-2-1 0,-4 1 3193,17-6 0,-28 8 0,-35 10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2583">7191 880 9512,'-26'13'9830,"25"-9"-3380,32-9-11217,55-22 629,-26 9 1,1-2 4137,-8 3 0,-5 2 0,16-5 0,-41 13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3967">376 3573 11760,'76'-15'1638,"-1"1"0,1-1 1,-1 0-1,17-10 0,-3-5 1,-15-13-1018,-23-15 0,-12-11 1,-5-2-83,-5 7 1,-5-1 0,-5 1 359,0-21 1,-9 5-226,-6 14 1,-6 8-315,-13-8-270,-12 76-90,-4 80 0,17-14 0,8 8 0,8-14 0,5 4 0,4-3-225,12 21 0,8-6-45,4-6 0,11-14 135,9-31 0,5-21 90,-8-26 0,-3-16 90,8-22 0,-7-15 45,-9-17 0,-10-8 270,-9-4 0,-8 0-180,-7 9 0,-7 5-180,-4 19 0,-5 7 0,-20-12 0,-13 76 0,0 60 0,21-3 0,7 10 0,8 14 0,10 4-2219,5-28 0,5 0 0,5-3-1379,13 15 1,8-10 3597,5-16 0,1-11 0,11-9 0,-20-31 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4383">2138 3248 9691,'7'-25'9830,"-6"17"-4908,-7 46-4112,-4 17-361,3-2 1,0 5-270,-2 1 0,-1 1-405,2-8 0,0-1-854,-9 39 899,7-77 0,8-71 225,2 3 0,1-8 225,2-8 0,0 0 179,1 2 1,0 6 539,5-14-359,18 52-360,1 56-1259,15 45-1125,-25-23 0,-2 4-540,-1 4 1,-2 2-630,0-3 0,-2-4 3283,4 21 0,-5-31 0,-8-38 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4550">2189 3860 9961,'-31'-13'9085,"5"-5"-9175,18-14-2698,30-11-6207,41-15 8995,-9 17 0,-7 7 0,-33 26 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4766">3089 3072 12660,'-59'-28'9830,"10"3"-10845,26 7-3573,66-1-5126,39 5 9714,3 3 0,-24 3 0,-48 6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4967">3164 3144 9242,'-32'15'9830,"-3"2"-5538,1-2-4292,43-16-3508,56-25-270,-9 2 0,2-1 3778,-1 2 0,-3 0 0,20-10 0,-44 21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6467">4651 3371 13559,'-7'13'5667,"5"0"-4678,13 2-629,31-17 450,22-38-316,-12-2 1,1-11 0,5-22 0,-5-9-223,-19 22 0,-4-4 0,-3 0 117,-4 1 1,-4 0 0,-5 1 237,-5-20 1,-7 5-269,-6 20 1,-7 9 450,-32 2-540,7 88-270,20 31 0,13 14 0,8 3 0,13 4 0,6-12 0,7 3 0,9-9 0,3-19 0,8-7 0,3-7 0,30 6 0,6-21 0,7-31 0,-4-26 0,-39-4 0,-4-12 0,-5-4 0,-3-9 0,-6-5 0,-5-3 0,-7 0 0,-5-2 0,-6 0 0,-4-27 0,-10 4 0,-5 17 0,-7 7 0,-16-18 263,-13 82-263,14 78 2,14-4 1,7 10-1128,11 15 1,8 2-2474,10-1 0,10-5 854,8-12 1,11-13 1034,3-20 0,8-18 2248,9-25 1,-1-17 989,-10-11 1,-5-11 359,-3-8 0,-7-6 764,-17 6 1,-7 1 854,0-13-2339,-12 34-719,-2 74-450,-1 39 0,-2-20 0,-2 6 0,0-2 0,-2-2 0,-1-5 0,-1-4-180,-4 18 180,-6-89 0,-1-68 90,6 5 0,3-8-90,5-5 0,6 0 0,4 3 0,7 5 0,5 13 0,5 7 0,34-12 0,-5 53 0,-17 37 0,-25 50 0,-19 2 0,-6 12 0,8-22 0,18-15 0,24-8-90,8-6 0,4 4 180,-19 2-180,-31 13-2159,-51 19-585,3-29 1,-7-3-1260,-8-3 1,-3-5 4092,8-10 0,4-5 0,-11-2 0,40-21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7800">7522 1837 10411,'-50'-42'2188,"1"0"1,-6 0 0,-3 8-1919,0 19 0,-5 8-135,-31 3 0,-10 6-895,10 6 0,-6 3 0,-5 4 760,27-4 0,-3 3 0,-2 0 0,-3 1 0,0 1-178,7-2 1,-2 1 0,-1 1 0,-1-1 0,-1 1 0,-1-1 177,-7 1 0,-1-1 0,-1 1 0,-1-1 0,1 0 0,0 0-110,0 0 0,0 0 0,-1 0 1,2-1-1,-1 1 0,1-2 110,4 0 0,0-1 0,0 0 0,1-1 0,0 1 0,2-1-36,-10 2 0,2-1 0,0 0 0,2 0 0,1-1-55,7-1 0,1 0 1,1-1-1,1 0 1,1 0 90,-13 0 0,1-1 0,0 0 0,1-1 0,0 0 0,0-2 0,0 1 0,1-1-23,0 0 1,0 0-1,1 0 1,0 0 22,4-1 0,1 1 0,0 0 0,1 0 0,6 1 0,-1 0 0,3 0 0,0 1 285,-13 1 0,2 1 0,3 0-255,8 1 0,2 0 0,1 2-30,5 1 0,1 2 0,2 2 90,-25 12 0,5 5 0,5 4 0,6 5 554,9 1 0,5 2-599,12-3 0,3-1 1025,7-4 1,0-2-711,-29 23 979,4-13-1069,7-13 1,15 0-2,28 22-179,18-8 0,8 8 0,14 24 0,9 9-60,-5-17 0,3 4 0,2 0-230,5 7 0,1 0 1,3 0 199,3 2 0,2 0 0,2-3 30,1-3 0,2-3 0,2-5-1,-4-12 1,3-5 0,1-5-30,-2-6 0,1-4 0,5-8-112,12-7 1,6-9 0,0-4 111,-5-2 0,0-3 0,4-2 22,-4-1 1,4-2 0,2-1-1,0-3-308,6-3 0,0-4 0,2-1 0,1-2 304,-11 2 0,2-3 0,0 0 0,2-1 0,0 0 0,5-2 0,2-2 0,0 0 0,1 1 0,-1 0 0,-1 1 0,0 1 0,0 0 0,0 1 0,0 1-18,-1 2 0,-1 1 0,1 1 0,-1 1 0,2 1 0,0 2 0,0 1 0,1 1 0,1 1 0,2-1 15,-7 2 0,3-1 0,1 1 0,0 0 0,-1 1 0,-1-1 3,10-1 0,-2 1 0,0 0 0,0 0 0,1 0-18,4-1 0,2 0 0,-1 0 0,-2 0 0,-4 0 0,2 0 0,-3-1 0,-3 1 0,-1-1-118,-7 0 0,-2-1 0,-2 0 0,0-1 118,21-3 0,-2-2 0,-3-3-30,-8-2 0,-4-3 0,-1-3 167,-4-1 0,-1-3 0,-4-3-137,-10 2 0,-2-3 0,-4-3 180,20-20 0,-9-6-180,-15 3 0,-8-3 0,-5-4 0,-6-4 0,-1-22 0,-5-3 270,-7 7 0,-2-2-60,-5 17 0,-1-4 0,-2 2-91,-4 3 1,-3 0 0,-2 0 319,-2-4 1,-3 0-1,-2 1-289,-2 1 0,-2 0 0,-3 2-15,-8-28 0,-6 6-201,-4 18 1,-5 7-1959,-1 18 0,-3 8-5084,-33-7 7108,10 26 0,30 16 0,15 7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4039 993 11131,'-16'-7'9534,"12"8"-9174,53-19 539,20-23-179,-10-1 0,0-10-136,-7-11 1,-8-9-46,-4-4 1,-7-4 135,-10 4 0,-6 3 89,-8 7 1,-5 4-585,-5-35-180,-4 35 0,-3 43 0,0 61 0,6 6 0,2 9 0,5 23 0,5 5 0,9 8 0,8-1 0,6-5 0,9-8 0,4-15 0,9-14 0,2-18 0,3-16 0,4-23 0,-1-17 0,2-17 0,-7-12 0,-2-16 0,-7-10 0,-9-6 0,-9-3 0,-10 5 0,-7 3 0,-7 7 0,-5 6 0,-6-30 0,-4 34 0,-8 59 0,8 51 0,4 5 0,3 7 0,5 17 0,5 2 0,5 8 0,6-1 0,5-5 0,6-2-3104,6-11 1,4-8-315,2-11 0,3-7 3418,27 7 0,-26-27 0,-28-16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="834">5862 795 18057,'-11'16'2608,"4"8"-1978,10 31-90,0 35-451,-2-34 1,0 3-45,0 6 0,0 2-315,0-7 1,1-5-1,0 23 270,-1-54 270,-9-59 719,-10-48-180,7 29 1,0-3-46,0-2 1,2 1 89,5 4 1,4 2-45,12-30-360,31 9-450,4 43 0,8 18 0,-15 59 0,-23 19-630,-10 7-809,-12 3 809,2-36 450,4 2 90,19-30 90,11-12-90,20-7 180,9 13 450,-11 22-180,-14 8 719,-24 31-629,-35-12-540,-14 2-3148,-37-20-2609,-3-33-1529,-3-28 7376,26-11 0,26 3 0,23 12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1217">6859 621 9422,'-21'-5'9830,"17"-4"-3290,51-3-9148,27-5 134,-18 6 1,3-1-1035,-6 1 0,-4-2 3508,21-7 0,-28 6 0,-27 7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1417">7160 565 10951,'-54'23'9830,"15"-8"-10306,51 1-4111,48-16 314,3-8 1,5-2 4272,-17 2 0,-2-1 0,7-7 0,-4 0 0,-1-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1800">7941 302 14009,'15'1'9830,"-3"9"-4998,-7 57-4832,13 10-1440,-1-29 1,6-3-1259,48 25 2068,-24-52 1,4-12 1033,7-14 1,2-14 989,-2-10 0,-4-11 180,-7-6 1,-10-6-1530,-13-2 0,-16 1-45,-19 2 0,-15 6 0,-20 9 0,-11 10-1620,-16 13 1,-6 14-2294,-5 19 1,2 15 3912,9 13 0,10 4 0,20-15 0,8 0 0,-2 24 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2367">7141 699 8432,'-20'-9'6117,"-9"3"-3959,1 1 3419,-5 1-4317,28-1-811,11-1 721,49-8-1170,22-2-1664,-23 4 0,3-2-630,2 0 0,0-1-899,-1-2 0,-4 2 3193,17-6 0,-29 7 0,-34 11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2583">7158 900 9512,'-26'13'9830,"25"-9"-3380,31-9-11217,56-23 629,-26 10 1,1-2 4137,-9 2 0,-4 3 0,16-6 0,-41 14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3967">374 3653 11760,'76'-15'1638,"-1"1"0,0-2 1,0 1-1,16-11 0,-2-4 1,-15-14-1018,-24-16 0,-11-10 1,-5-3-83,-5 8 1,-5-2 0,-5 2 359,0-22 1,-9 5-226,-6 15 1,-6 7-315,-13-7-270,-12 77-90,-4 82 0,17-14 0,8 8 0,8-15 0,5 5 0,4-3-225,12 21 0,8-6-45,4-7 0,10-13 135,10-32 0,5-22 90,-8-26 0,-4-17 90,9-22 0,-7-16 45,-9-16 0,-11-9 270,-8-4 0,-8-1-180,-7 10 0,-7 6-180,-4 18 0,-5 8 0,-20-12 0,-12 77 0,-1 61 0,21-2 0,7 10 0,8 14 0,10 4-2219,5-29 0,5 1 0,5-4-1379,13 16 1,7-10 3597,6-17 0,1-11 0,11-10 0,-20-30 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4383">2128 3321 9691,'7'-26'9830,"-6"18"-4908,-7 47-4112,-4 17-361,3-2 1,0 6-270,-2 0 0,-1 1-405,2-7 0,0-2-854,-9 40 899,7-79 0,8-72 225,2 2 0,1-7 225,2-9 0,0 1 179,1 1 1,0 7 539,5-15-359,18 54-360,1 56-1259,15 47-1125,-25-24 0,-2 5-540,-1 3 1,-2 2-630,0-2 0,-3-5 3283,5 22 0,-5-32 0,-8-39 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4550">2179 3947 9961,'-31'-14'9085,"5"-4"-9175,18-15-2698,30-11-6207,41-15 8995,-10 17 0,-6 7 0,-33 27 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4766">3075 3141 12660,'-59'-29'9830,"10"4"-10845,26 6-3573,66 0-5126,39 5 9714,2 2 0,-23 4 0,-48 6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4967">3149 3215 9242,'-32'15'9830,"-2"2"-5538,0-1-4292,43-17-3508,55-26-270,-8 2 0,2 0 3778,-1 1 0,-4 1 0,21-11 0,-44 22 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6467">4629 3447 13559,'-7'13'5667,"5"0"-4678,13 3-629,31-18 450,22-39-316,-12-2 1,0-11 0,6-23 0,-5-9-223,-19 23 0,-4-5 0,-4 1 117,-3 0 1,-4 1 0,-5 0 237,-5-20 1,-7 6-269,-6 19 1,-7 10 450,-32 2-540,8 90-270,19 32 0,13 13 0,8 4 0,13 4 0,5-12 0,8 3 0,9-9 0,3-20 0,8-7 0,2-7 0,31 6 0,6-21 0,6-32 0,-3-27 0,-40-4 0,-3-12 0,-5-4 0,-3-9 0,-6-6 0,-6-2 0,-6-1 0,-5-2 0,-6 1 0,-4-28 0,-10 4 0,-5 17 0,-7 7 0,-16-18 263,-12 84-263,13 80 2,14-5 1,7 11-1128,11 15 1,8 3-2474,10-2 0,10-5 854,7-13 1,12-12 1034,3-21 0,8-18 2248,8-26 1,0-18 989,-10-10 1,-6-12 359,-2-8 0,-7-6 764,-17 6 1,-7 1 854,0-14-2339,-12 36-719,-3 75-450,0 40 0,-2-20 0,-2 5 0,0-1 0,-2-2 0,-1-6 0,-1-4-180,-4 19 180,-5-91 0,-2-70 90,6 6 0,3-9-90,5-5 0,6 0 0,4 3 0,6 6 0,6 12 0,5 8 0,34-12 0,-5 53 0,-18 39 0,-24 50 0,-19 3 0,-6 12 0,8-23 0,18-15 0,24-8-90,8-6 0,4 4 180,-19 2-180,-31 13-2159,-51 20-585,3-30 1,-7-3-1260,-7-3 1,-4-6 4092,8-9 0,4-6 0,-10-1 0,39-23 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7800">7487 1878 10411,'-50'-43'2188,"1"0"1,-5 0 0,-4 9-1919,0 18 0,-4 9-135,-32 3 0,-10 6-895,11 6 0,-7 4 0,-4 3 760,26-4 0,-2 3 0,-3 1 0,-3 0 0,1 1-178,6-1 1,-1 0 0,-2 1 0,-1 0 0,0 0 0,-2-1 177,-7 2 0,0-2 0,-2 2 0,0-2 0,0 0 0,1 1-110,-1-1 0,1 0 0,-2 1 1,2-2-1,0 1 0,0-2 110,5 1 0,-1-2 0,1 0 0,0 0 0,0 0 0,3-1-36,-11 2 0,3 0 0,-1-1 0,3 0 0,0-1-55,7 0 0,2-1 1,0-1-1,1 0 1,2 0 90,-14 1 0,2-2 0,-1 0 0,2-1 0,-1 0 0,0-2 0,1 2 0,0-2-23,1 0 1,-1 0-1,2 0 1,-1 0 22,4-1 0,2 1 0,-1 0 0,1 1 0,7 0 0,-2 0 0,4 0 0,-1 1 285,-13 1 0,3 2 0,2-1-255,8 1 0,3 0 0,0 2-30,5 2 0,2 1 0,1 2 90,-25 13 0,6 5 0,4 4 0,7 5 554,8 1 0,5 2-599,12-3 0,4-1 1025,6-5 1,0-1-711,-29 24 979,5-14-1069,6-14 1,15 1-2,28 22-179,18-8 0,8 9 0,14 23 0,9 10-60,-6-17 0,4 4 0,2-1-230,5 8 0,1 0 1,3 0 199,2 2 0,3 0 0,2-4 30,1-2 0,1-3 0,3-6-1,-4-11 1,2-6 0,2-5-30,-2-6 0,1-4 0,4-8-112,13-8 1,6-9 0,-1-3 111,-4-3 0,0-3 0,3-2 22,-3-1 1,4-2 0,1-1-1,1-3-308,5-3 0,1-5 0,2 0 0,0-2 304,-10 2 0,1-4 0,1 1 0,2-1 0,-1-1 0,6-1 0,1-3 0,1 1 0,1 0 0,-2 1 0,0 1 0,-1 0 0,1 1 0,-1 1 0,1 0-18,-1 3 0,-2 1 0,2 0 0,-2 2 0,3 1 0,0 2 0,-1 1 0,2 1 0,0 0 0,3 0 15,-7 2 0,2-1 0,2 1 0,-1 0 0,0 1 0,-2-1 3,11-1 0,-2 1 0,-1 0 0,1 0 0,0 0-18,5-1 0,1-1 0,0 1 0,-3 0 0,-3 0 0,1 0 0,-2-1 0,-3 1 0,-2-1-118,-6 0 0,-3-2 0,-1 1 0,0-1 118,20-3 0,-1-2 0,-4-4-30,-7-1 0,-5-3 0,0-4 167,-4-1 0,-2-2 0,-3-4-137,-10 3 0,-3-4 0,-3-3 180,20-20 0,-10-6-180,-14 2 0,-8-2 0,-5-4 0,-6-5 0,-2-22 0,-4-3 270,-7 7 0,-2-2-60,-5 17 0,-1-3 0,-2 1-91,-4 3 1,-3 1 0,-2-1 319,-2-3 1,-3-1-1,-2 1-289,-2 2 0,-2-1 0,-3 3-15,-8-30 0,-6 7-201,-4 19 1,-5 6-1959,0 19 0,-4 8-5084,-33-7 7108,10 27 0,31 15 0,14 8 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15733,18 +15741,18 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">563 75 7623,'3'-35'8725,"-2"8"-7016,-10 14-1080,-13 64-269,1 0 0,-2 8-225,-8 24 0,-1 5-315,1-6 0,0 1-1020,5-18 1,0 2 0,2-5-3074,-1 6 1,3-5 4113,0-6 1,4-6-1,3 1 1,12-44-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="633">162 411 8342,'-19'-43'4947,"-16"4"-3867,-6 6-900,-6 27 269,29 39 361,17 3 629,27 1 270,7-34 0,-2-18-1169,-18-20-450,-18 5-270,-12 10-2519,-23 47-539,29 25 720,8 28 1213,30-33 1,14-3 629,15-6 1,6-5 1124,-3-5 0,2-7 1034,14-10 0,-3-10 1214,10-21-89,-10-11-1170,-40 1-899,-22 8-540,2 15 90,11 5 629,14 2 271,1-10-451,-29-18-809,-44-3-3417,-43 20-631,10 27 4318,17 36 0,38-19 0,18 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6283">1395 2483 8882,'-17'-37'6116,"-5"9"-5396,-6-2 1439,-26 41-540,11 44-1170,14-15 1,6 6 45,12 25 0,14 3-360,9-18 0,11-3-1,22 12 1,14-10-45,9-28 0,5-13 270,-3-6 0,0-12 179,2-18 1,-7-15-45,-21-12 0,-9-8-360,-6 7 0,-9-3-90,-9-9 0,-14 3-495,-40-17-719,-15 26-1980,-36 38-2607,11 54-1800,22 13 7556,23 2 0,34-24 0,6-23 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6583">2068 2732 10411,'23'-17'6476,"-1"5"-6476,-8 12 90,7 10 1799,-6 2-360,3-4-899,-13-16 0,-17-21-2429,-15 1-1260,-6-1 3059,-4 24 0,23 5 0,1 7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7083">2904 2152 11131,'-15'-9'6836,"-18"8"-4138,-27 31-1798,2 14-496,24-3 1,11 7-270,20 10 0,14 1-135,5-8 0,11-4-45,22 4 0,11-14 180,1-25 0,3-16 494,4-14 1,-4-13-45,-9-16 0,-10-9-316,-14-9 1,-14-4-405,-16 2 0,-13 2-854,-13 13 0,-9 10-3599,-47 5-5243,8 63 8495,28 9 0,26 6 0,18-30 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7316">3500 2049 9332,'18'-59'4915,"0"0"0,24 17 996,-9 95-7081,-10 9 1,-2 11-1215,1 8 1,0 3-2533,0-2 1,-2-5 3872,-6-22 0,-1-6 0,7 16 0,-15-52 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7849">5795 1234 10411,'-4'11'9830,"3"-4"-7877,-6 86-1278,7-39 0,2 4-675,1 25 0,0 6-1125,1 4 1,3 1-945,0-2 0,2-3-1214,0-4 0,2-6 3283,-2-19 0,0-6 0,4 13 0,-7-45 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8566">6780 1302 8342,'36'-58'9805,"-6"7"-5128,7-13-2338,-16 71-990,-29 65-1034,-4 5-1,-5 10-584,1-20 0,-4 3 1,0 1-1350,-3 5 0,-1 1 0,-1-2-300,0-6 0,0-2 0,0-3 1919,-10 19 0,3-9 0,-6 8 0,15-38 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8849">6404 1866 7353,'-27'-76'1870,"0"-1"1,0 1 0,-3 0 0,-1 2 0,22 34-1511,20 40 1349,12-14 630,15 1-1440,-9-24-539,-27-3-2878,-35 19-2609,3 50 5127,10 56 0,19-5 0,21 15 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9100">6718 1940 10591,'69'-50'8995,"-7"1"-7646,-4-2-449,-16 9-721,-23 17-2157,-12 5-2610,-21 16-359,-13 17 4947,-7 7 0,11-1 0,9-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9883">4317 2103 10501,'-5'-4'9265,"0"10"-8905,-8 13 89,15 32-359,14-8-270,36 14 180,6-41 90,5-25 360,-19-66 90,-38-9-270,-17-14-181,-23 30-89,-12 45-89,18 18 89,23 35 89,39-12 91,23 4 1170,23-23-451,-11-4-359,8 5-90,15 35-361,-18 24-44,-34-17 0,-4 5 585,5 32 449,-30-7-269,-30-48-630,-2-56-720,14-24 0,9-15-1574,10-15 1,8-4-991,4-3 1,4 4 3103,0 20 0,-1 10 0,3 3 0,-17 38 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11083">763 3724 9602,'-7'-11'7915,"66"-15"-7436,-3 8 1,13-2 0,6-1-1232,5 0 1,7 0-1,5-2 1,6 1 781,-12 3 0,6-1 0,4 0 0,2 1 0,2-1 0,0 1-212,-8 3 1,1-1 0,1 1 0,2 0 0,0 0 0,1 0 0,1 0 181,-5 2 0,1-1 0,0 1 0,2 0 0,-1 0 0,1 0 0,0 0 0,-1 0-94,1 1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,-2-1 0,0 0 116,-4 1 1,0-1-1,-1 1 1,0 0-1,-1-1 1,0 1 0,-1 0-1,0 0 68,9-2 0,-1 1 0,0-1 0,0 1 0,-2-1 0,-1 1 0,-1 0-92,4-1 0,-1 0 1,-1 0-1,-1 0 1,-3 1-1,0 0 128,4-1 0,-2 1 0,-2 0 0,0 0 0,-2-1 124,-7 1 0,0 0 0,-1-1 0,-2 0 0,-3-2-93,7-2 1,-4-2-1,-2-2 1,-2-1-98,11-6 0,-4-3 0,-5-3 442,-14 3 1,-4-2 0,-6-4-503,5-23 0,-12-5-45,-14 7 1,-9-4 44,-1-22 0,-10-8 396,-10 19 0,-6-4 0,-5-3-509,-1 9 1,-4-2 0,-2-2 0,-1 1 22,-3-4 0,-1 0 0,-2-1 0,-1 2 22,-2-1 1,-1 0-1,-1 2 1,1 3 37,-7-13 0,-1 5 0,1 3 464,4 12 0,0 4 0,-2 5-434,-14-13 0,-7 13 0,-3 22 0,-7 13 0,-18 17 0,-10 15-188,19 4 1,-6 6 0,-4 3-1,2-1 165,0 0 1,2 1 0,-3 1-1,-6 1-241,8-2 0,-4 1 1,-4 0-1,-2 1 1,-1 0-1,0-2 225,7-2 1,-2-1-1,-2 0 1,1-1-1,-1 0 1,1 0-1,2-1-161,-8 2 1,3 0 0,0-1-1,0 0 1,-2 0 0,-3 0 165,13-3 0,-3 0 0,-1 0 1,-2 0-1,1 0 0,0-1 1,2 0-1,2 0-11,-15 2 0,2 0 0,1-1 0,0 0 0,1 0 0,0 1 30,1-1 0,0 0 0,1 0 0,0 1 0,0-1 0,3 0-100,-11 2 0,2-1 0,0 1 1,3-1-1,2 2 115,11-2 0,1 0 0,1 1 0,4-1 0,4 1 0,-19 6 0,7 0 0,1 0-30,3 0 0,1 2 0,3 1 271,6 1 1,2 2 0,4 0-242,-12 9 0,3 1 0,-3 2 0,-1 4 0,20-8 0,-1 2 0,3 0 0,-12 11 0,1 1 89,-10 7 1,3 3 90,11-2 0,8 4 180,8 11 0,9 5-90,7-4-1,11 7 31,18 3 0,10 9 0,10-3-180,11-4 0,10-2 0,3 2-4,-7-14 0,2 2 0,3-1 0,4 1-944,-2-8 1,4 0-1,1 0 1,1-2-1,-1-5-2449,19 18 0,-1-7 0,-1-2 3019,-8-4 1,-1-2 0,-1-9 0,11-5 0,-6-14-1,5-12 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">562 76 7623,'3'-35'8725,"-2"7"-7016,-10 15-1080,-13 65-269,1-1 0,-2 9-225,-8 24 0,0 5-315,0-5 0,0 0-1020,5-18 1,0 1 0,2-4-3074,-1 6 1,3-5 4113,0-6 1,4-7-1,3 2 1,12-45-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="633">162 417 8342,'-19'-44'4947,"-16"4"-3867,-6 7-900,-6 27 269,29 39 361,17 4 629,27 0 270,7-34 0,-2-18-1169,-18-20-450,-18 4-270,-12 11-2519,-23 47-539,29 26 720,8 28 1213,30-33 1,14-4 629,15-5 1,6-6 1124,-3-4 0,2-8 1034,14-10 0,-4-10 1214,11-21-89,-10-12-1170,-40 2-899,-22 8-540,2 15 90,11 5 629,14 2 271,1-11-451,-29-17-809,-44-3-3417,-43 20-631,10 27 4318,17 36 0,38-18 0,18 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6283">1393 2516 8882,'-17'-37'6116,"-5"8"-5396,-6-1 1439,-25 41-540,10 45-1170,14-16 1,6 7 45,12 25 0,14 3-360,9-18 0,11-4-1,22 13 1,13-10-45,10-29 0,5-12 270,-3-7 0,0-12 179,2-19 1,-7-14-45,-21-13 0,-9-8-360,-6 8 0,-9-4-90,-9-9 0,-14 3-495,-40-17-719,-15 27-1980,-36 38-2607,11 54-1800,22 14 7556,23 2 0,34-25 0,6-23 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6583">2066 2769 10411,'23'-18'6476,"-1"6"-6476,-8 12 90,7 10 1799,-6 3-360,2-5-899,-12-16 0,-17-22-2429,-14 2-1260,-7-2 3059,-4 25 0,23 5 0,1 7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7083">2901 2181 11131,'-15'-9'6836,"-18"8"-4138,-27 31-1798,2 15-496,24-4 1,11 8-270,20 10 0,14 0-135,5-7 0,11-4-45,22 3 0,11-13 180,1-26 0,3-16 494,3-14 1,-3-14-45,-9-15 0,-10-10-316,-14-9 1,-14-4-405,-16 2 0,-13 2-854,-13 14 0,-9 9-3599,-47 6-5243,9 63 8495,27 10 0,26 5 0,18-30 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7316">3496 2076 9332,'18'-59'4915,"0"-1"0,24 17 996,-9 97-7081,-10 9 1,-2 11-1215,1 8 1,0 3-2533,0-2 1,-2-5 3872,-6-22 0,-1-6 0,7 15 0,-15-51 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7849">5788 1251 10411,'-4'11'9830,"3"-4"-7877,-6 87-1278,7-39 0,2 4-675,1 25 0,0 6-1125,1 4 1,3 1-945,0-1 0,2-4-1214,0-4 0,2-6 3283,-2-19 0,0-6 0,4 12 0,-7-44 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8566">6772 1319 8342,'36'-58'9805,"-6"6"-5128,7-13-2338,-16 72-990,-29 66-1034,-4 5-1,-5 10-584,1-20 0,-4 3 1,0 1-1350,-3 5 0,-1 1 0,-1-2-300,0-6 0,0-2 0,0-3 1919,-10 19 0,3-9 0,-6 8 0,15-38 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8849">6397 1891 7353,'-27'-77'1870,"0"-1"1,0 1 0,-3 0 0,-1 2 0,22 34-1511,20 41 1349,12-14 630,15 1-1440,-9-24-539,-27-4-2878,-35 20-2609,3 50 5127,10 57 0,19-5 0,21 16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9100">6710 1966 10591,'69'-51'8995,"-7"2"-7646,-4-3-449,-16 9-721,-23 18-2157,-12 5-2610,-21 16-359,-13 17 4947,-7 7 0,11-1 0,9-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9883">4312 2131 10501,'-5'-4'9265,"0"10"-8905,-8 13 89,15 33-359,14-8-270,36 14 180,6-42 90,5-25 360,-19-67 90,-38-10-270,-17-13-181,-23 30-89,-12 46-89,18 18 89,23 35 89,39-11 91,23 3 1170,23-23-451,-11-4-359,8 5-90,14 35-361,-17 25-44,-34-17 0,-4 4 585,5 33 449,-30-7-269,-30-48-630,-2-58-720,14-24 0,9-15-1574,10-15 1,8-4-991,4-3 1,4 4 3103,0 20 0,-1 10 0,3 3 0,-17 39 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11083">762 3774 9602,'-7'-11'7915,"66"-16"-7436,-3 9 1,13-2 0,6-1-1232,5-1 1,7 1-1,5-2 1,5 1 781,-11 2 0,6 0 0,4 0 0,2 0 0,2 0 0,0 1-212,-8 3 1,1-2 0,0 2 0,3 0 0,0 0 0,1 0 0,1-1 181,-5 3 0,1-1 0,0 1 0,2 0 0,-2-1 0,2 1 0,0 0 0,-1 0-94,1 1 0,0 0 1,0-1-1,0 1 0,-1 0 1,0 1-1,-1-1 0,0 0 116,-4 0 1,0 0-1,-1 1 1,0 0-1,-1-1 1,0 1 0,-1-1-1,-1 1 68,10-2 0,-1 1 0,0-1 0,0 0 0,-2 0 0,-1 1 0,-1 0-92,4-1 0,-2 0 1,0-1-1,-1 1 1,-3 1-1,0 0 128,4-1 0,-2 0 0,-2 1 0,0 0 0,-3-1 124,-6 1 0,0 0 0,-1-2 0,-2 1 0,-3-2-93,7-2 1,-4-3-1,-2-1 1,-2-1-98,11-6 0,-5-4 0,-4-2 442,-14 2 1,-4-1 0,-6-5-503,5-23 0,-12-4-45,-14 6 1,-9-4 44,-1-22 0,-10-9 396,-10 20 0,-6-4 0,-5-3-509,-1 9 1,-4-2 0,-2-2 0,-1 1 22,-3-4 0,-1 0 0,-2-1 0,-1 2 22,-2-1 1,-1 0-1,-1 2 1,1 3 37,-7-13 0,-1 5 0,1 3 464,5 12 0,-1 4 0,-2 5-434,-14-13 0,-7 13 0,-3 23 0,-7 13 0,-18 17 0,-10 15-188,19 4 1,-6 6 0,-4 3-1,2 0 165,1-1 1,1 1 0,-3 2-1,-6 0-241,8-2 0,-4 1 1,-4 1-1,-2 0 1,-1 0-1,0-1 225,8-3 1,-3-1-1,-2 0 1,1 0-1,-1-1 1,1 0-1,2-1-161,-8 3 1,3-1 0,0-1-1,1 0 1,-3 1 0,-3-1 165,13-3 0,-3 0 0,-1 1 1,-2-1-1,1 0 0,0-1 1,2 0-1,3 0-11,-16 3 0,2-1 0,1-1 0,0 0 0,1 1 0,0 0 30,1-1 0,0 0 0,2 0 0,-1 2 0,0-2 0,3 0-100,-11 2 0,2-1 0,0 2 1,3-2-1,2 2 115,12-2 0,0 1 0,1 0 0,4-1 0,4 1 0,-19 7 0,7-1 0,1 0-30,3 0 0,1 3 0,3 0 271,7 1 1,1 3 0,4-1-242,-12 10 0,3 0 0,-3 3 0,-1 3 0,20-7 0,-1 1 0,3 1 0,-12 11 0,1 0 89,-9 8 1,2 3 90,11-2 0,8 4 180,8 11 0,9 5-90,7-4-1,11 7 31,18 3 0,10 9 0,10-3-180,11-3 0,10-3 0,3 2-4,-7-14 0,2 2 0,3-1 0,4 1-944,-2-8 1,3 0-1,2 0 1,1-3-1,-1-4-2449,19 18 0,-1-7 0,-1-2 3019,-8-4 1,-1-2 0,-1-9 0,11-6 0,-6-13-1,5-13 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15830,25 +15838,25 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">367 2461 8702,'-41'-29'9830,"-14"8"-5448,-28 5-1324,-1 43-2159,47 6 1,9 10-450,6 17 0,9 8-450,10 15 0,10 3 0,10 4 0,12-3 0,18-5 0,14-9-256,-9-33 1,6-7 0,6-6-735,11-7 1,7-9 0,1-4-151,7-7 1,2-5 0,-2-5 629,-5-2 0,-1-5 0,-4-2 330,-13 0 0,-3-2 1,-6-3 314,4-11 0,-13-6 1124,-9-36 810,-50 4-180,-27 13-810,-4 19-1619,46 52 496,31 23 44,33 32 630,-3 8-1709,-51 10-3149,-25-3 4228,-11-19 0,-6-5 0,-2-5 0,2 8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="583">2919 2434 10051,'-1'-74'9830,"-6"12"-7337,-12 46-1233,-4 47-676,-4 41 1,-3 20-435,4-22 0,-3 4 0,-1 0-236,-1 6 1,-2 0 0,-3 1 107,1-14 1,-2 1-1,-2-3 1,3-7 19,-11 11 1,-1-9-178,-10 5 0,-2-21-44,-16-60 179,21-40 89,34-8 1,12-10 540,18-11 0,11-2-91,-1 8 1,8 3 175,9-3 0,9 14-715,43 25 0,-4 53 0,-29 32 0,-2 20 0,-12-9 0,-1 7 0,1 1-143,0-3 1,1 0 0,3 1 142,10 9 0,4 2 0,2-10 0,-8-18 0,2-7 0,2-5-3631,34 11 0,3-15 392,-3-20 1,-1-16 3238,-15-13 0,-6-7 0,-14 1 0,-6-3 0,20-29 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="800">4402 2643 8342,'11'-42'9830,"6"-2"-771,14-9-8789,29 1-1484,-9 25 0,6 2-1485,14-1 1,5 4-136,7 2 1,-2 4 2833,-11 5 0,-6 3 0,12 1 0,-44 9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1000">4832 2561 9602,'-63'28'9830,"18"-7"-1131,9 2-8699,72-23-1979,13-8 0,8-3-1439,10-1 0,3-1 3418,4-2 0,-6 2 0,8 0 0,-29 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2117">1591 907 9512,'55'-51'9830,"-19"11"-6168,-53 30-2493,-11 39-719,-4 49-450,27-27 0,12 4-135,24 16 0,14-5 135,-2-20 0,6-9 315,8-1 0,2-17 764,-6-31 0,-10-17-269,-7-51-1080,-24 26 0,-15-2-2249,-30-4 1,-17 9-360,-1 20 0,-5 9-1845,-4 2 1,-1 10 4043,8 18 1,5 9 0,-8 11-1,6 4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1600">1257 1097 10591,'-46'-86'4047,"7"43"1,-6 8-3058,-35 5-721,20 26 1,1 15-45,18 19 0,7 10-135,-13 40-45,44-26 0,17-2 45,60 8 90,16-31 314,-29-35 1,0-14 584,-13-11 1,-4-5 0,29-30-361,-25 6-449,-14 59-270,-3 26 45,-4 15 0,-1 10 0,2 11 0,-2 2 0,-3-6 0,-5 2 0,-7 6 0,-15-4-135,-24-19 0,-13-6-765,-15 1 1,-8-7-1440,-8-4 0,-1-7-2024,11-7 1,5-5 4317,-1-13 0,36 2 0,27-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1317">2973 538 10771,'-7'-75'9830,"-6"16"-5808,-14 36-2763,-5 56-1124,14 11 0,2 10-1125,-2 17 1,0 5-1395,0 2 1,0 1-1305,-1-4 0,0-5 3688,-9 24 0,10-42 0,8-36 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-983">2545 644 8972,'-44'-42'8095,"-7"17"-7105,-13 12-990,35 39-90,62 25 180,51-5 719,-29-32 1,2-7 314,-4-10 0,-4-7 586,13-20-1171,-40-10-1798,-50 29-3508,-16 37-5064,-3 49 9545,22-8 0,17-8 1,10-43-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-700">3031 1181 13020,'29'-22'6926,"0"4"-6387,-1 4-89,15 0 2249,4-8 1078,2-18-2517,-20-16-1260,-32-3-1619,-35 22-5937,-27 42 7556,-16 48 0,34-16 0,11 10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2983">6352 2144 11490,'-14'-42'9830,"0"4"-5448,2 33-3212,10 43-811,12 58-1438,1-26 0,4 4-1845,3 7 1,5-1-1993,5 0 1,2-6 3792,-9-22 0,1-7 0,15 13 1,-27-49-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3350">6993 2298 8162,'0'-88'9830,"-9"13"-6527,-4 11-3033,-17 54 179,20 48-359,15 42-180,42 4 0,25-19 180,13-40 90,-11-43 720,-24-33-1,-34-19-359,-38-3-720,-37 17-2968,-21 33-5577,8 40 8725,30 20 0,23-6 0,24-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3617">8216 1527 11580,'14'-70'9830,"-17"15"-4638,-29 55-3933,-19 56-1259,13 7 0,2 11-1574,0 15 0,3 6-465,12-29 0,2 1 0,1-1-2877,-3 29 1,5-6 4056,7-31 0,3-5 0,3 13 1,3-53-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3933">7759 1810 9512,'-51'-84'7735,"12"21"-7735,16 40 0,37 25 540,27 8 1619,16-13-91,-10-24-1258,-27-8-810,-47 7-2968,-23 48-2339,-9 46 5307,38-20 0,5 1 0,-1 22 0,20-25 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4250">8141 2102 10411,'13'-14'9715,"-9"12"-9356,-2 8-269,2 16 0,13-1 180,19-15 1799,-1-19-990,-7-25-359,-30-12-900,-31 7-3328,-23 20-5217,-4 29 8725,17 15 0,20 1 0,20-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4917">8798 1768 9602,'11'-25'8635,"0"-15"-5577,-7-3-1169,-2 2-1170,-22 32-449,11 41-360,9 33-270,44 9 181,34-21 179,-26-39 0,3-10 314,-2-12 1,-3-11-135,-7-9 0,-9-9-90,-12-8 0,-14-4-45,-15-1 0,-13 2-90,-11 6 0,-7 7 0,-6 9 0,-3 11-225,-33 16 90,40 26 0,53 5 180,49-11 630,33-21-270,-43-6 0,1-1-226,0 0 1,-1 3-45,-1 6 0,-2 8-90,-3 10 0,-4 7 0,-6 8 0,-4 4 270,10 48 630,-30-14-541,-18-30 1,-19-50-450,13-52-1259,10 7 0,6-6-1800,11-4 1,7 1-1768,10 0 1,4 5 4517,19-13 0,-12 32 0,-30 31 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5300">10529 1066 10321,'-67'-49'9830,"-13"49"-7549,58 42 0,8 14-2191,-4-3 0,6 3-90,7 17 0,15-4 90,47 11 0,10-34 539,26-61-179,-54-27 0,-8-13-46,-2-5 1,-8-5-315,-8-14 0,-12 1-90,-17 15 0,-11 7-1124,-9 14 0,-8 12-2250,-7 17 1,-1 14 3373,-30 41 0,29-8 0,34 7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5450">10734 1312 14549,'29'-35'-2339,"6"9"2339,-16 20 0,-2 4 0,-9 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5683">11126 825 9512,'23'-70'9830,"7"40"-7819,-12 65 0,-2 24-2821,6 16 1,1 6-2520,2 9 1,-1 1 3276,-3-1 1,-2-6-1,-7-31 1,-2-9 0,0 6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6817">11759 305 10321,'10'-62'2668,"-1"1"1,-6 6 0,-9 6-1770,-44-9-629,-7 42 0,-15 12-210,-6 8 0,-11 8 0,-4 3-596,2 0 1,-5 2-1,-4 3 1,-3 0 550,23-3 0,-3 1 0,-1 1 0,-2 0 0,-2 1 0,0 1-3,4 0 1,-1 0 0,-2 1 0,0 0 0,-1 1 0,0 1 0,0-1-26,-4 2 0,0 1 0,-1 0 0,1 1 0,0-1 1,1 1-1,2-2 13,-4 3 0,2-1 0,0 0 0,2 0 0,-1 1 0,0-1 0,-3 2 0,0 0 0,-1 1 0,1-1 0,1 0 0,3-1 0,-6 2 0,2-1 0,1 0 0,1 0 0,0 0 18,1-1 0,-1 1 0,2 0 0,0-1 0,2 0-42,8-3 1,1 0 0,2-1 0,-1 0 0,1 0 23,-20 6 0,0 0 0,2-2 0,5-1 0,-2-1 0,6-3 0,-1 1 0,-9 3 0,-1 0 0,1-2 0,7-1 0,1-1 0,4-1-89,-13 4 1,4 0 88,-1 0 0,4-2 90,20-5 0,5-2 360,-26 5 1382,10-3-1112,17 12 1002,27 35-1408,27-15 1,10 8-195,10 2 0,8 7 0,4 1-217,11 11 0,7 3 0,3 2 119,-5-12 1,3 1-1,2 1 1,4 0-23,-4-8 0,3 2 0,2-1 0,0-3 0,-2-3 22,1 0 1,-1-4-1,1-3 1,3-1-23,7 4 0,2 0 0,4-6 0,2-13 0,20-10 0,5-16 0,1-5 0,4-2 0,2-6 0,4-6 0,-24-3 0,3-4 0,2-3 0,0-2 0,-1 1-208,-5 0 1,-1-1 0,1 0 0,0 0-1,4 0 208,-1 1 0,2-1 0,3 1 0,0 0 0,-1 1 0,-3 1 0,4 0 0,-3 1 0,-1 1 0,3-1 0,4 1 0,5-1 0,4 1 0,3-1 0,1 1 0,-2-1 0,-4 1-417,3 0 1,-3 0 0,-2 0-1,1 0 1,1-2 341,-9 1 0,2 1 0,0-1 0,0-2 0,0 0 0,-1-4 0,3-1 0,1-3 0,-1-2 0,-1 0 0,-2-2 1,-4-1-111,0-1 1,-4-1 0,-2-2-1,-1-1 1,0-1 256,5-3 0,1-2 0,-1-1 0,-3-1 0,-5 0 72,0-4 0,-4 0 1,-4-2-1,-3 0 6,10-13 0,-6-1 0,-6-5-90,-7-3 0,-5-3 0,-6-4 30,-5-3 0,-5-3 0,-6 1 30,-6 4 0,-5 0 0,-6 1 192,-4 4 1,-5 1 0,-4 3-268,-11-13 0,-8 4-45,-11 1 0,-6 3 0,1 9 0,-1 2 845,-4-1 1,0 2-1341,8 12 1,1 2-767,3 7 1,1 4-5307,-24-13 6725,8 27 1,21 14-1,10 10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">367 2499 8702,'-41'-30'9830,"-14"9"-5448,-28 5-1324,-1 43-2159,47 6 1,9 11-450,6 17 0,9 8-450,10 15 0,10 4 0,10 3 0,12-3 0,18-4 0,14-10-256,-9-34 1,6-6 0,6-7-735,11-6 1,7-10 0,0-4-151,8-7 1,2-5 0,-2-5 629,-5-3 0,-1-4 0,-4-2 330,-13 0 0,-3-3 1,-6-2 314,4-12 0,-13-5 1124,-9-37 810,-50 3-180,-27 14-810,-4 20-1619,46 52 496,31 24 44,33 32 630,-3 8-1709,-51 10-3149,-25-3 4228,-11-19 0,-6-5 0,-2-5 0,2 8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="583">2916 2471 10051,'-1'-75'9830,"-6"12"-7337,-12 47-1233,-4 47-676,-4 42 1,-3 21-435,4-23 0,-3 4 0,-1 0-236,-1 6 1,-1 1 0,-4 0 107,1-14 1,-2 1-1,-2-3 1,3-7 19,-11 11 1,-1-9-178,-10 5 0,-2-22-44,-16-60 179,21-41 89,34-8 1,12-10 540,18-11 0,11-2-91,-1 7 1,8 4 175,9-3 0,9 14-715,43 25 0,-4 55 0,-29 31 0,-2 21 0,-12-9 0,-1 7 0,1 1-143,-1-3 1,2 0 0,3 1 142,10 9 0,4 2 0,2-10 0,-8-18 0,2-8 0,2-4-3631,34 10 0,3-14 392,-3-21 1,-1-16 3238,-15-13 0,-6-8 0,-14 2 0,-6-4 0,19-29 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="800">4398 2683 8342,'11'-42'9830,"6"-3"-771,14-9-8789,29 1-1484,-9 26 0,6 2-1485,14-2 1,5 5-136,6 2 1,-1 3 2833,-11 6 0,-6 3 0,12 1 0,-44 9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1000">4827 2600 9602,'-62'28'9830,"17"-6"-1131,9 1-8699,72-23-1979,13-8 0,7-3-1439,11-1 0,3-2 3418,4-1 0,-6 2 0,8 0 0,-29 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2117">1590 921 9512,'54'-52'9830,"-18"11"-6168,-53 31-2493,-11 40-719,-3 49-450,26-27 0,12 4-135,23 16 0,15-5 135,-2-21 0,6-8 315,8-2 0,2-16 764,-6-32 0,-10-18-269,-7-51-1080,-24 26 0,-15-2-2249,-30-4 1,-17 10-360,-1 19 0,-5 10-1845,-4 1 1,-1 11 4043,8 18 1,5 10 0,-7 10-1,5 5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1600">1256 1114 10591,'-46'-88'4047,"7"45"1,-6 7-3058,-35 6-721,20 26 1,1 15-45,18 19 0,7 11-135,-13 40-45,44-26 0,17-2 45,60 8 90,16-32 314,-29-35 1,0-14 584,-13-12 1,-4-4 0,29-31-361,-25 6-449,-14 60-270,-3 26 45,-4 16 0,-1 10 0,2 10 0,-2 3 0,-3-6 0,-5 2 0,-7 6 0,-15-4-135,-24-19 0,-13-7-765,-15 2 1,-8-8-1440,-8-3 0,-1-8-2024,11-7 1,5-5 4317,-1-13 0,36 2 0,27-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1317">2970 546 10771,'-7'-76'9830,"-6"16"-5808,-14 37-2763,-5 56-1124,14 12 0,2 10-1125,-2 17 1,0 5-1395,0 2 1,0 1-1305,-1-3 0,0-6 3688,-9 24 0,10-42 0,8-37 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-983">2543 654 8972,'-44'-43'8095,"-7"18"-7105,-13 12-990,35 39-90,62 26 180,51-6 719,-29-31 1,2-8 314,-4-10 0,-5-7 586,14-21-1171,-40-9-1798,-50 28-3508,-16 39-5064,-2 49 9545,21-8 0,17-8 1,10-44-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-700">3028 1199 13020,'29'-22'6926,"0"3"-6387,-1 5-89,15 0 2249,4-8 1078,2-19-2517,-20-16-1260,-32-3-1619,-35 23-5937,-27 42 7556,-16 49 0,34-17 0,11 11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2983">6346 2177 11490,'-14'-43'9830,"0"4"-5448,2 34-3212,10 44-811,12 58-1438,1-25 0,4 3-1845,3 7 1,5-1-1993,5 0 1,2-6 3792,-9-22 0,1-7 0,15 13 1,-27-50-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3350">6986 2333 8162,'0'-89'9830,"-9"13"-6527,-4 11-3033,-16 54 179,19 50-359,15 42-180,41 5 0,26-21 180,13-39 90,-11-44 720,-24-34-1,-34-19-359,-38-3-720,-37 17-2968,-21 33-5577,8 42 8725,30 19 0,23-5 0,24-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3617">8208 1550 11580,'14'-71'9830,"-17"15"-4638,-29 56-3933,-19 57-1259,13 7 0,2 11-1574,1 16 0,2 5-465,12-29 0,2 1 0,1-1-2877,-3 30 1,5-7 4056,7-31 0,3-5 0,3 13 1,3-54-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3933">7752 1838 9512,'-51'-86'7735,"12"22"-7735,16 41 0,37 25 540,27 8 1619,16-13-91,-10-24-1258,-27-9-810,-47 8-2968,-23 48-2339,-9 47 5307,38-20 0,5 1 0,-1 22 0,20-26 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4250">8133 2134 10411,'13'-14'9715,"-9"12"-9356,-2 8-269,2 16 0,13 0 180,19-16 1799,-1-20-990,-7-24-359,-30-13-900,-31 7-3328,-23 21-5217,-4 29 8725,17 16 0,20 0 0,20-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4917">8790 1795 9602,'11'-25'8635,"0"-16"-5577,-7-3-1169,-2 3-1170,-22 32-449,11 41-360,9 34-270,44 9 181,34-21 179,-26-40 0,3-10 314,-2-12 1,-4-11-135,-6-10 0,-9-8-90,-12-9 0,-14-4-45,-15 0 0,-13 1-90,-11 6 0,-7 8 0,-5 8 0,-4 12-225,-33 16 90,40 27 0,53 4 180,49-11 630,33-21-270,-44-6 0,2-1-226,0 0 1,-1 3-45,-1 6 0,-2 8-90,-3 10 0,-4 8 0,-6 7 0,-4 5 270,10 48 630,-30-14-541,-18-30 1,-19-51-450,13-53-1259,10 7 0,6-6-1800,11-4 1,7 2-1768,10-1 1,4 5 4517,19-13 0,-12 32 0,-30 32 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5300">10519 1082 10321,'-67'-49'9830,"-13"49"-7549,58 42 0,8 15-2191,-4-3 0,6 3-90,7 17 0,15-4 90,47 11 0,10-34 539,26-62-179,-54-28 0,-8-13-46,-2-5 1,-8-5-315,-8-14 0,-12 1-90,-17 15 0,-11 7-1124,-9 14 0,-8 13-2250,-7 17 1,-1 14 3373,-30 41 0,29-7 0,34 6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5450">10724 1332 14549,'29'-36'-2339,"6"10"2339,-16 20 0,-2 4 0,-9 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5683">11116 838 9512,'23'-71'9830,"7"40"-7819,-12 67 0,-2 23-2821,6 18 1,0 5-2520,3 9 1,-1 2 3276,-3-2 1,-2-6-1,-7-31 1,-2-9 0,0 6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6817">11748 310 10321,'10'-63'2668,"-1"1"1,-6 6 0,-9 6-1770,-44-9-629,-7 43 0,-15 12-210,-6 8 0,-11 8 0,-4 3-596,3 1 1,-6 1-1,-4 3 1,-3 1 550,23-4 0,-3 1 0,-1 1 0,-2 1 0,-2 0 0,0 1-3,4 1 1,-1-1 0,-1 1 0,-1 1 0,-1 0 0,0 1 0,0 0-26,-4 1 0,0 1 0,-1 1 0,1 0 0,0 0 1,1 0-1,2-2 13,-3 4 0,1-2 0,0 1 0,2-1 0,-1 2 0,0-2 0,-3 2 0,0 1 0,-1 0 0,1 0 0,1-1 0,3 0 0,-5 1 0,1 0 0,1-1 0,1 0 0,0 1 18,1-2 0,-1 2 0,2-1 0,0 0 0,2-1-42,8-3 1,1 1 0,3-2 0,-2 1 0,1-1 23,-20 6 0,0 1 0,2-3 0,5 0 0,-2-2 0,6-3 0,-1 2 0,-9 2 0,-1 1 0,2-3 0,6-1 0,1 0 0,4-2-89,-13 4 1,4 1 88,-1-1 0,4-1 90,20-6 0,5-2 360,-26 5 1382,10-2-1112,17 11 1002,27 36-1408,27-15 1,10 8-195,10 2 0,8 7 0,4 1-217,11 11 0,7 3 0,3 3 119,-5-13 1,3 1-1,2 1 1,4 0-23,-4-8 0,3 2 0,2-1 0,0-3 0,-2-3 22,1 0 1,-1-4-1,1-3 1,3-1-23,7 4 0,2 0 0,4-7 0,2-12 0,19-11 0,6-15 0,1-6 0,4-2 0,2-6 0,4-6 0,-24-3 0,3-5 0,2-2 0,0-2 0,-1 1-208,-5-1 1,-2 0 0,2 0 0,0-1-1,4 1 208,-1 1 0,2-1 0,3 0 0,0 1 0,-1 1 0,-3 1 0,4-1 0,-3 2 0,-1 1 0,2-1 0,5 1 0,5-2 0,4 2 0,3-1 0,1 1 0,-2-1 0,-4 0-417,3 1 1,-3 0 0,-2 0-1,1 0 1,0-3 341,-8 2 0,2 1 0,0-1 0,0-3 0,0 1 0,-1-4 0,3-1 0,1-4 0,-1-1 0,-1-1 0,-2-1 1,-5-1-111,1-2 1,-4 0 0,-2-3-1,-1 0 1,0-2 256,5-2 0,1-3 0,-1-1 0,-3 0 0,-5-1 72,0-4 0,-4 1 1,-4-3-1,-4 0 6,11-13 0,-6-1 0,-6-5-90,-7-3 0,-5-3 0,-6-4 30,-5-3 0,-5-4 0,-6 2 30,-6 4 0,-5 0 0,-6 1 192,-4 3 1,-5 2 0,-4 3-268,-11-13 0,-8 4-45,-11 1 0,-6 3 0,1 9 0,-1 2 845,-4-1 1,0 2-1341,8 12 1,1 2-767,3 8 1,1 3-5307,-24-13 6725,8 28 1,22 14-1,9 10 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15876,17 +15884,17 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2119 604 9242,'-15'-59'9830,"4"17"-7877,7 46-694,15 46-854,2 0 0,5 4-270,7 8 0,5-1 0,5-3 0,4-5-46,2-12 1,4-10 720,46-17 89,-9-57-224,-45 5 0,-5-6 134,-5-1 1,-4-1-630,6-32-180,-18 49-630,-7 35-4497,1 56 2068,4-16 1,5 3-1754,10 8 0,2-2 4812,16 26 0,-3-28 0,-29-45 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="317">3108 1018 8522,'13'-42'7916,"-1"-6"-4139,-6-2-3507,-14 21 540,-11 30-450,1 38-360,14 14-180,47-1 90,24-37 180,28-31 539,-20-41-89,-37-29-450,-58-1-360,-35 24-1484,5 46 0,-5 12-5082,-24 25 6836,11 7 0,40 0 0,25-21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="566">3665 536 10231,'20'-50'4915,"0"0"0,9-26 3695,-46 81-8610,-3 50 0,-4 34-3868,14-9 0,4 5-405,2-12 1,2-2 4047,1 1 0,0-7 1,3 7-1,-3-48 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="867">3509 699 9512,'-62'-34'7195,"19"11"-7105,22 16 900,39-6 1259,21-14-271,-1-27-1798,-16 11-2248,-27 0-2430,-15 62-3957,0 13 8455,6 16 0,10-16 0,4-22 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1167">3646 909 11400,'15'-4'7556,"6"12"-7466,2 8-180,8 9 540,11-2 1259,4-18 180,-1-14-990,-18-16-1528,-35-9-2789,-25 3-1889,-13 3 5307,-4 5 0,27 12 0,5 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1767">4246 161 7443,'7'-30'9804,"-16"-9"-7105,-25-7-2475,-11 23 1,-14 7-75,-7 9 0,-11 7 0,-5 4-533,3 2 1,-6 3 0,-3 3 0,-3 2 418,7 0 0,-4 2 0,-1 2 0,0 1 0,0 2-18,-3 1 0,0 2 0,-1 1 0,2 2 0,3-1-18,7 0 0,2 0 0,1 0 0,3 2 0,1 0 17,-7 5 0,2 1 0,4 0 1,3 2-18,-5 7 0,6 2 0,6 2 44,-12 20 1,13 4 0,18-1 0,15 5 45,19 7 0,19 3 0,13-19 0,10 1 0,9-3-265,17 7 1,11-3 0,9-5 174,-6-15 0,8-2 0,3-5 0,4-6-60,7-3 0,4-5 0,2-6 1,2-6 23,-18-8 0,1-3 0,1-4 0,0-4 0,-3-4 13,17-8 1,-1-6-1,-2-5 1,-3-6 67,-4-5 0,-2-7 0,-3-4 0,-3-4 292,-4-5 0,-4-6 0,-3-2 1,-4-1 97,-8 4 1,-4-3 0,-3 1 0,-4 0-107,5-13 1,-5 1 0,-14 2-195,-8-12 0,-27 9-855,-40 18 1,-25 13-721,-2 20 1,-12 8 0,-5 6-787,6 6 0,-6 4 1,-1 3-1,3 2 2226,-14 2 0,2 2 0,3 4 0,2 1 0,3 3 0,9 1 0,8 1 0,0 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3683">695 466 9422,'-53'-71'4407,"14"37"1,-8 7-3284,-10 10 0,-5 11-584,-12 8 0,0 12 314,0 15 1,6 14-406,8 22 1,13 9-360,19-7 0,16 3-450,26 19 1,25-8-1800,39-24 0,16-15 270,-5-4 0,4-11 1889,-15-20 0,3-8 0,-10-4 0,-14-3 0,-7-5 0,42-21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4083">970 453 8792,'-20'0'2429,"1"3"539,-4 6 180,6 0-2698,7 5-270,34-14-2789,21-6-5576,29-14 8185,-20 5 0,-14 2 0,-31 9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4283">1278 317 9422,'-50'0'6116,"11"2"-5396,9 21-360,31 19-181,5 19-358,7 25-1036,-15-36 1,-4 1 1214,-4 2 0,-1-3 0,-10 15 0,8-21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5100">4943 911 12120,'-32'0'5577,"4"0"-5577,59-11-720,49-11 495,-11 4 1,4-3 808,1-2 1,-3-3 449,-13 4 1,-9-4 404,0-23-360,-49 16-899,10 38-270,13 29-270,25 42-89,-7 2-586,-39-23 1,-11 0-1395,-27 30-2487,2-24 1,-3-4 4899,-3-1 0,8-9 1,30-40-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5567">6444 579 9961,'20'-28'8905,"-17"22"-7556,-10 22-809,-12 24 0,-6 13-315,-3 11 0,-1 5-136,-6 12 1,-3 4-30,9-22 0,-2 1 0,2-5-60,-4 4 0,1-6 0,3 0 0,1-20 0,-3-51 450,31-53 224,3-1 1,5-5 89,3 5 1,3 2 134,-1 11 1,3 7-90,25 0-270,36 80-855,-29-8 0,4 3-2294,24 12 1,7-2-1575,8-12 1,4-9 4182,-7-8 0,-1-7 0,-12-4 0,-6-6 0,25-24 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2107 622 9242,'-15'-61'9830,"4"18"-7877,7 47-694,15 47-854,2 1 0,5 3-270,7 9 0,5-1 0,4-4 0,5-4-46,2-13 1,4-10 720,45-17 89,-8-60-224,-45 6 0,-6-6 134,-4-1 1,-4-2-630,6-32-180,-18 50-630,-7 36-4497,1 58 2068,4-17 1,5 4-1754,10 8 0,1-3 4812,17 27 0,-3-28 0,-29-47 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="317">3090 1048 8522,'13'-44'7916,"-1"-5"-4139,-6-2-3507,-14 21 540,-11 31-450,2 39-360,13 14-180,46 0 90,25-39 180,27-31 539,-19-43-89,-37-29-450,-58-2-360,-35 25-1484,5 48 0,-4 12-5082,-25 25 6836,12 8 0,39 0 0,25-22 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="566">3644 552 10231,'20'-52'4915,"0"1"0,9-28 3695,-46 85-8610,-3 50 0,-4 36-3868,14-10 0,4 6-405,2-13 1,2-2 4047,1 1 0,0-7 1,3 7-1,-3-49 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="867">3489 719 9512,'-61'-35'7195,"18"12"-7105,22 15 900,39-5 1259,21-15-271,-2-27-1798,-15 10-2248,-27 1-2430,-15 64-3957,0 13 8455,7 16 0,9-16 0,4-23 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1167">3625 935 11400,'15'-4'7556,"6"13"-7466,2 7-180,8 10 540,11-3 1259,3-17 180,0-16-990,-18-15-1528,-35-10-2789,-25 3-1889,-13 3 5307,-3 5 0,26 13 0,5 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1767">4222 166 7443,'7'-31'9804,"-16"-9"-7105,-25-8-2475,-11 25 1,-13 6-75,-8 10 0,-10 7 0,-6 4-533,4 2 1,-7 4 0,-2 2 0,-4 2 418,8 1 0,-5 1 0,0 3 0,-1 0 0,1 3-18,-4 1 0,1 1 0,-2 2 0,3 2 0,2-2-18,8 1 0,1 0 0,1 0 0,4 2 0,0-1 17,-6 6 0,1 1 0,5 0 1,2 2-18,-5 8 0,7 1 0,5 2 44,-11 21 1,12 4 0,18-1 0,15 5 45,19 8 0,19 2 0,13-19 0,10 1 0,9-3-265,17 7 1,10-3 0,10-5 174,-7-16 0,9-1 0,3-6 0,3-6-60,8-3 0,3-5 0,2-7 1,3-5 23,-19-9 0,2-3 0,0-4 0,1-4 0,-3-4 13,16-9 1,-1-5-1,-1-6 1,-4-6 67,-3-5 0,-3-8 0,-2-3 0,-4-5 292,-3-4 0,-4-7 0,-4-2 1,-3-1 97,-8 4 1,-5-3 0,-2 1 0,-4 0-107,4-13 1,-4 1 0,-14 2-195,-8-13 0,-27 10-855,-40 18 1,-24 14-721,-3 20 1,-12 9 0,-4 5-787,5 7 0,-5 4 1,-2 3-1,4 2 2226,-15 2 0,3 2 0,2 4 0,3 2 0,2 2 0,10 2 0,7 0 0,1 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3683">691 480 9422,'-53'-74'4407,"15"39"1,-9 8-3284,-10 9 0,-4 12-584,-13 8 0,0 13 314,1 14 1,5 16-406,9 21 1,12 11-360,19-8 0,16 3-450,26 19 1,25-7-1800,38-26 0,17-15 270,-6-3 0,5-13 1889,-16-19 0,4-9 0,-11-5 0,-13-2 0,-7-5 0,41-22 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4083">965 466 8792,'-20'0'2429,"1"3"539,-4 7 180,6-1-2698,7 5-270,34-14-2789,21-6-5576,28-15 8185,-19 6 0,-14 2 0,-31 8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4283">1271 326 9422,'-50'0'6116,"11"2"-5396,9 22-360,31 19-181,5 20-358,7 25-1036,-15-36 1,-4 0 1214,-4 3 0,0-4 0,-11 16 0,8-21 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5100">4915 937 12120,'-32'0'5577,"4"0"-5577,59-11-720,49-11 495,-12 3 1,5-3 808,1-1 1,-4-4 449,-12 4 1,-9-3 404,-1-25-360,-48 17-899,10 39-270,13 30-270,25 44-89,-7 1-586,-39-24 1,-11 1-1395,-27 30-2487,2-24 1,-3-4 4899,-3-1 0,9-10 1,29-41-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5567">6408 596 9961,'20'-29'8905,"-18"23"-7556,-8 22-809,-13 25 0,-6 14-315,-3 11 0,-1 5-136,-6 12 1,-2 5-30,8-23 0,-2 0 0,2-4-60,-4 4 0,1-6 0,4-1 0,0-20 0,-3-52 450,31-55 224,3-1 1,5-5 89,3 5 1,3 2 134,-1 11 1,3 8-90,24 0-270,37 82-855,-29-9 0,3 4-2294,25 12 1,6-2-1575,9-12 1,3-10 4182,-6-7 0,-2-8 0,-11-4 0,-6-7 0,24-24 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15914,10 +15922,10 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">725 608 9871,'-10'-22'7016,"-4"2"-5936,-7 6-541,-14 38 91,9 37-450,13-9 0,7 5-90,7 7 0,9-1 45,9-2 0,9-6 134,5-12 1,9-11 225,8-15 0,3-14 224,-1-15 1,-2-12-181,-3-9 1,-8-9 0,2-46-540,-59 6-2429,-44 27-2248,-20 31-5154,12 26 9725,28 15 0,25-4 1,12-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167">1049 755 11221,'28'-18'4227,"-2"3"-8904,-13 15 4677,0 3 0,-5 2 0,-2 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="517">1548 379 13289,'-14'-16'5307,"-9"22"-4227,-2 53-630,15 24-540,10-33 0,8 1-45,12 3 0,6-4 135,20 9 450,19-15 1348,-18-59-1168,-20-22-360,-27-14-2159,-55 0-2608,-2 25 4497,-23 9 0,45 13 0,7 6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1450">1727 248 10231,'15'-51'8545,"-10"6"-8095,-34 5-90,-46 26-315,3 19 0,-13 8-15,0 4 0,-8 5 0,-3 2-328,16-4 1,-3 1 0,0 0 0,0 1 297,-2 1 0,-2 0 0,2 0 0,2 0 0,-11 4 0,4-1 0,7 2 511,-6 7 1,15 6-62,25-1 0,14 8-1,14 13 1,13 9-180,12 17 0,11 6-180,-2-21 0,5 2 0,3 0-150,4 6 1,4 0 0,4-2 119,5-2 0,3-3 0,7-5-60,6-7 0,6-5 0,6-8-60,6-9 0,7-9 0,5-9 15,-8-13 0,5-8 0,2-5 0,-1-6-226,3-6 1,0-6 0,0-6 0,-1-4 270,-12 1 0,1-5 0,-1-3 0,-3-4 0,-3-2 22,10-15 1,-3-6-1,-5-3 1,-7-3 224,-9 4 1,-4-3-1,-6-2 1,-7-1 71,-7-1 0,-4-2 1,-9 0-1,-12 2-207,-11 1 1,-10 1-1,-9 3 1,-9 5-136,-12 4 1,-9 5-1,-8 6 1,-4 4-608,-11 2 0,-7 5 1,-5 8-1,0 8-1115,-2 10 0,-4 9 0,2 7 0,4 5 1745,-10 8 0,4 9 0,10 3 0,-7 11 0,17 5 0,38-5 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">727 624 9871,'-10'-22'7016,"-4"1"-5936,-7 7-541,-15 38 91,10 39-450,13-10 0,7 6-90,7 6 0,9 0 45,9-2 0,9-7 134,6-12 1,8-11 225,8-15 0,3-15 224,-1-16 1,-2-11-181,-3-10 1,-8-9 0,2-48-540,-59 7-2429,-44 28-2248,-20 31-5154,12 27 9725,28 16 0,25-5 1,12-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167">1051 775 11221,'28'-18'4227,"-2"2"-8904,-13 16 4677,1 3 0,-6 2 0,-2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="517">1551 389 13289,'-14'-16'5307,"-9"22"-4227,-2 54-630,15 26-540,10-35 0,8 1-45,12 4 0,6-5 135,21 10 450,18-16 1348,-18-61-1168,-20-22-360,-27-14-2159,-55 0-2608,-2 25 4497,-24 9 0,46 14 0,7 6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1450">1731 255 10231,'15'-53'8545,"-10"7"-8095,-34 5-90,-46 27-315,3 19 0,-14 8-15,1 5 0,-8 4 0,-3 3-328,16-5 1,-4 2 0,1-1 0,0 2 297,-2 1 0,-2-1 0,1 1 0,3-1 0,-11 5 0,4-1 0,7 2 511,-7 6 1,16 8-62,25-2 0,14 8-1,14 14 1,13 8-180,12 19 0,11 5-180,-2-21 0,5 2 0,3 0-150,4 6 1,4 0 0,4-2 119,5-2 0,4-3 0,6-5-60,6-7 0,6-6 0,6-8-60,6-9 0,7-9 0,6-9 15,-9-14 0,5-8 0,2-5 0,-1-6-226,3-7 1,1-6 0,-1-5 0,-1-5 270,-12 1 0,1-5 0,0-3 0,-4-4 0,-3-2 22,10-16 1,-3-6-1,-5-3 1,-7-3 224,-8 5 1,-5-4-1,-6-2 1,-7-1 71,-7-1 0,-4-2 1,-9 0-1,-12 2-207,-11 1 1,-10 1-1,-9 3 1,-9 5-136,-12 4 1,-9 6-1,-9 5 1,-3 5-608,-11 2 0,-7 5 1,-5 8-1,-1 9-1115,-1 9 0,-4 10 0,2 7 0,4 5 1745,-11 9 0,5 8 0,10 4 0,-7 11 0,17 5 0,38-5 0,-2 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15945,15 +15953,15 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1079 3321 8702,'-2'-24'9175,"3"1"-8366,5 24-359,-1 42-135,-2 10 0,-1 9-225,-2 9 0,-2 4-90,-1 3 0,0 1 224,-2-2 1,0-7 225,0 8-450,-4-29 90,-3-133-45,4 21 0,2-9 45,0-6 0,1-10 0,2-1 204,3-1 1,2-1-1,1 4-84,-2 12 0,1 3 0,2 2 374,2-32 1,13 22-45,33 48-360,16 51-270,-5 33 0,3 17-1350,-18-16 1,0 5 0,-2-1 120,-1-3 0,-1 0 0,-2 1-1890,1 2 1,-1 1 0,-6-8 3139,16 28 0,-17-21 1,-30-46-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="633">1401 3716 7982,'-72'-39'2488,"0"-1"1,20-13 0,28-2-2309,56 17 0,24 3-90,18-9 0,10 5-30,-17 20 0,3 5 0,1 5 165,26 4 0,-2 9-91,-15 8 1,-4 6 180,-16 1 0,-5 2 1304,25 14-1079,-28-11-270,-10-31-180,-8-30-180,11-28 0,7-4 0,12 22-900,8 38 181,13 28 629,-37-4 0,1-2 180,1-5 0,2-7 135,0-9 0,-2-7 90,-3-10 0,-3-4-46,-3-3 1,-2-1 180,23-18-180,21 51-90,-40 29 0,0 15-45,17 29 0,-2 14-45,-22-21 0,-3 5 0,-5 2-75,-3 5 0,-5 1 0,-9 0 75,-11-4 0,-8-1 0,-10-4-270,-11-7 0,-10-5 0,-6-5-1050,-5-7 1,-6-6 0,-2-10 1319,-25-7 0,2-12 0,-18 0 0,48-35 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="966">5464 3031 7892,'-17'-50'9830,"-1"5"-8416,1 25-964,13 66-1889,25 51-900,2-24 0,5 3 2339,2-8 0,0-6 0,14 18 0,-18-41 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1466">5496 2850 11850,'-1'-25'7376,"1"22"-7016,2 18 539,11 54-584,7-7 0,6 6-225,12 13 0,7 4-60,-8-22 0,4 2 0,2-5 15,19 17 0,3-10-45,-4-18 0,2-16 180,33-34-135,-57-28 0,-7-13-630,-7-11 0,-8-5-1799,-5-2 1,-3 2-6252,4-26 8635,0 37 0,-1 31 0,-2 14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2217">6812 3015 9152,'22'-47'6836,"-9"-9"-4138,-12-25-2338,-23 22 0,-41 40-270,10 60-180,2 37-270,43-16 0,12 1-179,20 29 539,10-12 539,23-71 271,-23-28-450,9-19-90,-7 11-270,7 33-90,11 5-90,42 16 90,-21-27 135,-18-17 0,-3-17 90,-5-42 0,-9-16 179,-3 5 1,-6-7 134,-11 13 1,-3-5 0,-7 5 225,-10-9 0,-7 11-585,3 19 0,-8 18 89,-33 36-404,38 51 1,13 19-181,-5 6 0,6 3 0,19 19 1,9-4 269,-1-27 0,5-9 135,0-13 0,4-15 90,33-34 0,-36-21 0,-4-7-90,15-26 0,7-1-90,4 76 90,-2 10-45,-14 11 0,-2 8-45,-9 0 0,-6 4-540,-1 8 1,-9 4-946,-14 5 1,-13 1-1574,-15-1 0,-10-5 3148,0-12 0,-1-6 0,-23 11 0,33-36 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3216">11397 2357 8342,'-5'-56'7106,"-9"-13"-4947,-21-23-1934,2 47 0,-8 7 179,-16 12 1,-7 15-225,-10 20 0,1 17-90,6 16 0,10 14-45,15 9 0,19 5-45,27-6 0,19-5 0,17-15 0,10-12 45,11-13 0,3-14 269,-4-13 1,-4-8 495,30-25-360,-26-2-450,-14 31-180,5 19-270,12 19 180,5 0 180,3-28 0,-1-39 45,-31 3 0,-1-5 45,2-3 0,2-1 0,1 4 0,3 5 90,41-3-90,-10 42 0,-16 26 90,-16 20-180,-17-8 0,-6-36 0,5-28-89,6-36-91,19-2-180,14 8 180,17 5 270,-37 24 0,-1-1 225,-1-2 0,-2 0 584,18-24-179,-46 14-180,-59 62-405,4 16 0,0 13-1485,-1 21 1,10 9-3477,20 14 1,13-1 4294,4-28 1,10-7 0,18-3 0,8-12 0,13-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3550">14296 1726 9422,'-1'-58'3912,"-1"0"1,1-27-3733,-3 53 0,22 69-90,-1 6 0,1 9-90,5 16 0,-2 4 314,-3 3 1,-7 1 90,-10-6 0,-11-5-180,-12-13 0,-10-7-315,-9-13 0,-6-11-2069,-42-22-1709,47-62 720,52-2 0,17-3 3148,-5 13 0,5 3 0,16-12 0,1 7 0,-1 4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4033">14469 1591 9871,'41'-47'2189,"1"-1"0,-5 4 0,-3 2-660,10-14-1169,-16 64-360,-19 46-360,4 40-45,1-38 0,5-3 135,25 12 270,13-21 270,14-70 180,-14-23-270,0-13 270,-13 13-360,-15 30-1,-5 11-89,-4 18 0,-3 4 0,29-14 180,-2-16-90,12-7-90,14-6-90,-35 20-1259,46 14-1259,-25 8-1980,26 3 4588,-11-11 0,-28-5 0,-14-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5367">16487 737 9242,'-40'-34'6386,"-45"0"-6027,17 19 1,-14 1 0,-3 3-270,-8 0 0,-5 3 0,-10 1-769,24 3 1,-6 1 0,-6 0 0,-3 2 0,0 0 0,0 1 678,11 2 0,0 1 0,-1 0 0,0 2 0,-3 0 0,-2 0 0,-2 1-183,4 0 0,-2 1 0,-3 0 0,-2 1 1,-1 0-1,0 0 0,0 1 0,0 1 0,2 0 173,2 0 0,0 0 0,0 1 0,0 1 0,0 0 0,1 0 0,-2 0 0,0 1 0,0 1 10,6-2 0,-1 1 0,-1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,0-1 0,1 0-92,-4 1 0,0 1 0,1-1 0,0 1 0,0-1 0,1 1 0,0 0 0,0-1 0,-1 1 42,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0-87,2-1 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 1,0 0-1,1-1 0,-1 0 125,-8 1 1,-1 1 0,1-1 0,0-1 0,1 1 0,-1-1 0,2 0-1,-1-1 15,4 0 0,1-1 1,-1 1-1,1-1 1,1-1-1,0 1 1,1-1-1,1-1-3,-6 1 0,2-1 0,1 0 0,0-1 0,1 0 0,1 0 0,-1-1 0,5 0 0,0-1 0,0-1 0,0 0 0,2 0 0,1 0 0,0-1-15,-4 0 0,1 0 0,1-1 0,1 0 0,-1 0 0,1 0 156,-16 1 1,1 0-1,0 0 1,0-1 0,1 1-142,5 1 0,0-1 0,0 0 0,1 1 0,-2 0 0,-1 0 0,-1 1 0,0 0 0,0 1 0,1-1-18,2 1 0,0-1 0,1 1 0,-1 1 0,0 0 18,-5 1 0,0 1 0,-1 0 0,0 1 0,1 1 0,2 1 0,1 1 0,-1 0 0,2 2 0,0 0 0,3 1 0,1 1 0,1 0 0,0 1 0,1 2-18,2-1 0,0 2 0,2 1 0,0 0 0,2 0 299,-10 5 0,1 0 0,2 1 0,1 0-281,5 0 0,2 0 0,1 0 0,1 1-23,6-2 1,1 0 0,1 1-1,1-1 53,-17 8 0,3 0 0,2-1 557,7-3 0,2-1 0,2-2-527,6-3 0,1-2 0,2-1 742,-22 4 1,2-2-758,7-4 0,3 1 648,5 0 1,4 5-649,1 11 0,6 10 45,2 19 0,11 14-4,19-10 0,7 8 0,7 5-64,8-1 1,7 4-1,4 5 1,6 0-278,2-5 1,4 3 0,4 1 0,4 0 0,2 1 269,-1-10 0,3 0 0,3 2 0,2-1 0,2-1 0,2-2 0,2 1 0,3 0 0,2-1 0,2-1 0,2-4 0,1-2-243,9 4 1,1-3 0,2-3-1,3-4 1,4-5 227,1-6 0,3-4 0,4-4 0,2-5 0,4-7 15,-6-9 0,2-6 0,3-3 0,2-4 0,1-3 0,1-2-15,-5-3 0,0-3 0,2-2 0,1-2 0,1-2 0,3-3 0,1 0-209,-7-2 0,2-2 0,1-1 0,2-2 0,1-1 0,1-2 0,1 0 0,-1-1 0,1 0 209,-3 0 0,0-2 0,1-1 0,0 0 0,1-2 0,0 1 0,0-2 0,1 1 0,0 0 0,0 1-132,3-2 1,1 0-1,0 0 1,1-1-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1 1-1,-1 0 132,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-2 1 0,1 1 0,-1 1 0,-1 1 0,6 0 0,0 2 0,-1 1 0,-1 0 0,1 2 0,-1 0 0,-1 2 0,0-1 0,0 2-43,-6 1 1,-1 2-1,-1 0 1,0 2 0,0-1-1,0 1 1,0 0 0,1-1-1,1-1 53,5 0 0,0 0 0,1 0 0,0 0 0,0-1 0,1 0 0,0 0 0,-1-2 0,1-1-83,1 0 1,-1-2 0,1 0 0,0-1 0,0-1 0,0 0 0,1-1 0,-1-1 0,2 0 81,-7 0 0,1-2 0,0 1 0,1-2 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,-1 1-9,-3 0 0,0-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,-1 2 0,1-1 0,-1 2 0,-1 0 6,7 0 0,-1 1 1,1 0-1,-2 1 1,1 0-1,-1 2 1,-1-1-1,0 2 0,-1 1 5,4 1 0,0 1 1,-2 1-1,0 0 0,0 2 1,-1-1-1,0 1 0,0-1 40,-3 1 0,0 0 0,-1 1 0,1-1 0,-2 1 0,1-1 0,0-1 0,-1-1-39,10-1 1,-1 0 0,1-1 0,-1-1 0,0 0 0,-1-1 0,-1-1-13,-2 0 0,-1-1 0,0 0 0,-1-1 0,-1 0 0,-1-1 0,-1 0 96,4-1 0,-1-1 0,-2-1 0,-1 1 0,-1-1 0,-1 0-43,9-1 1,-2-1 0,-1 1 0,-3-1 0,-2-1 327,3-1 0,-4 0 1,-2-2-1,-1-3-336,-4-1 0,-2-2 0,-1-4 0,-2-6 45,6-12 0,0-6 0,-4-6 0,-3-6 259,-16 7 0,-2-5 0,-3-3 1,-2-3-1,-4-3-223,2-5 0,-2-4 0,-4-2 0,-5-3 0,-7-3-55,-9 7 0,-4-3 1,-5-3-1,-5 0 1,-6 0-1,-7 1-71,-9-2 0,-6 0 0,-8-1 0,-6 2 0,-6 0 0,-6 3-274,2 15 1,-6-1 0,-6 2 0,-3 0 0,-3 2 0,-3 2 0,-1 2 0,-1 3-110,-3 1 1,-2 3 0,-3 1 0,-2 2-1,-2 3 1,0 1 0,-1 3 0,-1 2-349,2 2 0,-4 3 0,0 2 0,-2 1 0,2 3 1,1 2-1,3 3 0,5 3 598,-13-3 0,2 4 0,5 4 1,4 3-1,5 2 0,-11 0 1,6 5-1,23 4 0,23 6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1076 3364 8702,'-2'-25'9175,"3"2"-8366,5 24-359,-1 42-135,-2 11 0,-1 9-225,-2 9 0,-2 4-90,-1 3 0,0 1 224,-2-2 1,0-7 225,0 8-450,-4-30 90,-3-134-45,4 21 0,2-8 45,0-7 0,1-11 0,2 0 204,3-1 1,2-1-1,1 4-84,-2 12 0,1 3 0,2 2 374,2-32 1,13 22-45,33 48-360,16 53-270,-5 32 0,2 18-1350,-17-16 1,0 5 0,-2-2 120,-1-2 0,-1 0 0,-2 0-1890,1 3 1,-2 1 0,-5-9 3139,16 29 0,-17-21 1,-30-47-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="633">1397 3764 7982,'-72'-40'2488,"1"0"1,19-14 0,28-2-2309,56 18 0,24 2-90,17-8 0,11 4-30,-17 21 0,3 5 0,1 5 165,25 4 0,-1 9-91,-15 8 1,-4 6 180,-17 1 0,-4 3 1304,25 13-1079,-28-11-270,-10-31-180,-8-30-180,11-29 0,6-4 0,13 22-900,8 39 181,13 29 629,-37-5 0,1-2 180,0-5 0,3-7 135,0-9 0,-2-7 90,-3-11 0,-3-3-46,-3-3 1,-2-2 180,22-17-180,22 51-90,-40 29 0,0 15-45,17 30 0,-2 15-45,-23-23 0,-2 6 0,-5 2-75,-3 5 0,-5 1 0,-9 0 75,-11-4 0,-8-1 0,-10-4-270,-11-7 0,-10-5 0,-5-6-1050,-6-6 1,-6-7 0,-2-9 1319,-25-8 0,2-12 0,-17 0 0,47-35 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="966">5449 3070 7892,'-17'-51'9830,"-1"6"-8416,1 24-964,13 68-1889,25 51-900,2-24 0,5 3 2339,2-8 0,0-6 0,14 18 0,-18-42 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1466">5481 2886 11850,'-1'-25'7376,"1"22"-7016,2 18 539,11 55-584,7-7 0,6 6-225,12 13 0,7 4-60,-9-22 0,5 2 0,2-6 15,19 18 0,3-10-45,-4-18 0,2-17 180,32-34-135,-56-28 0,-7-14-630,-7-10 0,-8-6-1799,-5-2 1,-3 2-6252,4-26 8635,0 38 0,-1 31 0,-2 14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2217">6793 3054 9152,'22'-48'6836,"-9"-9"-4138,-12-25-2338,-23 22 0,-41 41-270,11 61-180,1 37-270,43-16 0,12 0-179,20 31 539,10-13 539,22-72 271,-22-29-450,9-18-90,-7 11-270,7 33-90,11 5-90,42 16 90,-22-27 135,-17-17 0,-3-17 90,-5-43 0,-9-17 179,-3 6 1,-6-7 134,-11 13 1,-3-5 0,-7 5 225,-10-9 0,-7 11-585,3 19 0,-8 18 89,-33 37-404,38 52 1,13 19-181,-5 6 0,6 3 0,19 19 1,9-4 269,-2-27 0,6-10 135,0-12 0,4-16 90,33-34 0,-36-21 0,-4-8-90,15-26 0,6-1-90,5 78 90,-2 9-45,-14 11 0,-2 9-45,-9-1 0,-6 5-540,-1 8 1,-10 3-946,-13 6 1,-13 1-1574,-14-1 0,-11-6 3148,0-11 0,-1-7 0,-23 12 0,33-37 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3216">11366 2387 8342,'-5'-57'7106,"-9"-12"-4947,-21-25-1934,2 49 0,-8 6 179,-16 13 1,-7 15-225,-9 20 0,0 17-90,6 17 0,10 14-45,15 8 0,19 6-45,27-6 0,19-5 0,17-16 0,10-11 45,11-14 0,3-14 269,-5-13 1,-3-8 495,30-26-360,-26-1-450,-14 31-180,5 19-270,11 19 180,6 0 180,3-28 0,-1-39 45,-31 2 0,-1-4 45,2-4 0,1 0 0,2 3 0,3 6 90,41-4-90,-10 43 0,-16 26 90,-16 21-180,-18-9 0,-5-35 0,5-30-89,6-36-91,19-1-180,14 7 180,17 5 270,-37 25 0,-2-1 225,0-3 0,-2 1 584,18-25-179,-46 15-180,-59 62-405,4 16 0,0 14-1485,-1 21 1,11 9-3477,19 14 1,13 0 4294,4-30 1,9-6 0,19-3 0,8-12 0,13-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3550">14257 1748 9422,'-1'-59'3912,"-1"1"1,1-28-3733,-3 53 0,22 71-90,-1 5 0,1 10-90,5 16 0,-2 4 314,-4 3 1,-6 1 90,-10-7 0,-11-4-180,-11-13 0,-11-7-315,-9-14 0,-6-11-2069,-42-22-1709,47-63 720,52-1 0,17-4 3148,-5 13 0,5 3 0,16-12 0,1 8 0,-1 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4033">14429 1611 9871,'41'-47'2189,"1"-2"0,-5 5 0,-3 1-660,10-14-1169,-16 65-360,-19 47-360,4 40-45,1-38 0,5-3 135,24 12 270,14-22 270,14-70 180,-14-24-270,0-13 270,-13 14-360,-15 30-1,-6 10-89,-3 20 0,-3 3 0,29-14 180,-2-16-90,12-8-90,14-5-90,-35 20-1259,45 14-1259,-24 8-1980,26 3 4588,-11-11 0,-28-5 0,-14-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5367">16442 746 9242,'-40'-34'6386,"-45"0"-6027,17 18 1,-14 2 0,-2 3-270,-9 0 0,-5 3 0,-9 1-769,23 3 1,-6 1 0,-6 0 0,-2 2 0,-1 0 0,0 1 678,11 2 0,1 1 0,-2 0 0,0 2 0,-3 0 0,-1 0 0,-3 1-183,4 0 0,-2 1 0,-2 0 0,-3 1 1,-1 0-1,0 1 0,1 0 0,-1 1 0,2 0 173,3 0 0,-1 0 0,0 1 0,0 1 0,1 1 0,0-1 0,-2 0 0,0 1 0,1 1 10,5-2 0,-1 2 0,-1 0 0,1 0 0,-2 0 0,1 0 0,0 0 0,2 2 0,-1-2 0,1 0-92,-4 1 0,1 1 0,0 0 0,0 0 0,0-1 0,2 1 0,-1 0 0,0 0 0,0 0 42,0-1 0,0 1 0,0-1 0,1 2 0,-1-2 0,0 1 0,0-1 0,1 0 0,-1 1-87,2-2 0,-1 1 0,2-1 1,-1 0-1,-1 0 0,1 1 1,1-1-1,0-1 0,-1 0 125,-8 1 1,0 2 0,0-2 0,0-1 0,1 1 0,0-1 0,1 0-1,-1 0 15,4-1 0,2-1 1,-2 1-1,1-1 1,1-1-1,1 1 1,0 0-1,1-2-3,-5 1 0,1-1 0,1 0 0,0-1 0,2 0 0,0 0 0,-1-1 0,5 0 0,1 0 0,-1-2 0,0 0 0,2 0 0,1 0 0,1-1-15,-5 0 0,1 0 0,1-1 0,2 0 0,-2 0 0,1 0 156,-16 1 1,2 0-1,-1 0 1,0-1 0,1 1-142,6 1 0,-1-1 0,0 1 0,2 0 0,-3 0 0,-1 0 0,-1 1 0,1 0 0,-1 1 0,1-1-18,2 1 0,1-1 0,0 1 0,-1 1 0,0 1 18,-4 0 0,-1 1 0,-1 0 0,0 1 0,2 1 0,1 1 0,1 2 0,0-1 0,1 2 0,0 0 0,3 1 0,2 2 0,0-1 0,0 1 0,1 2-18,3 0 0,-1 1 0,2 1 0,0 0 0,2 1 299,-9 4 0,0 0 0,2 2 0,1-1-281,6 1 0,1-1 0,1 0 0,1 2-23,7-3 1,0 0 0,1 2-1,1-2 53,-17 9 0,4-1 0,1-1 557,7-2 0,2-2 0,2-1-527,7-4 0,0-2 0,2 0 742,-22 3 1,2-2-758,8-3 0,2 0 648,5 0 1,4 5-649,1 12 0,7 10 45,1 18 0,11 15-4,19-10 0,7 8 0,7 5-64,8 0 1,7 3-1,4 5 1,6 0-278,2-5 1,4 3 0,4 1 0,4 1 0,2 0 269,-1-10 0,2 0 0,4 2 0,2-1 0,2-1 0,2-2 0,2 1 0,3 0 0,2-1 0,2-1 0,1-4 0,2-2-243,9 4 1,1-3 0,2-3-1,3-4 1,3-5 227,2-7 0,3-3 0,4-4 0,1-6 0,5-6 15,-6-10 0,2-6 0,3-3 0,1-3 0,2-4 0,1-2-15,-5-3 0,-1-3 0,3-2 0,1-2 0,1-2 0,2-3 0,2 0-209,-7-2 0,2-2 0,0-2 0,3-1 0,1-1 0,1-2 0,0 0 0,0-2 0,1 1 209,-3 0 0,-1-2 0,2-1 0,0-1 0,1-1 0,-1 1 0,1-3 0,1 2 0,0 0 0,-1 1-132,4-3 1,1 1-1,0 0 1,0-2-1,0 1 1,1 1 0,0-2-1,-2 2 1,2 1-1,-1 0 132,-2 0 0,2 1 0,-1 0 0,0 0 0,-1-1 0,2 2 0,-2 1 0,1 1 0,-2 0 0,0 2 0,6 0 0,0 2 0,-2 1 0,0-1 0,1 3 0,-2 0 0,0 2 0,0-1 0,0 2-43,-7 1 1,0 2-1,-1 0 1,0 2 0,-1-2-1,1 2 1,0 0 0,1-1-1,0-1 53,6 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,1 0 0,0 0 0,-2-2 0,2-1-83,1-1 1,-1-1 0,0 0 0,1-1 0,0-1 0,-1 0 0,2-1 0,-1-2 0,2 1 81,-8 0 0,2-2 0,0 1 0,1-3 0,-1 1 0,1 0 0,-1-1 0,1 0 0,-2 1 0,0 1-9,-3 0 0,-1-2 0,1 2 0,-1-1 0,0 1 0,-1-1 0,0 1 0,1 0 0,-1 2 0,-1 0 6,6 0 0,0 0 1,1 1-1,-3 1 1,2 0-1,-1 2 1,-1-1-1,-1 1 0,0 2 5,4 1 0,0 1 1,-3 1-1,1 0 0,0 2 1,-1-1-1,-1 1 0,1-1 40,-3 1 0,0 0 0,-2 1 0,2-1 0,-2 1 0,1-2 0,-1 0 0,0-1-39,10-1 1,-1 0 0,0-1 0,0-1 0,0 0 0,-1-1 0,-2-1-13,-1-1 0,-1 0 0,0 0 0,-2-1 0,0 0 0,-1-1 0,-1-1 96,3 0 0,0-1 0,-2-1 0,-1 1 0,-2-2 0,0 1-43,9-1 1,-2-1 0,-2 0 0,-2 0 0,-2-1 327,3-1 0,-4-1 1,-3-1-1,0-3-336,-4-2 0,-2-1 0,-2-4 0,-1-7 45,6-12 0,0-5 0,-4-7 0,-4-6 259,-15 7 0,-2-5 0,-3-2 1,-2-4-1,-4-3-223,2-5 0,-3-5 0,-3-1 0,-5-3 0,-7-3-55,-9 7 0,-4-3 1,-5-3-1,-5-1 1,-6 1-1,-7 1-71,-9-2 0,-6 0 0,-8-2 0,-6 3 0,-6 0 0,-5 3-274,1 15 1,-6-1 0,-6 2 0,-3 0 0,-3 2 0,-2 2 0,-2 3 0,-1 2-110,-3 1 1,-2 3 0,-3 1 0,-1 3-1,-3 2 1,0 1 0,-1 4 0,0 1-349,1 2 0,-4 4 0,0 1 0,-1 2 0,1 2 1,1 3-1,3 3 0,5 2 598,-12-2 0,1 3 0,5 5 1,4 3-1,6 2 0,-12-1 1,6 6-1,23 4 0,23 6 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15981,33 +15989,33 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">13418 630 8252,'-6'-21'9830,"0"1"-6257,-3 32-2314,6 33-1034,4 2 0,4 8-1305,8 15 1,5 4-720,7 6 0,4-1-270,3-5 0,3-4 405,-3-14 0,-1-6 1214,13 7 1170,-19-39 1259,-27-32-360,-10-14-540,-3-12-629,20-1 270,31-7 269,39-17-135,-29 21 1,1-3 134,0-4 1,-5-3 224,-6 1 1,-6 1-46,3-22-629,-27 36-540,-3 63-2069,9 48 45,4-12 0,6 4 360,8 7 0,6-1 899,5-7 1,5-6 944,-2-15 0,2-11 2608,32-10-179,-27-38-1260,-24-8-1349,-16 13-720,14 33 91,19 10 269,38 0 585,-31-30 0,1-9 584,40-31-359,-34-26-720,-61 0-2338,-65 24 494,12 35 0,-5 10 2114,-5 11 0,3 5 0,-20 9 0,30 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2817">18678 424 9691,'-3'-78'9830,"0"18"-5807,10 47-3574,6 61-449,1 4 0,4 6-135,3 2 0,4-3 45,1-10 1,5-10 179,37-4 179,3-55 91,-5-26 0,-11-5-270,6 23-180,-7 36-540,24 19 271,10 6 538,-35-24 1,1-10 405,1-14 0,-3-12-226,-3-21 1,-11-13-270,-10-17 0,-13-5-180,-11 12 0,-12 5-675,-14 2 1,-13 19-4093,-42 51 1889,22 31 449,36 52 3059,64-20 2338,26-21-719,11-22-810,-30-20 0,1 0 1,42 18-1126,-44-7 1,-2 6-135,-5 14 0,-8 6-450,1 33-449,-23 14-990,-23-29 1439,-10-31 0,21-66 450,20-32 180,1 16 0,6 0-45,7 4 0,6 5-46,-1 11 1,3 9-90,43 12-629,-11 57-46,-44-4 0,-5 4-44,14 37 269,-11-9 360,-7-48 0,5-45 180,5-24 0,6-24 809,17 14-629,29 30-540,13 35-945,-46 11 1,-5 8-1170,-9 7 1,-8 6 2293,-12 7 0,-7-1 0,-1 9 0,-13-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10050">13659 3945 9602,'-41'-59'4497,"-4"14"0,-8 1-3688,0 7 1,-3 3-720,-8-3 0,1 15-90,-25 51-449,75 44 89,37 22 270,22-51 0,12-12 270,-3-21 0,3-11 89,4-9 1,-1-12 270,1-22 0,-5-7-226,-14 12 1,-2 2-90,1-1 0,1 9 45,35 29-450,-14 36-270,2 19 1,-17 14 359,-29-31-90,-11 0 0,-16-67 90,16-11 90,28-48 0,0 49 0,6 4-45,-1 4 0,4 4-180,11 5 0,3 5 0,-4 4 1,-2 1 134,40-13 180,-6-18 719,-61-19 180,-31 5 721,-61 7-1126,10 56 1,-3 15-540,7 3 0,5 9-1395,-3 26 1,21 10-2249,44 4 0,22-3 3598,3-12 0,8-7 0,9-2 0,4-11 0,-12-25 0,0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12033">19454 2641 13559,'-37'-7'4138,"22"17"-4498,48 51 90,24-3 360,19-2 1349,0-50-719,-40-44-450,-23-24-90,-74-10-90,-21 42-270,-12 25-1889,42 64 90,69 9 1170,36 6 988,2-46 1,7-11 584,-6-15 1,-1-9-360,6-5 0,-2-12 0,-1-21 0,-7-9-136,-14 6 1,-6-1 45,-1-4 0,-6 1 45,-10-19-360,-13 48 90,-2 44-90,22 74 0,4-23 0,4 6 0,5 13 0,0 2 0,-1-5 0,-4-1 0,-10-12 0,-10-3-135,-12-11 0,-7-5-945,-22 36 541,3-32 449,20-46 360,44-71-225,0 0 0,4-8-1035,7-14 1,1-2-3599,2-3 1,-4 6 4253,-14 23 1,-5 7 0,5-9 0,-24 46 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11150">16287 3207 7892,'-3'-22'9830,"6"17"-6347,17 41-2494,23 51-764,-17-34 0,0 1-180,0 0 0,-2-3-135,11 16 0,-2-72 180,-3-34 0,-5-12 0,-1-5 270,12-26 179,16 5-359,-3 74-539,11 30-361,10 24 360,-24-24 0,2-5 360,37-9 270,2-28 900,-21-58-361,-33 9-269,-11-6-540,-27 56-270,2 29-899,9 44 719,28 4 360,20 1 90,22-23 90,-2-46-90,-21-26 270,-28-46-90,-55-2-90,-12 21-360,-21 41-1439,41 61 1169,36 7 405,24-19 0,14-11 135,24-23 0,3-17 180,-3-5 0,-5-14-30,-16-8 0,-3-12 0,-10-6-80,-14-15 1,-11-9-1,-4 1 350,-2 7 0,-5 1 0,-5-1 239,-5-9 1,-7-1 0,-8 14 599,-13 12 0,-7 19-1079,-33 21-180,35 64 0,14 26-2189,24 10 0,18 12 1,2-1 209,-5-10 0,2-3 0,6 2 1620,12 15 1,7 2-1,-2-14 1,-5-19-1,-3-9 1,21 28-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11300">18184 3096 9781,'-47'-44'3276,"1"0"1,1 3 0,5 2-4292,6-18-4921,54 24 5936,58 19 0,14 13 0,-5 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7833">8625 3986 9512,'-1'-17'9354,"-1"0"-8454,-10 30 179,6 31-764,4 12 0,2 10-135,7 18 0,5 7-510,-3-21 0,0 4 0,2-1-810,2 1 1,0 0 0,2-2-1200,9 24 1,2-8 2338,-4-22 0,-1-9 0,10 9 0,-13-47 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8266">8693 4497 7443,'-8'-85'1228,"-1"1"1,1 0 0,-1 0 0,1 0-1,1-6 1,-1-2 0,8 12 0,19 22 242,40 21 0,13 28-1381,-3 20 0,-5 19-45,-6 18 0,-13 13-45,-15 13 0,-15 6-90,-15 1 0,-10 0-270,-4-9 1,0-4-46,6-12 0,11-6-224,58 19 539,-5-41 0,8-6 0,8 1 0,2-2 270,-7 0 0,-8 2 179,8 27-179,-84 10-540,-20-24 1,-12-3-1126,-12 3 1,-2-3-810,8-5 1,6-7 2293,4-14 0,32-6 0,29-21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9166">9471 4647 7713,'62'-61'7195,"4"-6"-3687,-25 23-3058,-9 20-90,-21 49-360,5 39-810,26 25 630,-6-47 1,8-7 134,10-10 0,6-14 45,4-19 0,-4-18 135,-5-25 0,-13-17 89,-13-25 1,-18-8-45,-15 30 0,-9 0 0,-6 2-120,-8 3 0,-5 3 0,-5 6-105,-19-7 0,-4 15-315,9 21 0,8 16-809,16 31-720,87 38 1439,-5-24 1,9-8 898,15-7 1,1-15 584,-7-20 1,-6-18-136,-13-21 1,-10-12 44,-12-5 1,-11-4-46,-11 5 1,-9 5-360,-15-10-451,-13 80-2877,11 88 539,17-8 1,7 8 134,5 6 0,5-1 1259,4-5 1,0-7 1573,-3-26 1,-8-12 719,-20-16 1,-19-69-721,-7-45-539,28 28 0,9-3-135,10 2 0,10 4 314,5 8 1,7 9 180,40 0-90,-6 49-180,-5 41-180,-5 22-90,-10 1-180,-12-14 90,-5-37 270,-1-50 719,7-25 45,-11 7 1,2 0 854,25-11-1439,1 19-1979,-1 64-2879,-8 31-5126,8 20 9624,-15-18 0,-12-27 0,-16-25 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3233">9951 1219 7173,'-15'-5'-720,"4"-4"720,6-4 0,3 5 0,3 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2300">9983 733 12120,'-20'-41'6566,"1"7"-5846,1 9-270,4 8 179,6 4 361,1 0 1169,2-3-1890,4 18-89,1 3 360,3 31 180,0 22-271,-1 34-314,0-32 0,0 4-135,2 7 0,1 1-765,2 6 1,2 2-1350,2 7 0,2 1-719,4 2 0,2-1 2534,4-6 0,0-7 0,-9-24 0,0-7 0,12 5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1400">10067 853 8252,'-42'-79'2608,"0"1"1,15 10 0,7 1-2070,6-6 1,18 9 0,70 5-405,-8 62 0,5 21-90,-1 18 0,-7 15 0,-9 14 0,-14 10 179,-22 5 1,-17 0 90,-17-7 0,-11-5-180,-4-7 0,-5-5-90,3-17 0,3-3 45,2 30-90,63-23 0,12-22 0,12-6 0,19-6 0,7-9-45,10-7 0,-1-10 90,-8-9 0,-8-11 224,-18-6 1,-11-9 225,-19-1 0,-11-3 224,-15-40-449,-17 29-360,20 40-90,44 57 135,-3 6 1,5 8-1,12 20 0,0 6 45,-21-20 0,-2 2 0,-4 1 314,8 23 1,-10 0 45,-15-11 0,-14-2-180,-19-15 0,-13-7-90,-13-10 0,-9-10-360,-7-9 0,-3-15-180,3-17 0,7-15 135,16-15 1,14-9-1,19-11 0,16-4 135,17-2 0,13 3 135,9 3 0,4 4 270,-3 7 0,-1 2 539,-11 7 1,-7 1 944,6-23-809,-51 60-1530,-1 39-2338,-7 54-91,24-17 1,9 3-1035,2-9 1,2-3 4092,-1-2 0,0-5 0,8 6 0,-22-49 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="900">10169 1315 9602,'41'-49'2338,"0"1"1,-5 2 0,-3 1-1350,-2 2 0,-4 3 451,5-15-721,-37 45-45,-29 49 1,-14 35-405,10-10 0,0 9 0,2 4-377,7-9 1,0 3 0,5 2 0,9 1 16,10 6 0,8 2 0,9-2 0,15-10-90,29 4 0,20-13 0,12-14 112,-2-18 1,10-11 0,5-11-1,0-9-190,-14-8 0,4-9 0,-1-7 0,-1-5 1,-4-3 239,-5-3 0,-1-5 0,-3-5 0,-5-2 0,-7-3 18,2-8 0,-5-4 0,-11-2 0,-16 0-6,-15-11 1,-17-1 0,-20 11 35,-23 15 0,-18 11 0,-8 12 0,-26 13 0,-11 18 0,1 13-162,30 6 1,1 8-1,2 6 1,5 5-72,2 5 1,3 5 0,7 5 0,13 3-38,10 17 0,15 6 0,20-7 381,35 13 0,28-19 189,-8-35 0,9-11 0,1-15 299,1-17 1,0-13 0,-10-12 359,12-36 0,-33-14-629,-46 16 0,-23-4 0,-13 10-210,-17 10 0,-16 12 0,-9 10-52,-1 11 1,-10 10 0,-2 9-1,4 9-368,11 10 0,1 10 0,3 7 1,7 4-511,-12 16 1,8 7-1,24 6 70,28 29 1,39-6 484,51-29 0,27-19 315,-18-22 0,8-10 0,-1-7 150,-6-6 0,-1-6 0,-5-3-1608,14-8 0,-11-1-1690,-1 1 3058,-26 29 0,-35-3 0,11 10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6266">7486 2172 9961,'-37'-15'5037,"26"-6"-4137,65-24-750,-2 18 0,13-1 0,6-1-706,1 1 1,6-1 0,4 0 0,2-1 573,-6 2 0,4-1 0,1-1 0,0 2 0,-3 0 72,13-3 0,-2 1 0,-2 0 0,-4 2 391,10-4 1,-5 0-1,-11 3-76,-10 2 0,-16 1 692,-24-3-738,-49 19-179,-9 31-90,34 43 529,17-9 1,11 5-620,12 8 0,5 2 254,0-1 1,-4-1 15,-9-11 0,-12-3 0,-24 27-900,-67-15-1079,10-34 0,-5-3-3207,-5 4 1,3-1 4902,15-9 0,5-2 1,-7 12-1,43-25 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1317">17130 809 12570,'-39'-34'9354,"-9"13"-10793,10 44-3688,24 26 5127,30 20 0,5-23 0,4-14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1750">17091 840 8162,'-32'-49'1529,"16"13"-2608,25 12 1439,21 16 1979,25 7 449,8 9-180,0 5-1888,-2 9-180,-10 5-360,-2 10-180,-3 6 0,-9-2 90,-14 2 0,-34-21-1,-27-11 271,-13-15-270,-7-10-899,23 7-2070,17 25 2879,35 16 0,-7-3 0,14-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="238579">3265 8057 7713,'-62'-19'7285,"-21"-1"-6475,11 2-180,11-7-91,112-10-449,-4 16 0,8 1 90,17-2 0,7 4 225,18 6 0,-1 6-226,-20 7 1,-3 3-90,2 2 0,-2 4 0,-9 4 0,-5 1 0,23 8 360,-15-3-180,-14-19-90,-14-38-1,-3 5-179,4-27 90,-6 37-269,15 17-721,39 33 450,3 4 270,-27-15 0,4-6 180,-5-15 0,-2-7 225,-8-1 0,-3-5 270,0-10 0,-6-5 44,4-18-2877,-14 7-2340,-12 39 4678,-2 27 0,-12 0 0,5 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="239013">5858 7689 11131,'3'-71'7465,"-3"5"-6205,-4 17-181,-3 9-629,-1 21-360,-3 14-90,14 22 0,20 31 0,20 14 0,9 1 0,-3-9 0,-14-16 90,-4-1-90,-9 3-360,-8-8-1619,-3 2 1979,2-4 0,-7-17 0,4 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="240746">2140 6966 9422,'74'-37'6836,"-7"7"-4588,-21 55-1483,-29 17 0,-7 13-361,-3 37 1,-5 11-475,-2-23 1,-2 2 0,-1 0 248,1-2 1,-1 0 0,1-4 989,0 20 1,1-12-851,8-5 221,12-119-316,-6-40 1,-1-23 0,-4 34 0,0-5 0,0-3 0,0 0-33,0-4 1,0-2 0,-1 0 0,0 3 106,2-17 1,-2 4 0,1 5-165,1-12 0,2 14-135,16 10 0,21 93 0,-8 34 0,1 19-960,-8-11 1,1 6 0,1 1-887,2 7 0,0 1 0,0-1 436,-5-6 1,0-2 0,-2-4 240,6 9 0,-5-6 449,0 23 990,-59-65 1666,-50-37-1262,25-9 1,-2-6-46,1-6 1,6-4 90,-3-38 381,67 18-651,59 34-360,-16 30 0,3 12 0,6 10 0,-2 7-45,-1 3 0,-3 3 135,-8-4 0,-4-2 90,18 8-91,11-54-89,-35-29-90,-6-3 0,-2-3 0,4-17-90,19 15-449,35 65 359,-30-1 0,5 1 45,6 5 0,3-5 135,15-10 0,-3-12 225,-26-10 0,-5-6 134,-1-5 1,-7-7 540,2-43-720,-34 27-270,-9 28-360,13 79 360,-2-8 0,3 6 45,6 15 0,3 6 105,-7-12 0,0 3 0,-5-1 255,-2 22 0,-8 0-180,-5 8 0,-14 0-540,-25-5 0,-11-8-1214,9-27 0,-5-8-3297,-7 0 1,0-12 4764,-3-23 0,21-11 1,18-12-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="241129">6305 7404 7713,'-23'-34'9804,"-1"3"-8455,12 50-719,43 59-450,5 0 0,8 8-120,-6-25 0,4 1 0,2-3 59,-2-5 1,2-2 0,1-6 240,17 8 0,2-17-45,-12-24 0,-2-16-136,-7-25 1,-7-13-540,-8-15 1,-8-7-1620,-5-7 0,-5 2 180,-7 15 0,2 5 1799,13-10 0,-12 42 0,11 17 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="241662">7586 7630 8162,'11'-53'4915,"-1"0"0,-3 6-3983,-4-24 0,-9 0-573,-19 25-179,-38 6-270,4 70-135,25 11 1,8 10-46,10 13 0,9 4 135,9 2 0,8-2 135,7-10 0,7-8 90,32 8 90,10-47-90,9-36-180,7-11 90,8 0 0,-41 18 0,0-2 0,2-6 0,-2-6 90,2-18 0,-8-12 209,-16 4 1,-6-6 0,-5-5 201,-4-14 0,-6-5 1,-6 1 277,-5 2 1,-6 1-1,-3 5-194,-8-26 0,-13 21-136,-46 33-538,42 134-1111,31-24 1,8 10 0,6 3-630,8 12 0,9 4 0,7-2-817,10 3 1,8-2-1,0-6 2646,-7-18 0,1-6 0,0-6 0,7 3 0,-4-15 0,0-16 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="241829">9060 7496 8612,'33'-68'9830,"-7"12"-7787,11 54-6450,-9 53-46,-6 12 1,-2 4 4452,-6-17 0,-2-3 0,7 29 0,-14-61 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="241979">9305 7133 8612,'-37'-73'674,"19"13"1,2 22 0,19 17 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="242296">9846 7202 12750,'41'24'7016,"1"3"-6477,3 5-269,-1 3-270,-12-5-180,-31 23 90,-34-12 90,-16 13 0,-14-13 90,17-16 0,10-5 90,1 18-3688,17 13-6323,10 26 9792,9-21 1,10-15 0,-6-34 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="243196">11259 7247 10591,'34'-54'9535,"-8"18"-8276,30 37-809,-15 35-271,13 27-269,-32-18 1,-1 1-1,16 20 90,1-11 0,41-57 0,-13-22 179,25-15-134,-43 22 0,0 5 45,34 14-90,9 15 45,-43 8 0,-1 4-45,37 26 0,-40-26 0,2-3 45,4-7 0,-1-7-45,21-16 540,9-37 1349,-34-26-1619,-16 10-180,-22 20-270,-15 48-90,8 24-719,39 10 629,11-27 0,9-10 270,3-8 0,3-13 150,-5-13 0,0-11 0,-5-12-266,-13-12 0,-6-14 1,-4-6-1,-3 3 431,-1 5 0,-3 1 0,-2-3 0,-4-3 44,-5 0 1,-1-5 0,-3-2 0,-5 4 0,-5 6 100,-12-13 0,-7 7 1,-5 7-102,-5-10 1,-11 24 90,-54 49-1440,71 86 1,18 31-510,1-36 0,2 2 0,4 5 97,4 1 0,3 6 0,1 0 0,0-5 23,1 2 0,-1-4 0,-1-2 1334,1 28 0,-4-11 1664,-5 7 2352,-36-78-822,-4-44-1909,-9-15-2230,41-1-2428,70 17 1664,13 3 0,12 0 1844,-21 5 0,2 0 0,-1 0 0,26-4 0,-3-2 0,-17 0 0,0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="243796">14130 6874 10141,'59'-44'2548,"0"0"1,-5 1 0,-6 6-1110,-12 9-1079,19 28-225,-12 20 0,3 12-90,9 22 0,0 11-45,-15-12 0,0 5 0,-4 2 45,10 29 0,-10 1-45,-17-8 0,-16-6 45,-15-18 0,-14-9-135,-56 2-1170,-3-60-898,36-64 1258,52 12 1,16-5 449,17-8 0,12 3 540,11 1 0,7 9 539,-1 12 1,3 9 0,-3 14 0,-1 7 44,-4 7 1,-1 5 1124,40-1-540,-30 5-1349,-31 10 90,-17 2 0,2 12 0,13 0 0,14 8-90,7 8-1799,3 16-2069,-10 19-3867,-24 12 7825,-15-23 0,-16-16 0,1-34 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="245412">1712 9986 9871,'14'2'6836,"43"-1"-6177,10 0 1,18 0 0,11-1-1334,-20-2 1,7-1-1,5-1 1,6-1-1,3-1 1,5 0 780,-17 1 1,5-2 0,3 0 0,3 0 0,2-1 0,3 0 0,0 0 0,2-1 0,-1 1 0,-1-1-161,-10 2 1,-1-1 0,1 0 0,0 0-1,1 0 1,0 0 0,2 0 0,1 0-1,2-1 1,1 0 0,3 0 0,2 0 72,-17 2 0,3-1 0,1 0 0,3-1 0,1 1 0,2-1 0,1 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-2-1 0,0 1 0,-2-1 0,-1 1 0,-3 0-52,14-1 1,-3 1-1,0-1 1,-2 0 0,-1 1-1,0 0 1,-1 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,2 0-1,0 0 1,1-1 19,-2 1 0,2 0 0,0 0 0,0 0 0,1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 1 0,-1-1 0,0 0 0,-2 0 0,-1 1-73,4-1 0,0 0 0,-1 1 0,-1-1 0,0 1 0,-1-1 0,0 1 0,-2 0 0,0-1 0,-1 1 1,-2 0-1,-1-1 0,0 1 76,9-1 0,-1-1 0,-2 1 0,-1 0 0,-1 0 0,-1-1 0,-1 1 0,0 0 0,0 0 0,0-1 62,5 1 0,1-1 0,-1 1 0,-1 0 1,0-1-1,-1 1 0,-1-1 0,-1 0 0,-1-1-53,3 0 0,-1 0 0,0 0 0,-1-1 0,-2 1 0,-2-2 0,-2 1 0,-3-2 0,7-1 0,-4-1 0,-3 0 0,-1-1 0,-1-1 0,-1 0 18,11-2 0,-1 0 0,-2-1 0,-1-2 0,-2-3 155,-7-1 1,-2-3-1,-1 0 1,-3-2 0,-3 1-174,20-11 0,-6-1 0,0-2 90,-18 9 0,0-1 0,-1-1 0,0-2 44,2-6 1,-1-1 0,-1-3 0,-2-1-90,-3 0 0,-2-1 0,-1-2 0,0-1-45,3-3 0,0-1 0,-1-3 0,-1-3-18,-8 3 0,-1-4 0,-1-1 0,-3-1 0,-3 2-27,0-7 0,-5 1 0,-2-1 0,0-2 0,1-5 0,0-2 0,-3-2 0,-5-3 27,-8 9 0,-4-4 0,-3-1 0,-3 0 0,-2 3-27,-2-9 0,-4 3 0,-2 0 1,-2-1 44,1-5 0,-2-1 0,-3 0 0,-4 3-23,-4 9 1,-3 0-1,-4 3 1,-6 8 22,-10 0 0,-6 7 0,-6 4-30,-7 0 0,-8 4 0,-13 9 48,-5 16 0,-12 8 0,-9 5 0,-3 3 0,2 2-18,12 3 0,-2 3 0,0 2 0,-3 2 0,-1 1 0,-3 0 61,13 0 0,-1 0 0,-2 0 1,-2 2-1,0 0 0,-2 1 0,0 1 1,-2 1-62,2 2 0,-2 1 0,-2 2 0,0 0 0,-1 2 0,0-1 0,1 1 0,2-1 0,1 0 7,0 0 0,1 0 0,1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,-1 0-7,5-1 0,1 1 0,-2-1 0,1 1 0,-2 0 0,1-1 0,-2 0 0,0 0 0,-2-1-18,3 0 0,-2-2 0,-1 1 0,0-1 0,-1 0 0,0 0 0,-1 0 0,2-1 0,0 1 1,0-1-72,-5 1 1,1 0 0,0-1 0,0 1-1,0-1 1,1 0 0,-1 0 0,-1 1-1,0-1 62,7 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,-1 0 0,0 1 0,-1-1 0,-2 2-11,7-1 1,-1 0-1,-2 0 1,-1 1 0,0 0-1,-1 0 1,0 0-1,0 0 1,2 0 0,1 1-1,1-1 1,2 1-102,-5 0 0,2 0 0,2 0 0,1 0 0,1 1 0,-1-1 0,1 1 0,-2 0 0,0 0 0,-2 0 90,1 0 0,-1 1 0,-1-1 0,0 1 0,0-1 0,-1 1 0,-1 1 0,0-1 0,0 2 0,-1-1 0,0 1-19,1 1 1,-1-1-1,-1 2 1,0 0-1,-2 0 1,1 1-1,0-1 1,0 1 0,2 0-1,0 0 1,3-1-1,1 1 1,-5 0 0,2 1 0,1-1 1,2 0-1,1 1 0,0 0 0,0-1 1,-1 1-1,1 0 0,-2 0 49,-3 1 0,-1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,1-1 0,1 0 0,1 0 0,3-1 44,-10 2 1,0 0 0,0-1 0,2 0 0,3 0 0,3-2 0,5 0 0,5-2-45,-4 1 0,7-1 0,3-2 0,2-1 0,-1 0 287,-21 2 0,-1-1 1,3-4-1,11-5-314,-16-13 0,10-6 45,12 1 0,0-3 835,-14-7 0,-2-2-835,4 4 0,2 2 45,11 5 0,1 2 1158,-8-1 1,4 12-845,19 24 1,8 13-180,7 11 0,9 15-90,11 16 0,8 15 0,8 11-51,9-27 0,4 7 0,4 5 0,2 3 0,2-1 0,-1-2-99,-1-3 0,1-1 0,1 0 0,2 1 0,2 3 0,3 5-230,-1-12 0,2 5 0,1 2 1,2 3-1,2 0 0,1 1 0,2-2 1,3-1-1,1-3-939,7 7 0,5 0 0,2-2 0,3-1 1,0-1-1,-1-2 0,0-2 0,-4-2 1061,2 8 0,-2-4 0,-1-1 0,0-3 0,2-1 1,5 0-1,5 2 0,5 3 0,3-2 0,-2-5 1,-3-7-1,-7-12 0,18 10 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13395 639 8252,'-6'-22'9830,"0"2"-6257,-3 32-2314,6 34-1034,4 1 0,4 9-1305,8 15 1,5 4-720,7 6 0,4-1-270,3-5 0,3-4 405,-3-14 0,-1-6 1214,13 6 1170,-19-38 1259,-27-34-360,-10-13-540,-3-12-629,20-2 270,31-7 269,39-17-135,-29 22 1,0-4 134,1-3 1,-5-4 224,-6 1 1,-6 1-46,3-22-629,-27 37-540,-3 63-2069,9 49 45,4-12 0,6 4 360,8 7 0,6-1 899,5-7 1,5-7 944,-2-14 0,2-11 2608,31-11-179,-26-38-1260,-24-9-1349,-16 14-720,14 33 91,19 11 269,38-1 585,-31-30 0,1-9 584,40-31-359,-34-27-720,-61 0-2338,-65 24 494,12 36 0,-5 10 2114,-5 12 0,3 4 0,-20 9 0,30 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2817">18646 430 9691,'-3'-79'9830,"0"18"-5807,10 48-3574,6 61-449,1 5 0,4 6-135,3 2 0,4-4 45,1-9 1,5-10 179,37-5 179,3-55 91,-5-27 0,-11-5-270,5 24-180,-6 36-540,24 19 271,10 7 538,-35-25 1,1-10 405,1-14 0,-3-13-226,-3-20 1,-11-14-270,-10-17 0,-13-6-180,-11 13 0,-12 6-675,-14 1 1,-13 19-4093,-42 52 1889,22 32 449,36 52 3059,64-20 2338,26-22-719,11-21-810,-31-21 0,2 0 1,42 18-1126,-44-7 1,-2 6-135,-5 15 0,-8 5-450,1 34-449,-23 15-990,-23-31 1439,-10-30 0,21-68 450,20-32 180,1 17 0,6-1-45,7 4 0,6 6-46,-1 10 1,2 10-90,44 12-629,-11 57-46,-44-3 0,-5 3-44,14 39 269,-11-11 360,-7-47 0,5-46 180,5-25 0,6-24 809,17 14-629,29 31-540,12 35-945,-45 11 1,-5 9-1170,-9 6 1,-8 7 2293,-12 6 0,-7 0 0,-1 9 0,-13-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10050">13636 3998 9602,'-41'-59'4497,"-4"13"0,-8 1-3688,0 8 1,-3 3-720,-8-4 0,1 16-90,-24 51-449,74 45 89,37 22 270,21-51 0,13-13 270,-3-20 0,3-12 89,4-10 1,-1-11 270,1-22 0,-5-8-226,-14 12 1,-2 3-90,1-2 0,1 10 45,34 29-450,-13 37-270,2 18 1,-17 15 359,-29-31-90,-11-1 0,-16-67 90,16-12 90,28-48 0,0 50 0,6 3-45,-1 5 0,4 3-180,11 6 0,2 5 0,-3 4 1,-2 1 134,40-14 180,-6-17 719,-61-20 180,-31 5 721,-61 8-1126,10 56 1,-3 15-540,7 3 0,5 10-1395,-3 26 1,22 9-2249,43 5 0,21-3 3598,4-12 0,8-7 0,9-2 0,4-12 0,-12-25 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12033">19421 2677 13559,'-37'-7'4138,"22"17"-4498,48 52 90,24-4 360,19-1 1349,0-51-719,-40-44-450,-23-25-90,-74-10-90,-21 43-270,-12 24-1889,42 66 90,69 9 1170,36 6 988,2-46 1,7-12 584,-6-15 1,-1-9-360,5-5 0,-1-13 0,-1-20 0,-7-10-136,-14 6 1,-6 0 45,-1-5 0,-6 1 45,-10-19-360,-13 49 90,-2 44-90,22 75 0,4-23 0,4 7 0,5 12 0,0 2 0,-1-5 0,-4-1 0,-10-12 0,-10-3-135,-12-11 0,-7-5-945,-22 36 541,3-32 449,20-47 360,44-72-225,0 1 0,3-9-1035,8-14 1,1-2-3599,2-4 1,-4 7 4253,-14 24 1,-5 6 0,5-9 0,-24 47 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11150">16259 3250 7892,'-3'-22'9830,"6"17"-6347,17 42-2494,23 51-764,-17-34 0,0 0-180,0 1 0,-2-3-135,11 16 0,-2-73 180,-3-35 0,-5-12 0,-1-4 270,12-28 179,16 6-359,-3 75-539,10 31-361,11 23 360,-24-23 0,2-6 360,37-9 270,2-28 900,-21-59-361,-33 9-269,-11-6-540,-27 57-270,2 29-899,9 45 719,28 4 360,20 1 90,21-24 90,-1-46-90,-21-26 270,-28-47-90,-55-2-90,-12 21-360,-21 42-1439,41 61 1169,36 8 405,24-20 0,14-10 135,24-24 0,3-18 180,-3-4 0,-5-14-30,-16-9 0,-3-12 0,-11-6-80,-13-15 1,-11-9-1,-4 1 350,-2 7 0,-5 1 0,-5-1 239,-5-10 1,-7 0 0,-8 14 599,-13 12 0,-6 20-1079,-34 20-180,35 66 0,14 26-2189,24 10 0,18 12 1,2-1 209,-5-10 0,2-3 0,6 2 1620,12 15 1,6 3-1,-1-15 1,-5-19-1,-3-10 1,21 29-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11300">18153 3138 9781,'-47'-45'3276,"1"1"1,1 2 0,5 3-4292,6-19-4921,54 24 5936,58 20 0,14 13 0,-5 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7833">8610 4040 9512,'-1'-17'9354,"-1"0"-8454,-10 30 179,6 31-764,4 13 0,2 10-135,7 18 0,5 7-510,-3-21 0,0 4 0,2-1-810,2 1 1,0 0 0,2-2-1200,9 25 1,2-9 2338,-4-22 0,-1-10 0,10 10 0,-13-47 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8266">8678 4558 7443,'-8'-86'1228,"-1"1"1,1 0 0,-1-1 0,1 1-1,1-6 1,-1-2 0,8 12 0,19 22 242,40 21 0,13 29-1381,-3 20 0,-5 20-45,-6 18 0,-13 12-45,-15 14 0,-15 6-90,-15 2 0,-10-1-270,-4-9 1,0-4-46,6-13 0,11-5-224,58 19 539,-6-42 0,9-5 0,8 0 0,2-2 270,-7 0 0,-8 3 179,8 26-179,-84 11-540,-20-24 1,-12-4-1126,-12 4 1,-2-4-810,8-4 1,6-8 2293,4-14 0,32-6 0,29-21 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9166">9455 4710 7713,'62'-62'7195,"4"-6"-3687,-25 24-3058,-9 19-90,-21 51-360,5 39-810,25 25 630,-5-48 1,8-6 134,10-11 0,6-14 45,4-19 0,-4-18 135,-5-26 0,-13-17 89,-13-25 1,-18-8-45,-15 30 0,-9 0 0,-6 2-120,-8 3 0,-5 3 0,-5 6-105,-19-7 0,-4 16-315,9 20 0,8 17-809,16 31-720,87 39 1439,-5-24 1,9-9 898,15-7 1,1-15 584,-7-20 1,-6-18-136,-14-22 1,-9-12 44,-12-5 1,-11-4-46,-11 5 1,-9 5-360,-15-10-451,-13 81-2877,11 89 539,17-8 1,7 9 134,5 5 0,5-1 1259,4-5 1,0-6 1573,-3-28 1,-8-11 719,-20-17 1,-19-69-721,-7-46-539,28 28 0,9-3-135,10 2 0,10 5 314,5 7 1,7 10 180,40-1-90,-6 50-180,-5 42-180,-5 22-90,-10 1-180,-12-14 90,-6-38 270,0-50 719,7-26 45,-11 8 1,2-1 854,25-11-1439,1 20-1979,-1 64-2879,-8 32-5126,8 20 9624,-15-18 0,-12-27 0,-16-26 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3233">9934 1236 7173,'-15'-6'-720,"4"-3"720,6-4 0,3 5 0,3 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2300">9966 743 12120,'-20'-42'6566,"1"8"-5846,1 9-270,4 7 179,6 5 361,1 0 1169,2-3-1890,4 18-89,1 3 360,3 31 180,0 23-271,-1 34-314,0-32 0,0 4-135,2 7 0,1 1-765,2 6 1,2 2-1350,2 7 0,2 2-719,4 1 0,2-1 2534,4-6 0,0-7 0,-9-24 0,0-8 0,12 6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1400">10050 865 8252,'-42'-81'2608,"0"2"1,15 11 0,7 0-2070,6-6 1,18 9 0,70 5-405,-8 63 0,5 21-90,-1 19 0,-7 15 0,-10 14 0,-13 10 179,-22 5 1,-17 0 90,-17-7 0,-11-5-180,-4-7 0,-4-5-90,2-18 0,3-2 45,2 30-90,63-23 0,12-23 0,11-6 0,20-5 0,7-10-45,10-7 0,-1-11 90,-8-8 0,-8-11 224,-19-7 1,-10-8 225,-19-2 0,-11-3 224,-15-40-449,-17 29-360,20 41-90,44 57 135,-3 7 1,5 8-1,12 20 0,0 6 45,-21-21 0,-2 3 0,-4 1 314,8 23 1,-10 0 45,-16-11 0,-13-2-180,-19-15 0,-12-7-90,-14-11 0,-9-10-360,-7-8 0,-3-16-180,3-17 0,7-16 135,16-14 1,14-10-1,19-11 0,16-4 135,17-2 0,13 3 135,9 3 0,4 4 270,-3 8 0,-1 1 539,-12 7 1,-6 2 944,6-24-809,-51 61-1530,-1 39-2338,-7 56-91,24-19 1,9 4-1035,2-9 1,2-3 4092,-1-2 0,0-5 0,8 6 0,-22-50 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="900">10152 1333 9602,'41'-50'2338,"0"2"1,-5 1 0,-4 1-1350,-1 3 0,-4 2 451,5-15-721,-37 46-45,-29 50 1,-14 35-405,11-10 0,-1 9 0,2 4-377,7-9 1,0 3 0,5 2 0,9 1 16,10 6 0,8 2 0,9-2 0,15-10-90,29 4 0,20-13 0,11-15 112,-1-17 1,10-12 0,5-11-1,0-9-190,-14-8 0,3-9 0,0-8 0,-1-4 1,-4-4 239,-5-2 0,-1-6 0,-3-4 0,-6-3 0,-6-3 18,2-8 0,-5-3 0,-11-3 0,-16 0-6,-15-11 1,-17-1 0,-20 11 35,-23 15 0,-18 12 0,-8 11 0,-26 14 0,-10 18 0,0 13-162,30 6 1,1 9-1,2 5 1,5 6-72,2 4 1,3 6 0,8 5 0,12 3-38,10 17 0,15 6 0,20-7 381,35 13 0,28-19 189,-9-36 0,10-10 0,1-16 299,1-17 1,0-14 0,-10-11 359,12-37 0,-33-14-629,-46 16 0,-23-4 0,-13 10-210,-17 10 0,-16 13 0,-9 9-52,-1 12 1,-10 10 0,-1 9-1,3 9-368,11 10 0,1 11 0,3 6 1,7 5-511,-12 15 1,9 8-1,23 6 70,28 29 1,39-5 484,51-31 0,26-18 315,-17-23 0,8-10 0,-1-6 150,-6-8 0,-1-5 0,-5-3-1608,13-8 0,-10-1-1690,-1 0 3058,-26 31 0,-35-4 0,11 10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6266">7473 2201 9961,'-37'-15'5037,"26"-6"-4137,65-25-750,-2 19 0,13-1 0,6-2-706,1 2 1,6-2 0,4 1 0,1-1 573,-5 1 0,4 0 0,1-2 0,0 3 0,-3 0 72,13-4 0,-3 2 0,-1-1 0,-4 3 391,10-4 1,-5-1-1,-11 4-76,-10 1 0,-17 2 692,-23-3-738,-49 19-179,-8 31-90,32 44 529,18-10 1,11 6-620,12 8 0,5 2 254,0-1 1,-4-1 15,-9-11 0,-12-3 0,-24 27-900,-67-15-1079,10-35 0,-5-3-3207,-5 5 1,4-2 4902,14-8 0,5-3 1,-7 12-1,43-25 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1317">17101 820 12570,'-39'-34'9354,"-9"12"-10793,10 46-3688,24 25 5127,30 21 0,5-23 0,4-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1750">17062 851 8162,'-32'-49'1529,"16"12"-2608,25 13 1439,21 16 1979,25 7 449,8 9-180,0 5-1888,-2 9-180,-11 6-360,-1 9-180,-3 7 0,-9-3 90,-14 3 0,-34-22-1,-27-11 271,-13-15-270,-6-10-899,22 7-2070,17 25 2879,35 17 0,-7-4 0,14-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-190917.73">3259 8166 7713,'-61'-19'7285,"-22"-1"-6475,11 1-180,11-6-91,112-10-449,-4 15 0,8 2 90,17-2 0,6 4 225,19 6 0,-1 5-226,-20 9 1,-3 2-90,2 2 0,-2 4 0,-10 4 0,-4 1 0,23 9 360,-15-4-180,-14-19-90,-14-38-1,-3 4-179,4-27 90,-6 38-269,15 17-721,39 33 450,2 5 270,-26-16 0,4-6 180,-5-15 0,-2-7 225,-8-1 0,-3-5 270,0-10 0,-6-6 44,4-18-2877,-15 8-2340,-11 39 4678,-2 27 0,-12 1 0,5 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-190483.73">5848 7793 11131,'3'-72'7465,"-3"5"-6205,-4 18-181,-3 8-629,-1 22-360,-3 14-90,14 22 0,20 32 0,20 14 0,9 0 0,-3-8 0,-14-16 90,-4-2-90,-9 4-360,-8-9-1619,-3 3 1979,2-5 0,-7-17 0,4 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-188750.73">2136 7060 9422,'74'-37'6836,"-7"7"-4588,-21 55-1483,-29 17 0,-7 14-361,-3 37 1,-5 12-475,-2-24 1,-2 2 0,-1 0 248,1-2 1,-1 0 0,1-4 989,0 21 1,1-13-851,8-5 221,12-121-316,-6-40 1,-1-23 0,-4 34 0,0-5 0,0-3 0,0 0-33,0-4 1,0-2 0,-1-1 0,0 4 106,2-17 1,-2 4 0,1 5-165,1-13 0,2 15-135,16 10 0,21 94 0,-8 35 0,0 19-960,-7-11 1,1 6 0,1 1-887,2 6 0,0 2 0,0-1 436,-5-6 1,0-2 0,-2-4 240,6 9 0,-5-6 449,0 23 990,-59-66 1666,-50-37-1262,25-9 1,-2-7-46,1-5 1,6-5 90,-3-38 381,67 19-651,59 33-360,-16 31 0,3 12 0,6 11 0,-2 6-45,-1 4 0,-3 2 135,-8-3 0,-5-3 90,19 9-91,11-55-89,-35-30-90,-6-3 0,-2-2 0,4-18-90,19 15-449,35 66 359,-30 0 0,4 0 45,7 5 0,3-5 135,15-10 0,-3-12 225,-26-10 0,-5-6 134,-1-6 1,-8-6 540,3-44-720,-34 27-270,-9 29-360,13 80 360,-2-9 0,3 7 45,6 15 0,3 6 105,-7-12 0,0 3 0,-5-1 255,-2 22 0,-8 0-180,-5 8 0,-14 0-540,-25-4 0,-11-9-1214,9-27 0,-5-9-3297,-7 1 1,0-13 4764,-3-23 0,21-11 1,19-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-188367.73">6294 7504 7713,'-23'-34'9804,"-1"3"-8455,12 50-719,43 60-450,5 0 0,8 8-120,-6-25 0,4 1 0,2-3 59,-2-6 1,2-1 0,1-6 240,17 7 0,2-16-45,-13-25 0,-1-16-136,-7-25 1,-7-14-540,-8-15 1,-8-7-1620,-5-7 0,-5 3 180,-7 14 0,2 5 1799,13-10 0,-12 43 0,11 17 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187834.73">7573 7733 8162,'11'-53'4915,"-1"-1"0,-3 6-3983,-4-24 0,-9 0-573,-19 26-179,-38 5-270,4 72-135,25 10 1,8 11-46,10 13 0,9 4 135,9 2 0,8-2 135,7-11 0,7-7 90,32 8 90,10-48-90,9-36-180,7-12 90,8 1 0,-41 17 0,0-1 0,1-6 0,-1-7 90,2-17 0,-8-13 209,-16 4 1,-6-6 0,-5-5 201,-4-14 0,-6-5 1,-6 1 277,-5 2 1,-6 0-1,-3 6-194,-8-26 0,-13 21-136,-46 33-538,42 136-1111,31-24 1,8 10 0,6 3-630,8 12 0,9 4 0,7-2-817,10 4 1,8-3-1,0-6 2646,-7-18 0,1-6 0,0-7 0,7 4 0,-4-15 0,0-17 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187667.73">9045 7598 8612,'33'-69'9830,"-7"12"-7787,10 55-6450,-8 54-46,-6 11 1,-2 5 4452,-6-17 0,-2-3 0,7 29 0,-14-62 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187517.73">9289 7230 8612,'-37'-74'674,"19"13"1,2 22 0,19 18 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187200.73">9829 7300 12750,'41'24'7016,"1"3"-6477,3 6-269,-1 2-270,-12-4-180,-31 22 90,-34-11 90,-16 13 0,-14-14 90,17-15 0,10-6 90,1 18-3688,17 14-6323,10 26 9792,9-21 1,10-16 0,-6-34 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-186300.73">11240 7345 10591,'34'-54'9535,"-8"17"-8276,30 38-809,-15 36-271,13 26-269,-33-17 1,0 1-1,16 20 90,1-12 0,41-57 0,-13-22 179,25-16-134,-43 23 0,0 5 45,34 14-90,8 15 45,-42 9 0,-1 3-45,37 27 0,-40-27 0,2-3 45,4-6 0,-1-8-45,21-16 540,9-38 1349,-34-26-1619,-17 11-180,-21 19-270,-15 49-90,8 25-719,39 9 629,11-26 0,9-11 270,3-8 0,3-13 150,-5-14 0,0-10 0,-5-13-266,-13-12 0,-6-14 1,-4-6-1,-4 3 431,0 5 0,-3 1 0,-2-3 0,-4-3 44,-5 0 1,-1-5 0,-3-2 0,-5 4 0,-5 6 100,-12-14 0,-7 8 1,-5 7-102,-5-10 1,-11 24 90,-53 50-1440,70 87 1,18 32-510,1-37 0,2 1 0,4 7 97,4 0 0,3 6 0,1 0 0,0-5 23,1 2 0,-1-4 0,-1-2 1334,1 28 0,-4-10 1664,-5 6 2352,-36-79-822,-4-44-1909,-9-15-2230,41-2-2428,70 18 1664,13 2 0,11 1 1844,-20 5 0,2 0 0,-1 0 0,26-5 0,-3-1 0,-17 0 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-185700.73">14106 6967 10141,'59'-44'2548,"0"-1"1,-5 1 0,-6 7-1110,-12 9-1079,18 28-225,-11 20 0,3 12-90,9 23 0,0 11-45,-15-12 0,0 4 0,-4 3 45,10 29 0,-10 2-45,-17-9 0,-16-6 45,-15-18 0,-14-10-135,-56 3-1170,-3-61-898,36-65 1258,52 12 1,16-5 449,17-8 0,12 3 540,11 1 0,7 9 539,-1 13 1,3 8 0,-4 15 0,0 7 44,-4 6 1,-1 6 1124,40-1-540,-30 5-1349,-31 10 90,-17 2 0,2 13 0,13-1 0,14 8-90,6 9-1799,4 15-2069,-10 20-3867,-24 13 7825,-15-25 0,-16-15 0,1-35 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-184084.73">1709 10121 9871,'14'2'6836,"43"-1"-6177,10 0 1,18 0 0,11-1-1334,-21-2 1,8-1-1,5-1 1,6-1-1,3-1 1,5 0 780,-18 1 1,6-2 0,3 0 0,3 0 0,2-1 0,3 0 0,0-1 0,1 0 0,0 1 0,-1-1-161,-10 2 1,-1-1 0,1 0 0,-1 0-1,2 0 1,0-1 0,2 1 0,1 0-1,2-1 1,0 0 0,4 0 0,2 0 72,-17 2 0,3-1 0,1-1 0,2 0 0,2 1 0,2-1 0,1 1 0,0-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 1 0,-2-1 0,0 1 0,-3-1 0,0 1 0,-3 0-52,14-1 1,-3 0-1,0 0 1,-3 0 0,0 1-1,0 0 1,-1 0-1,0-1 1,0 1 0,0 0-1,0-1 1,2 1-1,0 0 1,1-1 19,-2 1 0,1 0 0,1 0 0,0 0 0,1 0 0,1-1 0,-1 1 0,-1-1 0,1 1 0,0 0 0,-1 1 0,-1-1 0,0 0 0,-3 0 0,0 0-73,4 0 0,0 0 0,-1 1 0,-1-1 0,-1 1 0,0-1 0,0 1 0,-2 0 0,0-1 0,-1 0 1,-3 1-1,0-1 0,0 1 76,9-1 0,-1-1 0,-2 1 0,-2 0 0,0 0 0,-1-2 0,-1 2 0,0 0 0,0 0 0,0-1 62,4 1 0,2-1 0,-1 1 0,-1 0 1,0-2-1,-1 2 0,-2-1 0,0 0 0,-1-1-53,3 0 0,-1 0 0,0 0 0,-2-2 0,-1 2 0,-2-2 0,-2 1 0,-3-2 0,7-1 0,-4-2 0,-4 1 0,0-1 0,-1-1 0,-1 0 18,11-3 0,-1 1 0,-3-1 0,0-3 0,-2-2 155,-7-1 1,-2-4-1,-1 1 1,-3-2 0,-3 0-174,19-10 0,-5-2 0,0-2 90,-18 10 0,0-2 0,-1 0 0,0-3 44,2-5 1,-2-2 0,0-2 0,-2-2-90,-3 0 0,-2-1 0,-1-1 0,0-2-45,3-3 0,0-1 0,-2-2 0,0-4-18,-8 3 0,-1-4 0,-1-1 0,-3-1 0,-3 2-27,0-7 0,-5 1 0,-2-1 0,0-2 0,1-5 0,0-2 0,-3-2 0,-6-3 27,-7 9 0,-4-4 0,-3-1 0,-3 0 0,-2 3-27,-2-10 0,-4 4 0,-2 0 1,-2-1 44,1-5 0,-2-2 0,-3 1 0,-4 3-23,-4 9 1,-3 0-1,-4 3 1,-5 8 22,-11 0 0,-6 7 0,-6 4-30,-7 0 0,-8 5 0,-13 8 48,-5 17 0,-12 7 0,-8 6 0,-4 3 0,2 2-18,12 3 0,-2 3 0,0 2 0,-2 2 0,-2 1 0,-3 0 61,13 0 0,-1 0 0,-2 0 1,-2 2-1,1 0 0,-3 1 0,0 1 1,-2 1-62,2 2 0,-2 1 0,-1 2 0,-1 0 0,-1 3 0,0-2 0,1 1 0,2-1 0,2 0 7,-1 0 0,1 0 0,1 1 0,1-1 0,0 0 0,1 1 0,-2-1 0,-1 0-7,5-1 0,1 2 0,-2-2 0,1 1 0,-1 0 0,0-1 0,-2 0 0,0 0 0,-2 0-18,3-1 0,-1-2 0,-2 1 0,0-1 0,-1 0 0,0 0 0,-1 0 0,2-1 0,1 1 1,-1 0-72,-5 0 1,1 0 0,0-1 0,0 1-1,1-1 1,0 0 0,-1 0 0,-1 1-1,0-1 62,7 0 0,2 1 0,-2-1 0,0 0 0,0 0 0,-1 0 0,-1 0 0,1 1 0,-2-1 0,-2 2-11,7-1 1,-1 0-1,-2 0 1,0 2 0,-1-1-1,-1 0 1,0 0-1,0 0 1,2 0 0,1 1-1,2-1 1,1 1-102,-5 1 0,2-1 0,2 0 0,1 0 0,2 1 0,-2-1 0,1 1 0,-2 1 0,0-1 0,-2 0 90,1 0 0,0 1 0,-2-1 0,0 1 0,0-1 0,-1 2 0,-1 0 0,1-1 0,-1 2 0,-1-1 0,0 1-19,1 2 1,-1-2-1,0 2 1,-1 0-1,-2 0 1,1 2-1,0-2 1,0 1 0,3 0-1,-1 0 1,3 0-1,1 0 1,-5 0 0,2 1 0,2 0 1,1-1-1,1 1 0,0 0 0,0-1 1,-1 2-1,1-1 0,-1 0 49,-4 1 0,-1 1 0,0 0 0,-1-1 0,1 1 0,1 1 0,0-2 0,1 0 0,1 0 0,3 0 44,-10 1 1,1 0 0,-1-1 0,2 1 0,3-1 0,3-2 0,5 0 0,6-1-45,-5 0 0,7-1 0,3-2 0,2-1 0,-1 0 287,-21 3 0,0-2 1,2-4-1,11-5-314,-16-13 0,10-7 45,12 2 0,0-3 835,-13-7 0,-3-3-835,4 5 0,2 2 45,11 5 0,1 1 1158,-8 0 1,5 12-845,18 24 1,8 14-180,7 10 0,9 16-90,11 16 0,8 16 0,8 10-51,9-27 0,4 7 0,4 5 0,2 3 0,2 0 0,-1-3-99,-1-3 0,1-1 0,1 0 0,2 1 0,2 4 0,3 4-230,-1-12 0,2 5 0,1 2 1,2 3-1,2 1 0,1 0 0,2-2 1,2-1-1,2-3-939,7 8 0,5-1 0,2-2 0,3-1 1,0 0-1,-1-3 0,0-2 0,-4-2 1061,2 8 0,-2-4 0,-1 0 0,0-4 0,1-1 1,6 0-1,5 2 0,5 3 0,3-2 0,-2-5 1,-3-7-1,-7-12 0,18 10 0,0-1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16035,10 +16043,10 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">192 1950 11311,'-6'-50'2788,"-6"9"-2788,31-11 0,-25 29 0,39 8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="534">639 1091 8162,'-58'-68'7106,"3"6"-4767,3 9-1350,10 22 990,-27 56-1080,20 21 1,1 16-361,4-2 1,1 7 0,2 5-515,1 9 1,3 5 0,9 2 64,8 1 0,7 2 0,16-3-60,15-10 0,13-2 0,11-11-140,9-12 0,9-9 1,7-11 109,13-11 0,9-14 0,-3-13 90,-2-15 0,-2-13 0,-7-11 359,-4-10 1,-7-10 0,-13-8-181,-13-12 1,-14-8 0,-14-1-90,-14-1 0,-15-1 0,-11 4-180,-14 4 0,-11 5 0,-8 10-450,0 15 0,-6 9 1,-2 13-1890,-31 11 1,6 28-631,25 24 1,18 19 2968,33 24 0,19 6 0,5-20 0,10-2 0,23 5 0,-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="817">1364 1630 9422,'36'-37'9830,"2"13"-8956,-13 26 655,9 7 270,0 0-180,-5-10-1349,-19-14-990,-27 1-3148,-33 18-1709,1 17 5577,5 31 0,29-23 0,16-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1634">2456 1071 9332,'3'-59'3268,"1"1"0,-12 3 0,-7 1-2324,-7-1 1,-6 7-405,-36 3-360,40 70-91,39 18 1,20 9-90,20 19 0,11 2 0,-16-21 0,2 1 0,0-2 45,20 20 0,-6-2 0,-20-13 0,-14-2-45,-30 25-90,-35-46 0,-15-8-540,-21-5 1,-8-10-630,-12-9 0,1-13 89,7-12 1,11-13 179,18-12 1,16-10 494,22-16 1,20-6 629,20-7 0,18 1 284,-7 26 1,6 2 0,4 3 119,4 3 1,4 3 0,2 5 314,24-8 1,2 14 89,-8 16 1,-1 18-316,-11 23 1,-7 17-360,-6 24 0,-8 14-240,-12-12 0,-3 4 0,1 2-269,4 9 0,1 1 1,4-2 58,3-5 0,5-2 0,3-6 60,3-7 0,3-5 0,3-9 108,24-2 0,-1-17 236,-16-17 1,-10-21 45,-21-39 0,-23-22-240,-26 2 0,-20-9 0,-3-1-139,8 15 1,-3-1-1,-2-1 1,-2-3 108,-1 5 0,-4-4 0,-1-1 0,3 3 0,4 3 0,-4-16 0,5 4 0,7 2 0,6 6 0,6 1 0,18 9 45,31 2 0,18 22 134,0 36 1,2 19 166,6 16 0,-8 17-646,-19 17 0,-10 14 0,-3 0-1109,-3-5-1,-3-1 1,-1 3-1868,0 6 0,-1 2 0,0-7 2758,2 4 0,0-12 1,5 7-1,-11-56 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">192 1995 11311,'-6'-51'2788,"-6"9"-2788,31-11 0,-25 29 0,39 9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="534">639 1116 8162,'-58'-69'7106,"3"5"-4767,3 10-1350,10 22 990,-27 58-1080,20 21 1,1 16-361,4-1 1,1 6 0,2 6-515,1 9 1,3 5 0,9 2 64,8 1 0,7 2 0,16-3-60,15-10 0,13-2 0,11-12-140,9-12 0,9-8 1,7-13 109,13-10 0,9-15 0,-3-13 90,-2-16 0,-2-12 0,-7-12 359,-4-11 1,-7-9 0,-13-9-181,-13-12 1,-14-8 0,-14-1-90,-14-1 0,-15-1 0,-11 3-180,-14 5 0,-11 6 0,-8 9-450,0 16 0,-6 8 1,-2 15-1890,-31 10 1,6 29-631,25 25 1,18 19 2968,33 25 0,19 5 0,5-19 0,10-3 0,23 5 0,-1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="817">1364 1668 9422,'36'-38'9830,"2"13"-8956,-13 27 655,9 8 270,0-1-180,-5-10-1349,-19-15-990,-27 2-3148,-33 18-1709,1 18 5577,5 31 0,29-23 0,16-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1634">2456 1096 9332,'3'-61'3268,"1"2"0,-12 3 0,-7 1-2324,-7-2 1,-6 8-405,-36 3-360,40 72-91,39 18 1,20 9-90,20 20 0,11 1 0,-16-21 0,2 2 0,0-3 45,20 21 0,-6-3 0,-20-13 0,-14-1-45,-30 25-90,-35-48 0,-15-7-540,-21-6 1,-8-9-630,-12-10 0,1-14 89,7-11 1,11-14 179,18-12 1,16-11 494,22-15 1,20-7 629,20-7 0,18 1 284,-7 26 1,6 3 0,4 3 119,4 2 1,4 4 0,2 5 314,24-8 1,2 14 89,-8 17 1,-1 17-316,-11 25 1,-7 17-360,-6 24 0,-8 15-240,-12-13 0,-3 5 0,1 1-269,4 10 0,1 1 1,4-3 58,3-4 0,5-2 0,3-7 60,3-7 0,3-4 0,3-10 108,24-3 0,-1-16 236,-16-18 1,-10-21 45,-21-41 0,-23-21-240,-26 1 0,-20-9 0,-3-1-139,8 15 1,-3 0-1,-2-2 1,-2-3 108,-1 6 0,-4-5 0,-1-1 0,3 4 0,4 2 0,-4-16 0,5 4 0,7 2 0,6 7 0,6 0 0,18 9 45,31 3 0,18 22 134,0 37 1,2 19 166,6 17 0,-8 17-646,-19 18 0,-10 14 0,-3-1-1109,-3-4-1,-3-1 1,-1 3-1868,0 6 0,-1 2 0,0-8 2758,2 5 0,0-12 1,5 7-1,-11-58 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16066,8 +16074,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 1258 10321,'-8'-61'6926,"2"17"-5846,13 50-271,21 68-629,-3-3 0,4 8-90,4 12 0,1 2 359,0-5 1,-2-3 539,-6-17 1,-3-11-900,-4-14 180,-41-115-180,-1-1 0,-4-16-128,6 16 1,-2-9 0,0-2-1,1 4 248,-1-6 0,1 2 0,2 1-150,-2-6 0,1 0 0,4 11 209,-1 9 1,15 19 270,45 31-180,40 68-315,-32-9 0,9 12 0,2 5 0,-2-2-287,-3-3 1,-2 0 0,1 1 0,2 1 241,8 8 0,2 2 0,1-1 0,-1-8 0,7 1 0,-1-7 0,-3-14 45,9-15 0,-5-20 0,-8-19 0,-12-24-45,-27-26 0,-17-21 0,-9-5-23,-7 13 1,-8-4-1,-4-2 1,-2 1 40,1-1 0,-1-1 1,-5 2-1,-6 1-468,-11-5 0,-7-1 1,-4 7-1,1 15-1664,-19 0 0,-4 20 135,-4 12 1,9 30 1978,35 51 0,14 18 0,8 33 0,24-31 0,0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="367">1307 712 9422,'71'-56'9830,"-10"26"-7460,-36 73 1,-5 22-2191,4-9 0,6 5-180,7 9 0,9 7 0,2-8-135,16 2 0,5-11 135,8 0 0,4-24 315,-1-50 0,-9-31 314,-32-15 1,-12-17 0,-7-6-450,-4-9-1,-8-7 1,-12-2-329,-11 7 0,-8-4 1,-9 2-1,-8 10 149,-5 17 0,-6 6 0,-7 7 0,-4 8-90,-5 7 0,-5 5 0,-2 11 1,2 15-772,-15 18 1,2 21 0,13 13-909,17 12 0,12 13 0,17 4-840,20 10 1,17 4 0,10-5 2608,6-12 0,7-5 0,5-4 0,23 17 0,1-12 0,-24-31 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 1290 10321,'-8'-62'6926,"2"17"-5846,13 51-271,21 70-629,-3-4 0,4 9-90,4 13 0,1 1 359,0-5 1,-2-2 539,-6-19 1,-3-10-900,-4-15 180,-41-118-180,-1-1 0,-4-16-128,6 16 1,-2-9 0,0-2-1,1 4 248,-1-6 0,1 1 0,2 2-150,-2-6 0,1 0 0,4 11 209,-1 9 1,15 20 270,45 31-180,40 70-315,-32-9 0,9 13 0,2 4 0,-2-1-287,-3-4 1,-2 0 0,1 2 0,2 0 241,8 9 0,2 1 0,1 0 0,-1-9 0,7 2 0,-1-8 0,-3-14 45,9-16 0,-5-20 0,-8-19 0,-12-25-45,-27-27 0,-17-21 0,-9-6-23,-7 14 1,-8-4-1,-4-2 1,-2 1 40,1-2 0,-1 0 1,-5 2-1,-6 1-468,-11-6 0,-7 0 1,-4 7-1,1 15-1664,-19 0 0,-4 21 135,-4 12 1,9 31 1978,35 52 0,14 18 0,8 35 0,24-33 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="367">1307 730 9422,'71'-57'9830,"-10"26"-7460,-36 75 1,-5 23-2191,4-10 0,6 6-180,7 9 0,9 7 0,2-9-135,16 3 0,5-11 135,8-1 0,4-24 315,-1-51 0,-9-32 314,-32-16 1,-12-17 0,-7-6-450,-4-9-1,-8-8 1,-12-1-329,-11 6 0,-8-3 1,-9 1-1,-8 11 149,-5 17 0,-6 7 0,-7 6 0,-4 9-90,-5 7 0,-5 5 0,-2 11 1,2 16-772,-15 18 1,2 22 0,13 13-909,17 12 0,12 14 0,17 4-840,20 10 1,17 4 0,10-5 2608,6-12 0,7-5 0,5-5 0,23 18 0,1-12 0,-24-32 0,0-1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16095,12 +16103,12 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1549 1332 7533,'-72'58'491,"0"0"1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-13 10-1,-9 3 1,-3 1-1,1-1 1,5-2-1,10-5 1,15-6-1,17-9 1,24-10 9338,34 20-8352,76-14-1478,-24-25 0,13-2 0,5-1-508,4-1 1,8-1-1,3 0 1,0-1 507,-16-2 0,1 0 0,1-1 0,0 0 0,1 1-1422,5-1 1,2 1 0,-1-1 0,-1-1 0,-5 0-738,1-1 0,-2 0 0,-4-2 1,-5 1 2158,34 3 0,-13-2 0,3 0 0,-62-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="567">3153 1532 8072,'33'-32'9830,"-21"10"-7786,-4 3-1055,-49 50 90,16 8 1,4 11-451,2 21 1,9 8-405,12 9 0,18 2-165,19-16 0,15 1 0,5-9-311,-2-14 0,4-7 0,4-5 281,7 3 0,3-4 0,1-17 197,-1-22 1,1-15 0,-10-11 491,1-27 1,-13-15-511,-16 13 1,-3-5 0,-15-5-60,-19-19 0,-17-7 0,-9 6-210,-3 22 0,-7 6 0,-3 0-330,-4-5 0,-4 1 1,-4 17-3254,-27 16 0,4 27-6188,-3 56 9140,16 8 1,50 1 0,13-47-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="733">4808 1847 12030,'50'-67'2069,"-15"22"-5757,7-8 3688,-18 31 0,-3 4 0,-8 12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1100">5672 1289 8162,'16'-34'9830,"-10"-7"-6347,-6 6-2044,-26 29-360,5 65-809,10 20-315,21-15 0,14 0-45,13-11 0,9-6 90,-1-7 0,5-9 180,13-12 0,0-19 180,-11-31 0,-6-14-225,-6 0 0,-10-7-1,-8-25 1,-19-3-225,-21 17 0,-16 6-675,-12 2 1,-11 11-1440,-4 18 1,-2 16-1485,7 20 0,6 10 3688,-6 30 0,35-3 0,26-26 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1467">6149 1207 8072,'65'-64'4407,"-26"30"1,4-1-3329,20-13 1,8 3-720,8 8 0,5 11-61,-19 16 1,3 6 0,0 6-228,1 7 0,1 5 1,-3 6 106,0 4 1,-3 5 0,-4 3 45,14 17 0,-10 5-135,-20-10 0,-11 2 226,-3 33-226,-57-41-112,-26-46-383,8-26 1,3-15-181,1-25 0,11-12-45,13 16 1,7-6 0,9 0-246,10-8 1,9-1 0,10 3-146,10 2 1,10 2-1,6 6-1139,10 3 1,7 4-1,-2 9 1657,9-2 1,-1 11 0,-4 8 0,-7 8 0,-8 6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2934">7065 735 8432,'-51'-6'6746,"1"0"-5936,3-3 269,55-13-629,36 0 0,20 0-271,-1-1 1,8-1 0,4-1-329,-7 2 0,5-1 0,1 0 0,-1 0 171,3-1 1,0 1-1,-1-1 1,-1 0 37,13-5 0,-2 0 0,-5 2 169,16-8 0,-11 2-139,-27 9 0,-15 0-90,-26-2 0,-90 40 0,-8 12 0,-10 11 0,17-3 0,-2 4 0,0 3-148,-5 3 1,-1 2-1,3 1 148,7-2 0,3 1 0,2 0 30,11-6 0,3 0 0,2 1 296,-14 15 0,6 2-147,11-4 1,8 4 0,8 0 0,10 3-90,11-2 0,12-1 0,12-4 0,13-6-45,20-8 0,13-10-90,22-9 0,9-12 45,-22-4 0,2-5 0,0 1 186,-1-2 1,0 0-1,-3 3-51,21 5 0,-10 9 0,-26 9 0,-15 9 45,-33 62-495,-59-26 0,-32-2-652,22-25 0,-11-3 0,-6 0 0,-4-2 740,1-2 1,-7 0 0,-3-2 0,1-1 0,3-3 0,11-4 0,3-1 0,0-2 0,0-2 0,1 1 0,-18 0 0,0 0-1,1 1 1,-1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1548 1359 7533,'-72'59'491,"0"1"1,0-1-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-13 11-1,-9 2 1,-3 2-1,1-2 1,5-1-1,10-6 1,15-6-1,17-9 1,24-10 9338,34 20-8352,76-14-1478,-24-26 0,13-1 0,5-2-508,4-1 1,8 0-1,3-1 1,0-1 507,-16-1 0,1-1 0,1-1 0,0 0 0,0 2-1422,6-2 1,2 1 0,-1-1 0,-1-1 0,-5 1-738,1-2 0,-2 0 0,-4-2 1,-5 1 2158,34 4 0,-13-3 0,3 0 0,-62-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="567">3151 1563 8072,'33'-32'9830,"-21"9"-7786,-4 4-1055,-49 50 90,17 9 1,3 11-451,2 22 1,9 7-405,12 10 0,18 2-165,18-17 0,16 2 0,5-10-311,-2-14 0,4-7 0,4-5 281,7 3 0,3-4 0,1-18 197,-1-22 1,1-15 0,-10-12 491,1-27 1,-13-15-511,-16 13 1,-3-5 0,-15-6-60,-19-18 0,-17-8 0,-9 6-210,-3 23 0,-7 6 0,-3-1-330,-4-4 0,-4 1 1,-4 17-3254,-27 16 0,4 28-6188,-3 57 9140,16 9 1,50 0 0,13-48-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="733">4806 1885 12030,'50'-69'2069,"-15"23"-5757,7-8 3688,-18 32 0,-3 4 0,-8 11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1100">5669 1315 8162,'16'-34'9830,"-10"-8"-6347,-6 6-2044,-26 30-360,5 66-809,10 21-315,21-16 0,14 0-45,13-11 0,9-6 90,-1-7 0,5-9 180,13-13 0,0-19 180,-11-31 0,-6-15-225,-6 0 0,-10-7-1,-8-26 1,-19-2-225,-21 16 0,-16 7-675,-12 2 1,-11 11-1440,-4 19 1,-2 15-1485,7 22 0,6 9 3688,-6 31 0,35-3 0,26-27 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1467">6146 1232 8072,'65'-66'4407,"-26"32"1,4-2-3329,20-13 1,8 3-720,8 8 0,5 12-61,-19 16 1,3 5 0,0 8-228,1 6 0,1 5 1,-3 6 106,0 5 1,-3 4 0,-4 4 45,14 17 0,-10 5-135,-21-10 0,-10 2 226,-3 34-226,-57-43-112,-26-46-383,9-26 1,2-16-181,1-26 0,11-12-45,13 17 1,7-7 0,9 1-246,10-9 1,9-1 0,10 4-146,10 1 1,10 2-1,5 7-1139,11 3 1,7 3-1,-2 10 1657,9-2 1,-1 11 0,-4 8 0,-7 9 0,-8 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2934">7062 750 8432,'-51'-6'6746,"1"0"-5936,3-3 269,55-14-629,36 1 0,20-1-271,-1 0 1,8-2 0,4 0-329,-7 1 0,4 0 0,2-1 0,-1 1 171,3-2 1,0 2-1,-1-2 1,-1 1 37,13-6 0,-2 1 0,-5 1 169,16-8 0,-11 3-139,-27 8 0,-15 1-90,-26-3 0,-90 41 0,-8 13 0,-10 11 0,17-4 0,-2 5 0,0 3-148,-5 3 1,-1 2-1,3 1 148,7-3 0,3 2 0,2 0 30,11-6 0,3 0 0,3 1 296,-15 15 0,6 2-147,11-4 1,8 4 0,8 0 0,10 4-90,11-3 0,12-1 0,12-4 0,13-6-45,20-8 0,13-11-90,22-8 0,8-13 45,-21-4 0,2-5 0,0 1 186,-1-2 1,0 0-1,-3 3-51,21 5 0,-10 9 0,-26 10 0,-15 9 45,-33 62-495,-59-25 0,-32-3-652,22-25 0,-11-3 0,-6 0 0,-4-3 740,1-1 1,-7 0 0,-2-2 0,0-2 0,3-2 0,11-5 0,3 0 0,0-3 0,0-1 0,1 0 0,-18 1 0,0-1-1,1 1 1,-1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16214,12 +16222,12 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">29 808 8972,'-8'-55'4915,"0"-1"0,-4-20-893,15 101-3513,5 44 1,3 36 0,1 14-1094,-4-45 0,0 6 0,1 5 0,1 5 1,0 4-1,0 1 0,0 1 0,1 0 602,0-6 0,0 3 0,1 0 0,0 3 0,0 1 0,0 0 0,1 2 0,-1 0 0,0 0 0,0 1-146,-2-11 1,0 1-1,0 0 1,0 2 0,0 0-1,0 0 1,0 1-1,0-1 1,-1 0 0,1-1-1,-1 0 1,1-1-176,-1 4 0,1-1 1,0 1-1,0-1 1,-1 0-1,1 0 1,-1-2-1,0 0 1,-1-1-1,0-1 1,-1-2-139,0 8 1,0-2 0,-1-1 0,-1 0-1,0-2 1,0-1 0,-1-1 0,0-2 0,-1 0-447,1 12 0,-2-1 1,0-2-1,0-1 0,-1-3 1,-1-2-1,0-4 887,0 9 0,-1-2 0,0-4 0,-1-6 0,0-7 0,0 5 0,0-8 0,0-14 0,-3 5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="950">1918 553 10141,'17'-17'8815,"-39"-12"-8275,-14 33-270,-13 19 0,0 13-181,15 7 1,8 10-45,-1 34 0,18 7-15,26-30 0,12-1 0,4-1-30,15 24 0,8-4 30,-5-23 0,5-1 0,-3-4 285,5 6 0,-6-3-180,-12-9 0,-11 0 45,-21 41-270,-63-41-810,-36-18-899,-10-37 90,28-42 1260,47-10 179,58-28 315,9 43 0,9 4 89,-6 4 1,2 2 405,5-1 0,-2 3 629,11-5-989,-55 43-180,-4 12-630,-31 45-89,38-9 449,40-16 720,20-30 89,11-21-449,-22-2-1079,4 38-2699,7 35 3688,-17-18 0,-1 0 0,11 17 0,-3-21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1500">4050 1203 7982,'-32'-56'8276,"-19"15"-7287,-30 18-539,-15 49-360,52 4 0,6 7-270,10 7 0,12 3-270,21 35 270,32-30 450,40-54 720,-3-43-586,-28 7 1,1-3-225,-5 1 0,1 3-135,1 10 0,2 6-495,48 7-135,-43 19 1,2 5 179,-1 0 0,1 1 180,2-4 1,1-3-1,-1-9 0,1-5 135,1-8 0,-2-6 0,0-3 0,-1-1-315,-2 0 0,-1 3-1034,41-1-1079,-9 33 2518,6 23 0,-44-6 0,0-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3100">6322 763 17247,'61'23'-90,"12"-10"-4826,10-9 1,4-3 4889,-33-3 1,-1-1-1,19-5 1,-4-1-1,1-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3333">7507 63 9871,'-15'-36'8276,"5"11"-7107,20 23-809,16 82-675,-5-3 0,-2 12-705,-9-12 1,-3 5 0,-5 2-2258,-9 11 0,-5 2 0,-3-6 3080,-1 7 0,-6-7 1,-11-3-1,-4-14 1,-9-16-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3567">5933 679 9871,'-30'-30'9830,"11"27"-7517,2 43-1683,26 14 0,15 11-1080,0-3 0,7 4 0,4 1-1373,11 9 1,7 1 0,6-4-1455,10 0 0,6-5 0,-4-6 2728,9 6 1,-4-12-1,-9-18 1,-11-13-1,-28-19 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">29 819 8972,'-8'-56'4915,"0"0"0,-4-21-893,15 102-3513,5 45 1,3 36 0,1 15-1094,-4-46 0,0 6 0,1 5 0,1 6 1,0 3-1,0 1 0,0 1 0,1 1 602,0-7 0,0 3 0,1 1 0,0 2 0,0 1 0,0 1 0,1 1 0,-1 0 0,0 1 0,0 0-146,-2-11 1,0 2-1,0-1 1,0 2 0,0 0-1,0 1 1,0 0-1,0-1 1,-1 0 0,1 0-1,-1-1 1,1-1-176,-1 4 0,1 0 1,0 0-1,0-1 1,-1 1-1,1-1 1,-1-2-1,-1 0 1,0 0-1,0-2 1,-1-2-139,0 8 1,0-1 0,-1-2 0,-1 0-1,0-2 1,0 0 0,-1-2 0,0-2 0,-1 0-447,1 13 0,-2-2 1,0-2-1,0 0 0,-1-4 1,-1-2-1,0-4 887,0 10 0,-1-3 0,0-4 0,-1-6 0,0-7 0,0 5 0,0-8 0,0-14 0,-3 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="950">1916 561 10141,'17'-18'8815,"-39"-11"-8275,-14 33-270,-13 19 0,0 14-181,15 6 1,8 11-45,-1 34 0,18 8-15,26-31 0,12-2 0,4 0-30,15 24 0,8-3 30,-5-25 0,5 0 0,-3-4 285,5 6 0,-7-3-180,-11-10 0,-11 1 45,-21 41-270,-63-41-810,-35-19-899,-11-37 90,28-43 1260,47-9 179,58-30 315,9 45 0,9 3 89,-6 5 1,2 1 405,4 0 0,-1 2 629,11-4-989,-55 43-180,-4 12-630,-31 46-89,38-9 449,40-17 720,20-30 89,11-21-449,-22-2-1079,4 38-2699,7 36 3688,-17-18 0,-1-1 0,11 18 0,-3-21 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1500">4045 1220 7982,'-32'-57'8276,"-19"15"-7287,-30 19-539,-15 49-360,53 5 0,5 6-270,10 8 0,12 2-270,21 37 270,32-32 450,40-54 720,-4-43-586,-27 6 1,1-2-225,-5 0 0,1 4-135,1 9 0,2 7-495,48 7-135,-43 19 1,2 5 179,-1 0 0,1 1 180,2-4 1,1-3-1,-1-9 0,0-5 135,2-8 0,-2-6 0,0-4 0,-1 0-315,-2-1 0,-1 4-1034,41-1-1079,-9 33 2518,6 23 0,-44-5 0,0-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3100">6314 774 17247,'61'23'-90,"12"-10"-4826,10-9 1,4-3 4889,-33-3 1,-1-1-1,19-5 1,-4-1-1,1-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3333">7498 64 9871,'-15'-37'8276,"5"12"-7107,20 23-809,16 83-675,-5-3 0,-2 12-705,-9-12 1,-3 6 0,-5 1-2258,-9 11 0,-5 2 0,-3-5 3080,-1 6 0,-6-7 1,-11-3-1,-4-13 1,-9-18-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3567">5926 688 9871,'-30'-30'9830,"11"27"-7517,2 43-1683,26 15 0,15 11-1080,0-3 0,7 4 0,4 1-1373,11 9 1,7 1 0,6-4-1455,10 0 0,6-5 0,-5-6 2728,10 6 1,-4-13-1,-9-17 1,-11-14-1,-28-19 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16247,12 +16255,12 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">78 1891 13289,'-45'-39'7916,"12"22"-7286,34 35-361,23 19 1,15 10-180,20 19 0,10 4-60,-15-15 0,4 1 0,1-1-210,-2-2 0,1-1 0,-2-4 135,14 11 0,-7-7 315,14 8-90,-45-44-90,-35-22 630,-40-32 359,-11-2-539,-7-3-360,5 5-360,26 16 180,19 15 0,14 9 180,19 17-90,-5-4 0,-10-17-90,-12-19-180,-12-19 180,14 19 0,27 29 0,36 31 0,15 9 1169,12 0 360,-31-20-629,-23 1-900,-85-3 0,-23 5-2789,10-10 1,-4 1 2788,10 2 0,6-1 0,-15 5 0,23-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3283">492 1381 8702,'-19'-55'8725,"-20"0"-6386,-38-7-1935,24 49 1,-3 14-180,-4 20 0,4 15-90,5 18 0,13 12-90,17 8 0,18 3-45,18-8 0,15-9 45,11-15 0,8-17 45,2-26 0,-2-19 0,-8-24 0,-10-15 44,-7-14 1,-9-7-90,-7-6 0,-4 1-45,-4 16 0,5 6 90,35-13 0,35 95-90,-16 22 0,0 15 0,2 16 0,-5 8 135,-6 1 0,-7-1 449,-13-17 1,-11-7 945,-24 7-451,-31-82-719,-16-67-450,33 19 0,10-7-1350,12-8 1,16 1-1259,23 6 0,16 8-2218,23 5 1,7 10 4129,-19 14 0,1 7 0,7 6 0,-4 4 1,1 3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3733">2632 630 11041,'18'-26'9830,"4"15"-7967,-3 64-1279,-8-8 1,-2 9-315,-1 28 0,-2 6-180,-3 3 0,-2-1 0,-2-11 0,-2-7-180,-11 20 0,-4-121 90,6-34 0,3-18 30,3 5 0,2-8 0,1-1 168,2-6 1,1-3 0,2 4 221,0 10 0,1 2 0,1 8-61,-1-9 1,9 22 270,34 41-540,-15 50 0,0 22-300,1 1 0,2 8 0,0 2-1385,0 5 1,0 3 0,-1 0-505,0-1 0,0 1 0,-3-4 2099,8 15 0,-4-10 0,6 10 0,-18-44 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3883">2926 1143 9602,'-85'-25'9804,"20"4"-8815,2-17-3417,97 7-586,11 10 1,10 1 3013,19-2 0,2 2 0,-12 1 0,-2 0 0,-10 1 0,1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4100">4098 121 9602,'20'-61'9830,"-10"2"-6438,-23 58-1683,-8 40-1260,3 19 1,0 22 0,1 2-810,2 10 0,2 3 1,0 5-990,2-13 1,1 4 0,0 2-1,2 0 1349,3-13 0,2 3 0,0 0 0,1-5 0,1-9 0,-2 26 0,3-9 0,3-1 0,0 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4683">4496 947 9871,'11'-55'9830,"5"8"-7517,25 40-1413,7 49-630,-10 23 0,-3 13-136,-2 11 1,-4 3-135,-3-10 0,-6-3 45,-4 0 0,-18-21-135,-37-53 90,-20-76 30,28 12 0,2-13 0,4-4-76,5-11 1,5-4 0,4 1 225,1 8 0,2 0 0,8 3-1,9 1 1,6 1 0,9 13 45,11 12 0,8 14-135,5 13 0,1 17 90,30 61-135,-52 1 0,-10 11-270,-8 5 0,-6 2-90,-3-3 0,2-3 722,21 30-497,24-35 90,28-24 360,6-4 359,-12 11-449,-35 22-720,-56 26-2204,-18-35 1,-13-4-2263,-13-2 1,-3-5 3540,13-11 0,2-6 1,-25-1-1,64-26 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">78 1933 13289,'-45'-40'7916,"12"23"-7286,34 35-361,23 20 1,15 10-180,20 20 0,10 3-60,-15-15 0,4 2 0,2-2-210,-3-2 0,1-1 0,-2-4 135,14 12 0,-7-8 315,14 8-90,-45-45-90,-35-22 630,-40-33 359,-11-1-539,-7-4-360,5 5-360,26 16 180,19 16 0,14 9 180,19 18-90,-5-5 0,-10-17-90,-12-20-180,-12-18 180,14 18 0,27 30 0,36 32 0,15 9 1169,12 0 360,-31-20-629,-23 1-900,-85-4 0,-23 6-2789,10-11 1,-4 2 2788,10 1 0,6 0 0,-15 4 0,23-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3283">493 1412 8702,'-19'-56'8725,"-20"-1"-6386,-38-6-1935,23 50 1,-2 14-180,-4 20 0,4 16-90,5 18 0,13 13-90,17 7 0,18 4-45,18-8 0,15-10 45,11-15 0,8-18 45,2-25 0,-2-21 0,-8-24 0,-10-15 44,-6-15 1,-10-6-90,-7-7 0,-4 1-45,-4 17 0,5 5 90,35-12 0,35 96-90,-16 23 0,0 15 0,2 17 0,-5 8 135,-6 1 0,-7-1 449,-13-18 1,-11-7 945,-24 8-451,-31-84-719,-16-69-450,33 19 0,10-6-1350,12-9 1,16 1-1259,23 7 0,16 7-2218,23 6 1,8 10 4129,-20 14 0,1 7 0,7 7 0,-4 3 1,1 4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3733">2636 644 11041,'18'-27'9830,"4"16"-7967,-3 65-1279,-8-8 1,-2 10-315,-1 27 0,-2 7-180,-3 3 0,-2-1 0,-2-11 0,-2-7-180,-11 20 0,-4-124 90,6-34 0,3-19 30,3 5 0,2-8 0,1 0 168,2-8 1,1-2 0,2 4 221,0 11 0,1 1 0,1 8-61,-1-8 1,9 21 270,34 43-540,-15 51 0,0 22-300,1 1 0,2 9 0,0 1-1385,0 6 1,1 2 0,-2 1-505,0-1 0,0 0 0,-3-3 2099,8 15 0,-4-10 0,6 10 0,-18-46 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3883">2930 1168 9602,'-85'-25'9804,"20"3"-8815,2-16-3417,97 6-586,11 10 1,10 2 3013,19-3 0,3 3 0,-13 1 0,-2-1 0,-10 2 0,1-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4100">4104 124 9602,'20'-63'9830,"-10"3"-6438,-23 59-1683,-8 41-1260,3 19 1,0 23 0,1 2-810,2 10 0,2 3 1,0 5-990,2-13 1,1 4 0,0 2-1,2 0 1349,3-13 0,2 3 0,0 0 0,1-6 0,1-8 0,-2 26 0,3-9 0,3-1 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4683">4503 968 9871,'11'-56'9830,"5"8"-7517,25 41-1413,7 50-630,-10 23 0,-3 14-136,-2 11 1,-4 3-135,-3-10 0,-6-4 45,-4 1 0,-18-22-135,-37-53 90,-20-79 30,28 13 0,2-14 0,4-4-76,5-11 1,5-4 0,4 1 225,1 9 0,2-1 0,8 3-1,9 1 1,6 2 0,9 12 45,11 13 0,8 14-135,5 14 0,1 16 90,30 64-135,-52 0 0,-10 11-270,-8 6 0,-6 1-90,-3-2 0,2-4 722,22 32-497,23-37 90,28-24 360,6-5 359,-12 12-449,-35 23-720,-56 26-2204,-18-36 1,-13-4-2263,-13-1 1,-3-6 3540,13-12 0,1-5 1,-24-1-1,64-27 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16311,7 +16319,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">307 313 8432,'-10'-55'2938,"0"0"1,-1 5-1,1 0-1769,-2-12 1,-1 21 269,1 49-495,7 41 1,6 26-676,-2-11 1,2 9 0,0 6 0,0 1-681,0-3 0,-1 3 0,1 1 0,-1 2 1,1-2 446,-1 0 0,1-1 0,-1 0 0,1 2 0,-1 1-19,2 11 1,0 3 0,0 1 0,0-2 0,0-6-14,-1-1 1,1-4 0,0-3-1,-1 3-4,1 5 0,0 2 0,0-2 0,-1-6 0,-1-3 0,-1-5 0,1-5-84,-2 15 0,0-10 84,-3 13-90,-24-79 270,-10-81 1012,9 9 0,-1-5-742,4-3 0,2 1-226,4 11 1,2 6 1414,-5-13-1369,35 65 341,21 45-566,1-1 0,4 4-45,5 3 0,4-3-720,-1-6 1,5-7-2295,8-9 1,6-12-1903,26-18 1,1-9 4244,-27 4 1,-1-3 0,21-11 0,-8-3 0,-6-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">307 319 8432,'-10'-56'2938,"0"0"1,-1 5-1,1 0-1769,-2-12 1,-1 21 269,1 50-495,7 42 1,6 27-676,-2-12 1,2 10 0,0 5 0,0 2-681,0-4 0,-1 4 0,1 1 0,-1 2 1,1-3 446,-1 1 0,1-1 0,-1-1 0,1 3 0,-1 1-19,2 11 1,0 3 0,0 1 0,0-2 0,0-7-14,-1 0 1,1-4 0,0-3-1,-1 2-4,1 6 0,0 2 0,0-2 0,-1-6 0,-1-3 0,-1-6 0,1-4-84,-2 14 0,0-9 84,-3 13-90,-24-81 270,-10-82 1012,9 8 0,-1-4-742,4-4 0,2 2-226,4 11 1,2 6 1414,-5-14-1369,35 67 341,21 46-566,1-1 0,4 4-45,5 3 0,4-3-720,-1-6 1,5-7-2295,8-10 1,6-11-1903,26-19 1,1-10 4244,-27 5 1,-1-3 0,21-12 0,-8-2 0,-6-4 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16339,7 +16347,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">66 269 10231,'-4'-54'4497,"0"0"1,-3-23-1800,-1-7-269,8 112-1080,3 62-1079,0-19 0,2 13 0,0 5-672,0-1 0,2 6 0,-1 3 1,1-2 423,0-4 0,-1 1 1,1 0-1,1 2-4,-1-7 0,1 3 0,0 1 0,1-3 0,-1-5-16,0-3 1,-1-3-1,1-4 1,-1-2 177,1 9 0,0-2 0,-1-6 314,4 13 1,-7-17-495,-15-34 0,-5-48 0,-29-72 711,19 28 0,0-1-711,2 4 0,1 1 313,-1-5 0,5 25-313,13 61 0,30 45 0,6 0 0,9 4 0,9-5 0,8-9 0,7-15 0,5-14-585,2-19 0,1-13-2653,-9-13 0,-4-10 3238,-8-7 0,-7-2 0,1-7 0,-26 10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">66 276 10231,'-4'-55'4497,"0"-1"1,-3-23-1800,-1-7-269,8 115-1080,3 63-1079,0-19 0,2 13 0,0 6-672,0-2 0,2 6 0,-1 4 1,1-3 423,0-3 0,-1 0 1,1 1-1,1 1-4,-1-7 0,1 4 0,0 0 0,1-3 0,-1-4-16,0-4 1,-1-3-1,1-4 1,-1-2 177,1 9 0,0-2 0,-1-6 314,4 13 1,-7-17-495,-15-35 0,-5-50 0,-29-73 711,19 28 0,0 0-711,2 3 0,1 2 313,-1-6 0,5 26-313,13 63 0,30 46 0,6 0 0,9 4 0,9-5 0,8-10 0,7-14 0,5-15-585,2-20 0,1-13-2653,-9-13 0,-4-11 3238,-8-7 0,-7-1 0,1-8 0,-26 10 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18477,28 +18485,28 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8026 95 9332,'5'-49'9830,"3"13"-6798,18 27-1592,11 40-811,10 44-629,-27-23 0,-4 3-1080,-7 7 1,-7 1-945,-10-2 1,-7-3-1350,-5-9 0,-4-4 3373,-21 16 0,15-31 0,18-22 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8066">140 513 9242,'6'-14'9830,"-3"4"-6528,-6 5-1053,-20 32 359,-16 41-1888,15-16 0,2 6-720,2 7 0,7 3 0,8 2 0,11-1-2339,10-7 0,9-6-1574,10-6 1,7-8 3912,0-12 0,1-6 0,15 1 0,-23-20 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6466">747 581 9691,'6'-27'9830,"-10"2"-8146,-20 9-1234,-6 14-91,-10 23-269,22 19 0,15 1 90,35 10-90,34-8-90,-2-6 180,10 8 270,-41 2 179,-22 0 361,-55 15-720,-23-26-1619,-16-5-5128,9-21-3354,40-19 9792,14 2 1,19-4 0,5 7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4749">1051 778 8162,'26'-18'9830,"-6"-1"-6617,-1-4-3033,-23 11 449,-22 20-359,-10 20-270,6 14-899,19 1-271,31-15 811,8-17 179,15-23 989,-13-12 451,-6-3 539,-11 5-2339,-7 15-2968,6 22-900,6 7 720,10 8 1979,5-15 2609,0-16 2248,-7-14-1169,-10-1 1709,-6-1-3328,-3 13-90,0 7-91,5 11-179,1 5 90,-2-3 180,4-11 0,-6-16 0,4-8-90,-5 2 0,5 7-180,7 20 90,10 7-180,12 8-90,2-9 90,-1-16 90,-7-25 90,-12-30 899,-11-21 990,-10-1 0,-5 12-1439,4 58-270,15 55-270,2 16 0,3 10-90,3 2 0,2 1 0,2 9 0,0-4-45,-8-24 0,-1-7 135,3 10-450,-21-57 90,-19-59 225,6 8 1,0-6 44,1-5 0,2-1 90,5 5 0,3 2 0,12-20 0,7 33 0,13 29 90,-10 26-90,-5 21 0,-18 13-630,-10-2 90,2-13-359,12-19 449,17-37 180,19-41 270,-14 11 0,-2-6 45,-1-10 0,-4-1 270,-3 3 0,-4 2 224,-7-36-89,-16 54 0,-8 53-360,1 55-45,14-12 0,5 4-180,8 4 0,7-2-180,7-7 0,6-6-224,39 7 359,2-50 180,-20-37 539,-21-17-89,-23 2-270,-21 20-180,0 33-270,4 22-90,17 17 271,18-1-1,14-14 90,7-19 90,1-18 179,-9-8-89,-12 2-180,-8 16-2338,-7 18-2879,7 17 5217,10 10 0,-11-16 0,6-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4200">3245 433 7892,'-35'-24'9830,"19"17"0,59 89-9431,8-8-354,-10-20 0,2-1-45,24 18 90,-15-24-90,-3-37 0,-24-51 90,4-35-270,-18 25 0,-4-2-2069,-1-2 1,-2 2-1980,1-28 4228,-4 23 0,-1 38 0,1 10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3466">2969 595 9691,'3'-10'9805,"-1"0"-9175,-5 3-271,-3 3-89,-2 4 180,-2 3-360,-6 10 90,3 10-90,2 14 0,15 4-90,16-7 0,12-15 989,7-22 720,-4-18 720,-11-14-1260,-10-1-629,-9 10-450,-2 7-1530,6 28-4316,9 15-2969,27 30 8725,4-7 0,6-3 0,-13-21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2983">3860 572 7533,'13'-30'8815,"-6"-4"-5397,-6-9-2159,-15 6-270,-18 17-539,-11 26-540,5 25-1259,18 15 270,27-5 719,21-17 1259,10-21 91,-2-17-451,-5-3-359,-4 12-180,-3 24 180,-5 30-90,-9 28-45,-10-26 0,-6 1-45,-4 4 0,-5-1-675,-3-4 1,-3-4-3014,-27 21-6143,6-49 9702,15-21 1,10-27 0,12 4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2717">4113 150 8432,'19'-14'9830,"3"15"-7157,4 27-1773,5 38-541,-17-18 1,-2 4-315,-2 8 0,-3 3-945,-5-1 1,-4 0-271,-2-8 1,-3-2-2474,-6 1 1,-2-6 3642,-6 4 0,2-12 0,13-32 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2500">4423 612 13559,'34'-23'9265,"0"4"-10524,36 1-3688,12 3 224,-29 6 1,0 0 4722,24-3 0,-14 1 0,-31 5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1833">5598 89 12300,'-11'-22'9830,"-15"6"-7247,-30 21-155,-18 34-1798,33-2 0,5 7-495,5 2 0,10 5-675,16 26 0,16 3-2563,11-14 0,11-3-360,12 9 0,6-6 3463,-2-23 0,-2-8 0,14 1 0,-28-27 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1050">5954 287 8792,'-18'-43'9830,"-9"4"-2750,0 20-6270,4 19-1,22 61-2608,19 22-180,-6-34 1,3 0-406,3 3 0,0-5 316,3 4 2607,-4-19 1080,-20-46 450,-9-15-989,-4-6-631,7 1-269,22 9-90,15-3-90,34-13 450,-9 1 989,3-4-90,-21 10-809,-19 17-270,0 19-90,-7 36-180,3 13 0,9 34-90,9-17 180,-4-16-90,12-31 0,-15-43 0,3-5-90,-1-12 90,0 24 0,-1 16 0,14 32 0,-2 30 90,-8-2-90,-16 12-1529,-48-28-1620,-12-16-1888,-28-20 5037,22-37 0,17 13 0,21-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-466">6551 262 8342,'16'-23'9830,"3"7"-7697,0 20-1053,1 27-451,-3 27-359,-3 10-180,-2-5-90,-4-24 90,3-28-90,2-30 0,6-18 0,-1-2 0,2 8-90,2 24 0,8 14-899,19 15 89,15 0 451,7-9 449,-6-15 899,-17-15 1,-17-6-361,-10-2-359,-4 10-90,0 15-90,4 17-270,1 14-1169,-4 2-1529,-8 1-1620,-12-8 4588,-9-3 0,2-11 0,0-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2383">7498 317 16528,'-9'9'4947,"-8"14"-3868,-4 18-539,1 11-450,6 1 90,13-7-180,9-31 0,9-31 0,4-51 90,-9 19 0,-3-2 494,0-4 1,-2 0 404,2-35-269,-6 31-630,2 37 0,1 28-90,11 39-360,4 9-3058,14 29 360,-7-21 1259,-2-3 1619,-21-35 90,-19-23 899,-21-22 361,-5-10-451,3 0-539,32-8-180,21 19 90,26-5-90,9 20 90,-6 9-90,-4 9 90,-16 2 0,-7 2 180,-7-7-270,-1-3 0,7-5-360,4 0-2788,19 5-1979,4 3 5127,2 4 0,-18-6 0,-12-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3683">582 1316 8882,'-10'3'4947,"6"4"-4137,11 2 1348,38 10-988,25-5-406,-6-7 1,10-3-406,-4-5 1,4-2 0,0-1-90,23-2 0,3 0-60,-18-1 0,3-1 0,-1 1-91,-8 0 1,-1 0 0,-1 0-85,-5 0 0,-1 0 1,3 0 143,18-3 1,5 1 0,-2-1-90,-4 1 0,-1 1 0,-2-1 300,-4 1 0,-2 0 0,3 0-61,12-1 1,2 1 0,0 0-180,-2 2 0,0 0 0,-1 0-120,-3 0 0,0 1 0,3-1-209,-10 2 0,3 0 1,0 0-1,-3 0 179,15 1 0,-3-1 0,3 1 0,-18 0 0,2 1 0,1-1 0,-1 0-23,0 1 1,-1-1 0,1 1-1,-2-1 23,0 1 0,-1-1 0,-1 0 0,-1 1-136,18-1 0,-2 0 0,-2 0 136,-7 1 0,-1-1 0,-2 1-30,-10 0 0,-2 0 0,0 0-10,26 0 1,-2-1-6,-4 0 0,-1-1 45,-6 1 0,-3-2 233,-5 0 1,-3 0-234,-8-2 0,0 0 352,-1-1 0,-2 0-352,37-5 230,-42 5 1,-2 1-231,31-5 4,5-3-4,-5 0 0,11 1 0,-3 6 0,-39 5 0,-2 1-90,33 0-180,6 1-2698,-27-3-2968,-5-1 5936,-25-1 0,-19 3 0,-9 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4400">3227 1473 10861,'-3'-17'9830,"-16"8"-4189,-9 13-4112,-24 39-719,6 38-810,23-22 0,6 7 0,7 8 0,10 3 0,9 0 0,10-1-1934,9-6 0,7-6-2982,5-14 1,4-7 4696,29 7 1,-27-30 0,-27-17 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5500">3804 1683 10591,'-20'-23'8635,"-4"8"-7735,-23 18-91,14 13-539,8 10 0,51 17-180,24-1 0,17 5 179,3-2 811,-28-19 449,-5 0-450,-28-5-899,-15-3 0,-27 9-2249,-27-5-1259,4-7-540,-7-15 720,35-27 1619,21-29 2249,25-19 2158,14-13-989,-4 23 1709,-9 14-3328,-15 40 989,-11 22-809,-15 30-2249,-16 37-1349,5-6-3688,-1 12 6836,21-42 0,7-14 0,6-19 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6483">4370 1748 10141,'-18'-26'6387,"-11"6"-4768,-18 15-810,-12 28-359,7 29-360,23 19 0,37 0-90,36-28 719,25-39 451,1-45-721,-38-1 1,-6-7 90,-6-3 0,-7-3-1,-4-1 1,-4 1 180,-5-30-541,-3 37 91,-10 42-270,7 43 0,5 39 0,21 19-360,-2-48 1,6-4-181,29 20 360,8-39 180,-7-42 450,-14-32 0,-19-15-181,-24 7-269,-16 30 0,-3 33-629,9 32-810,23 16 719,22-3 450,16-17 360,6-28 540,-5-27 179,-10-13-269,-13-1-720,-15 19-2248,-10 24-2969,-5 22 5397,3 10 0,1-14 0,2-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6733">5224 1543 9422,'14'-57'8005,"1"-13"-5306,-9 38-1,-1-8-359,-12 43-990,-7 43-1079,0 0 0,0 6-1170,-3 14 1,1 4-1305,1-4 0,2 0-2712,2 3 1,4-5 3954,1 1 1,6-15 0,1-44 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7183">5546 1718 10501,'-1'-16'8995,"1"15"-8725,3 7 359,6 30-359,8 11-180,8 8 0,6-9-90,0-25 90,-6-30 360,-13-36 1079,-11-27 630,-9-7-360,0 4-900,8 17-449,16 15-360,21 8-1799,18 9-1619,7 7-4408,18 11 7736,-26 8 0,-8 1 0,-29 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7416">5990 1521 9242,'-22'0'9830,"5"4"-4729,9 21-4021,15 18-1890,15 29-3867,5 8 179,-3-8 4498,-4-15 0,-12-31 0,-2-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7733">6346 1202 11580,'-9'-28'9805,"17"14"-8006,26 38-900,25 41-764,-25-14 0,-2 6-855,-4 7 1,-6 1-586,-7-4 1,-9 1-1889,-18 14 0,-12-2 3193,-7-15 0,-7-3 0,0 1 0,-3-5 0,0-16 0,0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8900">6057 1717 10411,'5'-16'9265,"1"-1"-8726,4 10 91,4 19-360,8 27-180,3 18 0,0-1 0,-7-12-90,-9-17 0,-14-27 90,-4-22 0,-2-29 359,17-23 901,20-9-1,18 9-450,11 20-359,1 28-270,-3 29-180,-10 21 0,-11 15-360,-15 1-809,-9 0 89,-5-17 540,-3-2 271,-11-27 89,-5-10 90,-13-17 0,-6-2 0,-6 8 90,-5 15-1,-1 16 91,2 21-180,6 19 0,10 14-1979,12 5-2338,13-8 4317,16-19 0,-4-18 0,4-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8016 96 9332,'5'-49'9830,"3"12"-6798,18 28-1592,11 40-811,10 45-629,-27-23 0,-4 3-1080,-7 7 1,-7 1-945,-10-2 1,-7-4-1350,-5-8 0,-4-4 3373,-21 16 0,15-32 0,18-22 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8066">140 520 9242,'6'-14'9830,"-3"4"-6528,-6 5-1053,-20 32 359,-16 42-1888,15-16 0,2 6-720,2 6 0,7 4 0,8 2 0,11-1-2339,10-7 0,9-6-1574,10-6 1,7-9 3912,0-11 0,1-7 0,15 1 0,-23-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6466">746 589 9691,'6'-27'9830,"-10"1"-8146,-20 10-1234,-6 14-91,-10 23-269,22 20 0,15 1 90,35 9-90,34-7-90,-2-7 180,10 9 270,-41 2 179,-22-1 361,-55 16-720,-23-26-1619,-16-6-5128,9-21-3354,40-19 9792,14 2 1,19-4 0,5 7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4749">1050 789 8162,'26'-18'9830,"-6"-2"-6617,-1-3-3033,-23 11 449,-22 20-359,-10 20-270,6 15-899,19 0-271,31-14 811,8-18 179,15-23 989,-13-12 451,-6-4 539,-11 6-2339,-7 15-2968,6 22-900,6 7 720,9 9 1979,6-16 2609,0-16 2248,-7-14-1169,-10-2 1709,-6 0-3328,-3 13-90,0 7-91,5 11-179,1 6 90,-2-4 180,4-11 0,-6-16 0,4-8-90,-5 1 0,5 8-180,7 20 90,10 8-180,12 7-90,2-9 90,-1-16 90,-7-25 90,-12-31 899,-11-21 990,-10-1 0,-5 12-1439,4 59-270,15 56-270,2 15 0,3 11-90,3 2 0,2 2 0,2 8 0,0-4-45,-8-24 0,-1-8 135,3 11-450,-21-58 90,-19-59 225,6 7 1,0-6 44,1-5 0,2 0 90,5 4 0,3 2 0,12-20 0,7 34 0,13 28 90,-10 28-90,-5 20 0,-18 14-630,-10-3 90,2-12-359,12-20 449,17-37 180,19-42 270,-15 11 0,-1-5 45,-1-11 0,-4-1 270,-3 3 0,-4 2 224,-7-36-89,-16 54 0,-8 54-360,1 56-45,14-12 0,5 3-180,8 5 0,7-2-180,7-7 0,6-7-224,39 8 359,2-51 180,-20-38 539,-21-16-89,-23 1-270,-21 21-180,0 33-270,4 22-90,17 18 271,18-2-1,14-14 90,7-18 90,1-20 179,-9-7-89,-12 2-180,-8 16-2338,-7 18-2879,7 18 5217,10 9 0,-11-15 0,6-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4200">3241 439 7892,'-35'-24'9830,"19"17"0,59 90-9431,8-8-354,-10-21 0,2 0-45,24 18 90,-15-24-90,-3-38 0,-24-52 90,4-35-270,-18 26 0,-4-3-2069,-1-2 1,-2 2-1980,1-28 4228,-4 24 0,-1 37 0,1 11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3466">2965 603 9691,'3'-10'9805,"-1"0"-9175,-5 3-271,-3 3-89,-2 4 180,-2 3-360,-6 10 90,3 10-90,2 15 0,15 3-90,16-6 0,12-16 989,7-22 720,-4-18 720,-11-15-1260,-10 0-629,-9 10-450,-2 6-1530,6 29-4316,9 16-2969,27 29 8725,4-6 0,6-3 0,-13-22 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2983">3855 580 7533,'13'-30'8815,"-6"-5"-5397,-6-9-2159,-15 7-270,-18 17-539,-11 26-540,5 25-1259,18 16 270,27-6 719,21-16 1259,10-22 91,-2-17-451,-5-4-359,-4 13-180,-3 25 180,-5 29-90,-9 29-45,-10-26 0,-6 1-45,-4 3 0,-5 0-675,-3-4 1,-3-4-3014,-27 21-6143,6-50 9702,15-21 1,10-28 0,12 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2717">4108 152 8432,'19'-14'9830,"3"15"-7157,4 27-1773,5 39-541,-17-18 1,-2 4-315,-2 7 0,-3 4-945,-5-1 1,-4 0-271,-2-8 1,-3-3-2474,-6 2 1,-2-6 3642,-6 4 0,2-13 0,13-32 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2500">4418 620 13559,'34'-23'9265,"0"4"-10524,35 1-3688,13 2 224,-29 7 1,0 0 4722,24-3 0,-14 1 0,-31 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1833">5591 90 12300,'-11'-22'9830,"-15"6"-7247,-30 21-155,-18 34-1798,33-1 0,5 6-495,6 3 0,9 5-675,16 26 0,16 3-2563,10-14 0,12-3-360,12 9 0,6-6 3463,-2-24 0,-2-7 0,14 0 0,-28-27 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1050">5947 291 8792,'-18'-44'9830,"-9"5"-2750,0 20-6270,4 19-1,22 61-2608,19 24-180,-6-36 1,3 1-406,3 3 0,0-6 316,3 5 2607,-4-20 1080,-20-46 450,-9-15-989,-4-7-631,7 2-269,22 9-90,15-4-90,34-12 450,-9 0 989,2-4-90,-20 11-809,-19 17-270,0 19-90,-7 36-180,3 14 0,9 34-90,9-17 180,-4-16-90,12-32 0,-15-43 0,3-6-90,-1-11 90,0 24 0,-1 16 0,14 32 0,-2 31 90,-8-2-90,-16 12-1529,-48-28-1620,-12-17-1888,-28-20 5037,22-37 0,17 12 0,21-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-466">6543 266 8342,'16'-24'9830,"3"8"-7697,0 20-1053,1 28-451,-3 26-359,-3 11-180,-2-5-90,-4-24 90,3-29-90,2-30 0,6-19 0,-1-1 0,2 7-90,2 25 0,8 14-899,19 15 89,15 1 451,6-10 449,-5-15 899,-17-15 1,-17-7-361,-10-1-359,-4 10-90,0 15-90,4 17-270,1 14-1169,-4 3-1529,-8 0-1620,-12-7 4588,-9-4 0,2-11 0,0-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2383">7489 321 16528,'-9'10'4947,"-8"13"-3868,-4 18-539,1 12-450,6 1 90,13-7-180,9-32 0,9-32 0,4-50 90,-9 18 0,-3-2 494,0-4 1,-2 1 404,2-37-269,-6 33-630,2 36 0,1 29-90,11 40-360,4 9-3058,14 29 360,-7-21 1259,-2-3 1619,-21-36 90,-19-23 899,-21-22 361,-5-11-451,3 1-539,32-9-180,21 20 90,26-5-90,9 20 90,-6 9-90,-4 9 90,-16 2 0,-7 3 180,-7-8-270,-1-3 0,6-5-360,5 0-2788,19 5-1979,4 3 5127,2 4 0,-18-5 0,-12-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3683">581 1334 8882,'-10'3'4947,"6"4"-4137,11 3 1348,38 9-988,25-5-406,-6-7 1,10-3-406,-4-5 1,4-2 0,0-1-90,23-2 0,2 0-60,-17-1 0,3-1 0,-1 1-91,-8-1 1,-1 1 0,-1 0-85,-5 0 0,-1 0 1,3 0 143,18-3 1,4 1 0,-1-1-90,-4 0 0,-1 2 0,-2-1 300,-4 1 0,-2 0 0,3 0-61,12-1 1,1 1 0,1 0-180,-2 1 0,0 1 0,-1 0-120,-3 0 0,0 1 0,3-1-209,-10 2 0,2 0 1,1 0-1,-3 0 179,15 1 0,-3-1 0,3 1 0,-18 0 0,2 1 0,1-1 0,-1 0-23,-1 1 1,0-2 0,1 2-1,-2-1 23,0 1 0,-1-1 0,-1 0 0,-1 1-136,18-1 0,-2 0 0,-3 0 136,-6 1 0,-1-1 0,-2 1-30,-10 0 0,-2 0 0,0 0-10,26 0 1,-2-1-6,-5 0 0,0-1 45,-6 1 0,-3-2 233,-5 0 1,-3 0-234,-8-3 0,0 1 352,-1-1 0,-2 0-352,37-5 230,-42 5 1,-3 1-231,32-5 4,5-4-4,-5 1 0,11 1 0,-3 6 0,-39 5 0,-2 1-90,33 0-180,6 1-2698,-27-3-2968,-6-1 5936,-24-1 0,-19 2 0,-9 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4400">3223 1493 10861,'-3'-17'9830,"-16"8"-4189,-9 13-4112,-24 40-719,6 38-810,23-22 0,6 7 0,7 8 0,10 3 0,9 0 0,10-1-1934,9-6 0,7-6-2982,5-15 1,4-6 4696,29 7 1,-27-31 0,-27-17 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5500">3799 1706 10591,'-20'-23'8635,"-4"8"-7735,-23 18-91,15 13-539,7 10 0,51 18-180,23-1 0,18 4 179,3-1 811,-28-20 449,-5 1-450,-28-6-899,-15-3 0,-27 10-2249,-27-6-1259,4-7-540,-7-15 720,35-27 1619,21-30 2249,25-19 2158,14-13-989,-4 23 1709,-9 14-3328,-15 41 989,-11 22-809,-15 31-2249,-16 37-1349,5-6-3688,0 12 6836,20-43 0,7-13 0,6-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6483">4365 1772 10141,'-18'-26'6387,"-11"6"-4768,-18 15-810,-12 28-359,7 30-360,23 19 0,37 0-90,36-29 719,25-39 451,1-45-721,-38-2 1,-6-7 90,-6-2 0,-7-4-1,-4-1 1,-4 1 180,-5-30-541,-3 38 91,-10 41-270,7 45 0,5 39 0,21 19-360,-2-48 1,6-4-181,28 19 360,9-38 180,-7-43 450,-14-33 0,-19-15-181,-24 7-269,-16 31 0,-3 33-629,9 32-810,23 17 719,22-3 450,16-18 360,6-28 540,-5-27 179,-10-14-269,-13 0-720,-15 19-2248,-10 24-2969,-5 22 5397,3 11 0,1-15 0,2-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6733">5218 1564 9422,'14'-57'8005,"1"-14"-5306,-9 38-1,-1-7-359,-12 43-990,-7 43-1079,0 1 0,0 6-1170,-3 14 1,1 4-1305,1-4 0,2-1-2712,2 4 1,4-5 3954,1 1 1,6-15 0,1-45 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7183">5539 1742 10501,'-1'-16'8995,"1"15"-8725,3 7 359,6 30-359,8 12-180,8 8 0,6-10-90,0-24 90,-6-32 360,-13-35 1079,-11-28 630,-9-7-360,0 4-900,8 17-449,16 15-360,21 9-1799,18 8-1619,7 8-4408,18 11 7736,-26 8 0,-8 1 0,-29 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7416">5983 1542 9242,'-22'0'9830,"5"4"-4729,9 22-4021,15 17-1890,15 30-3867,5 8 179,-3-8 4498,-4-15 0,-12-32 0,-2-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7733">6338 1219 11580,'-9'-29'9805,"17"15"-8006,26 38-900,25 42-764,-25-14 0,-2 6-855,-4 7 1,-6 1-586,-7-5 1,-9 2-1889,-18 14 0,-12-2 3193,-7-15 0,-7-3 0,0 1 0,-3-5 0,0-17 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8900">6050 1741 10411,'5'-16'9265,"1"-2"-8726,4 11 91,4 19-360,8 28-180,3 18 0,-1-1 0,-6-13-90,-9-16 0,-14-28 90,-4-23 0,-2-28 359,17-24 901,20-10-1,18 10-450,11 21-359,1 27-270,-3 30-180,-10 22 0,-11 14-360,-15 2-809,-9-1 89,-5-16 540,-3-3 271,-11-27 89,-5-10 90,-13-18 0,-6-1 0,-6 7 90,-5 16-1,-1 16 91,2 21-180,6 20 0,10 14-1979,12 5-2338,13-8 4317,16-20 0,-4-18 0,4-12 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18526,10 +18534,10 @@
       <inkml:brushProperty name="color" value="#00A0D7"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4178 1 13829,'-4'58'3688,"1"16"-2969,2-23 1,1 4-135,1 11 0,1 4-91,2 11 1,1 4-1,2 13 1,2 2-285,-1-30 0,0 1 0,2 2-235,1 3 1,2 1-1,0 0 145,1 2 0,1-1 0,0 0-30,0 0 0,0 0 0,0 0-30,0-1 0,-1 1 0,-1 0-60,-1 0 0,-1 0 0,-1 1 30,0 0 0,-1 0 0,-1 1-30,0 0 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-2 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1-1 0,1-4 0,0-1 0,-1-1 0,1-3 0,0-1 0,0-1 19,3 26 0,0-3-649,-2-7 1,-1-2-1395,-2-7 0,-2-2-2892,-2-12 1,-2-4 4494,-4 14 1,1-31-1,3-32 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="700">0 3861 10321,'13'-32'4498,"25"-1"-4094,5 10 1,10 1 179,34-3 1,14 3-315,-12 5 0,7 1 0,5 0-555,-11 4 0,5 1 1,2 0-1,2 1 555,-11 2 0,1 0 0,2 1 0,1 0 0,3 0-407,-5 1 1,2-1 0,2 1 0,1 0-1,1-1 1,2 1 238,-6 0 1,2 0 0,2 0 0,0 0 0,1-1 0,1 1 0,1 0-36,-8 0 1,1 0-1,1 0 1,0-1-1,1 1 1,0 0-1,1 0 1,1-1-29,-5 2 1,1-1 0,1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,-1 1-176,-2 0 1,-1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 1 0,1-1-1,0 0 226,1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,-1 1-185,9-1 1,0 0 0,0-1 0,0 1 0,-1 0 0,0 0 0,-1 0 0,1 0 150,-4-1 0,1 1 0,0 0 1,-1-1-1,-1 1 0,0-1 1,0 1-1,-2 0-31,7-1 1,-1 0 0,-1 0 0,-1 0-1,0 1 1,-1-1 0,0 0-52,-3 1 0,-1-1 0,0 0 0,-1 1 0,-1-1 1,-1 1-1,-1-1-19,5 1 0,-2-1 0,-2 1 0,0 0 0,-1-1 0,-2 1-513,9-1 0,-2-1 1,0 1-1,-4-1 1,-3 1-235,3-2 1,-2 1 0,-5-1 0,-5 0-4125,32-7 1,-17-1 4831,-5-10 1,-54 10 0,-28 7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1566">4700 4269 9422,'-32'-15'9534,"-17"13"-6655,-27 31-2250,10 18-269,32-9 0,10 7-90,31 53-180,26-11-45,2-38 0,7-4 404,30 13 1440,-7-14 90,-23-16-1709,-30-14-630,-44-17-2069,-27-11-2788,-26-13-269,7-15 5486,27-15 0,24 25 0,19-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1850">4606 4210 9602,'15'-24'9830,"1"2"-8237,12-12-1593,18 2-360,27 0 360,17 2 1619,1 10 1979,-15 20-1169,-24 30-2069,-11 43-1125,-22-19 0,-2 6-2743,2 12 1,1 4-1409,1 3 1,0-2 4290,-6-21 1,-1-4 0,12 35-1,-16-51 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4173 1 13829,'-4'59'3688,"1"16"-2969,2-23 1,1 3-135,1 12 0,1 4-91,2 12 1,1 3-1,2 13 1,2 3-285,-1-31 0,0 1 0,2 2-235,1 3 1,2 1-1,0 0 145,1 3 0,1-2 0,0 0-30,0 0 0,0 0 0,0 0-30,0-1 0,-1 2 0,-1-1-60,-1 0 0,-1 0 0,-1 1 30,0 0 0,-1 0 0,-1 2-30,0-1 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,0 2 0,0-3 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1-5 0,0-1 0,-1-1 0,1-3 0,0-1 0,0-1 19,3 26 0,0-3-649,-2-6 1,-1-3-1395,-2-7 0,-2-2-2892,-2-12 1,-2-4 4494,-4 14 1,1-32-1,3-32 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="700">0 3918 10321,'13'-33'4498,"25"0"-4094,5 9 1,10 2 179,34-3 1,14 2-315,-12 6 0,6 1 0,6 0-555,-11 3 0,5 2 1,2 0-1,2 1 555,-11 2 0,1 0 0,2 1 0,0 0 0,4-1-407,-5 2 1,2-1 0,2 1 0,1 0-1,1-1 1,2 1 238,-6 0 1,1 0 0,3 0 0,0 0 0,1-2 0,1 2 0,1 0-36,-8 0 1,1 0-1,1 0 1,-1-1-1,2 1 1,0 0-1,1 0 1,1-1-29,-5 1 1,1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,-1 1-176,-2 0 1,-1 0 0,0 0 0,0 0-1,-2-1 1,2 1 0,-1 1 0,1-1-1,0 0 226,1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-2-1 0,1 1 0,0-1 0,-1 1-185,9-2 1,0 1 0,0-1 0,0 1 0,-1 0 0,-1 0 0,0 0 0,1 0 150,-4-1 0,1 1 0,0 0 1,-1-1-1,-1 1 0,0-2 1,-1 2-1,-1 0-31,7-1 1,-1 0 0,-1 0 0,-1 0-1,0 1 1,-1-1 0,0 0-52,-4 1 0,0-1 0,0-1 0,-1 2 0,-1-1 1,-1 1-1,-1-1-19,5 1 0,-2-1 0,-2 1 0,-1 0 0,0-1 0,-2 1-513,9-1 0,-2-1 1,0 0-1,-4 0 1,-3 1-235,3-2 1,-2 1 0,-6-1 0,-4 0-4125,32-7 1,-17-2 4831,-5-9 1,-54 10 0,-28 7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1566">4695 4332 9422,'-32'-16'9534,"-17"14"-6655,-27 32-2250,10 18-269,32-10 0,10 8-90,31 53-180,26-11-45,2-38 0,7-4 404,30 13 1440,-7-15 90,-24-15-1709,-29-15-630,-43-17-2069,-28-11-2788,-26-14-269,7-14 5486,27-16 0,24 25 0,19-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1850">4601 4272 9602,'15'-25'9830,"1"3"-8237,12-12-1593,17 1-360,28 1 360,17 1 1619,1 11 1979,-15 20-1169,-24 30-2069,-11 44-1125,-22-19 0,-2 6-2743,2 12 1,1 4-1409,1 3 1,0-1 4290,-6-23 1,-1-3 0,12 35-1,-16-51 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18557,7 +18565,7 @@
       <inkml:brushProperty name="color" value="#00A0D7"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 4065 8342,'-9'9'5217,"16"10"-3598,22-7-449,33 0-271,27-17-539,-36-3 0,3-4-91,10-6 1,3-5-90,7-8 0,4-5-120,-15 3 0,2-4 0,-1-1-30,-3 0 0,-1-1 0,0-2 0,4-4 0,1-2 0,-2 1 12,-9 3 0,-2-1 0,-1 0 108,-2-1 0,-1 0 0,-2-1-60,21-23 0,-2-1 0,-3 0 0,-2-1-90,-1 2 0,0-1 90,0 3 0,0 0 45,-2 4 0,1 1 44,-2 2 1,1 1-45,-2 3 0,0 1 45,-1 1 0,0 0 45,-2 2 0,-1-1 0,-1 2 0,-1-1-46,0 0 1,0-1-45,2-4 0,1 0 161,-2 1 1,1 0-162,0 0 0,0 0 0,-3 4 0,0 1-45,-1 2 0,-1-1 0,2 0 0,0-1 0,1-1 0,0 1-45,1-1 0,0 1 45,-1-1 0,0 2 0,-1 0 0,-1 1-1,-1 1 1,0 0 0,-1 2 0,1 0 0,-2 4 0,1 0-45,-1 2 0,1 0-45,1 2 0,1 0 45,-1 0 0,2 1 45,1 0 0,0 2 0,-1 1 0,1 1 45,0 1 0,1 3-90,-2 1 0,1 1 45,1 1 0,1 2 0,1 1 0,0 1 44,4 1 1,0 2-90,1 1 0,1 3-45,2 0 0,1 3 0,0 3 0,-1 2 90,-5 3 0,0 1 0,16 4 0,1 2 0,-9 3 0,0 2-90,15 3 0,1 2 0,-5 2 0,-1 2 45,2 3 0,-1 0 0,-6-1 0,2 3 45,14 7 0,0 2-90,-13-3 0,0 1 45,12 7 0,0 2 0,-11-4 0,-2 0-45,-1 1 0,-2-1 0,-8-4 0,0 1 0,14 7 0,2 2 45,-10-4 0,1 0 0,16 9 0,1 1-45,-7-3 0,-2-1 0,-11-6 0,-1 1 0,9 6 0,-1-1 0,-14-7 0,-1 0 0,4 1 0,1 1 0,-3-3 0,0-1 0,0 0 0,-1-2-45,-6-3 0,2 1 0,14 6 0,2 0 45,-15-9 0,0-1-45,6 2 0,3 1 45,7 4 0,-1-1 0,-11-3 0,-2 0 0,6 4 0,-2 0 45,-8-2 0,-1 1 0,-2 0 0,0 1-90,-8-4 0,1 2 45,10 8 0,-1 2 90,22 22-90,-37-29 0,1 0 0,1 2 0,-1-1 90,20 16-90,-17-18 0,1 1 0,0-3 0,1 0 0,38 25 0,-33-24 0,3 0 0,-3-3 0,1-2 0,-4-2 0,1-1 0,8 3 0,1 0 0,-4-5 0,-1-1 0,42 16 0,-37-16 0,0-1 0,35 11 0,-41-14 0,1 2 0,-2-2 0,-1 2 0,5 2 0,-1 0 0,31 11 0,-35-12 0,0-1 0,34 14 0,-8-5 0,11 6 0,-10-6 0,-7-4 0,4-1 0,-26-10 0,3-1 0,-13-6-1709,-3-3-6477,-10-3 8186,-9-10 0,-7 7 0,-4-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 4119 8342,'-9'9'5217,"16"11"-3598,22-8-449,33 0-271,27-17-539,-36-3 0,3-4-91,10-7 1,3-4-90,7-8 0,3-6-120,-14 4 0,2-5 0,-1 0-30,-3-1 0,-1 0 0,0-3 0,4-3 0,1-3 0,-2 1 12,-9 4 0,-2-2 0,-1 1 108,-2-2 0,-1 0 0,-2 0-60,21-24 0,-3-1 0,-2 0 0,-2-1-90,-1 2 0,0-1 90,0 3 0,0 0 45,-2 5 0,1 0 44,-2 2 1,1 1-45,-2 3 0,0 2 45,-1 0 0,0 0 45,-2 3 0,-1-2 0,-2 2 0,0-1-46,0 1 1,0-2-45,2-4 0,1 1 161,-2 0 1,1 0-162,0 0 0,0 1 0,-3 3 0,0 1-45,-1 2 0,-1 0 0,2-1 0,0-1 0,1 0 0,0 0-45,1-1 0,0 2 45,-2-2 0,1 2 0,-1 1 0,-1 0-1,-1 1 1,0 1 0,-1 1 0,1 1 0,-2 3 0,1 0-45,-1 3 0,1-1-45,1 3 0,1-1 45,-1 1 0,2 0 45,1 1 0,0 1 0,-1 2 0,1 0 45,0 2 0,0 3-90,-1 0 0,1 2 45,1 1 0,1 1 0,1 2 0,0 1 44,4 0 1,0 3-90,1 1 0,1 3-45,2-1 0,1 4 0,0 3 0,-1 2 90,-5 3 0,0 1 0,16 4 0,0 2 0,-8 3 0,0 2-90,15 3 0,1 3 0,-5 1 0,-1 2 45,2 3 0,-1 1 0,-6-2 0,2 3 45,14 7 0,0 3-90,-13-4 0,-1 2 45,13 6 0,0 3 0,-11-5 0,-2 1-45,-1 0 0,-2-1 0,-8-3 0,0 0 0,14 8 0,2 1 45,-10-3 0,1-1 0,16 10 0,0 0-45,-6-2 0,-2-1 0,-11-7 0,-1 2 0,9 5 0,-1 0 0,-14-8 0,-1 1 0,4 0 0,1 2 0,-3-4 0,0 0 0,0-1 0,-1-2-45,-6-2 0,1 0 0,15 7 0,2-1 45,-15-9 0,0 0-45,6 1 0,3 2 45,7 3 0,-1-1 0,-11-2 0,-2-1 0,6 5 0,-2-1 45,-8-2 0,-1 2 0,-2-1 0,0 2-90,-8-5 0,0 2 45,11 9 0,-1 1 90,22 23-90,-37-29 0,1-1 0,1 3 0,-1-2 90,20 17-90,-17-19 0,1 2 0,0-4 0,1 0 0,38 26 0,-33-24 0,3-1 0,-3-3 0,1-1 0,-4-3 0,1-1 0,8 4 0,0-1 0,-3-5 0,-1 0 0,42 15 0,-37-16 0,0 0 0,35 10 0,-41-14 0,1 2 0,-2-1 0,-1 1 0,5 2 0,-1 0 0,31 12 0,-35-13 0,0-1 0,34 15 0,-9-6 0,12 7 0,-10-7 0,-7-4 0,4-1 0,-26-9 0,3-2 0,-13-6-1709,-3-3-6477,-10-3 8186,-9-10 0,-7 7 0,-4-6 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18585,7 +18593,7 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">18 122 15358,'8'23'1619,"3"13"-539,2 8 269,7 23-180,5 24-809,-13-39 0,0 2-46,1 7 1,-1 3-135,0 3 0,0 2-135,-1 2 0,1 1 0,-2-2 0,0-1-45,0-2 0,-1-2 45,-2-6 0,0-3-45,-1-2 0,-1-2 0,3 40 0,-4-5 0,-3-7 0,-2-6 0,-4-3 90,0-1-90,0 1 0,1 4 0,2 1 0,2 1 0,3 1 90,2 1 360,0 2-180,1 2-90,0 1-91,-1-2-89,1-1 90,0-3-90,1 1 0,1 2 0,0-6 0,2 21 0,-2-10 0,2 9 45,-5-42 0,0 0-45,5 37 0,-5-40 0,1 0-45,-1 7 0,1-2 135,4 38-180,1 7 180,1-3-180,-1-20 180,1 6-90,-2 3 0,-1-15-90,0 6 90,1 1 0,0-11 0,-1 4 0,1 10 0,-5-21 0,2 20 0,-5-7-90,0-6 90,-2 10 90,1-19-180,0-2 180,1 1-180,3 1 90,-1-15 0,1 12 0,-2-14 0,1-7 0,1 9 0,-2-23 0,0 4 0,-1-7 0,0-1-989,1-1 809,-5-13 180,0-7-180,-10-32 90,-4-19 90,-7-30 0,10 37 0,-1-3 0,1-3 0,-1 0 0,-1-4 0,0 0 0,-1-5 0,-1-2-45,-2-6 0,-1-2 90,0-7 0,-1-2-45,0 0 0,0-1 0,2 0 0,1 0 0,2 7 0,1 0-45,3 1 0,0-1 90,2 0 0,1-1-45,0-1 0,2-2-45,-1-2 0,2-1 45,0 5 0,1 1 45,0 3 0,1 0-90,0 4 0,1 1 45,-1 0 0,1-1 0,-1-4 0,1-1 45,0-2 0,0 0-45,0-1 0,-1 0 0,1 4 0,0 1 0,0 6 0,0 1-45,1 6 0,0 0 45,0 3 0,-1 1 0,1 3 0,-1 0 45,0 3 0,-1-1-45,-3-44-90,-2 3 90,3 3 0,2-1-90,4 0 90,3-1 0,1 0 0,0 0 0,-1-4 0,-2 46 0,0-1 0,-1-3 0,-1 0 0,1 1 0,-1 0-45,0 2 0,0 0 45,-1-40 0,-1 8 0,-1 7 0,-1 5 0,1 12 0,-1 5 0,2 17 0,2 20 0,4 30 540,3 43-315,-1-4 0,0 7-90,1 24 0,1 9-15,0-12 0,0 6 0,1 1-281,1 2 0,0 1 0,0 2 273,-1-17 1,1 2-1,0 0 1,-1-2-53,2 17 0,-1-1 0,0-1-30,-1-3 0,-1-1 0,-1-3-30,0-8 0,-2-2 0,0-3 0,1 16 0,-1-7 0,0-21 0,-1-9 0,-2-8 0,-5-77-45,-2-24 0,0-18 45,0-3 0,1-11 0,-1-1-82,1-4 1,0-2-1,1-3 82,0 18 0,1-4 0,0 2 0,0 2-30,0-11 0,0 3 1,0 3 24,0 12 0,0 3 1,0 4-41,-3-18 0,3 19 135,4 38-90,3 74 0,1 37 29,1 2 1,1 12 0,-1 5-239,-2-13 0,1 4 0,-2 2 0,1-1 231,0 0 1,-1 1 0,1-2-1,0-2-22,-1-9 0,0-2 0,0-2 0,1-3 202,1 7 1,0-4 0,1-3-158,2 15 0,0-10-45,4 14-76,-7-98 76,-4-36 0,-5-22-23,2-1 1,-2-13-1,1-4 1,-1 4-227,-2-16 1,0 2-1,-1-3 249,1 13 0,0-4 0,0 2 0,-2 6-30,-1 2 0,-1 5 0,0 7 379,-1 0 0,0 7-259,-7-30 37,11 116-127,7 42 0,5 21 30,-3-14 0,1 5 0,0 8-252,0-10 1,0 7 0,1 4 0,-1-1 0,1-5 221,-1 4 0,1-4 0,-1-1 0,1 1 0,0 7 0,0 1 0,0-1 0,1-7 214,1 4 1,-1-6-1,1-7-214,-1 8 0,4-25 39,7-46-129,-9-83 0,-10-50 90,4 49 0,0-6 0,-1-5 0,0-3-334,0-7 0,-1-8 0,-1-2 1,0 2-1,0 8 334,0 10 0,0 6 0,-1 2 0,0-2 0,0-5 0,0-4 0,-1 6 0,-1 13 504,-2 6 0,-2 15-504,-6 20 45,8 73 0,5 40-23,2-13 1,2 11-1,1 5 1,0 0-299,-1 1 1,1 1-1,0 2 1,1 4 275,-1-16 0,2 3 0,-1 2 0,1 1 0,-1-2 0,1-4 0,0 21 0,1-4 0,0-2 0,0-3-92,0-10 1,-1-3-1,1-1 1,-1-3 91,2 17 0,0-2 0,0-11 609,0-10 0,-1-12-609,-1 8-90,-17-126 60,0-21 0,-1-25 0,0-1 30,3 28 0,1-1 0,-1-1 0,1-5 168,-1-2 1,0-7 0,0-2 0,0 3-1,1 8-168,0-15 0,0 8 0,1 5 241,-2-16 1,2 16-152,-1 22-90,17 160 0,-1-26 0,2 12 0,0 5 0,1-1 0,-1 5 0,1 4 0,0 1-236,-1-9 0,-1 3 0,1 1 0,0-1 0,-1-2 236,1 12 0,0-2 0,0-2 0,-2-2 0,0-9 0,-1-1 0,0-4 0,-1-4 98,0-2 0,-1-5 0,0-5-188,1 9 0,-2-11 0,-7-12-45,-6-88 0,-3-34 45,1-10 0,1-15 0,0-7-157,3 22 0,0-5 1,1-4-1,0 0 1,0-1 246,0-4 0,0-3 0,0 0 0,1 1 0,1 4 67,-1-6 0,1 1 1,0 5-1,1 5 407,-2-1 1,1 5-1,-1 15-384,-9-20 0,7 142-60,7 17 0,3 22 0,1 6-295,-1-22 1,1 4 0,0 4 0,1 2 0,0 1 264,0-1 0,0 3 0,1 2 0,1 0 0,-1 1 0,0-3 0,1-1 0,0 1 0,0-1 0,1 0 0,-1-3 0,1-2 0,0 2 0,0-1 0,1-3 0,0-2 0,-1-3 0,4 27 0,0-4 0,0-12-45,1 1 0,-1-24 1151,-3-45-1106,-14-82 0,-7-53 0,4 31 0,-1-10 0,-1-6 0,0-2-255,2 10 0,-1-4 0,1-1 0,-1-1 0,1 1 255,0 1 0,0-1 0,0 0 0,0 4 0,2 5 22,0 3 0,1 4 1,0 5-1,1 7 749,-2-24 1,3 26-682,6 45 45,8 84 0,3 49-113,-4-41 0,0 7 1,1 4-1,0 3-206,0 0 0,0 5 0,1 2 0,0 0 0,0-1 184,-1-3 0,0 1 0,1 0 0,-1-2 0,0-3-23,1 7 1,0-2 0,0-3-1,0-5-108,1 3 0,-1-5 0,0-8-4,-1 3 1,1-22 1269,-1-37-1270,-13-79 0,-9-52 90,5 34 0,0-9 0,-1-6 1,0-1-151,0 10 1,0-3-1,-1-2 1,0 1-1,1 0 231,-1 3 0,1-1 0,-1 0 0,1 4 0,-1 6 114,-1-23 0,0 8 0,0 12 447,0 3 1,-1 24-508,2 39 0,11 78 0,7 44-68,-2-33 1,0 6-1,2 6 1,-1 2-196,1 2 0,1 4 0,-1 2 1,1 2-1,1-2 173,-1 1 0,0 1 0,1 0 0,-1-2 0,0-2-23,2 7 1,-1-2-1,-1-3 1,1-5-8,0 5 0,0-5 0,-1-10 30,0 1 0,-4-35-180,-7-59 150,-6-36 0,-3-28 0,0-6 7,2 3 1,-1-7 0,1-4-1,-1-3 42,1 6 0,0-4 1,-1-1-1,1 0 0,1 4 3,-1-10 1,1 1 0,0 4-1,1 5 38,-1-8 0,1 7 0,1 11 30,-1 6 0,2 35 297,6 94-297,3 11 0,2 17 0,2 8-68,-2-1 1,2 7-1,0 3 1,1 3 11,-1-10 0,1 3 0,1 1 0,-1-1 0,1-2-34,0 12 0,1-2 0,0-2 0,0-5-30,2 8 0,-1-5 0,-1-8-330,2 2 0,-3-16 270,-2-22 0,-15-96 0,-6-36 60,2-1 0,-1-12 0,0-4 138,1 11 0,-1-4 0,0-1 0,1 3 161,1 7 1,0 1 0,0 3 0,1 7-225,-1-32 0,-2 45 202,-1 80-1461,5 38 0,5 18-795,0-13 0,2 6 0,2 0 1980,1 5 0,1 2 0,1-6 0,1 6 0,2-6 0,2-18 0,1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18 124 15358,'8'23'1619,"3"13"-539,2 9 269,7 23-180,5 24-809,-13-39 0,0 1-46,1 8 1,-1 3-135,0 3 0,0 2-135,-1 2 0,1 1 0,-2-2 0,0-2-45,0-1 0,-1-2 45,-2-6 0,0-3-45,-1-3 0,-1-1 0,3 40 0,-4-5 0,-3-7 0,-2-6 0,-4-3 90,0-1-90,0 1 0,1 4 0,2 1 0,2 1 0,3 1 90,2 1 360,0 2-180,1 2-90,0 1-91,-1-2-89,1 0 90,0-4-90,1 1 0,1 2 0,0-6 0,2 21 0,-2-10 0,2 9 45,-5-42 0,0 0-45,5 37 0,-5-41 0,1 1-45,-1 7 0,1-2 135,4 38-180,1 7 180,1-3-180,-1-20 180,1 6-90,-2 4 0,-1-17-90,0 7 90,1 1 0,0-11 0,-1 4 0,1 10 0,-5-21 0,2 20 0,-5-7-90,0-6 90,-2 10 90,1-19-180,0-3 180,1 2-180,3 1 90,-1-15 0,1 11 0,-2-13 0,1-8 0,1 10 0,-2-24 0,0 4 0,-1-6 0,0-2-989,1-1 809,-5-13 180,0-7-180,-10-33 90,-4-18 90,-7-31 0,10 37 0,-1-3 0,1-2 0,-1-1 0,-1-4 0,0 0 0,-1-5 0,-1-1-45,-2-7 0,-1-2 90,0-7 0,-1-2-45,0-1 0,0 0 0,2 0 0,1 0 0,2 7 0,1 0-45,3 1 0,0-1 90,2 0 0,1-1-45,0-1 0,2-2-45,-1-2 0,2-1 45,0 5 0,1 1 45,0 3 0,1 0-90,0 4 0,1 1 45,-1 0 0,1-1 0,-1-4 0,1-1 45,0-2 0,0 0-45,0-1 0,-1 0 0,1 4 0,0 1 0,0 6 0,0 1-45,1 7 0,0-1 45,0 3 0,-1 1 0,1 4 0,-1-1 45,0 3 0,-1 0-45,-3-46-90,-2 4 90,3 3 0,2-1-90,4 0 90,3-2 0,1 1 0,0 0 0,-1-4 0,-2 46 0,0-1 0,-1-2 0,-1-1 0,1 1 0,-1 1-45,0 1 0,0 0 45,-1-40 0,-1 8 0,-1 7 0,-1 5 0,1 12 0,-1 6 0,2 16 0,2 21 0,4 30 540,3 44-315,-1-4 0,0 6-90,1 25 0,1 10-15,0-13 0,0 6 0,1 1-281,1 2 0,0 1 0,0 2 273,-1-17 1,1 2-1,0 0 1,-1-2-53,2 18 0,-1-2 0,0-1-30,-1-3 0,-1-1 0,-1-3-30,0-8 0,-2-2 0,0-3 0,1 16 0,-1-7 0,0-21 0,-1-9 0,-2-9 0,-5-77-45,-2-25 0,0-18 45,0-3 0,1-11 0,-1-2-82,1-3 1,0-2-1,1-3 82,0 18 0,1-5 0,0 3 0,0 2-30,0-11 0,0 3 1,0 3 24,0 12 0,0 3 1,0 4-41,-3-18 0,3 19 135,4 38-90,3 76 0,1 37 29,1 2 1,1 12 0,-1 5-239,-2-12 0,1 3 0,-2 2 0,1-1 231,0 0 1,-1 1 0,1-1-1,0-3-22,-1-9 0,0-2 0,0-2 0,1-3 202,1 7 1,0-4 0,1-3-158,2 15 0,0-10-45,4 14-76,-7-99 76,-4-37 0,-5-21-23,2-2 1,-2-13-1,1-4 1,-1 4-227,-2-17 1,0 3-1,-1-3 249,1 13 0,0-4 0,0 1 0,-2 7-30,-1 2 0,-1 6 0,0 6 379,-1 0 0,0 7-259,-7-30 37,11 117-127,7 43 0,5 21 30,-3-14 0,1 5 0,0 9-252,0-11 1,0 7 0,1 4 0,-1-1 0,1-5 221,-1 4 0,1-3 0,-1-2 0,1 1 0,0 7 0,0 1 0,0-1 0,1-7 214,1 5 1,-1-7-1,1-7-214,-1 8 0,4-25 39,7-47-129,-9-84 0,-10-51 90,4 50 0,0-6 0,-1-5 0,0-3-334,0-7 0,-1-8 0,-1-3 1,0 3-1,0 8 334,0 10 0,0 6 0,-1 2 0,0-2 0,0-5 0,0-4 0,-1 6 0,-1 13 504,-2 6 0,-2 15-504,-6 21 45,8 74 0,5 40-23,2-13 1,2 11-1,1 5 1,0 0-299,-1 1 1,1 2-1,0 1 1,1 4 275,-1-16 0,2 3 0,-1 3 0,1 0 0,-1-2 0,1-4 0,0 21 0,1-3 0,0-3 0,0-3-92,0-10 1,-1-3-1,1-1 1,-1-3 91,2 18 0,0-3 0,0-11 609,0-10 0,-1-12-609,-1 8-90,-17-128 60,0-21 0,-1-26 0,0 0 30,3 28 0,1-1 0,-1-1 0,1-5 168,-1-2 1,0-7 0,0-3 0,0 4-1,1 8-168,0-15 0,0 8 0,1 4 241,-2-15 1,2 16-152,-1 22-90,17 162 0,-1-26 0,2 12 0,0 5 0,1 0 0,-1 4 0,1 4 0,0 1-236,-1-9 0,-1 4 0,1 0 0,0-1 0,-1-2 236,1 12 0,0-1 0,0-3 0,-2-2 0,0-9 0,-1-1 0,0-4 0,-1-4 98,0-2 0,-1-5 0,0-5-188,1 9 0,-2-11 0,-7-13-45,-6-88 0,-3-35 45,1-10 0,1-15 0,0-8-157,3 23 0,0-5 1,1-4-1,0 0 1,0-1 246,0-5 0,0-2 0,0 0 0,1 0 0,1 5 67,-1-6 0,1 1 1,0 4-1,1 6 407,-2-1 1,1 5-1,-1 15-384,-9-20 0,7 144-60,7 16 0,3 24 0,1 5-295,-1-22 1,1 4 0,0 4 0,1 2 0,0 1 264,0-1 0,0 4 0,1 1 0,1 0 0,-1 1 0,0-3 0,1-1 0,0 1 0,0 0 0,1-1 0,-1-3 0,1-2 0,0 2 0,0-1 0,1-3 0,0-2 0,-1-3 0,4 27 0,0-3 0,0-13-45,1 1 0,-1-24 1151,-3-46-1106,-14-83 0,-7-53 0,4 31 0,-1-11 0,-1-5 0,0-2-255,2 9 0,-1-3 0,1-1 0,-1-1 0,1 0 255,0 2 0,0-1 0,0-1 0,0 5 0,2 5 22,0 3 0,1 4 1,0 5-1,1 7 749,-2-24 1,3 26-682,6 45 45,8 86 0,3 50-113,-4-43 0,0 8 1,1 4-1,0 4-206,0-1 0,0 5 0,1 2 0,0 0 0,0-1 184,-1-3 0,0 1 0,1 1 0,-1-3 0,0-3-23,1 7 1,0-2 0,0-3-1,0-5-108,1 3 0,-1-5 0,0-8-4,-1 3 1,1-22 1269,-1-38-1270,-13-80 0,-9-53 90,5 35 0,0-9 0,-1-6 1,0-2-151,0 11 1,0-3-1,-1-2 1,0 0-1,1 1 231,-1 3 0,1-1 0,-1 0 0,1 3 0,-1 7 114,-1-23 0,0 8 0,0 12 447,0 2 1,-1 26-508,2 38 0,11 80 0,7 45-68,-2-35 1,0 7-1,2 6 1,-1 3-196,1 1 0,1 4 0,-1 2 1,1 2-1,1-2 173,-1 2 0,0 0 0,1 0 0,-1-2 0,0-2-23,2 8 1,-1-3-1,-1-3 1,1-5-8,0 5 0,0-5 0,-1-10 30,0 1 0,-4-35-180,-7-60 150,-6-37 0,-3-28 0,0-6 7,2 3 1,-1-7 0,1-5-1,-1-2 42,1 6 0,0-4 1,-1-2-1,1 1 0,1 4 3,-1-10 1,1 0 0,0 5-1,1 5 38,-1-9 0,1 8 0,1 11 30,-1 6 0,2 36 297,6 94-297,3 12 0,2 17 0,2 8-68,-2-1 1,2 8-1,0 2 1,1 3 11,-1-10 0,1 4 0,1 0 0,-1-1 0,1-2-34,0 13 0,1-3 0,0-2 0,0-5-30,2 9 0,-1-6 0,-1-8-330,2 2 0,-3-16 270,-2-22 0,-15-98 0,-6-36 60,2-1 0,-1-12 0,0-4 138,1 11 0,-1-4 0,0-2 0,1 4 161,1 7 1,0 1 0,0 3 0,1 7-225,-1-32 0,-2 45 202,-1 82-1461,5 37 0,5 19-795,0-13 0,2 6 0,2 0 1980,1 5 0,1 2 0,1-6 0,1 6 0,2-6 0,2-18 0,1 1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18697,7 +18705,7 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 210 14099,'31'15'2698,"25"-7"-2338,-3-7 0,5-2-270,0-1 0,3-1 0,18-1 0,2 0-45,-15 1 0,0-1 0,9 0 0,0-2 134,-8 0 1,0-2 0,4-2 0,1 0-135,0 0 0,0 1 0,3 1 0,-1 2-45,-10 1 0,0 3 0,11 0 0,-1 2 45,-12-1 0,-2 1-45,4-1 0,1-1 0,-1-1 0,-2-2 45,-11 0 0,-1 0-90,3-1 0,1-1 180,4-2 0,-1-1-45,-6 2 0,0-1-45,4 0 0,1 0 180,4 1 0,1 2-136,-7 3 1,-1 1 0,4 0 0,1 1 135,5 2 0,-1 0-45,-11 0 0,-1 0-90,1 0 0,-1 0 180,43-1-90,-28 0-91,-8-1 361,-13 0-90,-23 0 0,4-1-180,-10 1-1080,-1 0-6925,0-1 7825,-8-3 0,-1 3 0,-8-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 198 14099,'31'15'2698,"26"-8"-2338,-3-6 0,5-2-270,-1-1 0,4-1 0,18 0 0,2-1-45,-15 1 0,0-1 0,9 0 0,0-1 134,-8-1 1,0-1 0,4-3 0,1 1-135,0-1 0,0 2 0,3 0 0,-1 3-45,-10 0 0,0 3 0,11 0 0,-1 2 45,-12-1 0,-3 1-45,5-1 0,1-1 0,-1-1 0,-2-1 45,-11-1 0,-2 0-90,4 0 0,1-2 180,3-2 0,0 0-45,-6 1 0,0 0-45,3-1 0,2 1 180,4 0 0,1 3-136,-8 2 1,0 1 0,4 0 0,1 1 135,5 2 0,-2 0-45,-10 0 0,-1 0-90,0 0 0,0 0 180,43-1-90,-28 0-91,-8-1 361,-13 0-90,-24 0 0,4-1-180,-10 1-1080,0 0-6925,-1-1 7825,-8-2 0,-1 2 0,-8-3 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18921,7 +18929,7 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 45 7533,'3'-15'5217,"0"0"-3148,1 1-1440,2 13 720,7 34-269,6 44-811,-6-13 1,0 8-90,2 19 0,-1 7-224,-4-24 1,-1 3 0,-1 0 73,1 6 0,-1 1 0,-1-1-30,-1-4 0,0-1 0,-1-2-45,0 24 0,-1-6 90,-1-21 0,-1-8-45,0 12-90,-3-54 90,-3-71 0,0-7 0,-2-9 0,-1-22 0,-1-6 0,0-3 0,-1 1 45,1 9 0,0 6-90,2 17 0,0 14 405,1 27 310,10 84-625,3 13 0,1 13-15,-1-16 0,2 5 0,-1 0-97,2 5 0,0 1 0,0-2 67,-2-10 0,2-1 0,-2-4 0,4 15 0,-1-9 90,3 8-180,-6-81 90,-13-87 0,-1 5 0,-2-10 0,1 19 0,-1-3 0,0 1 0,0 4 0,0 0 0,1 4 0,-2-19 0,0 9 0,-2-6 381,0 85-291,6 87-90,2-3 0,3 12 29,1-9 1,3 6 0,-1 1-309,1 1 0,0 0 0,-1 2 279,0-19 0,-1 1 0,1-1 0,-1-3 0,0 10 0,-1-4 0,0-4-45,-1 21 0,-1-11 45,-2 9 0,-5-120 0,0-44 0,0-20 0,-1 10 0,1-5 0,-1-2-15,0-4 1,0-2-1,0 4 105,0 12 0,1 3 0,0 6 320,1-6 0,-1 31-230,1 56-180,7 44 0,4 23 30,0 0 0,0 10 0,1 3-259,0-17 0,0 4 0,1 0 0,0 1 229,0 3 0,0 2 0,1-1 0,-1-4 0,1 7 0,0-3 0,0-2-60,-1-4 0,0-2 0,-1-9-345,-1-10 0,-1-8 534,-3 17-264,-12-115 1,-5-33 134,0-8 0,-2-6 29,4 14 1,-1-3 0,1 1 90,1 6 0,0 2 0,2 10-30,-4-27 0,0 59 0,16 74 0,7 35-60,-2-9 0,1 7 0,0 3 158,2 8 1,1 2 0,-1 4-189,0-7 0,0 4 0,0 0 0,-1-5-30,-1 4 0,0-4 0,-1-2 30,0-1 0,-1-2 0,0-6-135,0 9 1,0-17 44,-1-26 0,-16-131 120,4 27 0,-1-9 0,-1-1-30,0-1 0,0 0 0,0-1 119,-2-5 1,1-1 0,1 10-30,2 12 0,1 13 90,4 13-90,17 105-60,-1-4 0,3 15 0,-1 0-30,0-10 0,-1-1 0,1 4-23,0 0 1,1 5-1,1-1 1,-1-6-218,0-3 0,-1-6 1,-1-2-121,5 15 0,-2-7 411,-2-7 0,-6-29-321,-22-103 270,2 1 0,-2-11 120,1 1 0,-1-6 0,1 1 269,0 6 1,1 1 0,2 5-120,-1-6 0,3 14 90,4 20-90,18 110-135,1 5 0,3 13-135,-4-18 0,1 4 0,1 1 0,1 9 0,1 2 0,0-3-30,-3-9 0,0-2 0,-1-4-150,2 10 0,-1-11 90,-1-8 90,-31-149 0,4 31 0,-1-8 0,0-1 30,-1-5 0,-1-1 0,0 1 0,1 4 0,0 0 0,2 12 60,-6-18 0,19 102 0,11 69-135,-1-21 0,2 4-135,1 3 0,-1-2-765,-1-8 1,-3-5-2474,3 29-2249,-11-31 5667,-6-32 0,1-12 0,0-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 46 7533,'3'-16'5217,"0"1"-3148,1 1-1440,2 13 720,7 34-269,6 45-811,-6-13 1,0 8-90,2 19 0,-1 8-224,-4-25 1,-1 3 0,-1 0 73,1 6 0,-1 1 0,-1-1-30,-1-4 0,0-1 0,-1-2-45,0 24 0,-1-5 90,-1-22 0,-1-9-45,0 13-90,-3-54 90,-3-73 0,0-7 0,-2-8 0,-1-24 0,-1-5 0,0-3 0,-1 1 45,1 9 0,0 6-90,2 17 0,0 14 405,1 28 310,10 85-625,3 13 0,1 13-15,-1-16 0,2 5 0,-1 0-97,2 5 0,0 1 0,0-2 67,-2-10 0,2-1 0,-2-4 0,4 15 0,0-9 90,2 8-180,-6-82 90,-13-88 0,-1 5 0,-2-10 0,1 19 0,-2-3 0,1 1 0,0 4 0,0 0 0,1 4 0,-2-19 0,0 9 0,-2-6 381,0 86-291,6 88-90,2-3 0,3 12 29,1-9 1,3 7 0,-1 0-309,1 1 0,0 1 0,-1 1 279,0-19 0,-1 1 0,1-1 0,-1-3 0,0 10 0,-1-4 0,0-4-45,-1 22 0,-1-12 45,-2 9 0,-5-121 0,0-45 0,0-20 0,-1 10 0,1-5 0,-1-2-15,0-5 1,0-1-1,0 4 105,0 12 0,1 3 0,0 6 320,1-5 0,-1 30-230,1 57-180,7 45 0,4 23 30,0 0 0,0 10 0,1 4-259,0-18 0,0 4 0,1 0 0,0 1 229,0 3 0,0 3 0,1-2 0,-1-4 0,1 7 0,0-3 0,0-2-60,-1-4 0,0-2 0,-1-9-345,-1-10 0,-1-8 534,-3 17-264,-12-117 1,-5-33 134,0-8 0,-2-6 29,4 14 1,-1-3 0,1 1 90,1 6 0,0 2 0,2 10-30,-4-27 0,0 60 0,16 74 0,7 36-60,-2-9 0,1 7 0,0 3 158,2 8 1,1 3 0,-1 3-189,0-7 0,0 4 0,0 1 0,-1-6-30,-1 4 0,0-4 0,-1-2 30,0-1 0,-1-2 0,0-6-135,0 9 1,0-17 44,-1-26 0,-16-133 120,4 27 0,-1-9 0,-1-1-30,0-1 0,0 0 0,0-1 119,-2-5 1,1-1 0,1 10-30,2 12 0,1 14 90,4 12-90,17 107-60,-1-4 0,3 15 0,-1 0-30,0-10 0,-1-1 0,1 4-23,0 0 1,1 5-1,1 0 1,0-8-218,-1-2 0,-1-6 1,-1-2-121,5 15 0,-2-7 411,-2-7 0,-6-30-321,-22-103 270,2 0 0,-2-11 120,1 1 0,-1-6 0,1 1 269,0 6 1,1 1 0,2 5-120,-1-6 0,2 14 90,5 20-90,19 112-135,0 5 0,3 13-135,-4-18 0,1 4 0,1 1 0,1 9 0,1 2 0,0-2-30,-3-11 0,0-1 0,-1-4-150,2 10 0,-1-11 90,-1-8 90,-31-151 0,4 31 0,-1-8 0,0-1 30,-1-5 0,-1-1 0,0 1 0,1 4 0,0 0 0,2 13 60,-6-19 0,19 103 0,11 70-135,-1-21 0,2 4-135,1 3 0,-1-2-765,-1-8 1,-3-5-2474,3 29-2249,-11-31 5667,-6-32 0,1-13 0,0-13 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19642,7 +19650,7 @@
       <c r="C35">
         <v>98</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <f>AVERAGE(C33:C39)</f>
         <v>99.571428571428569</v>
       </c>
@@ -19742,12 +19750,12 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
@@ -19820,24 +19828,24 @@
       <c r="B95" t="s">
         <v>126</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
@@ -54916,8 +54924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41840959-D662-6449-903E-97D38F070F94}">
   <dimension ref="A3:J227"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" zoomScale="114" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156"/>
+    <sheetView tabSelected="1" topLeftCell="F146" zoomScale="256" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55267,12 +55275,15 @@
         <v>2.1098155586275933</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J148" s="12"/>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E150" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -55280,7 +55291,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -55288,7 +55299,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
         <v>12</v>
@@ -55300,15 +55311,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -55316,7 +55331,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
         <v>74</v>
@@ -55328,7 +55343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -55336,7 +55351,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
         <v>75</v>
@@ -55348,7 +55363,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -55356,7 +55371,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>83</v>
       </c>
@@ -55370,8 +55385,11 @@
       <c r="H161" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I161" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -55379,7 +55397,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
         <v>77</v>
@@ -55391,7 +55409,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -55399,7 +55417,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
         <v>78</v>
@@ -55411,7 +55429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -55419,7 +55437,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>83</v>
       </c>
@@ -55434,7 +55452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -55442,7 +55460,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -55450,7 +55468,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H176" t="s">
         <v>81</v>
       </c>
@@ -55666,11 +55684,11 @@
       <c r="E211">
         <v>0.2</v>
       </c>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10" t="s">
+      <c r="H211" s="9"/>
+      <c r="I211" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J211" s="10" t="s">
+      <c r="J211" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -55681,13 +55699,13 @@
       <c r="E212">
         <v>0.2</v>
       </c>
-      <c r="H212" s="8" t="s">
+      <c r="H212" t="s">
         <v>62</v>
       </c>
-      <c r="I212" s="8">
+      <c r="I212">
         <v>0.14369999999999999</v>
       </c>
-      <c r="J212" s="8">
+      <c r="J212">
         <v>0.19999999999999998</v>
       </c>
     </row>
@@ -55698,13 +55716,13 @@
       <c r="E213">
         <v>0.2</v>
       </c>
-      <c r="H213" s="8" t="s">
+      <c r="H213" t="s">
         <v>63</v>
       </c>
-      <c r="I213" s="8">
+      <c r="I213">
         <v>3.0320111111111154E-3</v>
       </c>
-      <c r="J213" s="8">
+      <c r="J213">
         <v>8.5596886417210486E-34</v>
       </c>
     </row>
@@ -55715,13 +55733,13 @@
       <c r="E214">
         <v>0.2</v>
       </c>
-      <c r="H214" s="8" t="s">
+      <c r="H214" t="s">
         <v>64</v>
       </c>
-      <c r="I214" s="8">
+      <c r="I214">
         <v>10</v>
       </c>
-      <c r="J214" s="8">
+      <c r="J214">
         <v>10</v>
       </c>
     </row>
@@ -55732,13 +55750,12 @@
       <c r="E215">
         <v>0.2</v>
       </c>
-      <c r="H215" s="8" t="s">
+      <c r="H215" t="s">
         <v>65</v>
       </c>
-      <c r="I215" s="8">
+      <c r="I215">
         <v>0</v>
       </c>
-      <c r="J215" s="8"/>
     </row>
     <row r="216" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D216" s="3">
@@ -55747,13 +55764,12 @@
       <c r="E216">
         <v>0.2</v>
       </c>
-      <c r="H216" s="8" t="s">
+      <c r="H216" t="s">
         <v>66</v>
       </c>
-      <c r="I216" s="8">
+      <c r="I216">
         <v>9</v>
       </c>
-      <c r="J216" s="8"/>
     </row>
     <row r="217" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D217" s="3">
@@ -55762,49 +55778,45 @@
       <c r="E217">
         <v>0.2</v>
       </c>
-      <c r="H217" s="8" t="s">
+      <c r="H217" t="s">
         <v>67</v>
       </c>
-      <c r="I217" s="8">
+      <c r="I217">
         <v>-3.2332776529558718</v>
       </c>
-      <c r="J217" s="8"/>
     </row>
     <row r="218" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="H218" s="8" t="s">
+      <c r="H218" t="s">
         <v>68</v>
       </c>
-      <c r="I218" s="8">
+      <c r="I218">
         <v>5.1342990875203973E-3</v>
       </c>
-      <c r="J218" s="8"/>
     </row>
     <row r="219" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="H219" s="8" t="s">
+      <c r="H219" t="s">
         <v>69</v>
       </c>
-      <c r="I219" s="8">
+      <c r="I219">
         <v>1.8331129326562374</v>
       </c>
-      <c r="J219" s="8"/>
     </row>
     <row r="220" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="H220" s="8" t="s">
+      <c r="H220" t="s">
         <v>70</v>
       </c>
-      <c r="I220" s="8">
+      <c r="I220">
         <v>1.0268598175040795E-2</v>
       </c>
-      <c r="J220" s="8"/>
     </row>
     <row r="221" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H221" s="9" t="s">
+      <c r="H221" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I221" s="9">
+      <c r="I221" s="8">
         <v>2.2621571627982053</v>
       </c>
-      <c r="J221" s="9"/>
+      <c r="J221" s="8"/>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H225" t="s">
@@ -55841,7 +55853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01BF3DE-5B44-714F-AF4A-15FEA526686A}">
   <dimension ref="B3:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="228" workbookViewId="0">
+    <sheetView zoomScale="228" workbookViewId="0">
       <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
@@ -55858,15 +55870,15 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -55877,7 +55889,7 @@
       <c r="D13" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G13" t="s">
@@ -55891,7 +55903,7 @@
       <c r="D14" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>2000</v>
       </c>
       <c r="G14">
@@ -55906,7 +55918,7 @@
       <c r="D15" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>25870</v>
       </c>
       <c r="G15">
@@ -55921,7 +55933,7 @@
       <c r="D16" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>50000</v>
       </c>
       <c r="G16">
@@ -55936,7 +55948,7 @@
       <c r="D17" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>80</v>
       </c>
       <c r="G17">
@@ -55951,11 +55963,11 @@
       <c r="D18" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>600</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G15:G19" si="0">IF(C18&lt;&gt;"Apple",1,0)</f>
+        <f t="shared" ref="G18:G19" si="0">IF(C18&lt;&gt;"Apple",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -55966,7 +55978,7 @@
       <c r="D19" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>900</v>
       </c>
       <c r="G19">
@@ -55975,7 +55987,7 @@
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="11"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D22" t="str">
@@ -56049,10 +56061,10 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
@@ -56091,28 +56103,28 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -56131,7 +56143,7 @@
       <c r="C64" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>95</v>
       </c>
       <c r="E64" t="s">
@@ -56157,7 +56169,7 @@
       <c r="C65" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="12">
         <v>2000</v>
       </c>
       <c r="E65" t="b">
@@ -56188,7 +56200,7 @@
       <c r="C66" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="12">
         <v>25870</v>
       </c>
       <c r="E66" t="b">
@@ -56208,7 +56220,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="b">
-        <f t="shared" ref="K66:K74" si="5">NOT(J66)</f>
+        <f t="shared" ref="K66:K70" si="5">NOT(J66)</f>
         <v>1</v>
       </c>
     </row>
@@ -56219,7 +56231,7 @@
       <c r="C67" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="12">
         <v>50000</v>
       </c>
       <c r="E67" t="b">
@@ -56250,7 +56262,7 @@
       <c r="C68" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="12">
         <v>80</v>
       </c>
       <c r="E68" t="b">
@@ -56281,7 +56293,7 @@
       <c r="C69" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>600</v>
       </c>
       <c r="E69" t="b">
@@ -56312,7 +56324,7 @@
       <c r="C70" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="12">
         <v>900</v>
       </c>
       <c r="E70" t="b">
@@ -56528,7 +56540,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C98" s="14" t="str">
+      <c r="C98" s="13" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
